--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8CCB5E-9962-4CF7-A2FB-24D3EB2B3EE1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F7D32-A4E9-4225-A5C7-3DD1A6ACC9BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="R24_Arr_H" sheetId="5" r:id="rId4"/>
     <sheet name="t_to_RWY" sheetId="6" r:id="rId5"/>
     <sheet name="t_to_taxi" sheetId="7" r:id="rId6"/>
+    <sheet name="fuel_flow" sheetId="8" r:id="rId7"/>
+    <sheet name="sound" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Nr</t>
   </si>
@@ -52,6 +54,18 @@
   </si>
   <si>
     <t>RIVER</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Landing</t>
   </si>
 </sst>
 </file>
@@ -381,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -644,6 +658,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -697,7 +724,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -720,6 +747,14 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2058,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F2F097-6CC4-41B6-9082-1BF6A7A2B098}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,4 +2205,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B1FDC2-733F-4FC5-A603-DD7E80AB7F0B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D7B831-465F-4D9E-A34C-BDBE150D7D37}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F7D32-A4E9-4225-A5C7-3DD1A6ACC9BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022D678F-EC3E-4922-B610-46A581C9CB08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="t_to_taxi" sheetId="7" r:id="rId6"/>
     <sheet name="fuel_flow" sheetId="8" r:id="rId7"/>
     <sheet name="sound" sheetId="9" r:id="rId8"/>
+    <sheet name="flights" sheetId="11" r:id="rId9"/>
+    <sheet name="testset" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>Nr</t>
   </si>
@@ -66,6 +68,27 @@
   </si>
   <si>
     <t>Landing</t>
+  </si>
+  <si>
+    <t>t_int</t>
+  </si>
+  <si>
+    <t>IAF</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
+  <si>
+    <t>C_f</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -395,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -679,6 +702,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -724,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -755,6 +809,31 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1113,7 +1192,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,12 +1433,4241 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6572479F-AFDE-4940-94F1-052247087792}">
+  <dimension ref="A1:D281"/>
+  <sheetViews>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
+        <f>(t_to_RWY!B4*fuel_flow!B2)+(t_to_taxi!B4*fuel_flow!B3)</f>
+        <v>147.11999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33">
+        <f>$D$2+(C3*20*fuel_flow!$B$2)</f>
+        <v>151.51999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2</v>
+      </c>
+      <c r="D4" s="33">
+        <f>$D$2+(C4*20*fuel_flow!$B$2)</f>
+        <v>155.91999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33">
+        <f>$D$2+(C5*20*fuel_flow!$B$2)</f>
+        <v>160.31999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33">
+        <f>$D$2+(C6*20*fuel_flow!$B$2)</f>
+        <v>164.71999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32">
+        <v>5</v>
+      </c>
+      <c r="D7" s="33">
+        <f>$D$2+(C7*20*fuel_flow!$B$2)</f>
+        <v>169.11999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>6</v>
+      </c>
+      <c r="D8" s="33">
+        <f>$D$2+(C8*20*fuel_flow!$B$2)</f>
+        <v>173.51999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32">
+        <v>7</v>
+      </c>
+      <c r="D9" s="33">
+        <f>$D$2+(C9*20*fuel_flow!$B$2)</f>
+        <v>177.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>8</v>
+      </c>
+      <c r="D10" s="33">
+        <f>$D$2+(C10*20*fuel_flow!$B$2)</f>
+        <v>182.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>9</v>
+      </c>
+      <c r="D11" s="33">
+        <f>$D$2+(C11*20*fuel_flow!$B$2)</f>
+        <v>186.71999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32">
+        <v>10</v>
+      </c>
+      <c r="D12" s="33">
+        <f>$D$2+(C12*20*fuel_flow!$B$2)</f>
+        <v>191.11999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33">
+        <f>$D$2+(C13*20*fuel_flow!$B$2)</f>
+        <v>195.51999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32">
+        <v>12</v>
+      </c>
+      <c r="D14" s="33">
+        <f>$D$2+(C14*20*fuel_flow!$B$2)</f>
+        <v>199.91999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="32">
+        <v>13</v>
+      </c>
+      <c r="D15" s="33">
+        <f>$D$2+(C15*20*fuel_flow!$B$2)</f>
+        <v>204.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="32">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="33">
+        <f>(t_to_RWY!C4*fuel_flow!B2)+(t_to_taxi!C4*fuel_flow!B3)</f>
+        <v>263.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>1</v>
+      </c>
+      <c r="B17" s="32">
+        <v>2</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
+        <f>$D$16+(20*C17*fuel_flow!$B$2)</f>
+        <v>268.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>1</v>
+      </c>
+      <c r="B18" s="32">
+        <v>2</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2</v>
+      </c>
+      <c r="D18" s="33">
+        <f>$D$16+(20*C18*fuel_flow!$B$2)</f>
+        <v>272.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>1</v>
+      </c>
+      <c r="B19" s="32">
+        <v>2</v>
+      </c>
+      <c r="C19" s="32">
+        <v>3</v>
+      </c>
+      <c r="D19" s="33">
+        <f>$D$16+(20*C19*fuel_flow!$B$2)</f>
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>1</v>
+      </c>
+      <c r="B20" s="32">
+        <v>2</v>
+      </c>
+      <c r="C20" s="32">
+        <v>4</v>
+      </c>
+      <c r="D20" s="33">
+        <f>$D$16+(20*C20*fuel_flow!$B$2)</f>
+        <v>281.22000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>1</v>
+      </c>
+      <c r="B21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="32">
+        <v>5</v>
+      </c>
+      <c r="D21" s="33">
+        <f>$D$16+(20*C21*fuel_flow!$B$2)</f>
+        <v>285.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>1</v>
+      </c>
+      <c r="B22" s="32">
+        <v>2</v>
+      </c>
+      <c r="C22" s="32">
+        <v>6</v>
+      </c>
+      <c r="D22" s="33">
+        <f>$D$16+(20*C22*fuel_flow!$B$2)</f>
+        <v>290.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>1</v>
+      </c>
+      <c r="B23" s="32">
+        <v>2</v>
+      </c>
+      <c r="C23" s="32">
+        <v>7</v>
+      </c>
+      <c r="D23" s="33">
+        <f>$D$16+(20*C23*fuel_flow!$B$2)</f>
+        <v>294.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>1</v>
+      </c>
+      <c r="B24" s="32">
+        <v>2</v>
+      </c>
+      <c r="C24" s="32">
+        <v>8</v>
+      </c>
+      <c r="D24" s="33">
+        <f>$D$16+(20*C24*fuel_flow!$B$2)</f>
+        <v>298.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>1</v>
+      </c>
+      <c r="B25" s="32">
+        <v>2</v>
+      </c>
+      <c r="C25" s="32">
+        <v>9</v>
+      </c>
+      <c r="D25" s="33">
+        <f>$D$16+(20*C25*fuel_flow!$B$2)</f>
+        <v>303.22000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>1</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32">
+        <v>10</v>
+      </c>
+      <c r="D26" s="33">
+        <f>$D$16+(20*C26*fuel_flow!$B$2)</f>
+        <v>307.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>1</v>
+      </c>
+      <c r="B27" s="32">
+        <v>2</v>
+      </c>
+      <c r="C27" s="32">
+        <v>11</v>
+      </c>
+      <c r="D27" s="33">
+        <f>$D$16+(20*C27*fuel_flow!$B$2)</f>
+        <v>312.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>1</v>
+      </c>
+      <c r="B28" s="32">
+        <v>2</v>
+      </c>
+      <c r="C28" s="32">
+        <v>12</v>
+      </c>
+      <c r="D28" s="33">
+        <f>$D$16+(20*C28*fuel_flow!$B$2)</f>
+        <v>316.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <v>1</v>
+      </c>
+      <c r="B29" s="40">
+        <v>2</v>
+      </c>
+      <c r="C29" s="40">
+        <v>13</v>
+      </c>
+      <c r="D29" s="44">
+        <f>$D$16+(20*C29*fuel_flow!$B$2)</f>
+        <v>320.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>2</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1</v>
+      </c>
+      <c r="C30" s="32">
+        <v>0</v>
+      </c>
+      <c r="D30" s="33">
+        <f>(t_to_RWY!B3*fuel_flow!B2)+(t_to_taxi!B3*fuel_flow!B3)</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1</v>
+      </c>
+      <c r="C31" s="32">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33">
+        <f>$D$30+(20*C31*fuel_flow!$B$2)</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>2</v>
+      </c>
+      <c r="B32" s="32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="33">
+        <f>$D$30+(20*C32*fuel_flow!$B$2)</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>2</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1</v>
+      </c>
+      <c r="C33" s="32">
+        <v>3</v>
+      </c>
+      <c r="D33" s="33">
+        <f>$D$30+(20*C33*fuel_flow!$B$2)</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>2</v>
+      </c>
+      <c r="B34" s="32">
+        <v>1</v>
+      </c>
+      <c r="C34" s="32">
+        <v>4</v>
+      </c>
+      <c r="D34" s="33">
+        <f>$D$30+(20*C34*fuel_flow!$B$2)</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>2</v>
+      </c>
+      <c r="B35" s="32">
+        <v>1</v>
+      </c>
+      <c r="C35" s="32">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33">
+        <f>$D$30+(20*C35*fuel_flow!$B$2)</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>2</v>
+      </c>
+      <c r="B36" s="32">
+        <v>1</v>
+      </c>
+      <c r="C36" s="32">
+        <v>6</v>
+      </c>
+      <c r="D36" s="33">
+        <f>$D$30+(20*C36*fuel_flow!$B$2)</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>2</v>
+      </c>
+      <c r="B37" s="32">
+        <v>1</v>
+      </c>
+      <c r="C37" s="32">
+        <v>7</v>
+      </c>
+      <c r="D37" s="33">
+        <f>$D$30+(20*C37*fuel_flow!$B$2)</f>
+        <v>296.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
+        <v>2</v>
+      </c>
+      <c r="B38" s="32">
+        <v>1</v>
+      </c>
+      <c r="C38" s="32">
+        <v>8</v>
+      </c>
+      <c r="D38" s="33">
+        <f>$D$30+(20*C38*fuel_flow!$B$2)</f>
+        <v>301.33999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
+        <v>2</v>
+      </c>
+      <c r="B39" s="32">
+        <v>1</v>
+      </c>
+      <c r="C39" s="32">
+        <v>9</v>
+      </c>
+      <c r="D39" s="33">
+        <f>$D$30+(20*C39*fuel_flow!$B$2)</f>
+        <v>305.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
+        <v>2</v>
+      </c>
+      <c r="B40" s="32">
+        <v>1</v>
+      </c>
+      <c r="C40" s="32">
+        <v>10</v>
+      </c>
+      <c r="D40" s="33">
+        <f>$D$30+(20*C40*fuel_flow!$B$2)</f>
+        <v>310.14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>2</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32">
+        <v>11</v>
+      </c>
+      <c r="D41" s="33">
+        <f>$D$30+(20*C41*fuel_flow!$B$2)</f>
+        <v>314.53999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31">
+        <v>2</v>
+      </c>
+      <c r="B42" s="32">
+        <v>1</v>
+      </c>
+      <c r="C42" s="32">
+        <v>12</v>
+      </c>
+      <c r="D42" s="33">
+        <f>$D$30+(20*C42*fuel_flow!$B$2)</f>
+        <v>318.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
+        <v>2</v>
+      </c>
+      <c r="B43" s="32">
+        <v>1</v>
+      </c>
+      <c r="C43" s="32">
+        <v>13</v>
+      </c>
+      <c r="D43" s="33">
+        <f>$D$30+(20*C43*fuel_flow!$B$2)</f>
+        <v>323.33999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>2</v>
+      </c>
+      <c r="B44" s="32">
+        <v>2</v>
+      </c>
+      <c r="C44" s="32">
+        <v>0</v>
+      </c>
+      <c r="D44" s="33">
+        <f>(t_to_RWY!C3*fuel_flow!B2)+(t_to_taxi!C3*fuel_flow!B3)</f>
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>2</v>
+      </c>
+      <c r="B45" s="32">
+        <v>2</v>
+      </c>
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="33">
+        <f>$D$44+(C45*20*fuel_flow!$B$2)</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>2</v>
+      </c>
+      <c r="B46" s="32">
+        <v>2</v>
+      </c>
+      <c r="C46" s="32">
+        <v>2</v>
+      </c>
+      <c r="D46" s="33">
+        <f>$D$44+(C46*20*fuel_flow!$B$2)</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>2</v>
+      </c>
+      <c r="B47" s="32">
+        <v>2</v>
+      </c>
+      <c r="C47" s="32">
+        <v>3</v>
+      </c>
+      <c r="D47" s="33">
+        <f>$D$44+(C47*20*fuel_flow!$B$2)</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>2</v>
+      </c>
+      <c r="B48" s="32">
+        <v>2</v>
+      </c>
+      <c r="C48" s="32">
+        <v>4</v>
+      </c>
+      <c r="D48" s="33">
+        <f>$D$44+(C48*20*fuel_flow!$B$2)</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>2</v>
+      </c>
+      <c r="B49" s="32">
+        <v>2</v>
+      </c>
+      <c r="C49" s="32">
+        <v>5</v>
+      </c>
+      <c r="D49" s="33">
+        <f>$D$44+(C49*20*fuel_flow!$B$2)</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>2</v>
+      </c>
+      <c r="B50" s="32">
+        <v>2</v>
+      </c>
+      <c r="C50" s="32">
+        <v>6</v>
+      </c>
+      <c r="D50" s="33">
+        <f>$D$44+(C50*20*fuel_flow!$B$2)</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
+        <v>2</v>
+      </c>
+      <c r="B51" s="32">
+        <v>2</v>
+      </c>
+      <c r="C51" s="32">
+        <v>7</v>
+      </c>
+      <c r="D51" s="33">
+        <f>$D$44+(C51*20*fuel_flow!$B$2)</f>
+        <v>146.14000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31">
+        <v>2</v>
+      </c>
+      <c r="B52" s="32">
+        <v>2</v>
+      </c>
+      <c r="C52" s="32">
+        <v>8</v>
+      </c>
+      <c r="D52" s="33">
+        <f>$D$44+(C52*20*fuel_flow!$B$2)</f>
+        <v>150.54000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="31">
+        <v>2</v>
+      </c>
+      <c r="B53" s="32">
+        <v>2</v>
+      </c>
+      <c r="C53" s="32">
+        <v>9</v>
+      </c>
+      <c r="D53" s="33">
+        <f>$D$44+(C53*20*fuel_flow!$B$2)</f>
+        <v>154.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="31">
+        <v>2</v>
+      </c>
+      <c r="B54" s="32">
+        <v>2</v>
+      </c>
+      <c r="C54" s="32">
+        <v>10</v>
+      </c>
+      <c r="D54" s="33">
+        <f>$D$44+(C54*20*fuel_flow!$B$2)</f>
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="31">
+        <v>2</v>
+      </c>
+      <c r="B55" s="32">
+        <v>2</v>
+      </c>
+      <c r="C55" s="32">
+        <v>11</v>
+      </c>
+      <c r="D55" s="33">
+        <f>$D$44+(C55*20*fuel_flow!$B$2)</f>
+        <v>163.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
+        <v>2</v>
+      </c>
+      <c r="B56" s="32">
+        <v>2</v>
+      </c>
+      <c r="C56" s="32">
+        <v>12</v>
+      </c>
+      <c r="D56" s="33">
+        <f>$D$44+(C56*20*fuel_flow!$B$2)</f>
+        <v>168.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="43">
+        <v>2</v>
+      </c>
+      <c r="B57" s="40">
+        <v>2</v>
+      </c>
+      <c r="C57" s="40">
+        <v>13</v>
+      </c>
+      <c r="D57" s="44">
+        <f>$D$44+(C57*20*fuel_flow!$B$2)</f>
+        <v>172.54000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
+        <v>3</v>
+      </c>
+      <c r="B58" s="32">
+        <v>1</v>
+      </c>
+      <c r="C58" s="32">
+        <v>0</v>
+      </c>
+      <c r="D58" s="33">
+        <f>(t_to_RWY!B2*fuel_flow!C2)+(t_to_taxi!C2*fuel_flow!C3)</f>
+        <v>387.47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="31">
+        <v>3</v>
+      </c>
+      <c r="B59" s="32">
+        <v>1</v>
+      </c>
+      <c r="C59" s="32">
+        <v>1</v>
+      </c>
+      <c r="D59" s="33">
+        <f>$D$58+(20*C59*fuel_flow!$C$2)</f>
+        <v>398.07000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31">
+        <v>3</v>
+      </c>
+      <c r="B60" s="32">
+        <v>1</v>
+      </c>
+      <c r="C60" s="32">
+        <v>2</v>
+      </c>
+      <c r="D60" s="33">
+        <f>$D$58+(20*C60*fuel_flow!$C$2)</f>
+        <v>408.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>3</v>
+      </c>
+      <c r="B61" s="32">
+        <v>1</v>
+      </c>
+      <c r="C61" s="32">
+        <v>3</v>
+      </c>
+      <c r="D61" s="33">
+        <f>$D$58+(20*C61*fuel_flow!$C$2)</f>
+        <v>419.27000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="31">
+        <v>3</v>
+      </c>
+      <c r="B62" s="32">
+        <v>1</v>
+      </c>
+      <c r="C62" s="32">
+        <v>4</v>
+      </c>
+      <c r="D62" s="33">
+        <f>$D$58+(20*C62*fuel_flow!$C$2)</f>
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
+        <v>3</v>
+      </c>
+      <c r="B63" s="32">
+        <v>1</v>
+      </c>
+      <c r="C63" s="32">
+        <v>5</v>
+      </c>
+      <c r="D63" s="33">
+        <f>$D$58+(20*C63*fuel_flow!$C$2)</f>
+        <v>440.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
+        <v>3</v>
+      </c>
+      <c r="B64" s="32">
+        <v>1</v>
+      </c>
+      <c r="C64" s="32">
+        <v>6</v>
+      </c>
+      <c r="D64" s="33">
+        <f>$D$58+(20*C64*fuel_flow!$C$2)</f>
+        <v>451.07000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>3</v>
+      </c>
+      <c r="B65" s="32">
+        <v>1</v>
+      </c>
+      <c r="C65" s="32">
+        <v>7</v>
+      </c>
+      <c r="D65" s="33">
+        <f>$D$58+(20*C65*fuel_flow!$C$2)</f>
+        <v>461.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>3</v>
+      </c>
+      <c r="B66" s="32">
+        <v>1</v>
+      </c>
+      <c r="C66" s="32">
+        <v>8</v>
+      </c>
+      <c r="D66" s="33">
+        <f>$D$58+(20*C66*fuel_flow!$C$2)</f>
+        <v>472.27000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>3</v>
+      </c>
+      <c r="B67" s="32">
+        <v>1</v>
+      </c>
+      <c r="C67" s="32">
+        <v>9</v>
+      </c>
+      <c r="D67" s="33">
+        <f>$D$58+(20*C67*fuel_flow!$C$2)</f>
+        <v>482.87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>3</v>
+      </c>
+      <c r="B68" s="32">
+        <v>1</v>
+      </c>
+      <c r="C68" s="32">
+        <v>10</v>
+      </c>
+      <c r="D68" s="33">
+        <f>$D$58+(20*C68*fuel_flow!$C$2)</f>
+        <v>493.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>3</v>
+      </c>
+      <c r="B69" s="32">
+        <v>1</v>
+      </c>
+      <c r="C69" s="32">
+        <v>11</v>
+      </c>
+      <c r="D69" s="33">
+        <f>$D$58+(20*C69*fuel_flow!$C$2)</f>
+        <v>504.07000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>3</v>
+      </c>
+      <c r="B70" s="32">
+        <v>1</v>
+      </c>
+      <c r="C70" s="32">
+        <v>12</v>
+      </c>
+      <c r="D70" s="33">
+        <f>$D$58+(20*C70*fuel_flow!$C$2)</f>
+        <v>514.67000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>3</v>
+      </c>
+      <c r="B71" s="32">
+        <v>1</v>
+      </c>
+      <c r="C71" s="32">
+        <v>13</v>
+      </c>
+      <c r="D71" s="33">
+        <f>$D$58+(20*C71*fuel_flow!$C$2)</f>
+        <v>525.27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>3</v>
+      </c>
+      <c r="B72" s="32">
+        <v>2</v>
+      </c>
+      <c r="C72" s="32">
+        <v>0</v>
+      </c>
+      <c r="D72" s="33">
+        <f>(t_to_RWY!C2*fuel_flow!C2)+(t_to_taxi!C2*fuel_flow!C3)</f>
+        <v>562.90000000000009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>3</v>
+      </c>
+      <c r="B73" s="32">
+        <v>2</v>
+      </c>
+      <c r="C73" s="32">
+        <v>1</v>
+      </c>
+      <c r="D73" s="33">
+        <f>$D$72+(20*C73*fuel_flow!$C$2)</f>
+        <v>573.50000000000011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>3</v>
+      </c>
+      <c r="B74" s="32">
+        <v>2</v>
+      </c>
+      <c r="C74" s="32">
+        <v>2</v>
+      </c>
+      <c r="D74" s="33">
+        <f>$D$72+(20*C74*fuel_flow!$C$2)</f>
+        <v>584.10000000000014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>3</v>
+      </c>
+      <c r="B75" s="32">
+        <v>2</v>
+      </c>
+      <c r="C75" s="32">
+        <v>3</v>
+      </c>
+      <c r="D75" s="33">
+        <f>$D$72+(20*C75*fuel_flow!$C$2)</f>
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>3</v>
+      </c>
+      <c r="B76" s="32">
+        <v>2</v>
+      </c>
+      <c r="C76" s="32">
+        <v>4</v>
+      </c>
+      <c r="D76" s="33">
+        <f>$D$72+(20*C76*fuel_flow!$C$2)</f>
+        <v>605.30000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>3</v>
+      </c>
+      <c r="B77" s="32">
+        <v>2</v>
+      </c>
+      <c r="C77" s="32">
+        <v>5</v>
+      </c>
+      <c r="D77" s="33">
+        <f>$D$72+(20*C77*fuel_flow!$C$2)</f>
+        <v>615.90000000000009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="31">
+        <v>3</v>
+      </c>
+      <c r="B78" s="32">
+        <v>2</v>
+      </c>
+      <c r="C78" s="32">
+        <v>6</v>
+      </c>
+      <c r="D78" s="33">
+        <f>$D$72+(20*C78*fuel_flow!$C$2)</f>
+        <v>626.50000000000011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="31">
+        <v>3</v>
+      </c>
+      <c r="B79" s="32">
+        <v>2</v>
+      </c>
+      <c r="C79" s="32">
+        <v>7</v>
+      </c>
+      <c r="D79" s="33">
+        <f>$D$72+(20*C79*fuel_flow!$C$2)</f>
+        <v>637.10000000000014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="31">
+        <v>3</v>
+      </c>
+      <c r="B80" s="32">
+        <v>2</v>
+      </c>
+      <c r="C80" s="32">
+        <v>8</v>
+      </c>
+      <c r="D80" s="33">
+        <f>$D$72+(20*C80*fuel_flow!$C$2)</f>
+        <v>647.70000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>3</v>
+      </c>
+      <c r="B81" s="32">
+        <v>2</v>
+      </c>
+      <c r="C81" s="32">
+        <v>9</v>
+      </c>
+      <c r="D81" s="33">
+        <f>$D$72+(20*C81*fuel_flow!$C$2)</f>
+        <v>658.30000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="31">
+        <v>3</v>
+      </c>
+      <c r="B82" s="32">
+        <v>2</v>
+      </c>
+      <c r="C82" s="32">
+        <v>10</v>
+      </c>
+      <c r="D82" s="33">
+        <f>$D$72+(20*C82*fuel_flow!$C$2)</f>
+        <v>668.90000000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="31">
+        <v>3</v>
+      </c>
+      <c r="B83" s="32">
+        <v>2</v>
+      </c>
+      <c r="C83" s="32">
+        <v>11</v>
+      </c>
+      <c r="D83" s="33">
+        <f>$D$72+(20*C83*fuel_flow!$C$2)</f>
+        <v>679.50000000000011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>3</v>
+      </c>
+      <c r="B84" s="32">
+        <v>2</v>
+      </c>
+      <c r="C84" s="32">
+        <v>12</v>
+      </c>
+      <c r="D84" s="33">
+        <f>$D$72+(20*C84*fuel_flow!$C$2)</f>
+        <v>690.10000000000014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="43">
+        <v>3</v>
+      </c>
+      <c r="B85" s="40">
+        <v>2</v>
+      </c>
+      <c r="C85" s="40">
+        <v>13</v>
+      </c>
+      <c r="D85" s="44">
+        <f>$D$72+(20*C85*fuel_flow!$C$2)</f>
+        <v>700.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="45">
+        <v>4</v>
+      </c>
+      <c r="B86" s="41">
+        <v>1</v>
+      </c>
+      <c r="C86" s="41">
+        <v>0</v>
+      </c>
+      <c r="D86" s="33">
+        <f>D30</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="45">
+        <v>4</v>
+      </c>
+      <c r="B87" s="41">
+        <v>1</v>
+      </c>
+      <c r="C87" s="41">
+        <v>1</v>
+      </c>
+      <c r="D87" s="33">
+        <f t="shared" ref="D87:D113" si="0">D31</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="45">
+        <v>4</v>
+      </c>
+      <c r="B88" s="41">
+        <v>1</v>
+      </c>
+      <c r="C88" s="41">
+        <v>2</v>
+      </c>
+      <c r="D88" s="33">
+        <f t="shared" si="0"/>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="45">
+        <v>4</v>
+      </c>
+      <c r="B89" s="41">
+        <v>1</v>
+      </c>
+      <c r="C89" s="41">
+        <v>3</v>
+      </c>
+      <c r="D89" s="33">
+        <f t="shared" si="0"/>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="45">
+        <v>4</v>
+      </c>
+      <c r="B90" s="41">
+        <v>1</v>
+      </c>
+      <c r="C90" s="41">
+        <v>4</v>
+      </c>
+      <c r="D90" s="33">
+        <f t="shared" si="0"/>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="45">
+        <v>4</v>
+      </c>
+      <c r="B91" s="41">
+        <v>1</v>
+      </c>
+      <c r="C91" s="41">
+        <v>5</v>
+      </c>
+      <c r="D91" s="33">
+        <f t="shared" si="0"/>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="45">
+        <v>4</v>
+      </c>
+      <c r="B92" s="41">
+        <v>1</v>
+      </c>
+      <c r="C92" s="41">
+        <v>6</v>
+      </c>
+      <c r="D92" s="33">
+        <f t="shared" si="0"/>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="45">
+        <v>4</v>
+      </c>
+      <c r="B93" s="41">
+        <v>1</v>
+      </c>
+      <c r="C93" s="41">
+        <v>7</v>
+      </c>
+      <c r="D93" s="33">
+        <f t="shared" si="0"/>
+        <v>296.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="45">
+        <v>4</v>
+      </c>
+      <c r="B94" s="41">
+        <v>1</v>
+      </c>
+      <c r="C94" s="41">
+        <v>8</v>
+      </c>
+      <c r="D94" s="33">
+        <f t="shared" si="0"/>
+        <v>301.33999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="45">
+        <v>4</v>
+      </c>
+      <c r="B95" s="41">
+        <v>1</v>
+      </c>
+      <c r="C95" s="41">
+        <v>9</v>
+      </c>
+      <c r="D95" s="33">
+        <f t="shared" si="0"/>
+        <v>305.74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="45">
+        <v>4</v>
+      </c>
+      <c r="B96" s="41">
+        <v>1</v>
+      </c>
+      <c r="C96" s="41">
+        <v>10</v>
+      </c>
+      <c r="D96" s="33">
+        <f t="shared" si="0"/>
+        <v>310.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="45">
+        <v>4</v>
+      </c>
+      <c r="B97" s="41">
+        <v>1</v>
+      </c>
+      <c r="C97" s="41">
+        <v>11</v>
+      </c>
+      <c r="D97" s="33">
+        <f t="shared" si="0"/>
+        <v>314.53999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="45">
+        <v>4</v>
+      </c>
+      <c r="B98" s="41">
+        <v>1</v>
+      </c>
+      <c r="C98" s="41">
+        <v>12</v>
+      </c>
+      <c r="D98" s="33">
+        <f t="shared" si="0"/>
+        <v>318.94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="45">
+        <v>4</v>
+      </c>
+      <c r="B99" s="41">
+        <v>1</v>
+      </c>
+      <c r="C99" s="41">
+        <v>13</v>
+      </c>
+      <c r="D99" s="33">
+        <f t="shared" si="0"/>
+        <v>323.33999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="45">
+        <v>4</v>
+      </c>
+      <c r="B100" s="41">
+        <v>2</v>
+      </c>
+      <c r="C100" s="41">
+        <v>0</v>
+      </c>
+      <c r="D100" s="33">
+        <f t="shared" si="0"/>
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="45">
+        <v>4</v>
+      </c>
+      <c r="B101" s="41">
+        <v>2</v>
+      </c>
+      <c r="C101" s="41">
+        <v>1</v>
+      </c>
+      <c r="D101" s="33">
+        <f t="shared" si="0"/>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="45">
+        <v>4</v>
+      </c>
+      <c r="B102" s="41">
+        <v>2</v>
+      </c>
+      <c r="C102" s="41">
+        <v>2</v>
+      </c>
+      <c r="D102" s="33">
+        <f t="shared" si="0"/>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="45">
+        <v>4</v>
+      </c>
+      <c r="B103" s="41">
+        <v>2</v>
+      </c>
+      <c r="C103" s="41">
+        <v>3</v>
+      </c>
+      <c r="D103" s="33">
+        <f t="shared" si="0"/>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="45">
+        <v>4</v>
+      </c>
+      <c r="B104" s="41">
+        <v>2</v>
+      </c>
+      <c r="C104" s="41">
+        <v>4</v>
+      </c>
+      <c r="D104" s="33">
+        <f t="shared" si="0"/>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="45">
+        <v>4</v>
+      </c>
+      <c r="B105" s="41">
+        <v>2</v>
+      </c>
+      <c r="C105" s="41">
+        <v>5</v>
+      </c>
+      <c r="D105" s="33">
+        <f t="shared" si="0"/>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="45">
+        <v>4</v>
+      </c>
+      <c r="B106" s="41">
+        <v>2</v>
+      </c>
+      <c r="C106" s="41">
+        <v>6</v>
+      </c>
+      <c r="D106" s="33">
+        <f t="shared" si="0"/>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="45">
+        <v>4</v>
+      </c>
+      <c r="B107" s="41">
+        <v>2</v>
+      </c>
+      <c r="C107" s="41">
+        <v>7</v>
+      </c>
+      <c r="D107" s="33">
+        <f t="shared" si="0"/>
+        <v>146.14000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="45">
+        <v>4</v>
+      </c>
+      <c r="B108" s="41">
+        <v>2</v>
+      </c>
+      <c r="C108" s="41">
+        <v>8</v>
+      </c>
+      <c r="D108" s="33">
+        <f t="shared" si="0"/>
+        <v>150.54000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="45">
+        <v>4</v>
+      </c>
+      <c r="B109" s="41">
+        <v>2</v>
+      </c>
+      <c r="C109" s="41">
+        <v>9</v>
+      </c>
+      <c r="D109" s="33">
+        <f t="shared" si="0"/>
+        <v>154.94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="45">
+        <v>4</v>
+      </c>
+      <c r="B110" s="41">
+        <v>2</v>
+      </c>
+      <c r="C110" s="41">
+        <v>10</v>
+      </c>
+      <c r="D110" s="33">
+        <f t="shared" si="0"/>
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="45">
+        <v>4</v>
+      </c>
+      <c r="B111" s="41">
+        <v>2</v>
+      </c>
+      <c r="C111" s="41">
+        <v>11</v>
+      </c>
+      <c r="D111" s="33">
+        <f t="shared" si="0"/>
+        <v>163.74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="45">
+        <v>4</v>
+      </c>
+      <c r="B112" s="41">
+        <v>2</v>
+      </c>
+      <c r="C112" s="41">
+        <v>12</v>
+      </c>
+      <c r="D112" s="33">
+        <f t="shared" si="0"/>
+        <v>168.14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="46">
+        <v>4</v>
+      </c>
+      <c r="B113" s="42">
+        <v>2</v>
+      </c>
+      <c r="C113" s="42">
+        <v>13</v>
+      </c>
+      <c r="D113" s="44">
+        <f t="shared" si="0"/>
+        <v>172.54000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="45">
+        <v>5</v>
+      </c>
+      <c r="B114" s="41">
+        <v>1</v>
+      </c>
+      <c r="C114" s="41">
+        <v>0</v>
+      </c>
+      <c r="D114" s="47">
+        <f>D58</f>
+        <v>387.47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="45">
+        <v>5</v>
+      </c>
+      <c r="B115" s="41">
+        <v>1</v>
+      </c>
+      <c r="C115" s="41">
+        <v>1</v>
+      </c>
+      <c r="D115" s="47">
+        <f t="shared" ref="D115:D141" si="1">D59</f>
+        <v>398.07000000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="45">
+        <v>5</v>
+      </c>
+      <c r="B116" s="41">
+        <v>1</v>
+      </c>
+      <c r="C116" s="41">
+        <v>2</v>
+      </c>
+      <c r="D116" s="47">
+        <f t="shared" si="1"/>
+        <v>408.67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="45">
+        <v>5</v>
+      </c>
+      <c r="B117" s="41">
+        <v>1</v>
+      </c>
+      <c r="C117" s="41">
+        <v>3</v>
+      </c>
+      <c r="D117" s="47">
+        <f t="shared" si="1"/>
+        <v>419.27000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="45">
+        <v>5</v>
+      </c>
+      <c r="B118" s="41">
+        <v>1</v>
+      </c>
+      <c r="C118" s="41">
+        <v>4</v>
+      </c>
+      <c r="D118" s="47">
+        <f t="shared" si="1"/>
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="45">
+        <v>5</v>
+      </c>
+      <c r="B119" s="41">
+        <v>1</v>
+      </c>
+      <c r="C119" s="41">
+        <v>5</v>
+      </c>
+      <c r="D119" s="47">
+        <f t="shared" si="1"/>
+        <v>440.47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="45">
+        <v>5</v>
+      </c>
+      <c r="B120" s="41">
+        <v>1</v>
+      </c>
+      <c r="C120" s="41">
+        <v>6</v>
+      </c>
+      <c r="D120" s="47">
+        <f t="shared" si="1"/>
+        <v>451.07000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="45">
+        <v>5</v>
+      </c>
+      <c r="B121" s="41">
+        <v>1</v>
+      </c>
+      <c r="C121" s="41">
+        <v>7</v>
+      </c>
+      <c r="D121" s="47">
+        <f t="shared" si="1"/>
+        <v>461.67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="45">
+        <v>5</v>
+      </c>
+      <c r="B122" s="41">
+        <v>1</v>
+      </c>
+      <c r="C122" s="41">
+        <v>8</v>
+      </c>
+      <c r="D122" s="47">
+        <f t="shared" si="1"/>
+        <v>472.27000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="45">
+        <v>5</v>
+      </c>
+      <c r="B123" s="41">
+        <v>1</v>
+      </c>
+      <c r="C123" s="41">
+        <v>9</v>
+      </c>
+      <c r="D123" s="47">
+        <f t="shared" si="1"/>
+        <v>482.87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="45">
+        <v>5</v>
+      </c>
+      <c r="B124" s="41">
+        <v>1</v>
+      </c>
+      <c r="C124" s="41">
+        <v>10</v>
+      </c>
+      <c r="D124" s="47">
+        <f t="shared" si="1"/>
+        <v>493.47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="45">
+        <v>5</v>
+      </c>
+      <c r="B125" s="41">
+        <v>1</v>
+      </c>
+      <c r="C125" s="41">
+        <v>11</v>
+      </c>
+      <c r="D125" s="47">
+        <f t="shared" si="1"/>
+        <v>504.07000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="45">
+        <v>5</v>
+      </c>
+      <c r="B126" s="41">
+        <v>1</v>
+      </c>
+      <c r="C126" s="41">
+        <v>12</v>
+      </c>
+      <c r="D126" s="47">
+        <f t="shared" si="1"/>
+        <v>514.67000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="45">
+        <v>5</v>
+      </c>
+      <c r="B127" s="41">
+        <v>1</v>
+      </c>
+      <c r="C127" s="41">
+        <v>13</v>
+      </c>
+      <c r="D127" s="47">
+        <f t="shared" si="1"/>
+        <v>525.27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="45">
+        <v>5</v>
+      </c>
+      <c r="B128" s="41">
+        <v>2</v>
+      </c>
+      <c r="C128" s="41">
+        <v>0</v>
+      </c>
+      <c r="D128" s="47">
+        <f t="shared" si="1"/>
+        <v>562.90000000000009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="45">
+        <v>5</v>
+      </c>
+      <c r="B129" s="41">
+        <v>2</v>
+      </c>
+      <c r="C129" s="41">
+        <v>1</v>
+      </c>
+      <c r="D129" s="47">
+        <f t="shared" si="1"/>
+        <v>573.50000000000011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="45">
+        <v>5</v>
+      </c>
+      <c r="B130" s="41">
+        <v>2</v>
+      </c>
+      <c r="C130" s="41">
+        <v>2</v>
+      </c>
+      <c r="D130" s="47">
+        <f t="shared" si="1"/>
+        <v>584.10000000000014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="45">
+        <v>5</v>
+      </c>
+      <c r="B131" s="41">
+        <v>2</v>
+      </c>
+      <c r="C131" s="41">
+        <v>3</v>
+      </c>
+      <c r="D131" s="47">
+        <f t="shared" si="1"/>
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="45">
+        <v>5</v>
+      </c>
+      <c r="B132" s="41">
+        <v>2</v>
+      </c>
+      <c r="C132" s="41">
+        <v>4</v>
+      </c>
+      <c r="D132" s="47">
+        <f t="shared" si="1"/>
+        <v>605.30000000000007</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="45">
+        <v>5</v>
+      </c>
+      <c r="B133" s="41">
+        <v>2</v>
+      </c>
+      <c r="C133" s="41">
+        <v>5</v>
+      </c>
+      <c r="D133" s="47">
+        <f t="shared" si="1"/>
+        <v>615.90000000000009</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="45">
+        <v>5</v>
+      </c>
+      <c r="B134" s="41">
+        <v>2</v>
+      </c>
+      <c r="C134" s="41">
+        <v>6</v>
+      </c>
+      <c r="D134" s="47">
+        <f t="shared" si="1"/>
+        <v>626.50000000000011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="45">
+        <v>5</v>
+      </c>
+      <c r="B135" s="41">
+        <v>2</v>
+      </c>
+      <c r="C135" s="41">
+        <v>7</v>
+      </c>
+      <c r="D135" s="47">
+        <f t="shared" si="1"/>
+        <v>637.10000000000014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="45">
+        <v>5</v>
+      </c>
+      <c r="B136" s="41">
+        <v>2</v>
+      </c>
+      <c r="C136" s="41">
+        <v>8</v>
+      </c>
+      <c r="D136" s="47">
+        <f t="shared" si="1"/>
+        <v>647.70000000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="45">
+        <v>5</v>
+      </c>
+      <c r="B137" s="41">
+        <v>2</v>
+      </c>
+      <c r="C137" s="41">
+        <v>9</v>
+      </c>
+      <c r="D137" s="47">
+        <f t="shared" si="1"/>
+        <v>658.30000000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="45">
+        <v>5</v>
+      </c>
+      <c r="B138" s="41">
+        <v>2</v>
+      </c>
+      <c r="C138" s="41">
+        <v>10</v>
+      </c>
+      <c r="D138" s="47">
+        <f t="shared" si="1"/>
+        <v>668.90000000000009</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="45">
+        <v>5</v>
+      </c>
+      <c r="B139" s="41">
+        <v>2</v>
+      </c>
+      <c r="C139" s="41">
+        <v>11</v>
+      </c>
+      <c r="D139" s="47">
+        <f t="shared" si="1"/>
+        <v>679.50000000000011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="45">
+        <v>5</v>
+      </c>
+      <c r="B140" s="41">
+        <v>2</v>
+      </c>
+      <c r="C140" s="41">
+        <v>12</v>
+      </c>
+      <c r="D140" s="47">
+        <f t="shared" si="1"/>
+        <v>690.10000000000014</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="46">
+        <v>5</v>
+      </c>
+      <c r="B141" s="42">
+        <v>2</v>
+      </c>
+      <c r="C141" s="42">
+        <v>13</v>
+      </c>
+      <c r="D141" s="48">
+        <f t="shared" si="1"/>
+        <v>700.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="45">
+        <v>6</v>
+      </c>
+      <c r="B142" s="41">
+        <v>1</v>
+      </c>
+      <c r="C142" s="41">
+        <v>0</v>
+      </c>
+      <c r="D142" s="47">
+        <f>D2</f>
+        <v>147.11999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="45">
+        <v>6</v>
+      </c>
+      <c r="B143" s="41">
+        <v>1</v>
+      </c>
+      <c r="C143" s="41">
+        <v>1</v>
+      </c>
+      <c r="D143" s="47">
+        <f t="shared" ref="D143:D169" si="2">D3</f>
+        <v>151.51999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="45">
+        <v>6</v>
+      </c>
+      <c r="B144" s="41">
+        <v>1</v>
+      </c>
+      <c r="C144" s="41">
+        <v>2</v>
+      </c>
+      <c r="D144" s="47">
+        <f t="shared" si="2"/>
+        <v>155.91999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="45">
+        <v>6</v>
+      </c>
+      <c r="B145" s="41">
+        <v>1</v>
+      </c>
+      <c r="C145" s="41">
+        <v>3</v>
+      </c>
+      <c r="D145" s="47">
+        <f t="shared" si="2"/>
+        <v>160.31999999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="45">
+        <v>6</v>
+      </c>
+      <c r="B146" s="41">
+        <v>1</v>
+      </c>
+      <c r="C146" s="41">
+        <v>4</v>
+      </c>
+      <c r="D146" s="47">
+        <f t="shared" si="2"/>
+        <v>164.71999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="45">
+        <v>6</v>
+      </c>
+      <c r="B147" s="41">
+        <v>1</v>
+      </c>
+      <c r="C147" s="41">
+        <v>5</v>
+      </c>
+      <c r="D147" s="47">
+        <f t="shared" si="2"/>
+        <v>169.11999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="45">
+        <v>6</v>
+      </c>
+      <c r="B148" s="41">
+        <v>1</v>
+      </c>
+      <c r="C148" s="41">
+        <v>6</v>
+      </c>
+      <c r="D148" s="47">
+        <f t="shared" si="2"/>
+        <v>173.51999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="45">
+        <v>6</v>
+      </c>
+      <c r="B149" s="41">
+        <v>1</v>
+      </c>
+      <c r="C149" s="41">
+        <v>7</v>
+      </c>
+      <c r="D149" s="47">
+        <f t="shared" si="2"/>
+        <v>177.92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="45">
+        <v>6</v>
+      </c>
+      <c r="B150" s="41">
+        <v>1</v>
+      </c>
+      <c r="C150" s="41">
+        <v>8</v>
+      </c>
+      <c r="D150" s="47">
+        <f t="shared" si="2"/>
+        <v>182.32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="45">
+        <v>6</v>
+      </c>
+      <c r="B151" s="41">
+        <v>1</v>
+      </c>
+      <c r="C151" s="41">
+        <v>9</v>
+      </c>
+      <c r="D151" s="47">
+        <f t="shared" si="2"/>
+        <v>186.71999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="45">
+        <v>6</v>
+      </c>
+      <c r="B152" s="41">
+        <v>1</v>
+      </c>
+      <c r="C152" s="41">
+        <v>10</v>
+      </c>
+      <c r="D152" s="47">
+        <f t="shared" si="2"/>
+        <v>191.11999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="45">
+        <v>6</v>
+      </c>
+      <c r="B153" s="41">
+        <v>1</v>
+      </c>
+      <c r="C153" s="41">
+        <v>11</v>
+      </c>
+      <c r="D153" s="47">
+        <f t="shared" si="2"/>
+        <v>195.51999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="45">
+        <v>6</v>
+      </c>
+      <c r="B154" s="41">
+        <v>1</v>
+      </c>
+      <c r="C154" s="41">
+        <v>12</v>
+      </c>
+      <c r="D154" s="47">
+        <f t="shared" si="2"/>
+        <v>199.91999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="45">
+        <v>6</v>
+      </c>
+      <c r="B155" s="41">
+        <v>1</v>
+      </c>
+      <c r="C155" s="41">
+        <v>13</v>
+      </c>
+      <c r="D155" s="47">
+        <f t="shared" si="2"/>
+        <v>204.32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="45">
+        <v>6</v>
+      </c>
+      <c r="B156" s="41">
+        <v>2</v>
+      </c>
+      <c r="C156" s="41">
+        <v>0</v>
+      </c>
+      <c r="D156" s="47">
+        <f t="shared" si="2"/>
+        <v>263.62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="45">
+        <v>6</v>
+      </c>
+      <c r="B157" s="41">
+        <v>2</v>
+      </c>
+      <c r="C157" s="41">
+        <v>1</v>
+      </c>
+      <c r="D157" s="47">
+        <f t="shared" si="2"/>
+        <v>268.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="45">
+        <v>6</v>
+      </c>
+      <c r="B158" s="41">
+        <v>2</v>
+      </c>
+      <c r="C158" s="41">
+        <v>2</v>
+      </c>
+      <c r="D158" s="47">
+        <f t="shared" si="2"/>
+        <v>272.42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="45">
+        <v>6</v>
+      </c>
+      <c r="B159" s="41">
+        <v>2</v>
+      </c>
+      <c r="C159" s="41">
+        <v>3</v>
+      </c>
+      <c r="D159" s="47">
+        <f t="shared" si="2"/>
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="45">
+        <v>6</v>
+      </c>
+      <c r="B160" s="41">
+        <v>2</v>
+      </c>
+      <c r="C160" s="41">
+        <v>4</v>
+      </c>
+      <c r="D160" s="47">
+        <f t="shared" si="2"/>
+        <v>281.22000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="45">
+        <v>6</v>
+      </c>
+      <c r="B161" s="41">
+        <v>2</v>
+      </c>
+      <c r="C161" s="41">
+        <v>5</v>
+      </c>
+      <c r="D161" s="47">
+        <f t="shared" si="2"/>
+        <v>285.62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="45">
+        <v>6</v>
+      </c>
+      <c r="B162" s="41">
+        <v>2</v>
+      </c>
+      <c r="C162" s="41">
+        <v>6</v>
+      </c>
+      <c r="D162" s="47">
+        <f t="shared" si="2"/>
+        <v>290.02</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="45">
+        <v>6</v>
+      </c>
+      <c r="B163" s="41">
+        <v>2</v>
+      </c>
+      <c r="C163" s="41">
+        <v>7</v>
+      </c>
+      <c r="D163" s="47">
+        <f t="shared" si="2"/>
+        <v>294.42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="45">
+        <v>6</v>
+      </c>
+      <c r="B164" s="41">
+        <v>2</v>
+      </c>
+      <c r="C164" s="41">
+        <v>8</v>
+      </c>
+      <c r="D164" s="47">
+        <f t="shared" si="2"/>
+        <v>298.82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="45">
+        <v>6</v>
+      </c>
+      <c r="B165" s="41">
+        <v>2</v>
+      </c>
+      <c r="C165" s="41">
+        <v>9</v>
+      </c>
+      <c r="D165" s="47">
+        <f t="shared" si="2"/>
+        <v>303.22000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="45">
+        <v>6</v>
+      </c>
+      <c r="B166" s="41">
+        <v>2</v>
+      </c>
+      <c r="C166" s="41">
+        <v>10</v>
+      </c>
+      <c r="D166" s="47">
+        <f t="shared" si="2"/>
+        <v>307.62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="45">
+        <v>6</v>
+      </c>
+      <c r="B167" s="41">
+        <v>2</v>
+      </c>
+      <c r="C167" s="41">
+        <v>11</v>
+      </c>
+      <c r="D167" s="47">
+        <f t="shared" si="2"/>
+        <v>312.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="45">
+        <v>6</v>
+      </c>
+      <c r="B168" s="41">
+        <v>2</v>
+      </c>
+      <c r="C168" s="41">
+        <v>12</v>
+      </c>
+      <c r="D168" s="47">
+        <f t="shared" si="2"/>
+        <v>316.42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="46">
+        <v>6</v>
+      </c>
+      <c r="B169" s="42">
+        <v>2</v>
+      </c>
+      <c r="C169" s="42">
+        <v>13</v>
+      </c>
+      <c r="D169" s="48">
+        <f t="shared" si="2"/>
+        <v>320.82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="45">
+        <v>7</v>
+      </c>
+      <c r="B170" s="41">
+        <v>1</v>
+      </c>
+      <c r="C170" s="41">
+        <v>0</v>
+      </c>
+      <c r="D170" s="47">
+        <f>(t_to_RWY!B3*fuel_flow!C2)+(t_to_taxi!B3*fuel_flow!C3)</f>
+        <v>641.81000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="45">
+        <v>7</v>
+      </c>
+      <c r="B171" s="41">
+        <v>1</v>
+      </c>
+      <c r="C171" s="41">
+        <v>1</v>
+      </c>
+      <c r="D171" s="47">
+        <f>$D$170+(20*C171*fuel_flow!$C$2)</f>
+        <v>652.41000000000008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="45">
+        <v>7</v>
+      </c>
+      <c r="B172" s="41">
+        <v>1</v>
+      </c>
+      <c r="C172" s="41">
+        <v>2</v>
+      </c>
+      <c r="D172" s="47">
+        <f>$D$170+(20*C172*fuel_flow!$C$2)</f>
+        <v>663.0100000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="45">
+        <v>7</v>
+      </c>
+      <c r="B173" s="41">
+        <v>1</v>
+      </c>
+      <c r="C173" s="41">
+        <v>3</v>
+      </c>
+      <c r="D173" s="47">
+        <f>$D$170+(20*C173*fuel_flow!$C$2)</f>
+        <v>673.61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="45">
+        <v>7</v>
+      </c>
+      <c r="B174" s="41">
+        <v>1</v>
+      </c>
+      <c r="C174" s="41">
+        <v>4</v>
+      </c>
+      <c r="D174" s="47">
+        <f>$D$170+(20*C174*fuel_flow!$C$2)</f>
+        <v>684.21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="45">
+        <v>7</v>
+      </c>
+      <c r="B175" s="41">
+        <v>1</v>
+      </c>
+      <c r="C175" s="41">
+        <v>5</v>
+      </c>
+      <c r="D175" s="47">
+        <f>$D$170+(20*C175*fuel_flow!$C$2)</f>
+        <v>694.81000000000006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="45">
+        <v>7</v>
+      </c>
+      <c r="B176" s="41">
+        <v>1</v>
+      </c>
+      <c r="C176" s="41">
+        <v>6</v>
+      </c>
+      <c r="D176" s="47">
+        <f>$D$170+(20*C176*fuel_flow!$C$2)</f>
+        <v>705.41000000000008</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="45">
+        <v>7</v>
+      </c>
+      <c r="B177" s="41">
+        <v>1</v>
+      </c>
+      <c r="C177" s="41">
+        <v>7</v>
+      </c>
+      <c r="D177" s="47">
+        <f>$D$170+(20*C177*fuel_flow!$C$2)</f>
+        <v>716.0100000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="45">
+        <v>7</v>
+      </c>
+      <c r="B178" s="41">
+        <v>1</v>
+      </c>
+      <c r="C178" s="41">
+        <v>8</v>
+      </c>
+      <c r="D178" s="47">
+        <f>$D$170+(20*C178*fuel_flow!$C$2)</f>
+        <v>726.61000000000013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="45">
+        <v>7</v>
+      </c>
+      <c r="B179" s="41">
+        <v>1</v>
+      </c>
+      <c r="C179" s="41">
+        <v>9</v>
+      </c>
+      <c r="D179" s="47">
+        <f>$D$170+(20*C179*fuel_flow!$C$2)</f>
+        <v>737.21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="45">
+        <v>7</v>
+      </c>
+      <c r="B180" s="41">
+        <v>1</v>
+      </c>
+      <c r="C180" s="41">
+        <v>10</v>
+      </c>
+      <c r="D180" s="47">
+        <f>$D$170+(20*C180*fuel_flow!$C$2)</f>
+        <v>747.81000000000006</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="45">
+        <v>7</v>
+      </c>
+      <c r="B181" s="41">
+        <v>1</v>
+      </c>
+      <c r="C181" s="41">
+        <v>11</v>
+      </c>
+      <c r="D181" s="47">
+        <f>$D$170+(20*C181*fuel_flow!$C$2)</f>
+        <v>758.41000000000008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="45">
+        <v>7</v>
+      </c>
+      <c r="B182" s="41">
+        <v>1</v>
+      </c>
+      <c r="C182" s="41">
+        <v>12</v>
+      </c>
+      <c r="D182" s="47">
+        <f>$D$170+(20*C182*fuel_flow!$C$2)</f>
+        <v>769.0100000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="45">
+        <v>7</v>
+      </c>
+      <c r="B183" s="41">
+        <v>1</v>
+      </c>
+      <c r="C183" s="41">
+        <v>13</v>
+      </c>
+      <c r="D183" s="47">
+        <f>$D$170+(20*C183*fuel_flow!$C$2)</f>
+        <v>779.61000000000013</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="45">
+        <v>7</v>
+      </c>
+      <c r="B184" s="41">
+        <v>2</v>
+      </c>
+      <c r="C184" s="41">
+        <v>0</v>
+      </c>
+      <c r="D184" s="47">
+        <f>(t_to_RWY!C3*fuel_flow!C2)+(t_to_taxi!C3*fuel_flow!C3)</f>
+        <v>278.29000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="45">
+        <v>7</v>
+      </c>
+      <c r="B185" s="41">
+        <v>2</v>
+      </c>
+      <c r="C185" s="41">
+        <v>1</v>
+      </c>
+      <c r="D185" s="47">
+        <f>$D$184+(20*C185*fuel_flow!$C$2)</f>
+        <v>288.89000000000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="45">
+        <v>7</v>
+      </c>
+      <c r="B186" s="41">
+        <v>2</v>
+      </c>
+      <c r="C186" s="41">
+        <v>2</v>
+      </c>
+      <c r="D186" s="47">
+        <f>$D$184+(20*C186*fuel_flow!$C$2)</f>
+        <v>299.49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="45">
+        <v>7</v>
+      </c>
+      <c r="B187" s="41">
+        <v>2</v>
+      </c>
+      <c r="C187" s="41">
+        <v>3</v>
+      </c>
+      <c r="D187" s="47">
+        <f>$D$184+(20*C187*fuel_flow!$C$2)</f>
+        <v>310.09000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="45">
+        <v>7</v>
+      </c>
+      <c r="B188" s="41">
+        <v>2</v>
+      </c>
+      <c r="C188" s="41">
+        <v>4</v>
+      </c>
+      <c r="D188" s="47">
+        <f>$D$184+(20*C188*fuel_flow!$C$2)</f>
+        <v>320.69000000000005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="45">
+        <v>7</v>
+      </c>
+      <c r="B189" s="41">
+        <v>2</v>
+      </c>
+      <c r="C189" s="41">
+        <v>5</v>
+      </c>
+      <c r="D189" s="47">
+        <f>$D$184+(20*C189*fuel_flow!$C$2)</f>
+        <v>331.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="45">
+        <v>7</v>
+      </c>
+      <c r="B190" s="41">
+        <v>2</v>
+      </c>
+      <c r="C190" s="41">
+        <v>6</v>
+      </c>
+      <c r="D190" s="47">
+        <f>$D$184+(20*C190*fuel_flow!$C$2)</f>
+        <v>341.89000000000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="45">
+        <v>7</v>
+      </c>
+      <c r="B191" s="41">
+        <v>2</v>
+      </c>
+      <c r="C191" s="41">
+        <v>7</v>
+      </c>
+      <c r="D191" s="47">
+        <f>$D$184+(20*C191*fuel_flow!$C$2)</f>
+        <v>352.49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="45">
+        <v>7</v>
+      </c>
+      <c r="B192" s="41">
+        <v>2</v>
+      </c>
+      <c r="C192" s="41">
+        <v>8</v>
+      </c>
+      <c r="D192" s="47">
+        <f>$D$184+(20*C192*fuel_flow!$C$2)</f>
+        <v>363.09000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="45">
+        <v>7</v>
+      </c>
+      <c r="B193" s="41">
+        <v>2</v>
+      </c>
+      <c r="C193" s="41">
+        <v>9</v>
+      </c>
+      <c r="D193" s="47">
+        <f>$D$184+(20*C193*fuel_flow!$C$2)</f>
+        <v>373.69000000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="45">
+        <v>7</v>
+      </c>
+      <c r="B194" s="41">
+        <v>2</v>
+      </c>
+      <c r="C194" s="41">
+        <v>10</v>
+      </c>
+      <c r="D194" s="47">
+        <f>$D$184+(20*C194*fuel_flow!$C$2)</f>
+        <v>384.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="45">
+        <v>7</v>
+      </c>
+      <c r="B195" s="41">
+        <v>2</v>
+      </c>
+      <c r="C195" s="41">
+        <v>11</v>
+      </c>
+      <c r="D195" s="47">
+        <f>$D$184+(20*C195*fuel_flow!$C$2)</f>
+        <v>394.89000000000004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="45">
+        <v>7</v>
+      </c>
+      <c r="B196" s="41">
+        <v>2</v>
+      </c>
+      <c r="C196" s="41">
+        <v>12</v>
+      </c>
+      <c r="D196" s="47">
+        <f>$D$184+(20*C196*fuel_flow!$C$2)</f>
+        <v>405.49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="46">
+        <v>7</v>
+      </c>
+      <c r="B197" s="42">
+        <v>2</v>
+      </c>
+      <c r="C197" s="42">
+        <v>13</v>
+      </c>
+      <c r="D197" s="48">
+        <f>$D$184+(20*C197*fuel_flow!$C$2)</f>
+        <v>416.09000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="45">
+        <v>8</v>
+      </c>
+      <c r="B198" s="41">
+        <v>1</v>
+      </c>
+      <c r="C198" s="41">
+        <v>0</v>
+      </c>
+      <c r="D198" s="47">
+        <f>(t_to_RWY!B4*fuel_flow!C2)+(t_to_taxi!B4*fuel_flow!C3)</f>
+        <v>355.08000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="45">
+        <v>8</v>
+      </c>
+      <c r="B199" s="41">
+        <v>1</v>
+      </c>
+      <c r="C199" s="41">
+        <v>1</v>
+      </c>
+      <c r="D199" s="47">
+        <f>$D$198+(20*C199*fuel_flow!$C$2)</f>
+        <v>365.68000000000006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="45">
+        <v>8</v>
+      </c>
+      <c r="B200" s="41">
+        <v>1</v>
+      </c>
+      <c r="C200" s="41">
+        <v>2</v>
+      </c>
+      <c r="D200" s="47">
+        <f>$D$198+(20*C200*fuel_flow!$C$2)</f>
+        <v>376.28000000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="45">
+        <v>8</v>
+      </c>
+      <c r="B201" s="41">
+        <v>1</v>
+      </c>
+      <c r="C201" s="41">
+        <v>3</v>
+      </c>
+      <c r="D201" s="47">
+        <f>$D$198+(20*C201*fuel_flow!$C$2)</f>
+        <v>386.88000000000005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="45">
+        <v>8</v>
+      </c>
+      <c r="B202" s="41">
+        <v>1</v>
+      </c>
+      <c r="C202" s="41">
+        <v>4</v>
+      </c>
+      <c r="D202" s="47">
+        <f>$D$198+(20*C202*fuel_flow!$C$2)</f>
+        <v>397.48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="45">
+        <v>8</v>
+      </c>
+      <c r="B203" s="41">
+        <v>1</v>
+      </c>
+      <c r="C203" s="41">
+        <v>5</v>
+      </c>
+      <c r="D203" s="47">
+        <f>$D$198+(20*C203*fuel_flow!$C$2)</f>
+        <v>408.08000000000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="45">
+        <v>8</v>
+      </c>
+      <c r="B204" s="41">
+        <v>1</v>
+      </c>
+      <c r="C204" s="41">
+        <v>6</v>
+      </c>
+      <c r="D204" s="47">
+        <f>$D$198+(20*C204*fuel_flow!$C$2)</f>
+        <v>418.68000000000006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="45">
+        <v>8</v>
+      </c>
+      <c r="B205" s="41">
+        <v>1</v>
+      </c>
+      <c r="C205" s="41">
+        <v>7</v>
+      </c>
+      <c r="D205" s="47">
+        <f>$D$198+(20*C205*fuel_flow!$C$2)</f>
+        <v>429.28000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="45">
+        <v>8</v>
+      </c>
+      <c r="B206" s="41">
+        <v>1</v>
+      </c>
+      <c r="C206" s="41">
+        <v>8</v>
+      </c>
+      <c r="D206" s="47">
+        <f>$D$198+(20*C206*fuel_flow!$C$2)</f>
+        <v>439.88000000000005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="45">
+        <v>8</v>
+      </c>
+      <c r="B207" s="41">
+        <v>1</v>
+      </c>
+      <c r="C207" s="41">
+        <v>9</v>
+      </c>
+      <c r="D207" s="47">
+        <f>$D$198+(20*C207*fuel_flow!$C$2)</f>
+        <v>450.48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="45">
+        <v>8</v>
+      </c>
+      <c r="B208" s="41">
+        <v>1</v>
+      </c>
+      <c r="C208" s="41">
+        <v>10</v>
+      </c>
+      <c r="D208" s="47">
+        <f>$D$198+(20*C208*fuel_flow!$C$2)</f>
+        <v>461.08000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="45">
+        <v>8</v>
+      </c>
+      <c r="B209" s="41">
+        <v>1</v>
+      </c>
+      <c r="C209" s="41">
+        <v>11</v>
+      </c>
+      <c r="D209" s="47">
+        <f>$D$198+(20*C209*fuel_flow!$C$2)</f>
+        <v>471.68000000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="45">
+        <v>8</v>
+      </c>
+      <c r="B210" s="41">
+        <v>1</v>
+      </c>
+      <c r="C210" s="41">
+        <v>12</v>
+      </c>
+      <c r="D210" s="47">
+        <f>$D$198+(20*C210*fuel_flow!$C$2)</f>
+        <v>482.28000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="45">
+        <v>8</v>
+      </c>
+      <c r="B211" s="41">
+        <v>1</v>
+      </c>
+      <c r="C211" s="41">
+        <v>13</v>
+      </c>
+      <c r="D211" s="47">
+        <f>$D$198+(20*C211*fuel_flow!$C$2)</f>
+        <v>492.88000000000005</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="45">
+        <v>8</v>
+      </c>
+      <c r="B212" s="41">
+        <v>2</v>
+      </c>
+      <c r="C212" s="41">
+        <v>0</v>
+      </c>
+      <c r="D212" s="33">
+        <f>(t_to_RWY!C4*fuel_flow!C2)+(t_to_taxi!C4*fuel_flow!C3)</f>
+        <v>635.5100000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="45">
+        <v>8</v>
+      </c>
+      <c r="B213" s="41">
+        <v>2</v>
+      </c>
+      <c r="C213" s="41">
+        <v>1</v>
+      </c>
+      <c r="D213" s="33">
+        <f>$D$212+(20*C213*fuel_flow!$C$2)</f>
+        <v>646.11000000000013</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="45">
+        <v>8</v>
+      </c>
+      <c r="B214" s="41">
+        <v>2</v>
+      </c>
+      <c r="C214" s="41">
+        <v>2</v>
+      </c>
+      <c r="D214" s="33">
+        <f>$D$212+(20*C214*fuel_flow!$C$2)</f>
+        <v>656.71000000000015</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="45">
+        <v>8</v>
+      </c>
+      <c r="B215" s="41">
+        <v>2</v>
+      </c>
+      <c r="C215" s="41">
+        <v>3</v>
+      </c>
+      <c r="D215" s="33">
+        <f>$D$212+(20*C215*fuel_flow!$C$2)</f>
+        <v>667.31000000000006</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="45">
+        <v>8</v>
+      </c>
+      <c r="B216" s="41">
+        <v>2</v>
+      </c>
+      <c r="C216" s="41">
+        <v>4</v>
+      </c>
+      <c r="D216" s="33">
+        <f>$D$212+(20*C216*fuel_flow!$C$2)</f>
+        <v>677.91000000000008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="45">
+        <v>8</v>
+      </c>
+      <c r="B217" s="41">
+        <v>2</v>
+      </c>
+      <c r="C217" s="41">
+        <v>5</v>
+      </c>
+      <c r="D217" s="33">
+        <f>$D$212+(20*C217*fuel_flow!$C$2)</f>
+        <v>688.5100000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="45">
+        <v>8</v>
+      </c>
+      <c r="B218" s="41">
+        <v>2</v>
+      </c>
+      <c r="C218" s="41">
+        <v>6</v>
+      </c>
+      <c r="D218" s="33">
+        <f>$D$212+(20*C218*fuel_flow!$C$2)</f>
+        <v>699.11000000000013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="45">
+        <v>8</v>
+      </c>
+      <c r="B219" s="41">
+        <v>2</v>
+      </c>
+      <c r="C219" s="41">
+        <v>7</v>
+      </c>
+      <c r="D219" s="33">
+        <f>$D$212+(20*C219*fuel_flow!$C$2)</f>
+        <v>709.71000000000015</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="45">
+        <v>8</v>
+      </c>
+      <c r="B220" s="41">
+        <v>2</v>
+      </c>
+      <c r="C220" s="41">
+        <v>8</v>
+      </c>
+      <c r="D220" s="33">
+        <f>$D$212+(20*C220*fuel_flow!$C$2)</f>
+        <v>720.31000000000017</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="45">
+        <v>8</v>
+      </c>
+      <c r="B221" s="41">
+        <v>2</v>
+      </c>
+      <c r="C221" s="41">
+        <v>9</v>
+      </c>
+      <c r="D221" s="33">
+        <f>$D$212+(20*C221*fuel_flow!$C$2)</f>
+        <v>730.91000000000008</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="45">
+        <v>8</v>
+      </c>
+      <c r="B222" s="41">
+        <v>2</v>
+      </c>
+      <c r="C222" s="41">
+        <v>10</v>
+      </c>
+      <c r="D222" s="33">
+        <f>$D$212+(20*C222*fuel_flow!$C$2)</f>
+        <v>741.5100000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="45">
+        <v>8</v>
+      </c>
+      <c r="B223" s="41">
+        <v>2</v>
+      </c>
+      <c r="C223" s="41">
+        <v>11</v>
+      </c>
+      <c r="D223" s="33">
+        <f>$D$212+(20*C223*fuel_flow!$C$2)</f>
+        <v>752.11000000000013</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="45">
+        <v>8</v>
+      </c>
+      <c r="B224" s="41">
+        <v>2</v>
+      </c>
+      <c r="C224" s="41">
+        <v>12</v>
+      </c>
+      <c r="D224" s="33">
+        <f>$D$212+(20*C224*fuel_flow!$C$2)</f>
+        <v>762.71000000000015</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="46">
+        <v>8</v>
+      </c>
+      <c r="B225" s="42">
+        <v>2</v>
+      </c>
+      <c r="C225" s="42">
+        <v>13</v>
+      </c>
+      <c r="D225" s="44">
+        <f>$D$212+(20*C225*fuel_flow!$C$2)</f>
+        <v>773.31000000000017</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="45">
+        <v>9</v>
+      </c>
+      <c r="B226" s="41">
+        <v>1</v>
+      </c>
+      <c r="C226" s="41">
+        <v>0</v>
+      </c>
+      <c r="D226" s="33">
+        <f>(t_to_RWY!B2*fuel_flow!B2)+(t_to_taxi!B2*fuel_flow!B3)</f>
+        <v>163.17999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="45">
+        <v>9</v>
+      </c>
+      <c r="B227" s="41">
+        <v>1</v>
+      </c>
+      <c r="C227" s="41">
+        <v>1</v>
+      </c>
+      <c r="D227" s="33">
+        <f>$D$226+(20*C227*fuel_flow!$B$2)</f>
+        <v>167.57999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="45">
+        <v>9</v>
+      </c>
+      <c r="B228" s="41">
+        <v>1</v>
+      </c>
+      <c r="C228" s="41">
+        <v>2</v>
+      </c>
+      <c r="D228" s="33">
+        <f>$D$226+(20*C228*fuel_flow!$B$2)</f>
+        <v>171.98</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="45">
+        <v>9</v>
+      </c>
+      <c r="B229" s="41">
+        <v>1</v>
+      </c>
+      <c r="C229" s="41">
+        <v>3</v>
+      </c>
+      <c r="D229" s="33">
+        <f>$D$226+(20*C229*fuel_flow!$B$2)</f>
+        <v>176.37999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="45">
+        <v>9</v>
+      </c>
+      <c r="B230" s="41">
+        <v>1</v>
+      </c>
+      <c r="C230" s="41">
+        <v>4</v>
+      </c>
+      <c r="D230" s="33">
+        <f>$D$226+(20*C230*fuel_flow!$B$2)</f>
+        <v>180.77999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="45">
+        <v>9</v>
+      </c>
+      <c r="B231" s="41">
+        <v>1</v>
+      </c>
+      <c r="C231" s="41">
+        <v>5</v>
+      </c>
+      <c r="D231" s="33">
+        <f>$D$226+(20*C231*fuel_flow!$B$2)</f>
+        <v>185.17999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="45">
+        <v>9</v>
+      </c>
+      <c r="B232" s="41">
+        <v>1</v>
+      </c>
+      <c r="C232" s="41">
+        <v>6</v>
+      </c>
+      <c r="D232" s="33">
+        <f>$D$226+(20*C232*fuel_flow!$B$2)</f>
+        <v>189.57999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="45">
+        <v>9</v>
+      </c>
+      <c r="B233" s="41">
+        <v>1</v>
+      </c>
+      <c r="C233" s="41">
+        <v>7</v>
+      </c>
+      <c r="D233" s="33">
+        <f>$D$226+(20*C233*fuel_flow!$B$2)</f>
+        <v>193.98</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="45">
+        <v>9</v>
+      </c>
+      <c r="B234" s="41">
+        <v>1</v>
+      </c>
+      <c r="C234" s="41">
+        <v>8</v>
+      </c>
+      <c r="D234" s="33">
+        <f>$D$226+(20*C234*fuel_flow!$B$2)</f>
+        <v>198.38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="45">
+        <v>9</v>
+      </c>
+      <c r="B235" s="41">
+        <v>1</v>
+      </c>
+      <c r="C235" s="41">
+        <v>9</v>
+      </c>
+      <c r="D235" s="33">
+        <f>$D$226+(20*C235*fuel_flow!$B$2)</f>
+        <v>202.77999999999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="45">
+        <v>9</v>
+      </c>
+      <c r="B236" s="41">
+        <v>1</v>
+      </c>
+      <c r="C236" s="41">
+        <v>10</v>
+      </c>
+      <c r="D236" s="33">
+        <f>$D$226+(20*C236*fuel_flow!$B$2)</f>
+        <v>207.17999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="45">
+        <v>9</v>
+      </c>
+      <c r="B237" s="41">
+        <v>1</v>
+      </c>
+      <c r="C237" s="41">
+        <v>11</v>
+      </c>
+      <c r="D237" s="33">
+        <f>$D$226+(20*C237*fuel_flow!$B$2)</f>
+        <v>211.57999999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="45">
+        <v>9</v>
+      </c>
+      <c r="B238" s="41">
+        <v>1</v>
+      </c>
+      <c r="C238" s="41">
+        <v>12</v>
+      </c>
+      <c r="D238" s="33">
+        <f>$D$226+(20*C238*fuel_flow!$B$2)</f>
+        <v>215.97999999999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="45">
+        <v>9</v>
+      </c>
+      <c r="B239" s="41">
+        <v>1</v>
+      </c>
+      <c r="C239" s="41">
+        <v>13</v>
+      </c>
+      <c r="D239" s="33">
+        <f>$D$226+(20*C239*fuel_flow!$B$2)</f>
+        <v>220.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="45">
+        <v>9</v>
+      </c>
+      <c r="B240" s="41">
+        <v>2</v>
+      </c>
+      <c r="C240" s="41">
+        <v>0</v>
+      </c>
+      <c r="D240" s="33">
+        <f>(t_to_RWY!C2*fuel_flow!B2)+(t_to_taxi!C2*fuel_flow!B3)</f>
+        <v>233.48000000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="45">
+        <v>9</v>
+      </c>
+      <c r="B241" s="41">
+        <v>2</v>
+      </c>
+      <c r="C241" s="41">
+        <v>1</v>
+      </c>
+      <c r="D241" s="33">
+        <f>$D$240+(20*C241*fuel_flow!$B$2)</f>
+        <v>237.88000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="45">
+        <v>9</v>
+      </c>
+      <c r="B242" s="41">
+        <v>2</v>
+      </c>
+      <c r="C242" s="41">
+        <v>2</v>
+      </c>
+      <c r="D242" s="33">
+        <f>$D$240+(20*C242*fuel_flow!$B$2)</f>
+        <v>242.28000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="45">
+        <v>9</v>
+      </c>
+      <c r="B243" s="41">
+        <v>2</v>
+      </c>
+      <c r="C243" s="41">
+        <v>3</v>
+      </c>
+      <c r="D243" s="33">
+        <f>$D$240+(20*C243*fuel_flow!$B$2)</f>
+        <v>246.68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="45">
+        <v>9</v>
+      </c>
+      <c r="B244" s="41">
+        <v>2</v>
+      </c>
+      <c r="C244" s="41">
+        <v>4</v>
+      </c>
+      <c r="D244" s="33">
+        <f>$D$240+(20*C244*fuel_flow!$B$2)</f>
+        <v>251.08</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="45">
+        <v>9</v>
+      </c>
+      <c r="B245" s="41">
+        <v>2</v>
+      </c>
+      <c r="C245" s="41">
+        <v>5</v>
+      </c>
+      <c r="D245" s="33">
+        <f>$D$240+(20*C245*fuel_flow!$B$2)</f>
+        <v>255.48000000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="45">
+        <v>9</v>
+      </c>
+      <c r="B246" s="41">
+        <v>2</v>
+      </c>
+      <c r="C246" s="41">
+        <v>6</v>
+      </c>
+      <c r="D246" s="33">
+        <f>$D$240+(20*C246*fuel_flow!$B$2)</f>
+        <v>259.88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="45">
+        <v>9</v>
+      </c>
+      <c r="B247" s="41">
+        <v>2</v>
+      </c>
+      <c r="C247" s="41">
+        <v>7</v>
+      </c>
+      <c r="D247" s="33">
+        <f>$D$240+(20*C247*fuel_flow!$B$2)</f>
+        <v>264.28000000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="45">
+        <v>9</v>
+      </c>
+      <c r="B248" s="41">
+        <v>2</v>
+      </c>
+      <c r="C248" s="41">
+        <v>8</v>
+      </c>
+      <c r="D248" s="33">
+        <f>$D$240+(20*C248*fuel_flow!$B$2)</f>
+        <v>268.68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="45">
+        <v>9</v>
+      </c>
+      <c r="B249" s="41">
+        <v>2</v>
+      </c>
+      <c r="C249" s="41">
+        <v>9</v>
+      </c>
+      <c r="D249" s="33">
+        <f>$D$240+(20*C249*fuel_flow!$B$2)</f>
+        <v>273.08000000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="45">
+        <v>9</v>
+      </c>
+      <c r="B250" s="41">
+        <v>2</v>
+      </c>
+      <c r="C250" s="41">
+        <v>10</v>
+      </c>
+      <c r="D250" s="33">
+        <f>$D$240+(20*C250*fuel_flow!$B$2)</f>
+        <v>277.48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="45">
+        <v>9</v>
+      </c>
+      <c r="B251" s="41">
+        <v>2</v>
+      </c>
+      <c r="C251" s="41">
+        <v>11</v>
+      </c>
+      <c r="D251" s="33">
+        <f>$D$240+(20*C251*fuel_flow!$B$2)</f>
+        <v>281.88</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="45">
+        <v>9</v>
+      </c>
+      <c r="B252" s="41">
+        <v>2</v>
+      </c>
+      <c r="C252" s="41">
+        <v>12</v>
+      </c>
+      <c r="D252" s="33">
+        <f>$D$240+(20*C252*fuel_flow!$B$2)</f>
+        <v>286.28000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="46">
+        <v>9</v>
+      </c>
+      <c r="B253" s="42">
+        <v>2</v>
+      </c>
+      <c r="C253" s="42">
+        <v>13</v>
+      </c>
+      <c r="D253" s="44">
+        <f>$D$240+(20*C253*fuel_flow!$B$2)</f>
+        <v>290.68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="45">
+        <v>10</v>
+      </c>
+      <c r="B254" s="41">
+        <v>1</v>
+      </c>
+      <c r="C254" s="41">
+        <v>0</v>
+      </c>
+      <c r="D254" s="33">
+        <f>D86</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="45">
+        <v>10</v>
+      </c>
+      <c r="B255" s="41">
+        <v>1</v>
+      </c>
+      <c r="C255" s="41">
+        <v>1</v>
+      </c>
+      <c r="D255" s="33">
+        <f t="shared" ref="D255:D281" si="3">D87</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="45">
+        <v>10</v>
+      </c>
+      <c r="B256" s="41">
+        <v>1</v>
+      </c>
+      <c r="C256" s="41">
+        <v>2</v>
+      </c>
+      <c r="D256" s="33">
+        <f t="shared" si="3"/>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="45">
+        <v>10</v>
+      </c>
+      <c r="B257" s="41">
+        <v>1</v>
+      </c>
+      <c r="C257" s="41">
+        <v>3</v>
+      </c>
+      <c r="D257" s="33">
+        <f t="shared" si="3"/>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="45">
+        <v>10</v>
+      </c>
+      <c r="B258" s="41">
+        <v>1</v>
+      </c>
+      <c r="C258" s="41">
+        <v>4</v>
+      </c>
+      <c r="D258" s="33">
+        <f t="shared" si="3"/>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="45">
+        <v>10</v>
+      </c>
+      <c r="B259" s="41">
+        <v>1</v>
+      </c>
+      <c r="C259" s="41">
+        <v>5</v>
+      </c>
+      <c r="D259" s="33">
+        <f t="shared" si="3"/>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="45">
+        <v>10</v>
+      </c>
+      <c r="B260" s="41">
+        <v>1</v>
+      </c>
+      <c r="C260" s="41">
+        <v>6</v>
+      </c>
+      <c r="D260" s="33">
+        <f t="shared" si="3"/>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="45">
+        <v>10</v>
+      </c>
+      <c r="B261" s="41">
+        <v>1</v>
+      </c>
+      <c r="C261" s="41">
+        <v>7</v>
+      </c>
+      <c r="D261" s="33">
+        <f t="shared" si="3"/>
+        <v>296.94</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="45">
+        <v>10</v>
+      </c>
+      <c r="B262" s="41">
+        <v>1</v>
+      </c>
+      <c r="C262" s="41">
+        <v>8</v>
+      </c>
+      <c r="D262" s="33">
+        <f t="shared" si="3"/>
+        <v>301.33999999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="45">
+        <v>10</v>
+      </c>
+      <c r="B263" s="41">
+        <v>1</v>
+      </c>
+      <c r="C263" s="41">
+        <v>9</v>
+      </c>
+      <c r="D263" s="33">
+        <f t="shared" si="3"/>
+        <v>305.74</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="45">
+        <v>10</v>
+      </c>
+      <c r="B264" s="41">
+        <v>1</v>
+      </c>
+      <c r="C264" s="41">
+        <v>10</v>
+      </c>
+      <c r="D264" s="33">
+        <f t="shared" si="3"/>
+        <v>310.14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="45">
+        <v>10</v>
+      </c>
+      <c r="B265" s="41">
+        <v>1</v>
+      </c>
+      <c r="C265" s="41">
+        <v>11</v>
+      </c>
+      <c r="D265" s="33">
+        <f t="shared" si="3"/>
+        <v>314.53999999999996</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="45">
+        <v>10</v>
+      </c>
+      <c r="B266" s="41">
+        <v>1</v>
+      </c>
+      <c r="C266" s="41">
+        <v>12</v>
+      </c>
+      <c r="D266" s="33">
+        <f t="shared" si="3"/>
+        <v>318.94</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="45">
+        <v>10</v>
+      </c>
+      <c r="B267" s="41">
+        <v>1</v>
+      </c>
+      <c r="C267" s="41">
+        <v>13</v>
+      </c>
+      <c r="D267" s="33">
+        <f t="shared" si="3"/>
+        <v>323.33999999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="45">
+        <v>10</v>
+      </c>
+      <c r="B268" s="41">
+        <v>2</v>
+      </c>
+      <c r="C268" s="41">
+        <v>0</v>
+      </c>
+      <c r="D268" s="33">
+        <f t="shared" si="3"/>
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="45">
+        <v>10</v>
+      </c>
+      <c r="B269" s="41">
+        <v>2</v>
+      </c>
+      <c r="C269" s="41">
+        <v>1</v>
+      </c>
+      <c r="D269" s="33">
+        <f t="shared" si="3"/>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="45">
+        <v>10</v>
+      </c>
+      <c r="B270" s="41">
+        <v>2</v>
+      </c>
+      <c r="C270" s="41">
+        <v>2</v>
+      </c>
+      <c r="D270" s="33">
+        <f t="shared" si="3"/>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="45">
+        <v>10</v>
+      </c>
+      <c r="B271" s="41">
+        <v>2</v>
+      </c>
+      <c r="C271" s="41">
+        <v>3</v>
+      </c>
+      <c r="D271" s="33">
+        <f t="shared" si="3"/>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="45">
+        <v>10</v>
+      </c>
+      <c r="B272" s="41">
+        <v>2</v>
+      </c>
+      <c r="C272" s="41">
+        <v>4</v>
+      </c>
+      <c r="D272" s="33">
+        <f t="shared" si="3"/>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="45">
+        <v>10</v>
+      </c>
+      <c r="B273" s="41">
+        <v>2</v>
+      </c>
+      <c r="C273" s="41">
+        <v>5</v>
+      </c>
+      <c r="D273" s="33">
+        <f t="shared" si="3"/>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="45">
+        <v>10</v>
+      </c>
+      <c r="B274" s="41">
+        <v>2</v>
+      </c>
+      <c r="C274" s="41">
+        <v>6</v>
+      </c>
+      <c r="D274" s="33">
+        <f t="shared" si="3"/>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="45">
+        <v>10</v>
+      </c>
+      <c r="B275" s="41">
+        <v>2</v>
+      </c>
+      <c r="C275" s="41">
+        <v>7</v>
+      </c>
+      <c r="D275" s="33">
+        <f t="shared" si="3"/>
+        <v>146.14000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="45">
+        <v>10</v>
+      </c>
+      <c r="B276" s="41">
+        <v>2</v>
+      </c>
+      <c r="C276" s="41">
+        <v>8</v>
+      </c>
+      <c r="D276" s="33">
+        <f t="shared" si="3"/>
+        <v>150.54000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="45">
+        <v>10</v>
+      </c>
+      <c r="B277" s="41">
+        <v>2</v>
+      </c>
+      <c r="C277" s="41">
+        <v>9</v>
+      </c>
+      <c r="D277" s="33">
+        <f t="shared" si="3"/>
+        <v>154.94</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="45">
+        <v>10</v>
+      </c>
+      <c r="B278" s="41">
+        <v>2</v>
+      </c>
+      <c r="C278" s="41">
+        <v>10</v>
+      </c>
+      <c r="D278" s="33">
+        <f t="shared" si="3"/>
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="45">
+        <v>10</v>
+      </c>
+      <c r="B279" s="41">
+        <v>2</v>
+      </c>
+      <c r="C279" s="41">
+        <v>11</v>
+      </c>
+      <c r="D279" s="33">
+        <f t="shared" si="3"/>
+        <v>163.74</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="45">
+        <v>10</v>
+      </c>
+      <c r="B280" s="41">
+        <v>2</v>
+      </c>
+      <c r="C280" s="41">
+        <v>12</v>
+      </c>
+      <c r="D280" s="33">
+        <f t="shared" si="3"/>
+        <v>168.14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="49">
+        <v>10</v>
+      </c>
+      <c r="B281" s="50">
+        <v>2</v>
+      </c>
+      <c r="C281" s="50">
+        <v>13</v>
+      </c>
+      <c r="D281" s="36">
+        <f t="shared" si="3"/>
+        <v>172.54000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8500FB9-8168-4F45-A6C0-AC8912AD767A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A5 B1:N3"/>
+      <selection activeCell="E5" sqref="E5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,7 +5912,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A1:N3 A4:A5"/>
+      <selection activeCell="H5" sqref="H5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +6053,7 @@
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="26">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1789,7 +6097,7 @@
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="27">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -1825,7 +6133,7 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +6402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,7 +6520,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,7 +6565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D7B831-465F-4D9E-A34C-BDBE150D7D37}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2297,4 +6605,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>220</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>180</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>140</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>120</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>180</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>200</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>80</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>100</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>240</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34">
+        <v>80</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Documents\runway-allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022D678F-EC3E-4922-B610-46A581C9CB08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C6C6F-C40B-4556-857C-4C6354FF04AD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>Nr</t>
   </si>
@@ -778,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -834,6 +834,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1435,15 +1438,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6572479F-AFDE-4940-94F1-052247087792}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
@@ -1456,8 +1459,20 @@
       <c r="D1" s="39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -1467,207 +1482,476 @@
       <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2">
+        <v>147.11999999999998</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+      <c r="I2" s="29">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30">
+        <f>$J$15+(I2*20*fuel_flow!$B$2)</f>
+        <v>151.51999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33">
+        <f>$J$15+(C3*20*fuel_flow!$B$2)</f>
+        <v>151.51999999999998</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33">
+        <f>$J$15+(I3*20*fuel_flow!$B$2)</f>
+        <v>155.91999999999999</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2</v>
+      </c>
+      <c r="D4" s="33">
+        <f>$J$15+(C4*20*fuel_flow!$B$2)</f>
+        <v>155.91999999999999</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33">
+        <f>$J$15+(I4*20*fuel_flow!$B$2)</f>
+        <v>160.31999999999996</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33">
+        <f>$J$15+(C5*20*fuel_flow!$B$2)</f>
+        <v>160.31999999999996</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33">
+        <f>$J$15+(I5*20*fuel_flow!$B$2)</f>
+        <v>164.71999999999997</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33">
+        <f>$J$15+(C6*20*fuel_flow!$B$2)</f>
+        <v>164.71999999999997</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>5</v>
+      </c>
+      <c r="J6" s="33">
+        <f>$J$15+(I6*20*fuel_flow!$B$2)</f>
+        <v>169.11999999999998</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32">
+        <v>5</v>
+      </c>
+      <c r="D7" s="33">
+        <f>$J$15+(C7*20*fuel_flow!$B$2)</f>
+        <v>169.11999999999998</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="I7" s="32">
+        <v>6</v>
+      </c>
+      <c r="J7" s="33">
+        <f>$J$15+(I7*20*fuel_flow!$B$2)</f>
+        <v>173.51999999999998</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>6</v>
+      </c>
+      <c r="D8" s="33">
+        <f>$J$15+(C8*20*fuel_flow!$B$2)</f>
+        <v>173.51999999999998</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
+        <v>7</v>
+      </c>
+      <c r="J8" s="33">
+        <f>$J$15+(I8*20*fuel_flow!$B$2)</f>
+        <v>177.92</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32">
+        <v>7</v>
+      </c>
+      <c r="D9" s="33">
+        <f>$J$15+(C9*20*fuel_flow!$B$2)</f>
+        <v>177.92</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32">
+        <v>8</v>
+      </c>
+      <c r="J9" s="33">
+        <f>$J$15+(I9*20*fuel_flow!$B$2)</f>
+        <v>182.32</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>8</v>
+      </c>
+      <c r="D10" s="33">
+        <f>$J$15+(C10*20*fuel_flow!$B$2)</f>
+        <v>182.32</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="32">
+        <v>9</v>
+      </c>
+      <c r="J10" s="33">
+        <f>$J$15+(I10*20*fuel_flow!$B$2)</f>
+        <v>186.71999999999997</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>9</v>
+      </c>
+      <c r="D11" s="33">
+        <f>$J$15+(C11*20*fuel_flow!$B$2)</f>
+        <v>186.71999999999997</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="I11" s="32">
+        <v>10</v>
+      </c>
+      <c r="J11" s="33">
+        <f>$J$15+(I11*20*fuel_flow!$B$2)</f>
+        <v>191.11999999999998</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32">
+        <v>10</v>
+      </c>
+      <c r="D12" s="33">
+        <f>$J$15+(C12*20*fuel_flow!$B$2)</f>
+        <v>191.11999999999998</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="32">
+        <v>11</v>
+      </c>
+      <c r="J12" s="33">
+        <f>$J$15+(I12*20*fuel_flow!$B$2)</f>
+        <v>195.51999999999998</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33">
+        <f>$J$15+(C13*20*fuel_flow!$B$2)</f>
+        <v>195.51999999999998</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="32">
+        <v>12</v>
+      </c>
+      <c r="J13" s="33">
+        <f>$J$15+(I13*20*fuel_flow!$B$2)</f>
+        <v>199.91999999999996</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32">
+        <v>12</v>
+      </c>
+      <c r="D14" s="33">
+        <f>$J$15+(C14*20*fuel_flow!$B$2)</f>
+        <v>199.91999999999996</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>13</v>
+      </c>
+      <c r="J14" s="33">
+        <f>$J$15+(I14*20*fuel_flow!$B$2)</f>
+        <v>204.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="32">
+        <v>13</v>
+      </c>
+      <c r="D15" s="33">
+        <f>$J$15+(C15*20*fuel_flow!$B$2)</f>
+        <v>204.32</v>
+      </c>
+      <c r="G15" s="46">
+        <v>1</v>
+      </c>
+      <c r="H15" s="42">
+        <v>1</v>
+      </c>
+      <c r="I15" s="42">
+        <v>14</v>
+      </c>
+      <c r="J15" s="44">
         <f>(t_to_RWY!B4*fuel_flow!B2)+(t_to_taxi!B4*fuel_flow!B3)</f>
         <v>147.11999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33">
-        <f>$D$2+(C3*20*fuel_flow!$B$2)</f>
-        <v>151.51999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32">
-        <v>2</v>
-      </c>
-      <c r="D4" s="33">
-        <f>$D$2+(C4*20*fuel_flow!$B$2)</f>
-        <v>155.91999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32">
-        <v>3</v>
-      </c>
-      <c r="D5" s="33">
-        <f>$D$2+(C5*20*fuel_flow!$B$2)</f>
-        <v>160.31999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1</v>
-      </c>
-      <c r="C6" s="32">
-        <v>4</v>
-      </c>
-      <c r="D6" s="33">
-        <f>$D$2+(C6*20*fuel_flow!$B$2)</f>
-        <v>164.71999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>1</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32">
-        <v>5</v>
-      </c>
-      <c r="D7" s="33">
-        <f>$D$2+(C7*20*fuel_flow!$B$2)</f>
-        <v>169.11999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32">
-        <v>6</v>
-      </c>
-      <c r="D8" s="33">
-        <f>$D$2+(C8*20*fuel_flow!$B$2)</f>
-        <v>173.51999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32">
-        <v>7</v>
-      </c>
-      <c r="D9" s="33">
-        <f>$D$2+(C9*20*fuel_flow!$B$2)</f>
-        <v>177.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
-        <v>1</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32">
-        <v>8</v>
-      </c>
-      <c r="D10" s="33">
-        <f>$D$2+(C10*20*fuel_flow!$B$2)</f>
-        <v>182.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>1</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="32">
-        <v>9</v>
-      </c>
-      <c r="D11" s="33">
-        <f>$D$2+(C11*20*fuel_flow!$B$2)</f>
-        <v>186.71999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>1</v>
-      </c>
-      <c r="B12" s="32">
-        <v>1</v>
-      </c>
-      <c r="C12" s="32">
-        <v>10</v>
-      </c>
-      <c r="D12" s="33">
-        <f>$D$2+(C12*20*fuel_flow!$B$2)</f>
-        <v>191.11999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
-        <v>1</v>
-      </c>
-      <c r="B13" s="32">
-        <v>1</v>
-      </c>
-      <c r="C13" s="32">
-        <v>11</v>
-      </c>
-      <c r="D13" s="33">
-        <f>$D$2+(C13*20*fuel_flow!$B$2)</f>
-        <v>195.51999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
-        <v>1</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32">
-        <v>12</v>
-      </c>
-      <c r="D14" s="33">
-        <f>$D$2+(C14*20*fuel_flow!$B$2)</f>
-        <v>199.91999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
-        <v>1</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32">
-        <v>13</v>
-      </c>
-      <c r="D15" s="33">
-        <f>$D$2+(C15*20*fuel_flow!$B$2)</f>
-        <v>204.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>1</v>
       </c>
@@ -1681,8 +1965,21 @@
         <f>(t_to_RWY!C4*fuel_flow!B2)+(t_to_taxi!C4*fuel_flow!B3)</f>
         <v>263.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>2</v>
+      </c>
+      <c r="I16" s="32">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33">
+        <f>$D$16+(20*I16*fuel_flow!$B$2)</f>
+        <v>268.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>1</v>
       </c>
@@ -1696,8 +1993,21 @@
         <f>$D$16+(20*C17*fuel_flow!$B$2)</f>
         <v>268.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
+        <v>2</v>
+      </c>
+      <c r="I17" s="32">
+        <v>2</v>
+      </c>
+      <c r="J17" s="33">
+        <f>$D$16+(20*I17*fuel_flow!$B$2)</f>
+        <v>272.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>1</v>
       </c>
@@ -1711,8 +2021,21 @@
         <f>$D$16+(20*C18*fuel_flow!$B$2)</f>
         <v>272.42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>2</v>
+      </c>
+      <c r="I18" s="32">
+        <v>3</v>
+      </c>
+      <c r="J18" s="33">
+        <f>$D$16+(20*I18*fuel_flow!$B$2)</f>
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>1</v>
       </c>
@@ -1726,8 +2049,21 @@
         <f>$D$16+(20*C19*fuel_flow!$B$2)</f>
         <v>276.82</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32">
+        <v>2</v>
+      </c>
+      <c r="I19" s="32">
+        <v>4</v>
+      </c>
+      <c r="J19" s="33">
+        <f>$D$16+(20*I19*fuel_flow!$B$2)</f>
+        <v>281.22000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>1</v>
       </c>
@@ -1741,8 +2077,21 @@
         <f>$D$16+(20*C20*fuel_flow!$B$2)</f>
         <v>281.22000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" s="31">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>2</v>
+      </c>
+      <c r="I20" s="32">
+        <v>5</v>
+      </c>
+      <c r="J20" s="33">
+        <f>$D$16+(20*I20*fuel_flow!$B$2)</f>
+        <v>285.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>1</v>
       </c>
@@ -1756,8 +2105,21 @@
         <f>$D$16+(20*C21*fuel_flow!$B$2)</f>
         <v>285.62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" s="31">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>2</v>
+      </c>
+      <c r="I21" s="32">
+        <v>6</v>
+      </c>
+      <c r="J21" s="33">
+        <f>$D$16+(20*I21*fuel_flow!$B$2)</f>
+        <v>290.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>1</v>
       </c>
@@ -1771,8 +2133,21 @@
         <f>$D$16+(20*C22*fuel_flow!$B$2)</f>
         <v>290.02</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
+        <v>2</v>
+      </c>
+      <c r="I22" s="32">
+        <v>7</v>
+      </c>
+      <c r="J22" s="33">
+        <f>$D$16+(20*I22*fuel_flow!$B$2)</f>
+        <v>294.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>1</v>
       </c>
@@ -1786,8 +2161,21 @@
         <f>$D$16+(20*C23*fuel_flow!$B$2)</f>
         <v>294.42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>2</v>
+      </c>
+      <c r="I23" s="32">
+        <v>8</v>
+      </c>
+      <c r="J23" s="33">
+        <f>$D$16+(20*I23*fuel_flow!$B$2)</f>
+        <v>298.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1</v>
       </c>
@@ -1801,8 +2189,21 @@
         <f>$D$16+(20*C24*fuel_flow!$B$2)</f>
         <v>298.82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32">
+        <v>2</v>
+      </c>
+      <c r="I24" s="32">
+        <v>9</v>
+      </c>
+      <c r="J24" s="33">
+        <f>$D$16+(20*I24*fuel_flow!$B$2)</f>
+        <v>303.22000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>1</v>
       </c>
@@ -1816,8 +2217,21 @@
         <f>$D$16+(20*C25*fuel_flow!$B$2)</f>
         <v>303.22000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32">
+        <v>2</v>
+      </c>
+      <c r="I25" s="32">
+        <v>10</v>
+      </c>
+      <c r="J25" s="33">
+        <f>$D$16+(20*I25*fuel_flow!$B$2)</f>
+        <v>307.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>1</v>
       </c>
@@ -1831,8 +2245,21 @@
         <f>$D$16+(20*C26*fuel_flow!$B$2)</f>
         <v>307.62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="32">
+        <v>2</v>
+      </c>
+      <c r="I26" s="32">
+        <v>11</v>
+      </c>
+      <c r="J26" s="33">
+        <f>$D$16+(20*I26*fuel_flow!$B$2)</f>
+        <v>312.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>1</v>
       </c>
@@ -1846,8 +2273,21 @@
         <f>$D$16+(20*C27*fuel_flow!$B$2)</f>
         <v>312.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32">
+        <v>2</v>
+      </c>
+      <c r="I27" s="32">
+        <v>12</v>
+      </c>
+      <c r="J27" s="33">
+        <f>$D$16+(20*I27*fuel_flow!$B$2)</f>
+        <v>316.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>1</v>
       </c>
@@ -1861,8 +2301,21 @@
         <f>$D$16+(20*C28*fuel_flow!$B$2)</f>
         <v>316.42</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="H28" s="32">
+        <v>2</v>
+      </c>
+      <c r="I28" s="32">
+        <v>13</v>
+      </c>
+      <c r="J28" s="33">
+        <f>$D$16+(20*I28*fuel_flow!$B$2)</f>
+        <v>320.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43">
         <v>1</v>
       </c>
@@ -1876,8 +2329,20 @@
         <f>$D$16+(20*C29*fuel_flow!$B$2)</f>
         <v>320.82</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29" s="45">
+        <v>1</v>
+      </c>
+      <c r="H29" s="41">
+        <v>2</v>
+      </c>
+      <c r="I29" s="41">
+        <v>14</v>
+      </c>
+      <c r="J29" s="33">
+        <v>263.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>2</v>
       </c>
@@ -1891,8 +2356,21 @@
         <f>(t_to_RWY!B3*fuel_flow!B2)+(t_to_taxi!B3*fuel_flow!B3)</f>
         <v>266.14</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30" s="28">
+        <v>2</v>
+      </c>
+      <c r="H30" s="29">
+        <v>1</v>
+      </c>
+      <c r="I30" s="29">
+        <v>1</v>
+      </c>
+      <c r="J30" s="30">
+        <f>$D$30+(20*I30*fuel_flow!$B$2)</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>2</v>
       </c>
@@ -1906,8 +2384,21 @@
         <f>$D$30+(20*C31*fuel_flow!$B$2)</f>
         <v>270.53999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31" s="31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="32">
+        <v>1</v>
+      </c>
+      <c r="I31" s="32">
+        <v>2</v>
+      </c>
+      <c r="J31" s="33">
+        <f>$D$30+(20*I31*fuel_flow!$B$2)</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>2</v>
       </c>
@@ -1921,8 +2412,21 @@
         <f>$D$30+(20*C32*fuel_flow!$B$2)</f>
         <v>274.94</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G32" s="31">
+        <v>2</v>
+      </c>
+      <c r="H32" s="32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="32">
+        <v>3</v>
+      </c>
+      <c r="J32" s="33">
+        <f>$D$30+(20*I32*fuel_flow!$B$2)</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>2</v>
       </c>
@@ -1936,8 +2440,21 @@
         <f>$D$30+(20*C33*fuel_flow!$B$2)</f>
         <v>279.33999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G33" s="31">
+        <v>2</v>
+      </c>
+      <c r="H33" s="32">
+        <v>1</v>
+      </c>
+      <c r="I33" s="32">
+        <v>4</v>
+      </c>
+      <c r="J33" s="33">
+        <f>$D$30+(20*I33*fuel_flow!$B$2)</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>2</v>
       </c>
@@ -1951,8 +2468,21 @@
         <f>$D$30+(20*C34*fuel_flow!$B$2)</f>
         <v>283.74</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G34" s="31">
+        <v>2</v>
+      </c>
+      <c r="H34" s="32">
+        <v>1</v>
+      </c>
+      <c r="I34" s="32">
+        <v>5</v>
+      </c>
+      <c r="J34" s="33">
+        <f>$D$30+(20*I34*fuel_flow!$B$2)</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>2</v>
       </c>
@@ -1966,8 +2496,21 @@
         <f>$D$30+(20*C35*fuel_flow!$B$2)</f>
         <v>288.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G35" s="31">
+        <v>2</v>
+      </c>
+      <c r="H35" s="32">
+        <v>1</v>
+      </c>
+      <c r="I35" s="32">
+        <v>6</v>
+      </c>
+      <c r="J35" s="33">
+        <f>$D$30+(20*I35*fuel_flow!$B$2)</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>2</v>
       </c>
@@ -1981,8 +2524,21 @@
         <f>$D$30+(20*C36*fuel_flow!$B$2)</f>
         <v>292.53999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G36" s="31">
+        <v>2</v>
+      </c>
+      <c r="H36" s="32">
+        <v>1</v>
+      </c>
+      <c r="I36" s="32">
+        <v>7</v>
+      </c>
+      <c r="J36" s="33">
+        <f>$D$30+(20*I36*fuel_flow!$B$2)</f>
+        <v>296.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>2</v>
       </c>
@@ -1996,8 +2552,21 @@
         <f>$D$30+(20*C37*fuel_flow!$B$2)</f>
         <v>296.94</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G37" s="31">
+        <v>2</v>
+      </c>
+      <c r="H37" s="32">
+        <v>1</v>
+      </c>
+      <c r="I37" s="32">
+        <v>8</v>
+      </c>
+      <c r="J37" s="33">
+        <f>$D$30+(20*I37*fuel_flow!$B$2)</f>
+        <v>301.33999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>2</v>
       </c>
@@ -2011,8 +2580,21 @@
         <f>$D$30+(20*C38*fuel_flow!$B$2)</f>
         <v>301.33999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G38" s="31">
+        <v>2</v>
+      </c>
+      <c r="H38" s="32">
+        <v>1</v>
+      </c>
+      <c r="I38" s="32">
+        <v>9</v>
+      </c>
+      <c r="J38" s="33">
+        <f>$D$30+(20*I38*fuel_flow!$B$2)</f>
+        <v>305.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>2</v>
       </c>
@@ -2026,8 +2608,21 @@
         <f>$D$30+(20*C39*fuel_flow!$B$2)</f>
         <v>305.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G39" s="31">
+        <v>2</v>
+      </c>
+      <c r="H39" s="32">
+        <v>1</v>
+      </c>
+      <c r="I39" s="32">
+        <v>10</v>
+      </c>
+      <c r="J39" s="33">
+        <f>$D$30+(20*I39*fuel_flow!$B$2)</f>
+        <v>310.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>2</v>
       </c>
@@ -2041,8 +2636,21 @@
         <f>$D$30+(20*C40*fuel_flow!$B$2)</f>
         <v>310.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G40" s="31">
+        <v>2</v>
+      </c>
+      <c r="H40" s="32">
+        <v>1</v>
+      </c>
+      <c r="I40" s="32">
+        <v>11</v>
+      </c>
+      <c r="J40" s="33">
+        <f>$D$30+(20*I40*fuel_flow!$B$2)</f>
+        <v>314.53999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>2</v>
       </c>
@@ -2056,8 +2664,21 @@
         <f>$D$30+(20*C41*fuel_flow!$B$2)</f>
         <v>314.53999999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G41" s="31">
+        <v>2</v>
+      </c>
+      <c r="H41" s="32">
+        <v>1</v>
+      </c>
+      <c r="I41" s="32">
+        <v>12</v>
+      </c>
+      <c r="J41" s="33">
+        <f>$D$30+(20*I41*fuel_flow!$B$2)</f>
+        <v>318.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>2</v>
       </c>
@@ -2071,8 +2692,21 @@
         <f>$D$30+(20*C42*fuel_flow!$B$2)</f>
         <v>318.94</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G42" s="31">
+        <v>2</v>
+      </c>
+      <c r="H42" s="32">
+        <v>1</v>
+      </c>
+      <c r="I42" s="32">
+        <v>13</v>
+      </c>
+      <c r="J42" s="33">
+        <f>$D$30+(20*I42*fuel_flow!$B$2)</f>
+        <v>323.33999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>2</v>
       </c>
@@ -2086,8 +2720,20 @@
         <f>$D$30+(20*C43*fuel_flow!$B$2)</f>
         <v>323.33999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G43" s="46">
+        <v>2</v>
+      </c>
+      <c r="H43" s="42">
+        <v>1</v>
+      </c>
+      <c r="I43" s="42">
+        <v>14</v>
+      </c>
+      <c r="J43" s="44">
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>2</v>
       </c>
@@ -2101,8 +2747,21 @@
         <f>(t_to_RWY!C3*fuel_flow!B2)+(t_to_taxi!C3*fuel_flow!B3)</f>
         <v>115.34</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G44" s="31">
+        <v>2</v>
+      </c>
+      <c r="H44" s="32">
+        <v>2</v>
+      </c>
+      <c r="I44" s="32">
+        <v>1</v>
+      </c>
+      <c r="J44" s="33">
+        <f>$D$44+(I44*20*fuel_flow!$B$2)</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>2</v>
       </c>
@@ -2116,8 +2775,21 @@
         <f>$D$44+(C45*20*fuel_flow!$B$2)</f>
         <v>119.74000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G45" s="31">
+        <v>2</v>
+      </c>
+      <c r="H45" s="32">
+        <v>2</v>
+      </c>
+      <c r="I45" s="32">
+        <v>2</v>
+      </c>
+      <c r="J45" s="33">
+        <f>$D$44+(I45*20*fuel_flow!$B$2)</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>2</v>
       </c>
@@ -2131,8 +2803,21 @@
         <f>$D$44+(C46*20*fuel_flow!$B$2)</f>
         <v>124.14</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G46" s="31">
+        <v>2</v>
+      </c>
+      <c r="H46" s="32">
+        <v>2</v>
+      </c>
+      <c r="I46" s="32">
+        <v>3</v>
+      </c>
+      <c r="J46" s="33">
+        <f>$D$44+(I46*20*fuel_flow!$B$2)</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>2</v>
       </c>
@@ -2146,8 +2831,21 @@
         <f>$D$44+(C47*20*fuel_flow!$B$2)</f>
         <v>128.54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G47" s="31">
+        <v>2</v>
+      </c>
+      <c r="H47" s="32">
+        <v>2</v>
+      </c>
+      <c r="I47" s="32">
+        <v>4</v>
+      </c>
+      <c r="J47" s="33">
+        <f>$D$44+(I47*20*fuel_flow!$B$2)</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <v>2</v>
       </c>
@@ -2161,8 +2859,21 @@
         <f>$D$44+(C48*20*fuel_flow!$B$2)</f>
         <v>132.94</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G48" s="31">
+        <v>2</v>
+      </c>
+      <c r="H48" s="32">
+        <v>2</v>
+      </c>
+      <c r="I48" s="32">
+        <v>5</v>
+      </c>
+      <c r="J48" s="33">
+        <f>$D$44+(I48*20*fuel_flow!$B$2)</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>2</v>
       </c>
@@ -2176,8 +2887,21 @@
         <f>$D$44+(C49*20*fuel_flow!$B$2)</f>
         <v>137.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G49" s="31">
+        <v>2</v>
+      </c>
+      <c r="H49" s="32">
+        <v>2</v>
+      </c>
+      <c r="I49" s="32">
+        <v>6</v>
+      </c>
+      <c r="J49" s="33">
+        <f>$D$44+(I49*20*fuel_flow!$B$2)</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <v>2</v>
       </c>
@@ -2191,8 +2915,21 @@
         <f>$D$44+(C50*20*fuel_flow!$B$2)</f>
         <v>141.74</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G50" s="31">
+        <v>2</v>
+      </c>
+      <c r="H50" s="32">
+        <v>2</v>
+      </c>
+      <c r="I50" s="32">
+        <v>7</v>
+      </c>
+      <c r="J50" s="33">
+        <f>$D$44+(I50*20*fuel_flow!$B$2)</f>
+        <v>146.14000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <v>2</v>
       </c>
@@ -2206,8 +2943,21 @@
         <f>$D$44+(C51*20*fuel_flow!$B$2)</f>
         <v>146.14000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G51" s="31">
+        <v>2</v>
+      </c>
+      <c r="H51" s="32">
+        <v>2</v>
+      </c>
+      <c r="I51" s="32">
+        <v>8</v>
+      </c>
+      <c r="J51" s="33">
+        <f>$D$44+(I51*20*fuel_flow!$B$2)</f>
+        <v>150.54000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <v>2</v>
       </c>
@@ -2221,8 +2971,21 @@
         <f>$D$44+(C52*20*fuel_flow!$B$2)</f>
         <v>150.54000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G52" s="31">
+        <v>2</v>
+      </c>
+      <c r="H52" s="32">
+        <v>2</v>
+      </c>
+      <c r="I52" s="32">
+        <v>9</v>
+      </c>
+      <c r="J52" s="33">
+        <f>$D$44+(I52*20*fuel_flow!$B$2)</f>
+        <v>154.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <v>2</v>
       </c>
@@ -2236,8 +2999,21 @@
         <f>$D$44+(C53*20*fuel_flow!$B$2)</f>
         <v>154.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G53" s="31">
+        <v>2</v>
+      </c>
+      <c r="H53" s="32">
+        <v>2</v>
+      </c>
+      <c r="I53" s="32">
+        <v>10</v>
+      </c>
+      <c r="J53" s="33">
+        <f>$D$44+(I53*20*fuel_flow!$B$2)</f>
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <v>2</v>
       </c>
@@ -2251,8 +3027,21 @@
         <f>$D$44+(C54*20*fuel_flow!$B$2)</f>
         <v>159.34</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G54" s="31">
+        <v>2</v>
+      </c>
+      <c r="H54" s="32">
+        <v>2</v>
+      </c>
+      <c r="I54" s="32">
+        <v>11</v>
+      </c>
+      <c r="J54" s="33">
+        <f>$D$44+(I54*20*fuel_flow!$B$2)</f>
+        <v>163.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>2</v>
       </c>
@@ -2266,8 +3055,21 @@
         <f>$D$44+(C55*20*fuel_flow!$B$2)</f>
         <v>163.74</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G55" s="31">
+        <v>2</v>
+      </c>
+      <c r="H55" s="32">
+        <v>2</v>
+      </c>
+      <c r="I55" s="32">
+        <v>12</v>
+      </c>
+      <c r="J55" s="33">
+        <f>$D$44+(I55*20*fuel_flow!$B$2)</f>
+        <v>168.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
         <v>2</v>
       </c>
@@ -2281,8 +3083,21 @@
         <f>$D$44+(C56*20*fuel_flow!$B$2)</f>
         <v>168.14</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G56" s="31">
+        <v>2</v>
+      </c>
+      <c r="H56" s="32">
+        <v>2</v>
+      </c>
+      <c r="I56" s="32">
+        <v>13</v>
+      </c>
+      <c r="J56" s="33">
+        <f>$D$44+(I56*20*fuel_flow!$B$2)</f>
+        <v>172.54000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="43">
         <v>2</v>
       </c>
@@ -2296,8 +3111,20 @@
         <f>$D$44+(C57*20*fuel_flow!$B$2)</f>
         <v>172.54000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G57" s="45">
+        <v>2</v>
+      </c>
+      <c r="H57" s="41">
+        <v>2</v>
+      </c>
+      <c r="I57" s="41">
+        <v>14</v>
+      </c>
+      <c r="J57" s="33">
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <v>3</v>
       </c>
@@ -2311,8 +3138,21 @@
         <f>(t_to_RWY!B2*fuel_flow!C2)+(t_to_taxi!C2*fuel_flow!C3)</f>
         <v>387.47</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G58" s="28">
+        <v>3</v>
+      </c>
+      <c r="H58" s="29">
+        <v>1</v>
+      </c>
+      <c r="I58" s="29">
+        <v>1</v>
+      </c>
+      <c r="J58" s="30">
+        <f>$D$58+(20*I58*fuel_flow!$C$2)</f>
+        <v>398.07000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
         <v>3</v>
       </c>
@@ -2326,8 +3166,21 @@
         <f>$D$58+(20*C59*fuel_flow!$C$2)</f>
         <v>398.07000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G59" s="31">
+        <v>3</v>
+      </c>
+      <c r="H59" s="32">
+        <v>1</v>
+      </c>
+      <c r="I59" s="32">
+        <v>2</v>
+      </c>
+      <c r="J59" s="33">
+        <f>$D$58+(20*I59*fuel_flow!$C$2)</f>
+        <v>408.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <v>3</v>
       </c>
@@ -2341,8 +3194,21 @@
         <f>$D$58+(20*C60*fuel_flow!$C$2)</f>
         <v>408.67</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G60" s="31">
+        <v>3</v>
+      </c>
+      <c r="H60" s="32">
+        <v>1</v>
+      </c>
+      <c r="I60" s="32">
+        <v>3</v>
+      </c>
+      <c r="J60" s="33">
+        <f>$D$58+(20*I60*fuel_flow!$C$2)</f>
+        <v>419.27000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
         <v>3</v>
       </c>
@@ -2356,8 +3222,21 @@
         <f>$D$58+(20*C61*fuel_flow!$C$2)</f>
         <v>419.27000000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G61" s="31">
+        <v>3</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1</v>
+      </c>
+      <c r="I61" s="32">
+        <v>4</v>
+      </c>
+      <c r="J61" s="33">
+        <f>$D$58+(20*I61*fuel_flow!$C$2)</f>
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
         <v>3</v>
       </c>
@@ -2371,8 +3250,21 @@
         <f>$D$58+(20*C62*fuel_flow!$C$2)</f>
         <v>429.87</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G62" s="31">
+        <v>3</v>
+      </c>
+      <c r="H62" s="32">
+        <v>1</v>
+      </c>
+      <c r="I62" s="32">
+        <v>5</v>
+      </c>
+      <c r="J62" s="33">
+        <f>$D$58+(20*I62*fuel_flow!$C$2)</f>
+        <v>440.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
         <v>3</v>
       </c>
@@ -2386,8 +3278,21 @@
         <f>$D$58+(20*C63*fuel_flow!$C$2)</f>
         <v>440.47</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G63" s="31">
+        <v>3</v>
+      </c>
+      <c r="H63" s="32">
+        <v>1</v>
+      </c>
+      <c r="I63" s="32">
+        <v>6</v>
+      </c>
+      <c r="J63" s="33">
+        <f>$D$58+(20*I63*fuel_flow!$C$2)</f>
+        <v>451.07000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
         <v>3</v>
       </c>
@@ -2401,8 +3306,21 @@
         <f>$D$58+(20*C64*fuel_flow!$C$2)</f>
         <v>451.07000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G64" s="31">
+        <v>3</v>
+      </c>
+      <c r="H64" s="32">
+        <v>1</v>
+      </c>
+      <c r="I64" s="32">
+        <v>7</v>
+      </c>
+      <c r="J64" s="33">
+        <f>$D$58+(20*I64*fuel_flow!$C$2)</f>
+        <v>461.67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
         <v>3</v>
       </c>
@@ -2416,8 +3334,21 @@
         <f>$D$58+(20*C65*fuel_flow!$C$2)</f>
         <v>461.67</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G65" s="31">
+        <v>3</v>
+      </c>
+      <c r="H65" s="32">
+        <v>1</v>
+      </c>
+      <c r="I65" s="32">
+        <v>8</v>
+      </c>
+      <c r="J65" s="33">
+        <f>$D$58+(20*I65*fuel_flow!$C$2)</f>
+        <v>472.27000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
         <v>3</v>
       </c>
@@ -2431,8 +3362,21 @@
         <f>$D$58+(20*C66*fuel_flow!$C$2)</f>
         <v>472.27000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G66" s="31">
+        <v>3</v>
+      </c>
+      <c r="H66" s="32">
+        <v>1</v>
+      </c>
+      <c r="I66" s="32">
+        <v>9</v>
+      </c>
+      <c r="J66" s="33">
+        <f>$D$58+(20*I66*fuel_flow!$C$2)</f>
+        <v>482.87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="31">
         <v>3</v>
       </c>
@@ -2446,8 +3390,21 @@
         <f>$D$58+(20*C67*fuel_flow!$C$2)</f>
         <v>482.87</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G67" s="31">
+        <v>3</v>
+      </c>
+      <c r="H67" s="32">
+        <v>1</v>
+      </c>
+      <c r="I67" s="32">
+        <v>10</v>
+      </c>
+      <c r="J67" s="33">
+        <f>$D$58+(20*I67*fuel_flow!$C$2)</f>
+        <v>493.47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="31">
         <v>3</v>
       </c>
@@ -2461,8 +3418,21 @@
         <f>$D$58+(20*C68*fuel_flow!$C$2)</f>
         <v>493.47</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G68" s="31">
+        <v>3</v>
+      </c>
+      <c r="H68" s="32">
+        <v>1</v>
+      </c>
+      <c r="I68" s="32">
+        <v>11</v>
+      </c>
+      <c r="J68" s="33">
+        <f>$D$58+(20*I68*fuel_flow!$C$2)</f>
+        <v>504.07000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
         <v>3</v>
       </c>
@@ -2476,8 +3446,21 @@
         <f>$D$58+(20*C69*fuel_flow!$C$2)</f>
         <v>504.07000000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G69" s="31">
+        <v>3</v>
+      </c>
+      <c r="H69" s="32">
+        <v>1</v>
+      </c>
+      <c r="I69" s="32">
+        <v>12</v>
+      </c>
+      <c r="J69" s="33">
+        <f>$D$58+(20*I69*fuel_flow!$C$2)</f>
+        <v>514.67000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
         <v>3</v>
       </c>
@@ -2491,8 +3474,21 @@
         <f>$D$58+(20*C70*fuel_flow!$C$2)</f>
         <v>514.67000000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G70" s="31">
+        <v>3</v>
+      </c>
+      <c r="H70" s="32">
+        <v>1</v>
+      </c>
+      <c r="I70" s="32">
+        <v>13</v>
+      </c>
+      <c r="J70" s="33">
+        <f>$D$58+(20*I70*fuel_flow!$C$2)</f>
+        <v>525.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
         <v>3</v>
       </c>
@@ -2506,8 +3502,20 @@
         <f>$D$58+(20*C71*fuel_flow!$C$2)</f>
         <v>525.27</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G71" s="46">
+        <v>3</v>
+      </c>
+      <c r="H71" s="42">
+        <v>1</v>
+      </c>
+      <c r="I71" s="42">
+        <v>14</v>
+      </c>
+      <c r="J71" s="44">
+        <v>387.47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
         <v>3</v>
       </c>
@@ -2521,8 +3529,21 @@
         <f>(t_to_RWY!C2*fuel_flow!C2)+(t_to_taxi!C2*fuel_flow!C3)</f>
         <v>562.90000000000009</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G72" s="31">
+        <v>3</v>
+      </c>
+      <c r="H72" s="32">
+        <v>2</v>
+      </c>
+      <c r="I72" s="32">
+        <v>1</v>
+      </c>
+      <c r="J72" s="33">
+        <f>$D$72+(20*I72*fuel_flow!$C$2)</f>
+        <v>573.50000000000011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="31">
         <v>3</v>
       </c>
@@ -2536,8 +3557,21 @@
         <f>$D$72+(20*C73*fuel_flow!$C$2)</f>
         <v>573.50000000000011</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G73" s="31">
+        <v>3</v>
+      </c>
+      <c r="H73" s="32">
+        <v>2</v>
+      </c>
+      <c r="I73" s="32">
+        <v>2</v>
+      </c>
+      <c r="J73" s="33">
+        <f>$D$72+(20*I73*fuel_flow!$C$2)</f>
+        <v>584.10000000000014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
         <v>3</v>
       </c>
@@ -2551,8 +3585,21 @@
         <f>$D$72+(20*C74*fuel_flow!$C$2)</f>
         <v>584.10000000000014</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G74" s="31">
+        <v>3</v>
+      </c>
+      <c r="H74" s="32">
+        <v>2</v>
+      </c>
+      <c r="I74" s="32">
+        <v>3</v>
+      </c>
+      <c r="J74" s="33">
+        <f>$D$72+(20*I74*fuel_flow!$C$2)</f>
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="31">
         <v>3</v>
       </c>
@@ -2566,8 +3613,21 @@
         <f>$D$72+(20*C75*fuel_flow!$C$2)</f>
         <v>594.70000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G75" s="31">
+        <v>3</v>
+      </c>
+      <c r="H75" s="32">
+        <v>2</v>
+      </c>
+      <c r="I75" s="32">
+        <v>4</v>
+      </c>
+      <c r="J75" s="33">
+        <f>$D$72+(20*I75*fuel_flow!$C$2)</f>
+        <v>605.30000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="31">
         <v>3</v>
       </c>
@@ -2581,8 +3641,21 @@
         <f>$D$72+(20*C76*fuel_flow!$C$2)</f>
         <v>605.30000000000007</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G76" s="31">
+        <v>3</v>
+      </c>
+      <c r="H76" s="32">
+        <v>2</v>
+      </c>
+      <c r="I76" s="32">
+        <v>5</v>
+      </c>
+      <c r="J76" s="33">
+        <f>$D$72+(20*I76*fuel_flow!$C$2)</f>
+        <v>615.90000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="31">
         <v>3</v>
       </c>
@@ -2596,8 +3669,21 @@
         <f>$D$72+(20*C77*fuel_flow!$C$2)</f>
         <v>615.90000000000009</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G77" s="31">
+        <v>3</v>
+      </c>
+      <c r="H77" s="32">
+        <v>2</v>
+      </c>
+      <c r="I77" s="32">
+        <v>6</v>
+      </c>
+      <c r="J77" s="33">
+        <f>$D$72+(20*I77*fuel_flow!$C$2)</f>
+        <v>626.50000000000011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="31">
         <v>3</v>
       </c>
@@ -2611,8 +3697,21 @@
         <f>$D$72+(20*C78*fuel_flow!$C$2)</f>
         <v>626.50000000000011</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G78" s="31">
+        <v>3</v>
+      </c>
+      <c r="H78" s="32">
+        <v>2</v>
+      </c>
+      <c r="I78" s="32">
+        <v>7</v>
+      </c>
+      <c r="J78" s="33">
+        <f>$D$72+(20*I78*fuel_flow!$C$2)</f>
+        <v>637.10000000000014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
         <v>3</v>
       </c>
@@ -2626,8 +3725,21 @@
         <f>$D$72+(20*C79*fuel_flow!$C$2)</f>
         <v>637.10000000000014</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G79" s="31">
+        <v>3</v>
+      </c>
+      <c r="H79" s="32">
+        <v>2</v>
+      </c>
+      <c r="I79" s="32">
+        <v>8</v>
+      </c>
+      <c r="J79" s="33">
+        <f>$D$72+(20*I79*fuel_flow!$C$2)</f>
+        <v>647.70000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="31">
         <v>3</v>
       </c>
@@ -2641,8 +3753,21 @@
         <f>$D$72+(20*C80*fuel_flow!$C$2)</f>
         <v>647.70000000000005</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G80" s="31">
+        <v>3</v>
+      </c>
+      <c r="H80" s="32">
+        <v>2</v>
+      </c>
+      <c r="I80" s="32">
+        <v>9</v>
+      </c>
+      <c r="J80" s="33">
+        <f>$D$72+(20*I80*fuel_flow!$C$2)</f>
+        <v>658.30000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
         <v>3</v>
       </c>
@@ -2656,8 +3781,21 @@
         <f>$D$72+(20*C81*fuel_flow!$C$2)</f>
         <v>658.30000000000007</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G81" s="31">
+        <v>3</v>
+      </c>
+      <c r="H81" s="32">
+        <v>2</v>
+      </c>
+      <c r="I81" s="32">
+        <v>10</v>
+      </c>
+      <c r="J81" s="33">
+        <f>$D$72+(20*I81*fuel_flow!$C$2)</f>
+        <v>668.90000000000009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="31">
         <v>3</v>
       </c>
@@ -2671,8 +3809,21 @@
         <f>$D$72+(20*C82*fuel_flow!$C$2)</f>
         <v>668.90000000000009</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G82" s="31">
+        <v>3</v>
+      </c>
+      <c r="H82" s="32">
+        <v>2</v>
+      </c>
+      <c r="I82" s="32">
+        <v>11</v>
+      </c>
+      <c r="J82" s="33">
+        <f>$D$72+(20*I82*fuel_flow!$C$2)</f>
+        <v>679.50000000000011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
         <v>3</v>
       </c>
@@ -2686,8 +3837,21 @@
         <f>$D$72+(20*C83*fuel_flow!$C$2)</f>
         <v>679.50000000000011</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G83" s="31">
+        <v>3</v>
+      </c>
+      <c r="H83" s="32">
+        <v>2</v>
+      </c>
+      <c r="I83" s="32">
+        <v>12</v>
+      </c>
+      <c r="J83" s="33">
+        <f>$D$72+(20*I83*fuel_flow!$C$2)</f>
+        <v>690.10000000000014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="31">
         <v>3</v>
       </c>
@@ -2701,8 +3865,21 @@
         <f>$D$72+(20*C84*fuel_flow!$C$2)</f>
         <v>690.10000000000014</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G84" s="31">
+        <v>3</v>
+      </c>
+      <c r="H84" s="32">
+        <v>2</v>
+      </c>
+      <c r="I84" s="32">
+        <v>13</v>
+      </c>
+      <c r="J84" s="33">
+        <f>$D$72+(20*I84*fuel_flow!$C$2)</f>
+        <v>700.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="43">
         <v>3</v>
       </c>
@@ -2716,8 +3893,20 @@
         <f>$D$72+(20*C85*fuel_flow!$C$2)</f>
         <v>700.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G85" s="45">
+        <v>3</v>
+      </c>
+      <c r="H85" s="41">
+        <v>2</v>
+      </c>
+      <c r="I85" s="41">
+        <v>14</v>
+      </c>
+      <c r="J85" s="33">
+        <v>562.90000000000009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="45">
         <v>4</v>
       </c>
@@ -2731,8 +3920,21 @@
         <f>D30</f>
         <v>266.14</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G86" s="51">
+        <v>4</v>
+      </c>
+      <c r="H86" s="52">
+        <v>1</v>
+      </c>
+      <c r="I86" s="52">
+        <v>1</v>
+      </c>
+      <c r="J86" s="30">
+        <f>J30</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="45">
         <v>4</v>
       </c>
@@ -2746,8 +3948,21 @@
         <f t="shared" ref="D87:D113" si="0">D31</f>
         <v>270.53999999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G87" s="45">
+        <v>4</v>
+      </c>
+      <c r="H87" s="41">
+        <v>1</v>
+      </c>
+      <c r="I87" s="41">
+        <v>2</v>
+      </c>
+      <c r="J87" s="33">
+        <f>J31</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="45">
         <v>4</v>
       </c>
@@ -2761,8 +3976,21 @@
         <f t="shared" si="0"/>
         <v>274.94</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G88" s="45">
+        <v>4</v>
+      </c>
+      <c r="H88" s="41">
+        <v>1</v>
+      </c>
+      <c r="I88" s="41">
+        <v>3</v>
+      </c>
+      <c r="J88" s="33">
+        <f>J32</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="45">
         <v>4</v>
       </c>
@@ -2776,8 +4004,21 @@
         <f t="shared" si="0"/>
         <v>279.33999999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G89" s="45">
+        <v>4</v>
+      </c>
+      <c r="H89" s="41">
+        <v>1</v>
+      </c>
+      <c r="I89" s="41">
+        <v>4</v>
+      </c>
+      <c r="J89" s="33">
+        <f>J33</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="45">
         <v>4</v>
       </c>
@@ -2791,8 +4032,21 @@
         <f t="shared" si="0"/>
         <v>283.74</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G90" s="45">
+        <v>4</v>
+      </c>
+      <c r="H90" s="41">
+        <v>1</v>
+      </c>
+      <c r="I90" s="41">
+        <v>5</v>
+      </c>
+      <c r="J90" s="33">
+        <f>J34</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="45">
         <v>4</v>
       </c>
@@ -2806,8 +4060,21 @@
         <f t="shared" si="0"/>
         <v>288.14</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G91" s="45">
+        <v>4</v>
+      </c>
+      <c r="H91" s="41">
+        <v>1</v>
+      </c>
+      <c r="I91" s="41">
+        <v>6</v>
+      </c>
+      <c r="J91" s="33">
+        <f>J35</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="45">
         <v>4</v>
       </c>
@@ -2821,8 +4088,21 @@
         <f t="shared" si="0"/>
         <v>292.53999999999996</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G92" s="45">
+        <v>4</v>
+      </c>
+      <c r="H92" s="41">
+        <v>1</v>
+      </c>
+      <c r="I92" s="41">
+        <v>7</v>
+      </c>
+      <c r="J92" s="33">
+        <f>J36</f>
+        <v>296.94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="45">
         <v>4</v>
       </c>
@@ -2836,8 +4116,21 @@
         <f t="shared" si="0"/>
         <v>296.94</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G93" s="45">
+        <v>4</v>
+      </c>
+      <c r="H93" s="41">
+        <v>1</v>
+      </c>
+      <c r="I93" s="41">
+        <v>8</v>
+      </c>
+      <c r="J93" s="33">
+        <f>J37</f>
+        <v>301.33999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="45">
         <v>4</v>
       </c>
@@ -2851,8 +4144,21 @@
         <f t="shared" si="0"/>
         <v>301.33999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G94" s="45">
+        <v>4</v>
+      </c>
+      <c r="H94" s="41">
+        <v>1</v>
+      </c>
+      <c r="I94" s="41">
+        <v>9</v>
+      </c>
+      <c r="J94" s="33">
+        <f>J38</f>
+        <v>305.74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="45">
         <v>4</v>
       </c>
@@ -2866,8 +4172,21 @@
         <f t="shared" si="0"/>
         <v>305.74</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G95" s="45">
+        <v>4</v>
+      </c>
+      <c r="H95" s="41">
+        <v>1</v>
+      </c>
+      <c r="I95" s="41">
+        <v>10</v>
+      </c>
+      <c r="J95" s="33">
+        <f>J39</f>
+        <v>310.14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="45">
         <v>4</v>
       </c>
@@ -2881,8 +4200,21 @@
         <f t="shared" si="0"/>
         <v>310.14</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G96" s="45">
+        <v>4</v>
+      </c>
+      <c r="H96" s="41">
+        <v>1</v>
+      </c>
+      <c r="I96" s="41">
+        <v>11</v>
+      </c>
+      <c r="J96" s="33">
+        <f>J40</f>
+        <v>314.53999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="45">
         <v>4</v>
       </c>
@@ -2896,8 +4228,21 @@
         <f t="shared" si="0"/>
         <v>314.53999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G97" s="45">
+        <v>4</v>
+      </c>
+      <c r="H97" s="41">
+        <v>1</v>
+      </c>
+      <c r="I97" s="41">
+        <v>12</v>
+      </c>
+      <c r="J97" s="33">
+        <f>J41</f>
+        <v>318.94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="45">
         <v>4</v>
       </c>
@@ -2911,8 +4256,21 @@
         <f t="shared" si="0"/>
         <v>318.94</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G98" s="45">
+        <v>4</v>
+      </c>
+      <c r="H98" s="41">
+        <v>1</v>
+      </c>
+      <c r="I98" s="41">
+        <v>13</v>
+      </c>
+      <c r="J98" s="33">
+        <f>J42</f>
+        <v>323.33999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="45">
         <v>4</v>
       </c>
@@ -2926,8 +4284,21 @@
         <f t="shared" si="0"/>
         <v>323.33999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G99" s="43">
+        <v>4</v>
+      </c>
+      <c r="H99" s="42">
+        <v>1</v>
+      </c>
+      <c r="I99" s="42">
+        <v>14</v>
+      </c>
+      <c r="J99" s="44">
+        <f>J43</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="45">
         <v>4</v>
       </c>
@@ -2941,8 +4312,21 @@
         <f t="shared" si="0"/>
         <v>115.34</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G100" s="45">
+        <v>4</v>
+      </c>
+      <c r="H100" s="41">
+        <v>2</v>
+      </c>
+      <c r="I100" s="41">
+        <v>1</v>
+      </c>
+      <c r="J100" s="33">
+        <f>J44</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="45">
         <v>4</v>
       </c>
@@ -2956,8 +4340,21 @@
         <f t="shared" si="0"/>
         <v>119.74000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G101" s="45">
+        <v>4</v>
+      </c>
+      <c r="H101" s="41">
+        <v>2</v>
+      </c>
+      <c r="I101" s="41">
+        <v>2</v>
+      </c>
+      <c r="J101" s="33">
+        <f>J45</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="45">
         <v>4</v>
       </c>
@@ -2971,8 +4368,21 @@
         <f t="shared" si="0"/>
         <v>124.14</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G102" s="45">
+        <v>4</v>
+      </c>
+      <c r="H102" s="41">
+        <v>2</v>
+      </c>
+      <c r="I102" s="41">
+        <v>3</v>
+      </c>
+      <c r="J102" s="33">
+        <f>J46</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="45">
         <v>4</v>
       </c>
@@ -2986,8 +4396,21 @@
         <f t="shared" si="0"/>
         <v>128.54</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G103" s="45">
+        <v>4</v>
+      </c>
+      <c r="H103" s="41">
+        <v>2</v>
+      </c>
+      <c r="I103" s="41">
+        <v>4</v>
+      </c>
+      <c r="J103" s="33">
+        <f>J47</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="45">
         <v>4</v>
       </c>
@@ -3001,8 +4424,21 @@
         <f t="shared" si="0"/>
         <v>132.94</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G104" s="45">
+        <v>4</v>
+      </c>
+      <c r="H104" s="41">
+        <v>2</v>
+      </c>
+      <c r="I104" s="41">
+        <v>5</v>
+      </c>
+      <c r="J104" s="33">
+        <f>J48</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="45">
         <v>4</v>
       </c>
@@ -3016,8 +4452,21 @@
         <f t="shared" si="0"/>
         <v>137.34</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G105" s="45">
+        <v>4</v>
+      </c>
+      <c r="H105" s="41">
+        <v>2</v>
+      </c>
+      <c r="I105" s="41">
+        <v>6</v>
+      </c>
+      <c r="J105" s="33">
+        <f>J49</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="45">
         <v>4</v>
       </c>
@@ -3031,8 +4480,21 @@
         <f t="shared" si="0"/>
         <v>141.74</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G106" s="45">
+        <v>4</v>
+      </c>
+      <c r="H106" s="41">
+        <v>2</v>
+      </c>
+      <c r="I106" s="41">
+        <v>7</v>
+      </c>
+      <c r="J106" s="33">
+        <f>J50</f>
+        <v>146.14000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="45">
         <v>4</v>
       </c>
@@ -3046,8 +4508,21 @@
         <f t="shared" si="0"/>
         <v>146.14000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G107" s="45">
+        <v>4</v>
+      </c>
+      <c r="H107" s="41">
+        <v>2</v>
+      </c>
+      <c r="I107" s="41">
+        <v>8</v>
+      </c>
+      <c r="J107" s="33">
+        <f>J51</f>
+        <v>150.54000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="45">
         <v>4</v>
       </c>
@@ -3061,8 +4536,21 @@
         <f t="shared" si="0"/>
         <v>150.54000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G108" s="45">
+        <v>4</v>
+      </c>
+      <c r="H108" s="41">
+        <v>2</v>
+      </c>
+      <c r="I108" s="41">
+        <v>9</v>
+      </c>
+      <c r="J108" s="33">
+        <f>J52</f>
+        <v>154.94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="45">
         <v>4</v>
       </c>
@@ -3076,8 +4564,21 @@
         <f t="shared" si="0"/>
         <v>154.94</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G109" s="45">
+        <v>4</v>
+      </c>
+      <c r="H109" s="41">
+        <v>2</v>
+      </c>
+      <c r="I109" s="41">
+        <v>10</v>
+      </c>
+      <c r="J109" s="33">
+        <f>J53</f>
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="45">
         <v>4</v>
       </c>
@@ -3091,8 +4592,21 @@
         <f t="shared" si="0"/>
         <v>159.34</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G110" s="45">
+        <v>4</v>
+      </c>
+      <c r="H110" s="41">
+        <v>2</v>
+      </c>
+      <c r="I110" s="41">
+        <v>11</v>
+      </c>
+      <c r="J110" s="33">
+        <f>J54</f>
+        <v>163.74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="45">
         <v>4</v>
       </c>
@@ -3106,8 +4620,21 @@
         <f t="shared" si="0"/>
         <v>163.74</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G111" s="45">
+        <v>4</v>
+      </c>
+      <c r="H111" s="41">
+        <v>2</v>
+      </c>
+      <c r="I111" s="41">
+        <v>12</v>
+      </c>
+      <c r="J111" s="33">
+        <f>J55</f>
+        <v>168.14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="45">
         <v>4</v>
       </c>
@@ -3121,8 +4648,21 @@
         <f t="shared" si="0"/>
         <v>168.14</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G112" s="45">
+        <v>4</v>
+      </c>
+      <c r="H112" s="41">
+        <v>2</v>
+      </c>
+      <c r="I112" s="41">
+        <v>13</v>
+      </c>
+      <c r="J112" s="33">
+        <f>J56</f>
+        <v>172.54000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="46">
         <v>4</v>
       </c>
@@ -3136,8 +4676,21 @@
         <f t="shared" si="0"/>
         <v>172.54000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G113" s="34">
+        <v>4</v>
+      </c>
+      <c r="H113" s="35">
+        <v>2</v>
+      </c>
+      <c r="I113" s="35">
+        <v>14</v>
+      </c>
+      <c r="J113" s="36">
+        <f t="shared" ref="J113" si="1">J57</f>
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="45">
         <v>5</v>
       </c>
@@ -3151,8 +4704,21 @@
         <f>D58</f>
         <v>387.47</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G114" s="45">
+        <v>5</v>
+      </c>
+      <c r="H114" s="41">
+        <v>1</v>
+      </c>
+      <c r="I114" s="41">
+        <v>1</v>
+      </c>
+      <c r="J114" s="47">
+        <f>J58</f>
+        <v>398.07000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="45">
         <v>5</v>
       </c>
@@ -3163,11 +4729,24 @@
         <v>1</v>
       </c>
       <c r="D115" s="47">
-        <f t="shared" ref="D115:D141" si="1">D59</f>
+        <f t="shared" ref="D115:D141" si="2">D59</f>
         <v>398.07000000000005</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G115" s="45">
+        <v>5</v>
+      </c>
+      <c r="H115" s="41">
+        <v>1</v>
+      </c>
+      <c r="I115" s="41">
+        <v>2</v>
+      </c>
+      <c r="J115" s="47">
+        <f>J59</f>
+        <v>408.67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="45">
         <v>5</v>
       </c>
@@ -3178,11 +4757,24 @@
         <v>2</v>
       </c>
       <c r="D116" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>408.67</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G116" s="45">
+        <v>5</v>
+      </c>
+      <c r="H116" s="41">
+        <v>1</v>
+      </c>
+      <c r="I116" s="41">
+        <v>3</v>
+      </c>
+      <c r="J116" s="47">
+        <f>J60</f>
+        <v>419.27000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="45">
         <v>5</v>
       </c>
@@ -3193,11 +4785,24 @@
         <v>3</v>
       </c>
       <c r="D117" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>419.27000000000004</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G117" s="45">
+        <v>5</v>
+      </c>
+      <c r="H117" s="41">
+        <v>1</v>
+      </c>
+      <c r="I117" s="41">
+        <v>4</v>
+      </c>
+      <c r="J117" s="47">
+        <f>J61</f>
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="45">
         <v>5</v>
       </c>
@@ -3208,11 +4813,24 @@
         <v>4</v>
       </c>
       <c r="D118" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>429.87</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G118" s="45">
+        <v>5</v>
+      </c>
+      <c r="H118" s="41">
+        <v>1</v>
+      </c>
+      <c r="I118" s="41">
+        <v>5</v>
+      </c>
+      <c r="J118" s="47">
+        <f>J62</f>
+        <v>440.47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="45">
         <v>5</v>
       </c>
@@ -3223,11 +4841,24 @@
         <v>5</v>
       </c>
       <c r="D119" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440.47</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G119" s="45">
+        <v>5</v>
+      </c>
+      <c r="H119" s="41">
+        <v>1</v>
+      </c>
+      <c r="I119" s="41">
+        <v>6</v>
+      </c>
+      <c r="J119" s="47">
+        <f>J63</f>
+        <v>451.07000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="45">
         <v>5</v>
       </c>
@@ -3238,11 +4869,24 @@
         <v>6</v>
       </c>
       <c r="D120" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>451.07000000000005</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G120" s="45">
+        <v>5</v>
+      </c>
+      <c r="H120" s="41">
+        <v>1</v>
+      </c>
+      <c r="I120" s="41">
+        <v>7</v>
+      </c>
+      <c r="J120" s="47">
+        <f>J64</f>
+        <v>461.67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="45">
         <v>5</v>
       </c>
@@ -3253,11 +4897,24 @@
         <v>7</v>
       </c>
       <c r="D121" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>461.67</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G121" s="45">
+        <v>5</v>
+      </c>
+      <c r="H121" s="41">
+        <v>1</v>
+      </c>
+      <c r="I121" s="41">
+        <v>8</v>
+      </c>
+      <c r="J121" s="47">
+        <f>J65</f>
+        <v>472.27000000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="45">
         <v>5</v>
       </c>
@@ -3268,11 +4925,24 @@
         <v>8</v>
       </c>
       <c r="D122" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>472.27000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G122" s="45">
+        <v>5</v>
+      </c>
+      <c r="H122" s="41">
+        <v>1</v>
+      </c>
+      <c r="I122" s="41">
+        <v>9</v>
+      </c>
+      <c r="J122" s="47">
+        <f>J66</f>
+        <v>482.87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="45">
         <v>5</v>
       </c>
@@ -3283,11 +4953,24 @@
         <v>9</v>
       </c>
       <c r="D123" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>482.87</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G123" s="45">
+        <v>5</v>
+      </c>
+      <c r="H123" s="41">
+        <v>1</v>
+      </c>
+      <c r="I123" s="41">
+        <v>10</v>
+      </c>
+      <c r="J123" s="47">
+        <f>J67</f>
+        <v>493.47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="45">
         <v>5</v>
       </c>
@@ -3298,11 +4981,24 @@
         <v>10</v>
       </c>
       <c r="D124" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>493.47</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G124" s="45">
+        <v>5</v>
+      </c>
+      <c r="H124" s="41">
+        <v>1</v>
+      </c>
+      <c r="I124" s="41">
+        <v>11</v>
+      </c>
+      <c r="J124" s="47">
+        <f>J68</f>
+        <v>504.07000000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="45">
         <v>5</v>
       </c>
@@ -3313,11 +5009,24 @@
         <v>11</v>
       </c>
       <c r="D125" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504.07000000000005</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G125" s="45">
+        <v>5</v>
+      </c>
+      <c r="H125" s="41">
+        <v>1</v>
+      </c>
+      <c r="I125" s="41">
+        <v>12</v>
+      </c>
+      <c r="J125" s="47">
+        <f>J69</f>
+        <v>514.67000000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="45">
         <v>5</v>
       </c>
@@ -3328,11 +5037,24 @@
         <v>12</v>
       </c>
       <c r="D126" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514.67000000000007</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G126" s="45">
+        <v>5</v>
+      </c>
+      <c r="H126" s="41">
+        <v>1</v>
+      </c>
+      <c r="I126" s="41">
+        <v>13</v>
+      </c>
+      <c r="J126" s="47">
+        <f>J70</f>
+        <v>525.27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="45">
         <v>5</v>
       </c>
@@ -3343,11 +5065,24 @@
         <v>13</v>
       </c>
       <c r="D127" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>525.27</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G127" s="43">
+        <v>5</v>
+      </c>
+      <c r="H127" s="42">
+        <v>1</v>
+      </c>
+      <c r="I127" s="42">
+        <v>14</v>
+      </c>
+      <c r="J127" s="48">
+        <f>J71</f>
+        <v>387.47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="45">
         <v>5</v>
       </c>
@@ -3358,11 +5093,24 @@
         <v>0</v>
       </c>
       <c r="D128" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>562.90000000000009</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G128" s="45">
+        <v>5</v>
+      </c>
+      <c r="H128" s="41">
+        <v>2</v>
+      </c>
+      <c r="I128" s="41">
+        <v>1</v>
+      </c>
+      <c r="J128" s="47">
+        <f>J72</f>
+        <v>573.50000000000011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="45">
         <v>5</v>
       </c>
@@ -3373,11 +5121,24 @@
         <v>1</v>
       </c>
       <c r="D129" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>573.50000000000011</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G129" s="45">
+        <v>5</v>
+      </c>
+      <c r="H129" s="41">
+        <v>2</v>
+      </c>
+      <c r="I129" s="41">
+        <v>2</v>
+      </c>
+      <c r="J129" s="47">
+        <f>J73</f>
+        <v>584.10000000000014</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="45">
         <v>5</v>
       </c>
@@ -3388,11 +5149,24 @@
         <v>2</v>
       </c>
       <c r="D130" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>584.10000000000014</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G130" s="45">
+        <v>5</v>
+      </c>
+      <c r="H130" s="41">
+        <v>2</v>
+      </c>
+      <c r="I130" s="41">
+        <v>3</v>
+      </c>
+      <c r="J130" s="47">
+        <f>J74</f>
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="45">
         <v>5</v>
       </c>
@@ -3403,11 +5177,24 @@
         <v>3</v>
       </c>
       <c r="D131" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>594.70000000000005</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G131" s="45">
+        <v>5</v>
+      </c>
+      <c r="H131" s="41">
+        <v>2</v>
+      </c>
+      <c r="I131" s="41">
+        <v>4</v>
+      </c>
+      <c r="J131" s="47">
+        <f>J75</f>
+        <v>605.30000000000007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="45">
         <v>5</v>
       </c>
@@ -3418,11 +5205,24 @@
         <v>4</v>
       </c>
       <c r="D132" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>605.30000000000007</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G132" s="45">
+        <v>5</v>
+      </c>
+      <c r="H132" s="41">
+        <v>2</v>
+      </c>
+      <c r="I132" s="41">
+        <v>5</v>
+      </c>
+      <c r="J132" s="47">
+        <f>J76</f>
+        <v>615.90000000000009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="45">
         <v>5</v>
       </c>
@@ -3433,11 +5233,24 @@
         <v>5</v>
       </c>
       <c r="D133" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>615.90000000000009</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G133" s="45">
+        <v>5</v>
+      </c>
+      <c r="H133" s="41">
+        <v>2</v>
+      </c>
+      <c r="I133" s="41">
+        <v>6</v>
+      </c>
+      <c r="J133" s="47">
+        <f>J77</f>
+        <v>626.50000000000011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="45">
         <v>5</v>
       </c>
@@ -3448,11 +5261,24 @@
         <v>6</v>
       </c>
       <c r="D134" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>626.50000000000011</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G134" s="45">
+        <v>5</v>
+      </c>
+      <c r="H134" s="41">
+        <v>2</v>
+      </c>
+      <c r="I134" s="41">
+        <v>7</v>
+      </c>
+      <c r="J134" s="47">
+        <f>J78</f>
+        <v>637.10000000000014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="45">
         <v>5</v>
       </c>
@@ -3463,11 +5289,24 @@
         <v>7</v>
       </c>
       <c r="D135" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>637.10000000000014</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G135" s="45">
+        <v>5</v>
+      </c>
+      <c r="H135" s="41">
+        <v>2</v>
+      </c>
+      <c r="I135" s="41">
+        <v>8</v>
+      </c>
+      <c r="J135" s="47">
+        <f>J79</f>
+        <v>647.70000000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="45">
         <v>5</v>
       </c>
@@ -3478,11 +5317,24 @@
         <v>8</v>
       </c>
       <c r="D136" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>647.70000000000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G136" s="45">
+        <v>5</v>
+      </c>
+      <c r="H136" s="41">
+        <v>2</v>
+      </c>
+      <c r="I136" s="41">
+        <v>9</v>
+      </c>
+      <c r="J136" s="47">
+        <f>J80</f>
+        <v>658.30000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="45">
         <v>5</v>
       </c>
@@ -3493,11 +5345,24 @@
         <v>9</v>
       </c>
       <c r="D137" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658.30000000000007</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G137" s="45">
+        <v>5</v>
+      </c>
+      <c r="H137" s="41">
+        <v>2</v>
+      </c>
+      <c r="I137" s="41">
+        <v>10</v>
+      </c>
+      <c r="J137" s="47">
+        <f>J81</f>
+        <v>668.90000000000009</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="45">
         <v>5</v>
       </c>
@@ -3508,11 +5373,24 @@
         <v>10</v>
       </c>
       <c r="D138" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>668.90000000000009</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G138" s="45">
+        <v>5</v>
+      </c>
+      <c r="H138" s="41">
+        <v>2</v>
+      </c>
+      <c r="I138" s="41">
+        <v>11</v>
+      </c>
+      <c r="J138" s="47">
+        <f>J82</f>
+        <v>679.50000000000011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="45">
         <v>5</v>
       </c>
@@ -3523,11 +5401,24 @@
         <v>11</v>
       </c>
       <c r="D139" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>679.50000000000011</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G139" s="45">
+        <v>5</v>
+      </c>
+      <c r="H139" s="41">
+        <v>2</v>
+      </c>
+      <c r="I139" s="41">
+        <v>12</v>
+      </c>
+      <c r="J139" s="47">
+        <f>J83</f>
+        <v>690.10000000000014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="45">
         <v>5</v>
       </c>
@@ -3538,11 +5429,24 @@
         <v>12</v>
       </c>
       <c r="D140" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>690.10000000000014</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G140" s="45">
+        <v>5</v>
+      </c>
+      <c r="H140" s="41">
+        <v>2</v>
+      </c>
+      <c r="I140" s="41">
+        <v>13</v>
+      </c>
+      <c r="J140" s="47">
+        <f>J84</f>
+        <v>700.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="46">
         <v>5</v>
       </c>
@@ -3553,11 +5457,24 @@
         <v>13</v>
       </c>
       <c r="D141" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700.7</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G141" s="34">
+        <v>5</v>
+      </c>
+      <c r="H141" s="35">
+        <v>2</v>
+      </c>
+      <c r="I141" s="35">
+        <v>14</v>
+      </c>
+      <c r="J141" s="53">
+        <f t="shared" ref="J141" si="3">J85</f>
+        <v>562.90000000000009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="45">
         <v>6</v>
       </c>
@@ -3568,11 +5485,24 @@
         <v>0</v>
       </c>
       <c r="D142" s="47">
-        <f>D2</f>
+        <f>J15</f>
         <v>147.11999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G142" s="45">
+        <v>6</v>
+      </c>
+      <c r="H142" s="41">
+        <v>1</v>
+      </c>
+      <c r="I142" s="41">
+        <v>1</v>
+      </c>
+      <c r="J142" s="47">
+        <f>J2</f>
+        <v>151.51999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="45">
         <v>6</v>
       </c>
@@ -3583,11 +5513,24 @@
         <v>1</v>
       </c>
       <c r="D143" s="47">
-        <f t="shared" ref="D143:D169" si="2">D3</f>
+        <f t="shared" ref="D143:D169" si="4">D3</f>
         <v>151.51999999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G143" s="45">
+        <v>6</v>
+      </c>
+      <c r="H143" s="41">
+        <v>1</v>
+      </c>
+      <c r="I143" s="41">
+        <v>2</v>
+      </c>
+      <c r="J143" s="47">
+        <f>J3</f>
+        <v>155.91999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="45">
         <v>6</v>
       </c>
@@ -3598,11 +5541,24 @@
         <v>2</v>
       </c>
       <c r="D144" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>155.91999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G144" s="45">
+        <v>6</v>
+      </c>
+      <c r="H144" s="41">
+        <v>1</v>
+      </c>
+      <c r="I144" s="41">
+        <v>3</v>
+      </c>
+      <c r="J144" s="47">
+        <f>J4</f>
+        <v>160.31999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="45">
         <v>6</v>
       </c>
@@ -3613,11 +5569,24 @@
         <v>3</v>
       </c>
       <c r="D145" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>160.31999999999996</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G145" s="45">
+        <v>6</v>
+      </c>
+      <c r="H145" s="41">
+        <v>1</v>
+      </c>
+      <c r="I145" s="41">
+        <v>4</v>
+      </c>
+      <c r="J145" s="47">
+        <f>J5</f>
+        <v>164.71999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="45">
         <v>6</v>
       </c>
@@ -3628,11 +5597,24 @@
         <v>4</v>
       </c>
       <c r="D146" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>164.71999999999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G146" s="45">
+        <v>6</v>
+      </c>
+      <c r="H146" s="41">
+        <v>1</v>
+      </c>
+      <c r="I146" s="41">
+        <v>5</v>
+      </c>
+      <c r="J146" s="47">
+        <f>J6</f>
+        <v>169.11999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="45">
         <v>6</v>
       </c>
@@ -3643,11 +5625,24 @@
         <v>5</v>
       </c>
       <c r="D147" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>169.11999999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G147" s="45">
+        <v>6</v>
+      </c>
+      <c r="H147" s="41">
+        <v>1</v>
+      </c>
+      <c r="I147" s="41">
+        <v>6</v>
+      </c>
+      <c r="J147" s="47">
+        <f>J7</f>
+        <v>173.51999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="45">
         <v>6</v>
       </c>
@@ -3658,11 +5653,24 @@
         <v>6</v>
       </c>
       <c r="D148" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>173.51999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G148" s="45">
+        <v>6</v>
+      </c>
+      <c r="H148" s="41">
+        <v>1</v>
+      </c>
+      <c r="I148" s="41">
+        <v>7</v>
+      </c>
+      <c r="J148" s="47">
+        <f>J8</f>
+        <v>177.92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="45">
         <v>6</v>
       </c>
@@ -3673,11 +5681,24 @@
         <v>7</v>
       </c>
       <c r="D149" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>177.92</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G149" s="45">
+        <v>6</v>
+      </c>
+      <c r="H149" s="41">
+        <v>1</v>
+      </c>
+      <c r="I149" s="41">
+        <v>8</v>
+      </c>
+      <c r="J149" s="47">
+        <f>J9</f>
+        <v>182.32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="45">
         <v>6</v>
       </c>
@@ -3688,11 +5709,24 @@
         <v>8</v>
       </c>
       <c r="D150" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182.32</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G150" s="45">
+        <v>6</v>
+      </c>
+      <c r="H150" s="41">
+        <v>1</v>
+      </c>
+      <c r="I150" s="41">
+        <v>9</v>
+      </c>
+      <c r="J150" s="47">
+        <f>J10</f>
+        <v>186.71999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="45">
         <v>6</v>
       </c>
@@ -3703,11 +5737,24 @@
         <v>9</v>
       </c>
       <c r="D151" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>186.71999999999997</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G151" s="45">
+        <v>6</v>
+      </c>
+      <c r="H151" s="41">
+        <v>1</v>
+      </c>
+      <c r="I151" s="41">
+        <v>10</v>
+      </c>
+      <c r="J151" s="47">
+        <f>J11</f>
+        <v>191.11999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="45">
         <v>6</v>
       </c>
@@ -3718,11 +5765,24 @@
         <v>10</v>
       </c>
       <c r="D152" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>191.11999999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G152" s="45">
+        <v>6</v>
+      </c>
+      <c r="H152" s="41">
+        <v>1</v>
+      </c>
+      <c r="I152" s="41">
+        <v>11</v>
+      </c>
+      <c r="J152" s="47">
+        <f>J12</f>
+        <v>195.51999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="45">
         <v>6</v>
       </c>
@@ -3733,11 +5793,24 @@
         <v>11</v>
       </c>
       <c r="D153" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>195.51999999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G153" s="45">
+        <v>6</v>
+      </c>
+      <c r="H153" s="41">
+        <v>1</v>
+      </c>
+      <c r="I153" s="41">
+        <v>12</v>
+      </c>
+      <c r="J153" s="47">
+        <f>J13</f>
+        <v>199.91999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="45">
         <v>6</v>
       </c>
@@ -3748,11 +5821,24 @@
         <v>12</v>
       </c>
       <c r="D154" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>199.91999999999996</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G154" s="45">
+        <v>6</v>
+      </c>
+      <c r="H154" s="41">
+        <v>1</v>
+      </c>
+      <c r="I154" s="41">
+        <v>13</v>
+      </c>
+      <c r="J154" s="47">
+        <f>J14</f>
+        <v>204.32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="45">
         <v>6</v>
       </c>
@@ -3763,11 +5849,23 @@
         <v>13</v>
       </c>
       <c r="D155" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>204.32</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G155" s="43">
+        <v>6</v>
+      </c>
+      <c r="H155" s="42">
+        <v>1</v>
+      </c>
+      <c r="I155" s="42">
+        <v>14</v>
+      </c>
+      <c r="J155" s="48">
+        <v>147.11999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="45">
         <v>6</v>
       </c>
@@ -3778,11 +5876,24 @@
         <v>0</v>
       </c>
       <c r="D156" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>263.62</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G156" s="45">
+        <v>6</v>
+      </c>
+      <c r="H156" s="41">
+        <v>2</v>
+      </c>
+      <c r="I156" s="41">
+        <v>1</v>
+      </c>
+      <c r="J156" s="47">
+        <f>J16</f>
+        <v>268.02</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="45">
         <v>6</v>
       </c>
@@ -3793,11 +5904,24 @@
         <v>1</v>
       </c>
       <c r="D157" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>268.02</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G157" s="45">
+        <v>6</v>
+      </c>
+      <c r="H157" s="41">
+        <v>2</v>
+      </c>
+      <c r="I157" s="41">
+        <v>2</v>
+      </c>
+      <c r="J157" s="47">
+        <f>J17</f>
+        <v>272.42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="45">
         <v>6</v>
       </c>
@@ -3808,11 +5932,24 @@
         <v>2</v>
       </c>
       <c r="D158" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>272.42</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G158" s="45">
+        <v>6</v>
+      </c>
+      <c r="H158" s="41">
+        <v>2</v>
+      </c>
+      <c r="I158" s="41">
+        <v>3</v>
+      </c>
+      <c r="J158" s="47">
+        <f>J18</f>
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="45">
         <v>6</v>
       </c>
@@ -3823,11 +5960,24 @@
         <v>3</v>
       </c>
       <c r="D159" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>276.82</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G159" s="45">
+        <v>6</v>
+      </c>
+      <c r="H159" s="41">
+        <v>2</v>
+      </c>
+      <c r="I159" s="41">
+        <v>4</v>
+      </c>
+      <c r="J159" s="47">
+        <f>J19</f>
+        <v>281.22000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="45">
         <v>6</v>
       </c>
@@ -3838,11 +5988,24 @@
         <v>4</v>
       </c>
       <c r="D160" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>281.22000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G160" s="45">
+        <v>6</v>
+      </c>
+      <c r="H160" s="41">
+        <v>2</v>
+      </c>
+      <c r="I160" s="41">
+        <v>5</v>
+      </c>
+      <c r="J160" s="47">
+        <f>J20</f>
+        <v>285.62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="45">
         <v>6</v>
       </c>
@@ -3853,11 +6016,24 @@
         <v>5</v>
       </c>
       <c r="D161" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>285.62</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G161" s="45">
+        <v>6</v>
+      </c>
+      <c r="H161" s="41">
+        <v>2</v>
+      </c>
+      <c r="I161" s="41">
+        <v>6</v>
+      </c>
+      <c r="J161" s="47">
+        <f>J21</f>
+        <v>290.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="45">
         <v>6</v>
       </c>
@@ -3868,11 +6044,24 @@
         <v>6</v>
       </c>
       <c r="D162" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>290.02</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G162" s="45">
+        <v>6</v>
+      </c>
+      <c r="H162" s="41">
+        <v>2</v>
+      </c>
+      <c r="I162" s="41">
+        <v>7</v>
+      </c>
+      <c r="J162" s="47">
+        <f>J22</f>
+        <v>294.42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="45">
         <v>6</v>
       </c>
@@ -3883,11 +6072,24 @@
         <v>7</v>
       </c>
       <c r="D163" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>294.42</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G163" s="45">
+        <v>6</v>
+      </c>
+      <c r="H163" s="41">
+        <v>2</v>
+      </c>
+      <c r="I163" s="41">
+        <v>8</v>
+      </c>
+      <c r="J163" s="47">
+        <f>J23</f>
+        <v>298.82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="45">
         <v>6</v>
       </c>
@@ -3898,11 +6100,24 @@
         <v>8</v>
       </c>
       <c r="D164" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>298.82</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G164" s="45">
+        <v>6</v>
+      </c>
+      <c r="H164" s="41">
+        <v>2</v>
+      </c>
+      <c r="I164" s="41">
+        <v>9</v>
+      </c>
+      <c r="J164" s="47">
+        <f>J24</f>
+        <v>303.22000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="45">
         <v>6</v>
       </c>
@@ -3913,11 +6128,24 @@
         <v>9</v>
       </c>
       <c r="D165" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>303.22000000000003</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G165" s="45">
+        <v>6</v>
+      </c>
+      <c r="H165" s="41">
+        <v>2</v>
+      </c>
+      <c r="I165" s="41">
+        <v>10</v>
+      </c>
+      <c r="J165" s="47">
+        <f>J25</f>
+        <v>307.62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="45">
         <v>6</v>
       </c>
@@ -3928,11 +6156,24 @@
         <v>10</v>
       </c>
       <c r="D166" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>307.62</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G166" s="45">
+        <v>6</v>
+      </c>
+      <c r="H166" s="41">
+        <v>2</v>
+      </c>
+      <c r="I166" s="41">
+        <v>11</v>
+      </c>
+      <c r="J166" s="47">
+        <f>J26</f>
+        <v>312.02</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="45">
         <v>6</v>
       </c>
@@ -3943,11 +6184,24 @@
         <v>11</v>
       </c>
       <c r="D167" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>312.02</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G167" s="45">
+        <v>6</v>
+      </c>
+      <c r="H167" s="41">
+        <v>2</v>
+      </c>
+      <c r="I167" s="41">
+        <v>12</v>
+      </c>
+      <c r="J167" s="47">
+        <f>J27</f>
+        <v>316.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="45">
         <v>6</v>
       </c>
@@ -3958,11 +6212,24 @@
         <v>12</v>
       </c>
       <c r="D168" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>316.42</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G168" s="45">
+        <v>6</v>
+      </c>
+      <c r="H168" s="41">
+        <v>2</v>
+      </c>
+      <c r="I168" s="41">
+        <v>13</v>
+      </c>
+      <c r="J168" s="47">
+        <f>J28</f>
+        <v>320.82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="46">
         <v>6</v>
       </c>
@@ -3973,11 +6240,23 @@
         <v>13</v>
       </c>
       <c r="D169" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>320.82</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G169" s="34">
+        <v>6</v>
+      </c>
+      <c r="H169" s="35">
+        <v>2</v>
+      </c>
+      <c r="I169" s="35">
+        <v>14</v>
+      </c>
+      <c r="J169" s="36">
+        <v>263.62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="45">
         <v>7</v>
       </c>
@@ -3991,8 +6270,21 @@
         <f>(t_to_RWY!B3*fuel_flow!C2)+(t_to_taxi!B3*fuel_flow!C3)</f>
         <v>641.81000000000006</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G170" s="45">
+        <v>7</v>
+      </c>
+      <c r="H170" s="41">
+        <v>1</v>
+      </c>
+      <c r="I170" s="41">
+        <v>1</v>
+      </c>
+      <c r="J170" s="47">
+        <f>$D$170+(20*I170*fuel_flow!$C$2)</f>
+        <v>652.41000000000008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="45">
         <v>7</v>
       </c>
@@ -4006,8 +6298,21 @@
         <f>$D$170+(20*C171*fuel_flow!$C$2)</f>
         <v>652.41000000000008</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G171" s="45">
+        <v>7</v>
+      </c>
+      <c r="H171" s="41">
+        <v>1</v>
+      </c>
+      <c r="I171" s="41">
+        <v>2</v>
+      </c>
+      <c r="J171" s="47">
+        <f>$D$170+(20*I171*fuel_flow!$C$2)</f>
+        <v>663.0100000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="45">
         <v>7</v>
       </c>
@@ -4021,8 +6326,21 @@
         <f>$D$170+(20*C172*fuel_flow!$C$2)</f>
         <v>663.0100000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G172" s="45">
+        <v>7</v>
+      </c>
+      <c r="H172" s="41">
+        <v>1</v>
+      </c>
+      <c r="I172" s="41">
+        <v>3</v>
+      </c>
+      <c r="J172" s="47">
+        <f>$D$170+(20*I172*fuel_flow!$C$2)</f>
+        <v>673.61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="45">
         <v>7</v>
       </c>
@@ -4036,8 +6354,21 @@
         <f>$D$170+(20*C173*fuel_flow!$C$2)</f>
         <v>673.61</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G173" s="45">
+        <v>7</v>
+      </c>
+      <c r="H173" s="41">
+        <v>1</v>
+      </c>
+      <c r="I173" s="41">
+        <v>4</v>
+      </c>
+      <c r="J173" s="47">
+        <f>$D$170+(20*I173*fuel_flow!$C$2)</f>
+        <v>684.21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="45">
         <v>7</v>
       </c>
@@ -4051,8 +6382,21 @@
         <f>$D$170+(20*C174*fuel_flow!$C$2)</f>
         <v>684.21</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G174" s="45">
+        <v>7</v>
+      </c>
+      <c r="H174" s="41">
+        <v>1</v>
+      </c>
+      <c r="I174" s="41">
+        <v>5</v>
+      </c>
+      <c r="J174" s="47">
+        <f>$D$170+(20*I174*fuel_flow!$C$2)</f>
+        <v>694.81000000000006</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="45">
         <v>7</v>
       </c>
@@ -4066,8 +6410,21 @@
         <f>$D$170+(20*C175*fuel_flow!$C$2)</f>
         <v>694.81000000000006</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G175" s="45">
+        <v>7</v>
+      </c>
+      <c r="H175" s="41">
+        <v>1</v>
+      </c>
+      <c r="I175" s="41">
+        <v>6</v>
+      </c>
+      <c r="J175" s="47">
+        <f>$D$170+(20*I175*fuel_flow!$C$2)</f>
+        <v>705.41000000000008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="45">
         <v>7</v>
       </c>
@@ -4081,8 +6438,21 @@
         <f>$D$170+(20*C176*fuel_flow!$C$2)</f>
         <v>705.41000000000008</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G176" s="45">
+        <v>7</v>
+      </c>
+      <c r="H176" s="41">
+        <v>1</v>
+      </c>
+      <c r="I176" s="41">
+        <v>7</v>
+      </c>
+      <c r="J176" s="47">
+        <f>$D$170+(20*I176*fuel_flow!$C$2)</f>
+        <v>716.0100000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="45">
         <v>7</v>
       </c>
@@ -4096,8 +6466,21 @@
         <f>$D$170+(20*C177*fuel_flow!$C$2)</f>
         <v>716.0100000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G177" s="45">
+        <v>7</v>
+      </c>
+      <c r="H177" s="41">
+        <v>1</v>
+      </c>
+      <c r="I177" s="41">
+        <v>8</v>
+      </c>
+      <c r="J177" s="47">
+        <f>$D$170+(20*I177*fuel_flow!$C$2)</f>
+        <v>726.61000000000013</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="45">
         <v>7</v>
       </c>
@@ -4111,8 +6494,21 @@
         <f>$D$170+(20*C178*fuel_flow!$C$2)</f>
         <v>726.61000000000013</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G178" s="45">
+        <v>7</v>
+      </c>
+      <c r="H178" s="41">
+        <v>1</v>
+      </c>
+      <c r="I178" s="41">
+        <v>9</v>
+      </c>
+      <c r="J178" s="47">
+        <f>$D$170+(20*I178*fuel_flow!$C$2)</f>
+        <v>737.21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="45">
         <v>7</v>
       </c>
@@ -4126,8 +6522,21 @@
         <f>$D$170+(20*C179*fuel_flow!$C$2)</f>
         <v>737.21</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G179" s="45">
+        <v>7</v>
+      </c>
+      <c r="H179" s="41">
+        <v>1</v>
+      </c>
+      <c r="I179" s="41">
+        <v>10</v>
+      </c>
+      <c r="J179" s="47">
+        <f>$D$170+(20*I179*fuel_flow!$C$2)</f>
+        <v>747.81000000000006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="45">
         <v>7</v>
       </c>
@@ -4141,8 +6550,21 @@
         <f>$D$170+(20*C180*fuel_flow!$C$2)</f>
         <v>747.81000000000006</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G180" s="45">
+        <v>7</v>
+      </c>
+      <c r="H180" s="41">
+        <v>1</v>
+      </c>
+      <c r="I180" s="41">
+        <v>11</v>
+      </c>
+      <c r="J180" s="47">
+        <f>$D$170+(20*I180*fuel_flow!$C$2)</f>
+        <v>758.41000000000008</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="45">
         <v>7</v>
       </c>
@@ -4156,8 +6578,21 @@
         <f>$D$170+(20*C181*fuel_flow!$C$2)</f>
         <v>758.41000000000008</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G181" s="45">
+        <v>7</v>
+      </c>
+      <c r="H181" s="41">
+        <v>1</v>
+      </c>
+      <c r="I181" s="41">
+        <v>12</v>
+      </c>
+      <c r="J181" s="47">
+        <f>$D$170+(20*I181*fuel_flow!$C$2)</f>
+        <v>769.0100000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="45">
         <v>7</v>
       </c>
@@ -4171,8 +6606,21 @@
         <f>$D$170+(20*C182*fuel_flow!$C$2)</f>
         <v>769.0100000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G182" s="45">
+        <v>7</v>
+      </c>
+      <c r="H182" s="41">
+        <v>1</v>
+      </c>
+      <c r="I182" s="41">
+        <v>13</v>
+      </c>
+      <c r="J182" s="47">
+        <f>$D$170+(20*I182*fuel_flow!$C$2)</f>
+        <v>779.61000000000013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="45">
         <v>7</v>
       </c>
@@ -4186,8 +6634,20 @@
         <f>$D$170+(20*C183*fuel_flow!$C$2)</f>
         <v>779.61000000000013</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G183" s="43">
+        <v>7</v>
+      </c>
+      <c r="H183" s="42">
+        <v>1</v>
+      </c>
+      <c r="I183" s="42">
+        <v>14</v>
+      </c>
+      <c r="J183" s="44">
+        <v>641.81000000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="45">
         <v>7</v>
       </c>
@@ -4201,8 +6661,21 @@
         <f>(t_to_RWY!C3*fuel_flow!C2)+(t_to_taxi!C3*fuel_flow!C3)</f>
         <v>278.29000000000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G184" s="45">
+        <v>7</v>
+      </c>
+      <c r="H184" s="41">
+        <v>2</v>
+      </c>
+      <c r="I184" s="41">
+        <v>1</v>
+      </c>
+      <c r="J184" s="47">
+        <f>$D$184+(20*I184*fuel_flow!$C$2)</f>
+        <v>288.89000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="45">
         <v>7</v>
       </c>
@@ -4216,8 +6689,21 @@
         <f>$D$184+(20*C185*fuel_flow!$C$2)</f>
         <v>288.89000000000004</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G185" s="45">
+        <v>7</v>
+      </c>
+      <c r="H185" s="41">
+        <v>2</v>
+      </c>
+      <c r="I185" s="41">
+        <v>2</v>
+      </c>
+      <c r="J185" s="47">
+        <f>$D$184+(20*I185*fuel_flow!$C$2)</f>
+        <v>299.49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="45">
         <v>7</v>
       </c>
@@ -4231,8 +6717,21 @@
         <f>$D$184+(20*C186*fuel_flow!$C$2)</f>
         <v>299.49</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G186" s="45">
+        <v>7</v>
+      </c>
+      <c r="H186" s="41">
+        <v>2</v>
+      </c>
+      <c r="I186" s="41">
+        <v>3</v>
+      </c>
+      <c r="J186" s="47">
+        <f>$D$184+(20*I186*fuel_flow!$C$2)</f>
+        <v>310.09000000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="45">
         <v>7</v>
       </c>
@@ -4246,8 +6745,21 @@
         <f>$D$184+(20*C187*fuel_flow!$C$2)</f>
         <v>310.09000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G187" s="45">
+        <v>7</v>
+      </c>
+      <c r="H187" s="41">
+        <v>2</v>
+      </c>
+      <c r="I187" s="41">
+        <v>4</v>
+      </c>
+      <c r="J187" s="47">
+        <f>$D$184+(20*I187*fuel_flow!$C$2)</f>
+        <v>320.69000000000005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="45">
         <v>7</v>
       </c>
@@ -4261,8 +6773,21 @@
         <f>$D$184+(20*C188*fuel_flow!$C$2)</f>
         <v>320.69000000000005</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G188" s="45">
+        <v>7</v>
+      </c>
+      <c r="H188" s="41">
+        <v>2</v>
+      </c>
+      <c r="I188" s="41">
+        <v>5</v>
+      </c>
+      <c r="J188" s="47">
+        <f>$D$184+(20*I188*fuel_flow!$C$2)</f>
+        <v>331.29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="45">
         <v>7</v>
       </c>
@@ -4276,8 +6801,21 @@
         <f>$D$184+(20*C189*fuel_flow!$C$2)</f>
         <v>331.29</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G189" s="45">
+        <v>7</v>
+      </c>
+      <c r="H189" s="41">
+        <v>2</v>
+      </c>
+      <c r="I189" s="41">
+        <v>6</v>
+      </c>
+      <c r="J189" s="47">
+        <f>$D$184+(20*I189*fuel_flow!$C$2)</f>
+        <v>341.89000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="45">
         <v>7</v>
       </c>
@@ -4291,8 +6829,21 @@
         <f>$D$184+(20*C190*fuel_flow!$C$2)</f>
         <v>341.89000000000004</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G190" s="45">
+        <v>7</v>
+      </c>
+      <c r="H190" s="41">
+        <v>2</v>
+      </c>
+      <c r="I190" s="41">
+        <v>7</v>
+      </c>
+      <c r="J190" s="47">
+        <f>$D$184+(20*I190*fuel_flow!$C$2)</f>
+        <v>352.49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="45">
         <v>7</v>
       </c>
@@ -4306,8 +6857,21 @@
         <f>$D$184+(20*C191*fuel_flow!$C$2)</f>
         <v>352.49</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G191" s="45">
+        <v>7</v>
+      </c>
+      <c r="H191" s="41">
+        <v>2</v>
+      </c>
+      <c r="I191" s="41">
+        <v>8</v>
+      </c>
+      <c r="J191" s="47">
+        <f>$D$184+(20*I191*fuel_flow!$C$2)</f>
+        <v>363.09000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="45">
         <v>7</v>
       </c>
@@ -4321,8 +6885,21 @@
         <f>$D$184+(20*C192*fuel_flow!$C$2)</f>
         <v>363.09000000000003</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G192" s="45">
+        <v>7</v>
+      </c>
+      <c r="H192" s="41">
+        <v>2</v>
+      </c>
+      <c r="I192" s="41">
+        <v>9</v>
+      </c>
+      <c r="J192" s="47">
+        <f>$D$184+(20*I192*fuel_flow!$C$2)</f>
+        <v>373.69000000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="45">
         <v>7</v>
       </c>
@@ -4336,8 +6913,21 @@
         <f>$D$184+(20*C193*fuel_flow!$C$2)</f>
         <v>373.69000000000005</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G193" s="45">
+        <v>7</v>
+      </c>
+      <c r="H193" s="41">
+        <v>2</v>
+      </c>
+      <c r="I193" s="41">
+        <v>10</v>
+      </c>
+      <c r="J193" s="47">
+        <f>$D$184+(20*I193*fuel_flow!$C$2)</f>
+        <v>384.29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="45">
         <v>7</v>
       </c>
@@ -4351,8 +6941,21 @@
         <f>$D$184+(20*C194*fuel_flow!$C$2)</f>
         <v>384.29</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G194" s="45">
+        <v>7</v>
+      </c>
+      <c r="H194" s="41">
+        <v>2</v>
+      </c>
+      <c r="I194" s="41">
+        <v>11</v>
+      </c>
+      <c r="J194" s="47">
+        <f>$D$184+(20*I194*fuel_flow!$C$2)</f>
+        <v>394.89000000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="45">
         <v>7</v>
       </c>
@@ -4366,8 +6969,21 @@
         <f>$D$184+(20*C195*fuel_flow!$C$2)</f>
         <v>394.89000000000004</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G195" s="45">
+        <v>7</v>
+      </c>
+      <c r="H195" s="41">
+        <v>2</v>
+      </c>
+      <c r="I195" s="41">
+        <v>12</v>
+      </c>
+      <c r="J195" s="47">
+        <f>$D$184+(20*I195*fuel_flow!$C$2)</f>
+        <v>405.49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="45">
         <v>7</v>
       </c>
@@ -4381,8 +6997,21 @@
         <f>$D$184+(20*C196*fuel_flow!$C$2)</f>
         <v>405.49</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G196" s="45">
+        <v>7</v>
+      </c>
+      <c r="H196" s="41">
+        <v>2</v>
+      </c>
+      <c r="I196" s="41">
+        <v>13</v>
+      </c>
+      <c r="J196" s="47">
+        <f>$D$184+(20*I196*fuel_flow!$C$2)</f>
+        <v>416.09000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="46">
         <v>7</v>
       </c>
@@ -4396,8 +7025,20 @@
         <f>$D$184+(20*C197*fuel_flow!$C$2)</f>
         <v>416.09000000000003</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G197" s="34">
+        <v>7</v>
+      </c>
+      <c r="H197" s="35">
+        <v>2</v>
+      </c>
+      <c r="I197" s="35">
+        <v>14</v>
+      </c>
+      <c r="J197" s="36">
+        <v>278.29000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="45">
         <v>8</v>
       </c>
@@ -4411,8 +7052,21 @@
         <f>(t_to_RWY!B4*fuel_flow!C2)+(t_to_taxi!B4*fuel_flow!C3)</f>
         <v>355.08000000000004</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G198" s="45">
+        <v>8</v>
+      </c>
+      <c r="H198" s="41">
+        <v>1</v>
+      </c>
+      <c r="I198" s="41">
+        <v>1</v>
+      </c>
+      <c r="J198" s="47">
+        <f>$D$198+(20*I198*fuel_flow!$C$2)</f>
+        <v>365.68000000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="45">
         <v>8</v>
       </c>
@@ -4426,8 +7080,21 @@
         <f>$D$198+(20*C199*fuel_flow!$C$2)</f>
         <v>365.68000000000006</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G199" s="45">
+        <v>8</v>
+      </c>
+      <c r="H199" s="41">
+        <v>1</v>
+      </c>
+      <c r="I199" s="41">
+        <v>2</v>
+      </c>
+      <c r="J199" s="47">
+        <f>$D$198+(20*I199*fuel_flow!$C$2)</f>
+        <v>376.28000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="45">
         <v>8</v>
       </c>
@@ -4441,8 +7108,21 @@
         <f>$D$198+(20*C200*fuel_flow!$C$2)</f>
         <v>376.28000000000003</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G200" s="45">
+        <v>8</v>
+      </c>
+      <c r="H200" s="41">
+        <v>1</v>
+      </c>
+      <c r="I200" s="41">
+        <v>3</v>
+      </c>
+      <c r="J200" s="47">
+        <f>$D$198+(20*I200*fuel_flow!$C$2)</f>
+        <v>386.88000000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="45">
         <v>8</v>
       </c>
@@ -4456,8 +7136,21 @@
         <f>$D$198+(20*C201*fuel_flow!$C$2)</f>
         <v>386.88000000000005</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G201" s="45">
+        <v>8</v>
+      </c>
+      <c r="H201" s="41">
+        <v>1</v>
+      </c>
+      <c r="I201" s="41">
+        <v>4</v>
+      </c>
+      <c r="J201" s="47">
+        <f>$D$198+(20*I201*fuel_flow!$C$2)</f>
+        <v>397.48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="45">
         <v>8</v>
       </c>
@@ -4471,8 +7164,21 @@
         <f>$D$198+(20*C202*fuel_flow!$C$2)</f>
         <v>397.48</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G202" s="45">
+        <v>8</v>
+      </c>
+      <c r="H202" s="41">
+        <v>1</v>
+      </c>
+      <c r="I202" s="41">
+        <v>5</v>
+      </c>
+      <c r="J202" s="47">
+        <f>$D$198+(20*I202*fuel_flow!$C$2)</f>
+        <v>408.08000000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="45">
         <v>8</v>
       </c>
@@ -4486,8 +7192,21 @@
         <f>$D$198+(20*C203*fuel_flow!$C$2)</f>
         <v>408.08000000000004</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G203" s="45">
+        <v>8</v>
+      </c>
+      <c r="H203" s="41">
+        <v>1</v>
+      </c>
+      <c r="I203" s="41">
+        <v>6</v>
+      </c>
+      <c r="J203" s="47">
+        <f>$D$198+(20*I203*fuel_flow!$C$2)</f>
+        <v>418.68000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="45">
         <v>8</v>
       </c>
@@ -4501,8 +7220,21 @@
         <f>$D$198+(20*C204*fuel_flow!$C$2)</f>
         <v>418.68000000000006</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G204" s="45">
+        <v>8</v>
+      </c>
+      <c r="H204" s="41">
+        <v>1</v>
+      </c>
+      <c r="I204" s="41">
+        <v>7</v>
+      </c>
+      <c r="J204" s="47">
+        <f>$D$198+(20*I204*fuel_flow!$C$2)</f>
+        <v>429.28000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="45">
         <v>8</v>
       </c>
@@ -4516,8 +7248,21 @@
         <f>$D$198+(20*C205*fuel_flow!$C$2)</f>
         <v>429.28000000000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G205" s="45">
+        <v>8</v>
+      </c>
+      <c r="H205" s="41">
+        <v>1</v>
+      </c>
+      <c r="I205" s="41">
+        <v>8</v>
+      </c>
+      <c r="J205" s="47">
+        <f>$D$198+(20*I205*fuel_flow!$C$2)</f>
+        <v>439.88000000000005</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="45">
         <v>8</v>
       </c>
@@ -4531,8 +7276,21 @@
         <f>$D$198+(20*C206*fuel_flow!$C$2)</f>
         <v>439.88000000000005</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G206" s="45">
+        <v>8</v>
+      </c>
+      <c r="H206" s="41">
+        <v>1</v>
+      </c>
+      <c r="I206" s="41">
+        <v>9</v>
+      </c>
+      <c r="J206" s="47">
+        <f>$D$198+(20*I206*fuel_flow!$C$2)</f>
+        <v>450.48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="45">
         <v>8</v>
       </c>
@@ -4546,8 +7304,21 @@
         <f>$D$198+(20*C207*fuel_flow!$C$2)</f>
         <v>450.48</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G207" s="45">
+        <v>8</v>
+      </c>
+      <c r="H207" s="41">
+        <v>1</v>
+      </c>
+      <c r="I207" s="41">
+        <v>10</v>
+      </c>
+      <c r="J207" s="47">
+        <f>$D$198+(20*I207*fuel_flow!$C$2)</f>
+        <v>461.08000000000004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="45">
         <v>8</v>
       </c>
@@ -4561,8 +7332,21 @@
         <f>$D$198+(20*C208*fuel_flow!$C$2)</f>
         <v>461.08000000000004</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G208" s="45">
+        <v>8</v>
+      </c>
+      <c r="H208" s="41">
+        <v>1</v>
+      </c>
+      <c r="I208" s="41">
+        <v>11</v>
+      </c>
+      <c r="J208" s="47">
+        <f>$D$198+(20*I208*fuel_flow!$C$2)</f>
+        <v>471.68000000000006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="45">
         <v>8</v>
       </c>
@@ -4576,8 +7360,21 @@
         <f>$D$198+(20*C209*fuel_flow!$C$2)</f>
         <v>471.68000000000006</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G209" s="45">
+        <v>8</v>
+      </c>
+      <c r="H209" s="41">
+        <v>1</v>
+      </c>
+      <c r="I209" s="41">
+        <v>12</v>
+      </c>
+      <c r="J209" s="47">
+        <f>$D$198+(20*I209*fuel_flow!$C$2)</f>
+        <v>482.28000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="45">
         <v>8</v>
       </c>
@@ -4591,8 +7388,21 @@
         <f>$D$198+(20*C210*fuel_flow!$C$2)</f>
         <v>482.28000000000003</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G210" s="45">
+        <v>8</v>
+      </c>
+      <c r="H210" s="41">
+        <v>1</v>
+      </c>
+      <c r="I210" s="41">
+        <v>13</v>
+      </c>
+      <c r="J210" s="47">
+        <f>$D$198+(20*I210*fuel_flow!$C$2)</f>
+        <v>492.88000000000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="45">
         <v>8</v>
       </c>
@@ -4606,8 +7416,20 @@
         <f>$D$198+(20*C211*fuel_flow!$C$2)</f>
         <v>492.88000000000005</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G211" s="43">
+        <v>8</v>
+      </c>
+      <c r="H211" s="42">
+        <v>1</v>
+      </c>
+      <c r="I211" s="42">
+        <v>14</v>
+      </c>
+      <c r="J211" s="48">
+        <v>355.08000000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="45">
         <v>8</v>
       </c>
@@ -4621,8 +7443,21 @@
         <f>(t_to_RWY!C4*fuel_flow!C2)+(t_to_taxi!C4*fuel_flow!C3)</f>
         <v>635.5100000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G212" s="45">
+        <v>8</v>
+      </c>
+      <c r="H212" s="41">
+        <v>2</v>
+      </c>
+      <c r="I212" s="41">
+        <v>1</v>
+      </c>
+      <c r="J212" s="33">
+        <f>$D$212+(20*I212*fuel_flow!$C$2)</f>
+        <v>646.11000000000013</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="45">
         <v>8</v>
       </c>
@@ -4636,8 +7471,21 @@
         <f>$D$212+(20*C213*fuel_flow!$C$2)</f>
         <v>646.11000000000013</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G213" s="45">
+        <v>8</v>
+      </c>
+      <c r="H213" s="41">
+        <v>2</v>
+      </c>
+      <c r="I213" s="41">
+        <v>2</v>
+      </c>
+      <c r="J213" s="33">
+        <f>$D$212+(20*I213*fuel_flow!$C$2)</f>
+        <v>656.71000000000015</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="45">
         <v>8</v>
       </c>
@@ -4651,8 +7499,21 @@
         <f>$D$212+(20*C214*fuel_flow!$C$2)</f>
         <v>656.71000000000015</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G214" s="45">
+        <v>8</v>
+      </c>
+      <c r="H214" s="41">
+        <v>2</v>
+      </c>
+      <c r="I214" s="41">
+        <v>3</v>
+      </c>
+      <c r="J214" s="33">
+        <f>$D$212+(20*I214*fuel_flow!$C$2)</f>
+        <v>667.31000000000006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="45">
         <v>8</v>
       </c>
@@ -4666,8 +7527,21 @@
         <f>$D$212+(20*C215*fuel_flow!$C$2)</f>
         <v>667.31000000000006</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G215" s="45">
+        <v>8</v>
+      </c>
+      <c r="H215" s="41">
+        <v>2</v>
+      </c>
+      <c r="I215" s="41">
+        <v>4</v>
+      </c>
+      <c r="J215" s="33">
+        <f>$D$212+(20*I215*fuel_flow!$C$2)</f>
+        <v>677.91000000000008</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="45">
         <v>8</v>
       </c>
@@ -4681,8 +7555,21 @@
         <f>$D$212+(20*C216*fuel_flow!$C$2)</f>
         <v>677.91000000000008</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G216" s="45">
+        <v>8</v>
+      </c>
+      <c r="H216" s="41">
+        <v>2</v>
+      </c>
+      <c r="I216" s="41">
+        <v>5</v>
+      </c>
+      <c r="J216" s="33">
+        <f>$D$212+(20*I216*fuel_flow!$C$2)</f>
+        <v>688.5100000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="45">
         <v>8</v>
       </c>
@@ -4696,8 +7583,21 @@
         <f>$D$212+(20*C217*fuel_flow!$C$2)</f>
         <v>688.5100000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G217" s="45">
+        <v>8</v>
+      </c>
+      <c r="H217" s="41">
+        <v>2</v>
+      </c>
+      <c r="I217" s="41">
+        <v>6</v>
+      </c>
+      <c r="J217" s="33">
+        <f>$D$212+(20*I217*fuel_flow!$C$2)</f>
+        <v>699.11000000000013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="45">
         <v>8</v>
       </c>
@@ -4711,8 +7611,21 @@
         <f>$D$212+(20*C218*fuel_flow!$C$2)</f>
         <v>699.11000000000013</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G218" s="45">
+        <v>8</v>
+      </c>
+      <c r="H218" s="41">
+        <v>2</v>
+      </c>
+      <c r="I218" s="41">
+        <v>7</v>
+      </c>
+      <c r="J218" s="33">
+        <f>$D$212+(20*I218*fuel_flow!$C$2)</f>
+        <v>709.71000000000015</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="45">
         <v>8</v>
       </c>
@@ -4726,8 +7639,21 @@
         <f>$D$212+(20*C219*fuel_flow!$C$2)</f>
         <v>709.71000000000015</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G219" s="45">
+        <v>8</v>
+      </c>
+      <c r="H219" s="41">
+        <v>2</v>
+      </c>
+      <c r="I219" s="41">
+        <v>8</v>
+      </c>
+      <c r="J219" s="33">
+        <f>$D$212+(20*I219*fuel_flow!$C$2)</f>
+        <v>720.31000000000017</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="45">
         <v>8</v>
       </c>
@@ -4741,8 +7667,21 @@
         <f>$D$212+(20*C220*fuel_flow!$C$2)</f>
         <v>720.31000000000017</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G220" s="45">
+        <v>8</v>
+      </c>
+      <c r="H220" s="41">
+        <v>2</v>
+      </c>
+      <c r="I220" s="41">
+        <v>9</v>
+      </c>
+      <c r="J220" s="33">
+        <f>$D$212+(20*I220*fuel_flow!$C$2)</f>
+        <v>730.91000000000008</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="45">
         <v>8</v>
       </c>
@@ -4756,8 +7695,21 @@
         <f>$D$212+(20*C221*fuel_flow!$C$2)</f>
         <v>730.91000000000008</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G221" s="45">
+        <v>8</v>
+      </c>
+      <c r="H221" s="41">
+        <v>2</v>
+      </c>
+      <c r="I221" s="41">
+        <v>10</v>
+      </c>
+      <c r="J221" s="33">
+        <f>$D$212+(20*I221*fuel_flow!$C$2)</f>
+        <v>741.5100000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="45">
         <v>8</v>
       </c>
@@ -4771,8 +7723,21 @@
         <f>$D$212+(20*C222*fuel_flow!$C$2)</f>
         <v>741.5100000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G222" s="45">
+        <v>8</v>
+      </c>
+      <c r="H222" s="41">
+        <v>2</v>
+      </c>
+      <c r="I222" s="41">
+        <v>11</v>
+      </c>
+      <c r="J222" s="33">
+        <f>$D$212+(20*I222*fuel_flow!$C$2)</f>
+        <v>752.11000000000013</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="45">
         <v>8</v>
       </c>
@@ -4786,8 +7751,21 @@
         <f>$D$212+(20*C223*fuel_flow!$C$2)</f>
         <v>752.11000000000013</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G223" s="45">
+        <v>8</v>
+      </c>
+      <c r="H223" s="41">
+        <v>2</v>
+      </c>
+      <c r="I223" s="41">
+        <v>12</v>
+      </c>
+      <c r="J223" s="33">
+        <f>$D$212+(20*I223*fuel_flow!$C$2)</f>
+        <v>762.71000000000015</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="45">
         <v>8</v>
       </c>
@@ -4801,8 +7779,21 @@
         <f>$D$212+(20*C224*fuel_flow!$C$2)</f>
         <v>762.71000000000015</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G224" s="45">
+        <v>8</v>
+      </c>
+      <c r="H224" s="41">
+        <v>2</v>
+      </c>
+      <c r="I224" s="41">
+        <v>13</v>
+      </c>
+      <c r="J224" s="33">
+        <f>$D$212+(20*I224*fuel_flow!$C$2)</f>
+        <v>773.31000000000017</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="46">
         <v>8</v>
       </c>
@@ -4816,8 +7807,20 @@
         <f>$D$212+(20*C225*fuel_flow!$C$2)</f>
         <v>773.31000000000017</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G225" s="34">
+        <v>8</v>
+      </c>
+      <c r="H225" s="35">
+        <v>2</v>
+      </c>
+      <c r="I225" s="35">
+        <v>14</v>
+      </c>
+      <c r="J225" s="36">
+        <v>635.5100000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="45">
         <v>9</v>
       </c>
@@ -4831,8 +7834,21 @@
         <f>(t_to_RWY!B2*fuel_flow!B2)+(t_to_taxi!B2*fuel_flow!B3)</f>
         <v>163.17999999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G226" s="45">
+        <v>9</v>
+      </c>
+      <c r="H226" s="41">
+        <v>1</v>
+      </c>
+      <c r="I226" s="41">
+        <v>1</v>
+      </c>
+      <c r="J226" s="33">
+        <f>$D$226+(20*I226*fuel_flow!$B$2)</f>
+        <v>167.57999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="45">
         <v>9</v>
       </c>
@@ -4846,8 +7862,21 @@
         <f>$D$226+(20*C227*fuel_flow!$B$2)</f>
         <v>167.57999999999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G227" s="45">
+        <v>9</v>
+      </c>
+      <c r="H227" s="41">
+        <v>1</v>
+      </c>
+      <c r="I227" s="41">
+        <v>2</v>
+      </c>
+      <c r="J227" s="33">
+        <f>$D$226+(20*I227*fuel_flow!$B$2)</f>
+        <v>171.98</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="45">
         <v>9</v>
       </c>
@@ -4861,8 +7890,21 @@
         <f>$D$226+(20*C228*fuel_flow!$B$2)</f>
         <v>171.98</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G228" s="45">
+        <v>9</v>
+      </c>
+      <c r="H228" s="41">
+        <v>1</v>
+      </c>
+      <c r="I228" s="41">
+        <v>3</v>
+      </c>
+      <c r="J228" s="33">
+        <f>$D$226+(20*I228*fuel_flow!$B$2)</f>
+        <v>176.37999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="45">
         <v>9</v>
       </c>
@@ -4876,8 +7918,21 @@
         <f>$D$226+(20*C229*fuel_flow!$B$2)</f>
         <v>176.37999999999997</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G229" s="45">
+        <v>9</v>
+      </c>
+      <c r="H229" s="41">
+        <v>1</v>
+      </c>
+      <c r="I229" s="41">
+        <v>4</v>
+      </c>
+      <c r="J229" s="33">
+        <f>$D$226+(20*I229*fuel_flow!$B$2)</f>
+        <v>180.77999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="45">
         <v>9</v>
       </c>
@@ -4891,8 +7946,21 @@
         <f>$D$226+(20*C230*fuel_flow!$B$2)</f>
         <v>180.77999999999997</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G230" s="45">
+        <v>9</v>
+      </c>
+      <c r="H230" s="41">
+        <v>1</v>
+      </c>
+      <c r="I230" s="41">
+        <v>5</v>
+      </c>
+      <c r="J230" s="33">
+        <f>$D$226+(20*I230*fuel_flow!$B$2)</f>
+        <v>185.17999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="45">
         <v>9</v>
       </c>
@@ -4906,8 +7974,21 @@
         <f>$D$226+(20*C231*fuel_flow!$B$2)</f>
         <v>185.17999999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G231" s="45">
+        <v>9</v>
+      </c>
+      <c r="H231" s="41">
+        <v>1</v>
+      </c>
+      <c r="I231" s="41">
+        <v>6</v>
+      </c>
+      <c r="J231" s="33">
+        <f>$D$226+(20*I231*fuel_flow!$B$2)</f>
+        <v>189.57999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="45">
         <v>9</v>
       </c>
@@ -4921,8 +8002,21 @@
         <f>$D$226+(20*C232*fuel_flow!$B$2)</f>
         <v>189.57999999999998</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G232" s="45">
+        <v>9</v>
+      </c>
+      <c r="H232" s="41">
+        <v>1</v>
+      </c>
+      <c r="I232" s="41">
+        <v>7</v>
+      </c>
+      <c r="J232" s="33">
+        <f>$D$226+(20*I232*fuel_flow!$B$2)</f>
+        <v>193.98</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="45">
         <v>9</v>
       </c>
@@ -4936,8 +8030,21 @@
         <f>$D$226+(20*C233*fuel_flow!$B$2)</f>
         <v>193.98</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G233" s="45">
+        <v>9</v>
+      </c>
+      <c r="H233" s="41">
+        <v>1</v>
+      </c>
+      <c r="I233" s="41">
+        <v>8</v>
+      </c>
+      <c r="J233" s="33">
+        <f>$D$226+(20*I233*fuel_flow!$B$2)</f>
+        <v>198.38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="45">
         <v>9</v>
       </c>
@@ -4951,8 +8058,21 @@
         <f>$D$226+(20*C234*fuel_flow!$B$2)</f>
         <v>198.38</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G234" s="45">
+        <v>9</v>
+      </c>
+      <c r="H234" s="41">
+        <v>1</v>
+      </c>
+      <c r="I234" s="41">
+        <v>9</v>
+      </c>
+      <c r="J234" s="33">
+        <f>$D$226+(20*I234*fuel_flow!$B$2)</f>
+        <v>202.77999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="45">
         <v>9</v>
       </c>
@@ -4966,8 +8086,21 @@
         <f>$D$226+(20*C235*fuel_flow!$B$2)</f>
         <v>202.77999999999997</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G235" s="45">
+        <v>9</v>
+      </c>
+      <c r="H235" s="41">
+        <v>1</v>
+      </c>
+      <c r="I235" s="41">
+        <v>10</v>
+      </c>
+      <c r="J235" s="33">
+        <f>$D$226+(20*I235*fuel_flow!$B$2)</f>
+        <v>207.17999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="45">
         <v>9</v>
       </c>
@@ -4981,8 +8114,21 @@
         <f>$D$226+(20*C236*fuel_flow!$B$2)</f>
         <v>207.17999999999998</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G236" s="45">
+        <v>9</v>
+      </c>
+      <c r="H236" s="41">
+        <v>1</v>
+      </c>
+      <c r="I236" s="41">
+        <v>11</v>
+      </c>
+      <c r="J236" s="33">
+        <f>$D$226+(20*I236*fuel_flow!$B$2)</f>
+        <v>211.57999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="45">
         <v>9</v>
       </c>
@@ -4996,8 +8142,21 @@
         <f>$D$226+(20*C237*fuel_flow!$B$2)</f>
         <v>211.57999999999998</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G237" s="45">
+        <v>9</v>
+      </c>
+      <c r="H237" s="41">
+        <v>1</v>
+      </c>
+      <c r="I237" s="41">
+        <v>12</v>
+      </c>
+      <c r="J237" s="33">
+        <f>$D$226+(20*I237*fuel_flow!$B$2)</f>
+        <v>215.97999999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="45">
         <v>9</v>
       </c>
@@ -5011,8 +8170,21 @@
         <f>$D$226+(20*C238*fuel_flow!$B$2)</f>
         <v>215.97999999999996</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G238" s="45">
+        <v>9</v>
+      </c>
+      <c r="H238" s="41">
+        <v>1</v>
+      </c>
+      <c r="I238" s="41">
+        <v>13</v>
+      </c>
+      <c r="J238" s="33">
+        <f>$D$226+(20*I238*fuel_flow!$B$2)</f>
+        <v>220.38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="45">
         <v>9</v>
       </c>
@@ -5026,8 +8198,20 @@
         <f>$D$226+(20*C239*fuel_flow!$B$2)</f>
         <v>220.38</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G239" s="43">
+        <v>9</v>
+      </c>
+      <c r="H239" s="42">
+        <v>1</v>
+      </c>
+      <c r="I239" s="42">
+        <v>14</v>
+      </c>
+      <c r="J239" s="44">
+        <v>163.17999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="45">
         <v>9</v>
       </c>
@@ -5041,8 +8225,21 @@
         <f>(t_to_RWY!C2*fuel_flow!B2)+(t_to_taxi!C2*fuel_flow!B3)</f>
         <v>233.48000000000002</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G240" s="45">
+        <v>9</v>
+      </c>
+      <c r="H240" s="41">
+        <v>2</v>
+      </c>
+      <c r="I240" s="41">
+        <v>1</v>
+      </c>
+      <c r="J240" s="33">
+        <f>$D$240+(20*I240*fuel_flow!$B$2)</f>
+        <v>237.88000000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="45">
         <v>9</v>
       </c>
@@ -5056,8 +8253,21 @@
         <f>$D$240+(20*C241*fuel_flow!$B$2)</f>
         <v>237.88000000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G241" s="45">
+        <v>9</v>
+      </c>
+      <c r="H241" s="41">
+        <v>2</v>
+      </c>
+      <c r="I241" s="41">
+        <v>2</v>
+      </c>
+      <c r="J241" s="33">
+        <f>$D$240+(20*I241*fuel_flow!$B$2)</f>
+        <v>242.28000000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="45">
         <v>9</v>
       </c>
@@ -5071,8 +8281,21 @@
         <f>$D$240+(20*C242*fuel_flow!$B$2)</f>
         <v>242.28000000000003</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G242" s="45">
+        <v>9</v>
+      </c>
+      <c r="H242" s="41">
+        <v>2</v>
+      </c>
+      <c r="I242" s="41">
+        <v>3</v>
+      </c>
+      <c r="J242" s="33">
+        <f>$D$240+(20*I242*fuel_flow!$B$2)</f>
+        <v>246.68</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="45">
         <v>9</v>
       </c>
@@ -5086,8 +8309,21 @@
         <f>$D$240+(20*C243*fuel_flow!$B$2)</f>
         <v>246.68</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G243" s="45">
+        <v>9</v>
+      </c>
+      <c r="H243" s="41">
+        <v>2</v>
+      </c>
+      <c r="I243" s="41">
+        <v>4</v>
+      </c>
+      <c r="J243" s="33">
+        <f>$D$240+(20*I243*fuel_flow!$B$2)</f>
+        <v>251.08</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="45">
         <v>9</v>
       </c>
@@ -5101,8 +8337,21 @@
         <f>$D$240+(20*C244*fuel_flow!$B$2)</f>
         <v>251.08</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G244" s="45">
+        <v>9</v>
+      </c>
+      <c r="H244" s="41">
+        <v>2</v>
+      </c>
+      <c r="I244" s="41">
+        <v>5</v>
+      </c>
+      <c r="J244" s="33">
+        <f>$D$240+(20*I244*fuel_flow!$B$2)</f>
+        <v>255.48000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="45">
         <v>9</v>
       </c>
@@ -5116,8 +8365,21 @@
         <f>$D$240+(20*C245*fuel_flow!$B$2)</f>
         <v>255.48000000000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G245" s="45">
+        <v>9</v>
+      </c>
+      <c r="H245" s="41">
+        <v>2</v>
+      </c>
+      <c r="I245" s="41">
+        <v>6</v>
+      </c>
+      <c r="J245" s="33">
+        <f>$D$240+(20*I245*fuel_flow!$B$2)</f>
+        <v>259.88</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="45">
         <v>9</v>
       </c>
@@ -5131,8 +8393,21 @@
         <f>$D$240+(20*C246*fuel_flow!$B$2)</f>
         <v>259.88</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G246" s="45">
+        <v>9</v>
+      </c>
+      <c r="H246" s="41">
+        <v>2</v>
+      </c>
+      <c r="I246" s="41">
+        <v>7</v>
+      </c>
+      <c r="J246" s="33">
+        <f>$D$240+(20*I246*fuel_flow!$B$2)</f>
+        <v>264.28000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="45">
         <v>9</v>
       </c>
@@ -5146,8 +8421,21 @@
         <f>$D$240+(20*C247*fuel_flow!$B$2)</f>
         <v>264.28000000000003</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G247" s="45">
+        <v>9</v>
+      </c>
+      <c r="H247" s="41">
+        <v>2</v>
+      </c>
+      <c r="I247" s="41">
+        <v>8</v>
+      </c>
+      <c r="J247" s="33">
+        <f>$D$240+(20*I247*fuel_flow!$B$2)</f>
+        <v>268.68</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="45">
         <v>9</v>
       </c>
@@ -5161,8 +8449,21 @@
         <f>$D$240+(20*C248*fuel_flow!$B$2)</f>
         <v>268.68</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G248" s="45">
+        <v>9</v>
+      </c>
+      <c r="H248" s="41">
+        <v>2</v>
+      </c>
+      <c r="I248" s="41">
+        <v>9</v>
+      </c>
+      <c r="J248" s="33">
+        <f>$D$240+(20*I248*fuel_flow!$B$2)</f>
+        <v>273.08000000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="45">
         <v>9</v>
       </c>
@@ -5176,8 +8477,21 @@
         <f>$D$240+(20*C249*fuel_flow!$B$2)</f>
         <v>273.08000000000004</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G249" s="45">
+        <v>9</v>
+      </c>
+      <c r="H249" s="41">
+        <v>2</v>
+      </c>
+      <c r="I249" s="41">
+        <v>10</v>
+      </c>
+      <c r="J249" s="33">
+        <f>$D$240+(20*I249*fuel_flow!$B$2)</f>
+        <v>277.48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="45">
         <v>9</v>
       </c>
@@ -5191,8 +8505,21 @@
         <f>$D$240+(20*C250*fuel_flow!$B$2)</f>
         <v>277.48</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G250" s="45">
+        <v>9</v>
+      </c>
+      <c r="H250" s="41">
+        <v>2</v>
+      </c>
+      <c r="I250" s="41">
+        <v>11</v>
+      </c>
+      <c r="J250" s="33">
+        <f>$D$240+(20*I250*fuel_flow!$B$2)</f>
+        <v>281.88</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="45">
         <v>9</v>
       </c>
@@ -5206,8 +8533,21 @@
         <f>$D$240+(20*C251*fuel_flow!$B$2)</f>
         <v>281.88</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G251" s="45">
+        <v>9</v>
+      </c>
+      <c r="H251" s="41">
+        <v>2</v>
+      </c>
+      <c r="I251" s="41">
+        <v>12</v>
+      </c>
+      <c r="J251" s="33">
+        <f>$D$240+(20*I251*fuel_flow!$B$2)</f>
+        <v>286.28000000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="45">
         <v>9</v>
       </c>
@@ -5221,8 +8561,21 @@
         <f>$D$240+(20*C252*fuel_flow!$B$2)</f>
         <v>286.28000000000003</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G252" s="45">
+        <v>9</v>
+      </c>
+      <c r="H252" s="41">
+        <v>2</v>
+      </c>
+      <c r="I252" s="41">
+        <v>13</v>
+      </c>
+      <c r="J252" s="33">
+        <f>$D$240+(20*I252*fuel_flow!$B$2)</f>
+        <v>290.68</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="46">
         <v>9</v>
       </c>
@@ -5236,8 +8589,20 @@
         <f>$D$240+(20*C253*fuel_flow!$B$2)</f>
         <v>290.68</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G253" s="34">
+        <v>9</v>
+      </c>
+      <c r="H253" s="35">
+        <v>2</v>
+      </c>
+      <c r="I253" s="35">
+        <v>14</v>
+      </c>
+      <c r="J253" s="36">
+        <v>233.48000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="45">
         <v>10</v>
       </c>
@@ -5251,8 +8616,21 @@
         <f>D86</f>
         <v>266.14</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G254" s="45">
+        <v>10</v>
+      </c>
+      <c r="H254" s="41">
+        <v>1</v>
+      </c>
+      <c r="I254" s="41">
+        <v>1</v>
+      </c>
+      <c r="J254" s="33">
+        <f>J86</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="45">
         <v>10</v>
       </c>
@@ -5263,11 +8641,24 @@
         <v>1</v>
       </c>
       <c r="D255" s="33">
-        <f t="shared" ref="D255:D281" si="3">D87</f>
+        <f t="shared" ref="D255:D281" si="5">D87</f>
         <v>270.53999999999996</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G255" s="45">
+        <v>10</v>
+      </c>
+      <c r="H255" s="41">
+        <v>1</v>
+      </c>
+      <c r="I255" s="41">
+        <v>2</v>
+      </c>
+      <c r="J255" s="33">
+        <f>J87</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="45">
         <v>10</v>
       </c>
@@ -5278,11 +8669,24 @@
         <v>2</v>
       </c>
       <c r="D256" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>274.94</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G256" s="45">
+        <v>10</v>
+      </c>
+      <c r="H256" s="41">
+        <v>1</v>
+      </c>
+      <c r="I256" s="41">
+        <v>3</v>
+      </c>
+      <c r="J256" s="33">
+        <f>J88</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="45">
         <v>10</v>
       </c>
@@ -5293,11 +8697,24 @@
         <v>3</v>
       </c>
       <c r="D257" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>279.33999999999997</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G257" s="45">
+        <v>10</v>
+      </c>
+      <c r="H257" s="41">
+        <v>1</v>
+      </c>
+      <c r="I257" s="41">
+        <v>4</v>
+      </c>
+      <c r="J257" s="33">
+        <f>J89</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="45">
         <v>10</v>
       </c>
@@ -5308,11 +8725,24 @@
         <v>4</v>
       </c>
       <c r="D258" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>283.74</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G258" s="45">
+        <v>10</v>
+      </c>
+      <c r="H258" s="41">
+        <v>1</v>
+      </c>
+      <c r="I258" s="41">
+        <v>5</v>
+      </c>
+      <c r="J258" s="33">
+        <f>J90</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="45">
         <v>10</v>
       </c>
@@ -5323,11 +8753,24 @@
         <v>5</v>
       </c>
       <c r="D259" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>288.14</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G259" s="45">
+        <v>10</v>
+      </c>
+      <c r="H259" s="41">
+        <v>1</v>
+      </c>
+      <c r="I259" s="41">
+        <v>6</v>
+      </c>
+      <c r="J259" s="33">
+        <f>J91</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="45">
         <v>10</v>
       </c>
@@ -5338,11 +8781,24 @@
         <v>6</v>
       </c>
       <c r="D260" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>292.53999999999996</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G260" s="45">
+        <v>10</v>
+      </c>
+      <c r="H260" s="41">
+        <v>1</v>
+      </c>
+      <c r="I260" s="41">
+        <v>7</v>
+      </c>
+      <c r="J260" s="33">
+        <f>J92</f>
+        <v>296.94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="45">
         <v>10</v>
       </c>
@@ -5353,11 +8809,24 @@
         <v>7</v>
       </c>
       <c r="D261" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>296.94</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G261" s="45">
+        <v>10</v>
+      </c>
+      <c r="H261" s="41">
+        <v>1</v>
+      </c>
+      <c r="I261" s="41">
+        <v>8</v>
+      </c>
+      <c r="J261" s="33">
+        <f>J93</f>
+        <v>301.33999999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="45">
         <v>10</v>
       </c>
@@ -5368,11 +8837,24 @@
         <v>8</v>
       </c>
       <c r="D262" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>301.33999999999997</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G262" s="45">
+        <v>10</v>
+      </c>
+      <c r="H262" s="41">
+        <v>1</v>
+      </c>
+      <c r="I262" s="41">
+        <v>9</v>
+      </c>
+      <c r="J262" s="33">
+        <f>J94</f>
+        <v>305.74</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="45">
         <v>10</v>
       </c>
@@ -5383,11 +8865,24 @@
         <v>9</v>
       </c>
       <c r="D263" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>305.74</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G263" s="45">
+        <v>10</v>
+      </c>
+      <c r="H263" s="41">
+        <v>1</v>
+      </c>
+      <c r="I263" s="41">
+        <v>10</v>
+      </c>
+      <c r="J263" s="33">
+        <f>J95</f>
+        <v>310.14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="45">
         <v>10</v>
       </c>
@@ -5398,11 +8893,24 @@
         <v>10</v>
       </c>
       <c r="D264" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>310.14</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G264" s="45">
+        <v>10</v>
+      </c>
+      <c r="H264" s="41">
+        <v>1</v>
+      </c>
+      <c r="I264" s="41">
+        <v>11</v>
+      </c>
+      <c r="J264" s="33">
+        <f>J96</f>
+        <v>314.53999999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="45">
         <v>10</v>
       </c>
@@ -5413,11 +8921,24 @@
         <v>11</v>
       </c>
       <c r="D265" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>314.53999999999996</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G265" s="45">
+        <v>10</v>
+      </c>
+      <c r="H265" s="41">
+        <v>1</v>
+      </c>
+      <c r="I265" s="41">
+        <v>12</v>
+      </c>
+      <c r="J265" s="33">
+        <f>J97</f>
+        <v>318.94</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="45">
         <v>10</v>
       </c>
@@ -5428,11 +8949,24 @@
         <v>12</v>
       </c>
       <c r="D266" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>318.94</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G266" s="45">
+        <v>10</v>
+      </c>
+      <c r="H266" s="41">
+        <v>1</v>
+      </c>
+      <c r="I266" s="41">
+        <v>13</v>
+      </c>
+      <c r="J266" s="33">
+        <f>J98</f>
+        <v>323.33999999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="45">
         <v>10</v>
       </c>
@@ -5443,11 +8977,24 @@
         <v>13</v>
       </c>
       <c r="D267" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>323.33999999999997</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G267" s="43">
+        <v>10</v>
+      </c>
+      <c r="H267" s="42">
+        <v>1</v>
+      </c>
+      <c r="I267" s="42">
+        <v>14</v>
+      </c>
+      <c r="J267" s="44">
+        <f>J99</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="45">
         <v>10</v>
       </c>
@@ -5458,11 +9005,24 @@
         <v>0</v>
       </c>
       <c r="D268" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115.34</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G268" s="45">
+        <v>10</v>
+      </c>
+      <c r="H268" s="41">
+        <v>2</v>
+      </c>
+      <c r="I268" s="41">
+        <v>1</v>
+      </c>
+      <c r="J268" s="33">
+        <f>J100</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="45">
         <v>10</v>
       </c>
@@ -5473,11 +9033,24 @@
         <v>1</v>
       </c>
       <c r="D269" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>119.74000000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G269" s="45">
+        <v>10</v>
+      </c>
+      <c r="H269" s="41">
+        <v>2</v>
+      </c>
+      <c r="I269" s="41">
+        <v>2</v>
+      </c>
+      <c r="J269" s="33">
+        <f>J101</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="45">
         <v>10</v>
       </c>
@@ -5488,11 +9061,24 @@
         <v>2</v>
       </c>
       <c r="D270" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>124.14</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G270" s="45">
+        <v>10</v>
+      </c>
+      <c r="H270" s="41">
+        <v>2</v>
+      </c>
+      <c r="I270" s="41">
+        <v>3</v>
+      </c>
+      <c r="J270" s="33">
+        <f>J102</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="45">
         <v>10</v>
       </c>
@@ -5503,11 +9089,24 @@
         <v>3</v>
       </c>
       <c r="D271" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>128.54</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G271" s="45">
+        <v>10</v>
+      </c>
+      <c r="H271" s="41">
+        <v>2</v>
+      </c>
+      <c r="I271" s="41">
+        <v>4</v>
+      </c>
+      <c r="J271" s="33">
+        <f>J103</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="45">
         <v>10</v>
       </c>
@@ -5518,11 +9117,24 @@
         <v>4</v>
       </c>
       <c r="D272" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>132.94</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G272" s="45">
+        <v>10</v>
+      </c>
+      <c r="H272" s="41">
+        <v>2</v>
+      </c>
+      <c r="I272" s="41">
+        <v>5</v>
+      </c>
+      <c r="J272" s="33">
+        <f>J104</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="45">
         <v>10</v>
       </c>
@@ -5533,11 +9145,24 @@
         <v>5</v>
       </c>
       <c r="D273" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137.34</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G273" s="45">
+        <v>10</v>
+      </c>
+      <c r="H273" s="41">
+        <v>2</v>
+      </c>
+      <c r="I273" s="41">
+        <v>6</v>
+      </c>
+      <c r="J273" s="33">
+        <f>J105</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="45">
         <v>10</v>
       </c>
@@ -5548,11 +9173,24 @@
         <v>6</v>
       </c>
       <c r="D274" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>141.74</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G274" s="45">
+        <v>10</v>
+      </c>
+      <c r="H274" s="41">
+        <v>2</v>
+      </c>
+      <c r="I274" s="41">
+        <v>7</v>
+      </c>
+      <c r="J274" s="33">
+        <f>J106</f>
+        <v>146.14000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="45">
         <v>10</v>
       </c>
@@ -5563,11 +9201,24 @@
         <v>7</v>
       </c>
       <c r="D275" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>146.14000000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G275" s="45">
+        <v>10</v>
+      </c>
+      <c r="H275" s="41">
+        <v>2</v>
+      </c>
+      <c r="I275" s="41">
+        <v>8</v>
+      </c>
+      <c r="J275" s="33">
+        <f>J107</f>
+        <v>150.54000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="45">
         <v>10</v>
       </c>
@@ -5578,11 +9229,24 @@
         <v>8</v>
       </c>
       <c r="D276" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150.54000000000002</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G276" s="45">
+        <v>10</v>
+      </c>
+      <c r="H276" s="41">
+        <v>2</v>
+      </c>
+      <c r="I276" s="41">
+        <v>9</v>
+      </c>
+      <c r="J276" s="33">
+        <f>J108</f>
+        <v>154.94</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="45">
         <v>10</v>
       </c>
@@ -5593,11 +9257,24 @@
         <v>9</v>
       </c>
       <c r="D277" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.94</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G277" s="45">
+        <v>10</v>
+      </c>
+      <c r="H277" s="41">
+        <v>2</v>
+      </c>
+      <c r="I277" s="41">
+        <v>10</v>
+      </c>
+      <c r="J277" s="33">
+        <f>J109</f>
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="45">
         <v>10</v>
       </c>
@@ -5608,11 +9285,24 @@
         <v>10</v>
       </c>
       <c r="D278" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>159.34</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G278" s="45">
+        <v>10</v>
+      </c>
+      <c r="H278" s="41">
+        <v>2</v>
+      </c>
+      <c r="I278" s="41">
+        <v>11</v>
+      </c>
+      <c r="J278" s="33">
+        <f>J110</f>
+        <v>163.74</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="45">
         <v>10</v>
       </c>
@@ -5623,11 +9313,24 @@
         <v>11</v>
       </c>
       <c r="D279" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>163.74</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G279" s="45">
+        <v>10</v>
+      </c>
+      <c r="H279" s="41">
+        <v>2</v>
+      </c>
+      <c r="I279" s="41">
+        <v>12</v>
+      </c>
+      <c r="J279" s="33">
+        <f>J111</f>
+        <v>168.14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="45">
         <v>10</v>
       </c>
@@ -5638,11 +9341,24 @@
         <v>12</v>
       </c>
       <c r="D280" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>168.14</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G280" s="45">
+        <v>10</v>
+      </c>
+      <c r="H280" s="41">
+        <v>2</v>
+      </c>
+      <c r="I280" s="41">
+        <v>13</v>
+      </c>
+      <c r="J280" s="33">
+        <f>J112</f>
+        <v>172.54000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="49">
         <v>10</v>
       </c>
@@ -5653,8 +9369,20 @@
         <v>13</v>
       </c>
       <c r="D281" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172.54000000000002</v>
+      </c>
+      <c r="G281" s="34">
+        <v>10</v>
+      </c>
+      <c r="H281" s="35">
+        <v>2</v>
+      </c>
+      <c r="I281" s="35">
+        <v>14</v>
+      </c>
+      <c r="J281" s="36">
+        <v>115.34</v>
       </c>
     </row>
   </sheetData>
@@ -6611,7 +10339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C6C6F-C40B-4556-857C-4C6354FF04AD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1BFC7-3CB0-4B28-AB2E-16CC92F5275D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="sound" sheetId="9" r:id="rId8"/>
     <sheet name="flights" sheetId="11" r:id="rId9"/>
     <sheet name="testset" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>Nr</t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6572479F-AFDE-4940-94F1-052247087792}">
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="N145" sqref="N145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,6 +1478,18 @@
       <c r="J1" s="30" t="s">
         <v>16</v>
       </c>
+      <c r="M1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
@@ -1483,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>147.11999999999998</v>
+        <v>147.12</v>
       </c>
       <c r="G2" s="28">
         <v>1</v>
@@ -1498,6 +1517,19 @@
         <f>$J$15+(I2*20*fuel_flow!$B$2)</f>
         <v>151.51999999999998</v>
       </c>
+      <c r="M2" s="28">
+        <v>1</v>
+      </c>
+      <c r="N2" s="29">
+        <v>1</v>
+      </c>
+      <c r="O2" s="29">
+        <v>1</v>
+      </c>
+      <c r="P2" s="30">
+        <f>$J$15+(C3*20*fuel_flow!$B$2)</f>
+        <v>151.51999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
@@ -1526,10 +1558,19 @@
         <f>$J$15+(I3*20*fuel_flow!$B$2)</f>
         <v>155.91999999999999</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="M3" s="31">
+        <v>1</v>
+      </c>
+      <c r="N3" s="32">
+        <v>1</v>
+      </c>
+      <c r="O3" s="32">
+        <v>2</v>
+      </c>
+      <c r="P3" s="33">
+        <f>$J$15+(C4*20*fuel_flow!$B$2)</f>
+        <v>155.91999999999999</v>
+      </c>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -1562,10 +1603,19 @@
         <f>$J$15+(I4*20*fuel_flow!$B$2)</f>
         <v>160.31999999999996</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="M4" s="31">
+        <v>1</v>
+      </c>
+      <c r="N4" s="32">
+        <v>1</v>
+      </c>
+      <c r="O4" s="32">
+        <v>3</v>
+      </c>
+      <c r="P4" s="33">
+        <f>$J$15+(C5*20*fuel_flow!$B$2)</f>
+        <v>160.31999999999996</v>
+      </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
@@ -1598,10 +1648,19 @@
         <f>$J$15+(I5*20*fuel_flow!$B$2)</f>
         <v>164.71999999999997</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="M5" s="31">
+        <v>1</v>
+      </c>
+      <c r="N5" s="32">
+        <v>1</v>
+      </c>
+      <c r="O5" s="32">
+        <v>4</v>
+      </c>
+      <c r="P5" s="33">
+        <f>$J$15+(C6*20*fuel_flow!$B$2)</f>
+        <v>164.71999999999997</v>
+      </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -1634,10 +1693,19 @@
         <f>$J$15+(I6*20*fuel_flow!$B$2)</f>
         <v>169.11999999999998</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="M6" s="31">
+        <v>1</v>
+      </c>
+      <c r="N6" s="32">
+        <v>1</v>
+      </c>
+      <c r="O6" s="32">
+        <v>5</v>
+      </c>
+      <c r="P6" s="33">
+        <f>$J$15+(C7*20*fuel_flow!$B$2)</f>
+        <v>169.11999999999998</v>
+      </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
       <c r="S6" s="32"/>
@@ -1670,10 +1738,19 @@
         <f>$J$15+(I7*20*fuel_flow!$B$2)</f>
         <v>173.51999999999998</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="M7" s="31">
+        <v>1</v>
+      </c>
+      <c r="N7" s="32">
+        <v>1</v>
+      </c>
+      <c r="O7" s="32">
+        <v>6</v>
+      </c>
+      <c r="P7" s="33">
+        <f>$J$15+(C8*20*fuel_flow!$B$2)</f>
+        <v>173.51999999999998</v>
+      </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
@@ -1706,10 +1783,18 @@
         <f>$J$15+(I8*20*fuel_flow!$B$2)</f>
         <v>177.92</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="M8" s="46">
+        <v>1</v>
+      </c>
+      <c r="N8" s="42">
+        <v>1</v>
+      </c>
+      <c r="O8" s="42">
+        <v>7</v>
+      </c>
+      <c r="P8" s="44">
+        <v>147.12</v>
+      </c>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
@@ -1742,10 +1827,19 @@
         <f>$J$15+(I9*20*fuel_flow!$B$2)</f>
         <v>182.32</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="M9" s="31">
+        <v>1</v>
+      </c>
+      <c r="N9" s="32">
+        <v>2</v>
+      </c>
+      <c r="O9" s="32">
+        <v>1</v>
+      </c>
+      <c r="P9" s="33">
+        <f ca="1">$P$9+(20*O9*fuel_flow!$B$2)</f>
+        <v>268.02</v>
+      </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
@@ -1778,10 +1872,19 @@
         <f>$J$15+(I10*20*fuel_flow!$B$2)</f>
         <v>186.71999999999997</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="M10" s="31">
+        <v>1</v>
+      </c>
+      <c r="N10" s="32">
+        <v>2</v>
+      </c>
+      <c r="O10" s="32">
+        <v>2</v>
+      </c>
+      <c r="P10" s="33">
+        <f ca="1">$P$9+(20*O10*fuel_flow!$B$2)</f>
+        <v>272.42</v>
+      </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
@@ -1814,10 +1917,19 @@
         <f>$J$15+(I11*20*fuel_flow!$B$2)</f>
         <v>191.11999999999998</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="M11" s="31">
+        <v>1</v>
+      </c>
+      <c r="N11" s="32">
+        <v>2</v>
+      </c>
+      <c r="O11" s="32">
+        <v>3</v>
+      </c>
+      <c r="P11" s="33">
+        <f ca="1">$P$9+(20*O11*fuel_flow!$B$2)</f>
+        <v>276.82</v>
+      </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
@@ -1850,10 +1962,19 @@
         <f>$J$15+(I12*20*fuel_flow!$B$2)</f>
         <v>195.51999999999998</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="32">
+        <v>2</v>
+      </c>
+      <c r="O12" s="32">
+        <v>4</v>
+      </c>
+      <c r="P12" s="33">
+        <f ca="1">$P$9+(20*O12*fuel_flow!$B$2)</f>
+        <v>281.22000000000003</v>
+      </c>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
@@ -1886,10 +2007,19 @@
         <f>$J$15+(I13*20*fuel_flow!$B$2)</f>
         <v>199.91999999999996</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="M13" s="31">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>2</v>
+      </c>
+      <c r="O13" s="32">
+        <v>5</v>
+      </c>
+      <c r="P13" s="33">
+        <f ca="1">$P$9+(20*O13*fuel_flow!$B$2)</f>
+        <v>285.62</v>
+      </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -1922,8 +2052,21 @@
         <f>$J$15+(I14*20*fuel_flow!$B$2)</f>
         <v>204.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="32">
+        <v>2</v>
+      </c>
+      <c r="O14" s="32">
+        <v>6</v>
+      </c>
+      <c r="P14" s="33">
+        <f ca="1">$P$9+(20*O14*fuel_flow!$B$2)</f>
+        <v>290.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>1</v>
       </c>
@@ -1950,6 +2093,18 @@
         <f>(t_to_RWY!B4*fuel_flow!B2)+(t_to_taxi!B4*fuel_flow!B3)</f>
         <v>147.11999999999998</v>
       </c>
+      <c r="M15" s="49">
+        <v>1</v>
+      </c>
+      <c r="N15" s="50">
+        <v>2</v>
+      </c>
+      <c r="O15" s="50">
+        <v>7</v>
+      </c>
+      <c r="P15" s="36">
+        <v>263.62</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
@@ -1978,8 +2133,21 @@
         <f>$D$16+(20*I16*fuel_flow!$B$2)</f>
         <v>268.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M16" s="31">
+        <v>2</v>
+      </c>
+      <c r="N16" s="32">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32">
+        <v>1</v>
+      </c>
+      <c r="P16" s="33">
+        <f ca="1">$P$16+(20*O16*fuel_flow!$B$2)</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>1</v>
       </c>
@@ -2006,8 +2174,21 @@
         <f>$D$16+(20*I17*fuel_flow!$B$2)</f>
         <v>272.42</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M17" s="31">
+        <v>2</v>
+      </c>
+      <c r="N17" s="32">
+        <v>1</v>
+      </c>
+      <c r="O17" s="32">
+        <v>2</v>
+      </c>
+      <c r="P17" s="33">
+        <f ca="1">$P$16+(20*O17*fuel_flow!$B$2)</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>1</v>
       </c>
@@ -2034,8 +2215,21 @@
         <f>$D$16+(20*I18*fuel_flow!$B$2)</f>
         <v>276.82</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M18" s="31">
+        <v>2</v>
+      </c>
+      <c r="N18" s="32">
+        <v>1</v>
+      </c>
+      <c r="O18" s="32">
+        <v>3</v>
+      </c>
+      <c r="P18" s="33">
+        <f ca="1">$P$16+(20*O18*fuel_flow!$B$2)</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>1</v>
       </c>
@@ -2062,8 +2256,21 @@
         <f>$D$16+(20*I19*fuel_flow!$B$2)</f>
         <v>281.22000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M19" s="31">
+        <v>2</v>
+      </c>
+      <c r="N19" s="32">
+        <v>1</v>
+      </c>
+      <c r="O19" s="32">
+        <v>4</v>
+      </c>
+      <c r="P19" s="33">
+        <f ca="1">$P$16+(20*O19*fuel_flow!$B$2)</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>1</v>
       </c>
@@ -2090,8 +2297,21 @@
         <f>$D$16+(20*I20*fuel_flow!$B$2)</f>
         <v>285.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M20" s="31">
+        <v>2</v>
+      </c>
+      <c r="N20" s="32">
+        <v>1</v>
+      </c>
+      <c r="O20" s="32">
+        <v>5</v>
+      </c>
+      <c r="P20" s="33">
+        <f ca="1">$P$16+(20*O20*fuel_flow!$B$2)</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>1</v>
       </c>
@@ -2118,8 +2338,21 @@
         <f>$D$16+(20*I21*fuel_flow!$B$2)</f>
         <v>290.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M21" s="31">
+        <v>2</v>
+      </c>
+      <c r="N21" s="32">
+        <v>1</v>
+      </c>
+      <c r="O21" s="32">
+        <v>6</v>
+      </c>
+      <c r="P21" s="33">
+        <f ca="1">$P$16+(20*O21*fuel_flow!$B$2)</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>1</v>
       </c>
@@ -2146,8 +2379,20 @@
         <f>$D$16+(20*I22*fuel_flow!$B$2)</f>
         <v>294.42</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M22" s="46">
+        <v>2</v>
+      </c>
+      <c r="N22" s="42">
+        <v>1</v>
+      </c>
+      <c r="O22" s="42">
+        <v>7</v>
+      </c>
+      <c r="P22" s="44">
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>1</v>
       </c>
@@ -2174,8 +2419,21 @@
         <f>$D$16+(20*I23*fuel_flow!$B$2)</f>
         <v>298.82</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M23" s="31">
+        <v>2</v>
+      </c>
+      <c r="N23" s="32">
+        <v>2</v>
+      </c>
+      <c r="O23" s="32">
+        <v>1</v>
+      </c>
+      <c r="P23" s="33">
+        <f ca="1">$P$23+(O23*20*fuel_flow!$B$2)</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1</v>
       </c>
@@ -2202,8 +2460,21 @@
         <f>$D$16+(20*I24*fuel_flow!$B$2)</f>
         <v>303.22000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M24" s="31">
+        <v>2</v>
+      </c>
+      <c r="N24" s="32">
+        <v>2</v>
+      </c>
+      <c r="O24" s="32">
+        <v>2</v>
+      </c>
+      <c r="P24" s="33">
+        <f ca="1">$P$23+(O24*20*fuel_flow!$B$2)</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>1</v>
       </c>
@@ -2230,8 +2501,21 @@
         <f>$D$16+(20*I25*fuel_flow!$B$2)</f>
         <v>307.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M25" s="31">
+        <v>2</v>
+      </c>
+      <c r="N25" s="32">
+        <v>2</v>
+      </c>
+      <c r="O25" s="32">
+        <v>3</v>
+      </c>
+      <c r="P25" s="33">
+        <f ca="1">$P$23+(O25*20*fuel_flow!$B$2)</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>1</v>
       </c>
@@ -2258,8 +2542,21 @@
         <f>$D$16+(20*I26*fuel_flow!$B$2)</f>
         <v>312.02</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M26" s="31">
+        <v>2</v>
+      </c>
+      <c r="N26" s="32">
+        <v>2</v>
+      </c>
+      <c r="O26" s="32">
+        <v>4</v>
+      </c>
+      <c r="P26" s="33">
+        <f ca="1">$P$23+(O26*20*fuel_flow!$B$2)</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>1</v>
       </c>
@@ -2286,8 +2583,21 @@
         <f>$D$16+(20*I27*fuel_flow!$B$2)</f>
         <v>316.42</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M27" s="31">
+        <v>2</v>
+      </c>
+      <c r="N27" s="32">
+        <v>2</v>
+      </c>
+      <c r="O27" s="32">
+        <v>5</v>
+      </c>
+      <c r="P27" s="33">
+        <f ca="1">$P$23+(O27*20*fuel_flow!$B$2)</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>1</v>
       </c>
@@ -2314,8 +2624,21 @@
         <f>$D$16+(20*I28*fuel_flow!$B$2)</f>
         <v>320.82</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="31">
+        <v>2</v>
+      </c>
+      <c r="N28" s="32">
+        <v>2</v>
+      </c>
+      <c r="O28" s="32">
+        <v>6</v>
+      </c>
+      <c r="P28" s="33">
+        <f ca="1">$P$23+(O28*20*fuel_flow!$B$2)</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43">
         <v>1</v>
       </c>
@@ -2341,8 +2664,20 @@
       <c r="J29" s="33">
         <v>263.62</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M29" s="45">
+        <v>2</v>
+      </c>
+      <c r="N29" s="41">
+        <v>2</v>
+      </c>
+      <c r="O29" s="42">
+        <v>7</v>
+      </c>
+      <c r="P29" s="33">
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>2</v>
       </c>
@@ -2369,8 +2704,21 @@
         <f>$D$30+(20*I30*fuel_flow!$B$2)</f>
         <v>270.53999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M30" s="28">
+        <v>3</v>
+      </c>
+      <c r="N30" s="29">
+        <v>1</v>
+      </c>
+      <c r="O30" s="29">
+        <v>1</v>
+      </c>
+      <c r="P30" s="30">
+        <f ca="1">$P$30+(20*O30*fuel_flow!$C$2)</f>
+        <v>398.07000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>2</v>
       </c>
@@ -2397,8 +2745,21 @@
         <f>$D$30+(20*I31*fuel_flow!$B$2)</f>
         <v>274.94</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M31" s="31">
+        <v>3</v>
+      </c>
+      <c r="N31" s="32">
+        <v>1</v>
+      </c>
+      <c r="O31" s="32">
+        <v>2</v>
+      </c>
+      <c r="P31" s="33">
+        <f ca="1">$P$30+(20*O31*fuel_flow!$C$2)</f>
+        <v>408.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>2</v>
       </c>
@@ -2425,8 +2786,21 @@
         <f>$D$30+(20*I32*fuel_flow!$B$2)</f>
         <v>279.33999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M32" s="31">
+        <v>3</v>
+      </c>
+      <c r="N32" s="32">
+        <v>1</v>
+      </c>
+      <c r="O32" s="32">
+        <v>3</v>
+      </c>
+      <c r="P32" s="33">
+        <f ca="1">$P$30+(20*O32*fuel_flow!$C$2)</f>
+        <v>419.27000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>2</v>
       </c>
@@ -2453,8 +2827,21 @@
         <f>$D$30+(20*I33*fuel_flow!$B$2)</f>
         <v>283.74</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M33" s="31">
+        <v>3</v>
+      </c>
+      <c r="N33" s="32">
+        <v>1</v>
+      </c>
+      <c r="O33" s="32">
+        <v>4</v>
+      </c>
+      <c r="P33" s="33">
+        <f ca="1">$P$30+(20*O33*fuel_flow!$C$2)</f>
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>2</v>
       </c>
@@ -2481,8 +2868,21 @@
         <f>$D$30+(20*I34*fuel_flow!$B$2)</f>
         <v>288.14</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M34" s="31">
+        <v>3</v>
+      </c>
+      <c r="N34" s="32">
+        <v>1</v>
+      </c>
+      <c r="O34" s="32">
+        <v>5</v>
+      </c>
+      <c r="P34" s="33">
+        <f ca="1">$P$30+(20*O34*fuel_flow!$C$2)</f>
+        <v>440.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>2</v>
       </c>
@@ -2509,8 +2909,21 @@
         <f>$D$30+(20*I35*fuel_flow!$B$2)</f>
         <v>292.53999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M35" s="31">
+        <v>3</v>
+      </c>
+      <c r="N35" s="32">
+        <v>1</v>
+      </c>
+      <c r="O35" s="32">
+        <v>6</v>
+      </c>
+      <c r="P35" s="33">
+        <f ca="1">$P$30+(20*O35*fuel_flow!$C$2)</f>
+        <v>451.07000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>2</v>
       </c>
@@ -2537,8 +2950,20 @@
         <f>$D$30+(20*I36*fuel_flow!$B$2)</f>
         <v>296.94</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M36" s="46">
+        <v>3</v>
+      </c>
+      <c r="N36" s="42">
+        <v>1</v>
+      </c>
+      <c r="O36" s="42">
+        <v>7</v>
+      </c>
+      <c r="P36" s="44">
+        <v>387.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>2</v>
       </c>
@@ -2565,8 +2990,21 @@
         <f>$D$30+(20*I37*fuel_flow!$B$2)</f>
         <v>301.33999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M37" s="31">
+        <v>3</v>
+      </c>
+      <c r="N37" s="32">
+        <v>2</v>
+      </c>
+      <c r="O37" s="32">
+        <v>1</v>
+      </c>
+      <c r="P37" s="33">
+        <f ca="1">$P$37+(20*O37*fuel_flow!$C$2)</f>
+        <v>573.50000000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>2</v>
       </c>
@@ -2593,8 +3031,21 @@
         <f>$D$30+(20*I38*fuel_flow!$B$2)</f>
         <v>305.74</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M38" s="31">
+        <v>3</v>
+      </c>
+      <c r="N38" s="32">
+        <v>2</v>
+      </c>
+      <c r="O38" s="32">
+        <v>2</v>
+      </c>
+      <c r="P38" s="33">
+        <f ca="1">$P$37+(20*O38*fuel_flow!$C$2)</f>
+        <v>584.10000000000014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>2</v>
       </c>
@@ -2621,8 +3072,21 @@
         <f>$D$30+(20*I39*fuel_flow!$B$2)</f>
         <v>310.14</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M39" s="31">
+        <v>3</v>
+      </c>
+      <c r="N39" s="32">
+        <v>2</v>
+      </c>
+      <c r="O39" s="32">
+        <v>3</v>
+      </c>
+      <c r="P39" s="33">
+        <f ca="1">$P$37+(20*O39*fuel_flow!$C$2)</f>
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>2</v>
       </c>
@@ -2649,8 +3113,21 @@
         <f>$D$30+(20*I40*fuel_flow!$B$2)</f>
         <v>314.53999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M40" s="31">
+        <v>3</v>
+      </c>
+      <c r="N40" s="32">
+        <v>2</v>
+      </c>
+      <c r="O40" s="32">
+        <v>4</v>
+      </c>
+      <c r="P40" s="33">
+        <f ca="1">$P$37+(20*O40*fuel_flow!$C$2)</f>
+        <v>605.30000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>2</v>
       </c>
@@ -2677,8 +3154,21 @@
         <f>$D$30+(20*I41*fuel_flow!$B$2)</f>
         <v>318.94</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M41" s="31">
+        <v>3</v>
+      </c>
+      <c r="N41" s="32">
+        <v>2</v>
+      </c>
+      <c r="O41" s="32">
+        <v>5</v>
+      </c>
+      <c r="P41" s="33">
+        <f ca="1">$P$37+(20*O41*fuel_flow!$C$2)</f>
+        <v>615.90000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>2</v>
       </c>
@@ -2705,8 +3195,21 @@
         <f>$D$30+(20*I42*fuel_flow!$B$2)</f>
         <v>323.33999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M42" s="31">
+        <v>3</v>
+      </c>
+      <c r="N42" s="32">
+        <v>2</v>
+      </c>
+      <c r="O42" s="32">
+        <v>6</v>
+      </c>
+      <c r="P42" s="33">
+        <f ca="1">$P$37+(20*O42*fuel_flow!$C$2)</f>
+        <v>626.50000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31">
         <v>2</v>
       </c>
@@ -2732,8 +3235,20 @@
       <c r="J43" s="44">
         <v>266.14</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M43" s="45">
+        <v>3</v>
+      </c>
+      <c r="N43" s="41">
+        <v>2</v>
+      </c>
+      <c r="O43" s="42">
+        <v>7</v>
+      </c>
+      <c r="P43" s="33">
+        <v>562.90000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>2</v>
       </c>
@@ -2760,8 +3275,21 @@
         <f>$D$44+(I44*20*fuel_flow!$B$2)</f>
         <v>119.74000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M44" s="51">
+        <v>4</v>
+      </c>
+      <c r="N44" s="52">
+        <v>1</v>
+      </c>
+      <c r="O44" s="52">
+        <v>1</v>
+      </c>
+      <c r="P44" s="30">
+        <f ca="1">P16</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>2</v>
       </c>
@@ -2788,8 +3316,21 @@
         <f>$D$44+(I45*20*fuel_flow!$B$2)</f>
         <v>124.14</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M45" s="45">
+        <v>4</v>
+      </c>
+      <c r="N45" s="41">
+        <v>1</v>
+      </c>
+      <c r="O45" s="41">
+        <v>2</v>
+      </c>
+      <c r="P45" s="33">
+        <f ca="1">P17</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>2</v>
       </c>
@@ -2816,8 +3357,21 @@
         <f>$D$44+(I46*20*fuel_flow!$B$2)</f>
         <v>128.54</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M46" s="45">
+        <v>4</v>
+      </c>
+      <c r="N46" s="41">
+        <v>1</v>
+      </c>
+      <c r="O46" s="41">
+        <v>3</v>
+      </c>
+      <c r="P46" s="33">
+        <f ca="1">P18</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>2</v>
       </c>
@@ -2844,8 +3398,21 @@
         <f>$D$44+(I47*20*fuel_flow!$B$2)</f>
         <v>132.94</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M47" s="45">
+        <v>4</v>
+      </c>
+      <c r="N47" s="41">
+        <v>1</v>
+      </c>
+      <c r="O47" s="41">
+        <v>4</v>
+      </c>
+      <c r="P47" s="33">
+        <f ca="1">P19</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <v>2</v>
       </c>
@@ -2872,8 +3439,21 @@
         <f>$D$44+(I48*20*fuel_flow!$B$2)</f>
         <v>137.34</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M48" s="45">
+        <v>4</v>
+      </c>
+      <c r="N48" s="41">
+        <v>1</v>
+      </c>
+      <c r="O48" s="41">
+        <v>5</v>
+      </c>
+      <c r="P48" s="33">
+        <f ca="1">P20</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>2</v>
       </c>
@@ -2900,8 +3480,21 @@
         <f>$D$44+(I49*20*fuel_flow!$B$2)</f>
         <v>141.74</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M49" s="45">
+        <v>4</v>
+      </c>
+      <c r="N49" s="41">
+        <v>1</v>
+      </c>
+      <c r="O49" s="41">
+        <v>6</v>
+      </c>
+      <c r="P49" s="33">
+        <f ca="1">P21</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <v>2</v>
       </c>
@@ -2928,8 +3521,21 @@
         <f>$D$44+(I50*20*fuel_flow!$B$2)</f>
         <v>146.14000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M50" s="43">
+        <v>4</v>
+      </c>
+      <c r="N50" s="42">
+        <v>1</v>
+      </c>
+      <c r="O50" s="42">
+        <v>7</v>
+      </c>
+      <c r="P50" s="44">
+        <f>P22</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <v>2</v>
       </c>
@@ -2956,8 +3562,21 @@
         <f>$D$44+(I51*20*fuel_flow!$B$2)</f>
         <v>150.54000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M51" s="45">
+        <v>4</v>
+      </c>
+      <c r="N51" s="41">
+        <v>2</v>
+      </c>
+      <c r="O51" s="41">
+        <v>1</v>
+      </c>
+      <c r="P51" s="33">
+        <f ca="1">P23</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <v>2</v>
       </c>
@@ -2984,8 +3603,21 @@
         <f>$D$44+(I52*20*fuel_flow!$B$2)</f>
         <v>154.94</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M52" s="45">
+        <v>4</v>
+      </c>
+      <c r="N52" s="41">
+        <v>2</v>
+      </c>
+      <c r="O52" s="41">
+        <v>2</v>
+      </c>
+      <c r="P52" s="33">
+        <f ca="1">P24</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <v>2</v>
       </c>
@@ -3012,8 +3644,21 @@
         <f>$D$44+(I53*20*fuel_flow!$B$2)</f>
         <v>159.34</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M53" s="45">
+        <v>4</v>
+      </c>
+      <c r="N53" s="41">
+        <v>2</v>
+      </c>
+      <c r="O53" s="41">
+        <v>3</v>
+      </c>
+      <c r="P53" s="33">
+        <f ca="1">P25</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <v>2</v>
       </c>
@@ -3040,8 +3685,21 @@
         <f>$D$44+(I54*20*fuel_flow!$B$2)</f>
         <v>163.74</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M54" s="45">
+        <v>4</v>
+      </c>
+      <c r="N54" s="41">
+        <v>2</v>
+      </c>
+      <c r="O54" s="41">
+        <v>4</v>
+      </c>
+      <c r="P54" s="33">
+        <f ca="1">P26</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>2</v>
       </c>
@@ -3068,8 +3726,21 @@
         <f>$D$44+(I55*20*fuel_flow!$B$2)</f>
         <v>168.14</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M55" s="45">
+        <v>4</v>
+      </c>
+      <c r="N55" s="41">
+        <v>2</v>
+      </c>
+      <c r="O55" s="41">
+        <v>5</v>
+      </c>
+      <c r="P55" s="33">
+        <f ca="1">P27</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
         <v>2</v>
       </c>
@@ -3096,8 +3767,21 @@
         <f>$D$44+(I56*20*fuel_flow!$B$2)</f>
         <v>172.54000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M56" s="45">
+        <v>4</v>
+      </c>
+      <c r="N56" s="41">
+        <v>2</v>
+      </c>
+      <c r="O56" s="41">
+        <v>6</v>
+      </c>
+      <c r="P56" s="33">
+        <f ca="1">P28</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="43">
         <v>2</v>
       </c>
@@ -3123,8 +3807,21 @@
       <c r="J57" s="33">
         <v>115.34</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M57" s="34">
+        <v>4</v>
+      </c>
+      <c r="N57" s="35">
+        <v>2</v>
+      </c>
+      <c r="O57" s="50">
+        <v>7</v>
+      </c>
+      <c r="P57" s="36">
+        <f>P29</f>
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <v>3</v>
       </c>
@@ -3151,8 +3848,21 @@
         <f>$D$58+(20*I58*fuel_flow!$C$2)</f>
         <v>398.07000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M58" s="45">
+        <v>5</v>
+      </c>
+      <c r="N58" s="41">
+        <v>1</v>
+      </c>
+      <c r="O58" s="41">
+        <v>1</v>
+      </c>
+      <c r="P58" s="47">
+        <f ca="1">P30</f>
+        <v>398.07000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
         <v>3</v>
       </c>
@@ -3179,8 +3889,21 @@
         <f>$D$58+(20*I59*fuel_flow!$C$2)</f>
         <v>408.67</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M59" s="45">
+        <v>5</v>
+      </c>
+      <c r="N59" s="41">
+        <v>1</v>
+      </c>
+      <c r="O59" s="41">
+        <v>2</v>
+      </c>
+      <c r="P59" s="47">
+        <f ca="1">P31</f>
+        <v>408.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <v>3</v>
       </c>
@@ -3207,8 +3930,21 @@
         <f>$D$58+(20*I60*fuel_flow!$C$2)</f>
         <v>419.27000000000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M60" s="45">
+        <v>5</v>
+      </c>
+      <c r="N60" s="41">
+        <v>1</v>
+      </c>
+      <c r="O60" s="41">
+        <v>3</v>
+      </c>
+      <c r="P60" s="47">
+        <f ca="1">P32</f>
+        <v>419.27000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
         <v>3</v>
       </c>
@@ -3235,8 +3971,21 @@
         <f>$D$58+(20*I61*fuel_flow!$C$2)</f>
         <v>429.87</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M61" s="45">
+        <v>5</v>
+      </c>
+      <c r="N61" s="41">
+        <v>1</v>
+      </c>
+      <c r="O61" s="41">
+        <v>4</v>
+      </c>
+      <c r="P61" s="47">
+        <f ca="1">P33</f>
+        <v>429.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
         <v>3</v>
       </c>
@@ -3263,8 +4012,21 @@
         <f>$D$58+(20*I62*fuel_flow!$C$2)</f>
         <v>440.47</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M62" s="45">
+        <v>5</v>
+      </c>
+      <c r="N62" s="41">
+        <v>1</v>
+      </c>
+      <c r="O62" s="41">
+        <v>5</v>
+      </c>
+      <c r="P62" s="47">
+        <f ca="1">P34</f>
+        <v>440.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
         <v>3</v>
       </c>
@@ -3291,8 +4053,21 @@
         <f>$D$58+(20*I63*fuel_flow!$C$2)</f>
         <v>451.07000000000005</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M63" s="45">
+        <v>5</v>
+      </c>
+      <c r="N63" s="41">
+        <v>1</v>
+      </c>
+      <c r="O63" s="41">
+        <v>6</v>
+      </c>
+      <c r="P63" s="47">
+        <f ca="1">P35</f>
+        <v>451.07000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
         <v>3</v>
       </c>
@@ -3319,8 +4094,21 @@
         <f>$D$58+(20*I64*fuel_flow!$C$2)</f>
         <v>461.67</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M64" s="43">
+        <v>5</v>
+      </c>
+      <c r="N64" s="42">
+        <v>1</v>
+      </c>
+      <c r="O64" s="42">
+        <v>7</v>
+      </c>
+      <c r="P64" s="48">
+        <f>P36</f>
+        <v>387.47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
         <v>3</v>
       </c>
@@ -3347,8 +4135,21 @@
         <f>$D$58+(20*I65*fuel_flow!$C$2)</f>
         <v>472.27000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M65" s="45">
+        <v>5</v>
+      </c>
+      <c r="N65" s="41">
+        <v>2</v>
+      </c>
+      <c r="O65" s="41">
+        <v>1</v>
+      </c>
+      <c r="P65" s="47">
+        <f ca="1">P37</f>
+        <v>573.50000000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
         <v>3</v>
       </c>
@@ -3375,8 +4176,21 @@
         <f>$D$58+(20*I66*fuel_flow!$C$2)</f>
         <v>482.87</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M66" s="45">
+        <v>5</v>
+      </c>
+      <c r="N66" s="41">
+        <v>2</v>
+      </c>
+      <c r="O66" s="41">
+        <v>2</v>
+      </c>
+      <c r="P66" s="47">
+        <f ca="1">P38</f>
+        <v>584.10000000000014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="31">
         <v>3</v>
       </c>
@@ -3403,8 +4217,21 @@
         <f>$D$58+(20*I67*fuel_flow!$C$2)</f>
         <v>493.47</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M67" s="45">
+        <v>5</v>
+      </c>
+      <c r="N67" s="41">
+        <v>2</v>
+      </c>
+      <c r="O67" s="41">
+        <v>3</v>
+      </c>
+      <c r="P67" s="47">
+        <f ca="1">P39</f>
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="31">
         <v>3</v>
       </c>
@@ -3431,8 +4258,21 @@
         <f>$D$58+(20*I68*fuel_flow!$C$2)</f>
         <v>504.07000000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M68" s="45">
+        <v>5</v>
+      </c>
+      <c r="N68" s="41">
+        <v>2</v>
+      </c>
+      <c r="O68" s="41">
+        <v>4</v>
+      </c>
+      <c r="P68" s="47">
+        <f ca="1">P40</f>
+        <v>605.30000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
         <v>3</v>
       </c>
@@ -3459,8 +4299,21 @@
         <f>$D$58+(20*I69*fuel_flow!$C$2)</f>
         <v>514.67000000000007</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M69" s="45">
+        <v>5</v>
+      </c>
+      <c r="N69" s="41">
+        <v>2</v>
+      </c>
+      <c r="O69" s="41">
+        <v>5</v>
+      </c>
+      <c r="P69" s="47">
+        <f ca="1">P41</f>
+        <v>615.90000000000009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
         <v>3</v>
       </c>
@@ -3487,8 +4340,21 @@
         <f>$D$58+(20*I70*fuel_flow!$C$2)</f>
         <v>525.27</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M70" s="45">
+        <v>5</v>
+      </c>
+      <c r="N70" s="41">
+        <v>2</v>
+      </c>
+      <c r="O70" s="41">
+        <v>6</v>
+      </c>
+      <c r="P70" s="47">
+        <f ca="1">P42</f>
+        <v>626.50000000000011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31">
         <v>3</v>
       </c>
@@ -3514,8 +4380,21 @@
       <c r="J71" s="44">
         <v>387.47</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M71" s="34">
+        <v>5</v>
+      </c>
+      <c r="N71" s="35">
+        <v>2</v>
+      </c>
+      <c r="O71" s="50">
+        <v>7</v>
+      </c>
+      <c r="P71" s="53">
+        <f>P43</f>
+        <v>562.90000000000009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
         <v>3</v>
       </c>
@@ -3542,8 +4421,21 @@
         <f>$D$72+(20*I72*fuel_flow!$C$2)</f>
         <v>573.50000000000011</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M72" s="45">
+        <v>6</v>
+      </c>
+      <c r="N72" s="41">
+        <v>1</v>
+      </c>
+      <c r="O72" s="41">
+        <v>1</v>
+      </c>
+      <c r="P72" s="47">
+        <f>P2</f>
+        <v>151.51999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="31">
         <v>3</v>
       </c>
@@ -3570,8 +4462,21 @@
         <f>$D$72+(20*I73*fuel_flow!$C$2)</f>
         <v>584.10000000000014</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M73" s="45">
+        <v>6</v>
+      </c>
+      <c r="N73" s="41">
+        <v>1</v>
+      </c>
+      <c r="O73" s="41">
+        <v>2</v>
+      </c>
+      <c r="P73" s="47">
+        <f>P3</f>
+        <v>155.91999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
         <v>3</v>
       </c>
@@ -3598,8 +4503,21 @@
         <f>$D$72+(20*I74*fuel_flow!$C$2)</f>
         <v>594.70000000000005</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M74" s="45">
+        <v>6</v>
+      </c>
+      <c r="N74" s="41">
+        <v>1</v>
+      </c>
+      <c r="O74" s="41">
+        <v>3</v>
+      </c>
+      <c r="P74" s="47">
+        <f>P4</f>
+        <v>160.31999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="31">
         <v>3</v>
       </c>
@@ -3626,8 +4544,21 @@
         <f>$D$72+(20*I75*fuel_flow!$C$2)</f>
         <v>605.30000000000007</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M75" s="45">
+        <v>6</v>
+      </c>
+      <c r="N75" s="41">
+        <v>1</v>
+      </c>
+      <c r="O75" s="41">
+        <v>4</v>
+      </c>
+      <c r="P75" s="47">
+        <f>P5</f>
+        <v>164.71999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="31">
         <v>3</v>
       </c>
@@ -3654,8 +4585,21 @@
         <f>$D$72+(20*I76*fuel_flow!$C$2)</f>
         <v>615.90000000000009</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M76" s="45">
+        <v>6</v>
+      </c>
+      <c r="N76" s="41">
+        <v>1</v>
+      </c>
+      <c r="O76" s="41">
+        <v>5</v>
+      </c>
+      <c r="P76" s="47">
+        <f>P6</f>
+        <v>169.11999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="31">
         <v>3</v>
       </c>
@@ -3682,8 +4626,21 @@
         <f>$D$72+(20*I77*fuel_flow!$C$2)</f>
         <v>626.50000000000011</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M77" s="45">
+        <v>6</v>
+      </c>
+      <c r="N77" s="41">
+        <v>1</v>
+      </c>
+      <c r="O77" s="41">
+        <v>6</v>
+      </c>
+      <c r="P77" s="47">
+        <f>P7</f>
+        <v>173.51999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="31">
         <v>3</v>
       </c>
@@ -3710,8 +4667,20 @@
         <f>$D$72+(20*I78*fuel_flow!$C$2)</f>
         <v>637.10000000000014</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M78" s="43">
+        <v>6</v>
+      </c>
+      <c r="N78" s="42">
+        <v>1</v>
+      </c>
+      <c r="O78" s="42">
+        <v>7</v>
+      </c>
+      <c r="P78" s="48">
+        <v>147.11999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
         <v>3</v>
       </c>
@@ -3738,8 +4707,21 @@
         <f>$D$72+(20*I79*fuel_flow!$C$2)</f>
         <v>647.70000000000005</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M79" s="45">
+        <v>6</v>
+      </c>
+      <c r="N79" s="41">
+        <v>2</v>
+      </c>
+      <c r="O79" s="41">
+        <v>1</v>
+      </c>
+      <c r="P79" s="47">
+        <f ca="1">P9</f>
+        <v>268.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="31">
         <v>3</v>
       </c>
@@ -3766,8 +4748,21 @@
         <f>$D$72+(20*I80*fuel_flow!$C$2)</f>
         <v>658.30000000000007</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M80" s="45">
+        <v>6</v>
+      </c>
+      <c r="N80" s="41">
+        <v>2</v>
+      </c>
+      <c r="O80" s="41">
+        <v>2</v>
+      </c>
+      <c r="P80" s="47">
+        <f ca="1">P10</f>
+        <v>272.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
         <v>3</v>
       </c>
@@ -3794,8 +4789,21 @@
         <f>$D$72+(20*I81*fuel_flow!$C$2)</f>
         <v>668.90000000000009</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M81" s="45">
+        <v>6</v>
+      </c>
+      <c r="N81" s="41">
+        <v>2</v>
+      </c>
+      <c r="O81" s="41">
+        <v>3</v>
+      </c>
+      <c r="P81" s="47">
+        <f ca="1">P11</f>
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="31">
         <v>3</v>
       </c>
@@ -3822,8 +4830,21 @@
         <f>$D$72+(20*I82*fuel_flow!$C$2)</f>
         <v>679.50000000000011</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M82" s="45">
+        <v>6</v>
+      </c>
+      <c r="N82" s="41">
+        <v>2</v>
+      </c>
+      <c r="O82" s="41">
+        <v>4</v>
+      </c>
+      <c r="P82" s="47">
+        <f ca="1">P12</f>
+        <v>281.22000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
         <v>3</v>
       </c>
@@ -3850,8 +4871,21 @@
         <f>$D$72+(20*I83*fuel_flow!$C$2)</f>
         <v>690.10000000000014</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M83" s="45">
+        <v>6</v>
+      </c>
+      <c r="N83" s="41">
+        <v>2</v>
+      </c>
+      <c r="O83" s="41">
+        <v>5</v>
+      </c>
+      <c r="P83" s="47">
+        <f ca="1">P13</f>
+        <v>285.62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="31">
         <v>3</v>
       </c>
@@ -3878,8 +4912,21 @@
         <f>$D$72+(20*I84*fuel_flow!$C$2)</f>
         <v>700.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M84" s="45">
+        <v>6</v>
+      </c>
+      <c r="N84" s="41">
+        <v>2</v>
+      </c>
+      <c r="O84" s="41">
+        <v>6</v>
+      </c>
+      <c r="P84" s="47">
+        <f ca="1">P14</f>
+        <v>290.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="43">
         <v>3</v>
       </c>
@@ -3905,8 +4952,20 @@
       <c r="J85" s="33">
         <v>562.90000000000009</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M85" s="34">
+        <v>6</v>
+      </c>
+      <c r="N85" s="35">
+        <v>2</v>
+      </c>
+      <c r="O85" s="50">
+        <v>7</v>
+      </c>
+      <c r="P85" s="36">
+        <v>263.62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="45">
         <v>4</v>
       </c>
@@ -3930,11 +4989,24 @@
         <v>1</v>
       </c>
       <c r="J86" s="30">
-        <f>J30</f>
+        <f t="shared" ref="J86:J112" si="0">J30</f>
         <v>270.53999999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M86" s="45">
+        <v>7</v>
+      </c>
+      <c r="N86" s="41">
+        <v>1</v>
+      </c>
+      <c r="O86" s="41">
+        <v>1</v>
+      </c>
+      <c r="P86" s="47">
+        <f ca="1">$P$86+(20*O86*fuel_flow!$C$2)</f>
+        <v>652.41000000000008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="45">
         <v>4</v>
       </c>
@@ -3945,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="33">
-        <f t="shared" ref="D87:D113" si="0">D31</f>
+        <f t="shared" ref="D87:D113" si="1">D31</f>
         <v>270.53999999999996</v>
       </c>
       <c r="G87" s="45">
@@ -3958,24 +5030,37 @@
         <v>2</v>
       </c>
       <c r="J87" s="33">
-        <f>J31</f>
-        <v>274.94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="45">
-        <v>4</v>
-      </c>
-      <c r="B88" s="41">
-        <v>1</v>
-      </c>
-      <c r="C88" s="41">
-        <v>2</v>
-      </c>
-      <c r="D88" s="33">
         <f t="shared" si="0"/>
         <v>274.94</v>
       </c>
+      <c r="M87" s="45">
+        <v>7</v>
+      </c>
+      <c r="N87" s="41">
+        <v>1</v>
+      </c>
+      <c r="O87" s="41">
+        <v>2</v>
+      </c>
+      <c r="P87" s="47">
+        <f ca="1">$P$86+(20*O87*fuel_flow!$C$2)</f>
+        <v>663.0100000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="45">
+        <v>4</v>
+      </c>
+      <c r="B88" s="41">
+        <v>1</v>
+      </c>
+      <c r="C88" s="41">
+        <v>2</v>
+      </c>
+      <c r="D88" s="33">
+        <f t="shared" si="1"/>
+        <v>274.94</v>
+      </c>
       <c r="G88" s="45">
         <v>4</v>
       </c>
@@ -3986,24 +5071,37 @@
         <v>3</v>
       </c>
       <c r="J88" s="33">
-        <f>J32</f>
-        <v>279.33999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="45">
-        <v>4</v>
-      </c>
-      <c r="B89" s="41">
-        <v>1</v>
-      </c>
-      <c r="C89" s="41">
-        <v>3</v>
-      </c>
-      <c r="D89" s="33">
         <f t="shared" si="0"/>
         <v>279.33999999999997</v>
       </c>
+      <c r="M88" s="45">
+        <v>7</v>
+      </c>
+      <c r="N88" s="41">
+        <v>1</v>
+      </c>
+      <c r="O88" s="41">
+        <v>3</v>
+      </c>
+      <c r="P88" s="47">
+        <f ca="1">$P$86+(20*O88*fuel_flow!$C$2)</f>
+        <v>673.61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="45">
+        <v>4</v>
+      </c>
+      <c r="B89" s="41">
+        <v>1</v>
+      </c>
+      <c r="C89" s="41">
+        <v>3</v>
+      </c>
+      <c r="D89" s="33">
+        <f t="shared" si="1"/>
+        <v>279.33999999999997</v>
+      </c>
       <c r="G89" s="45">
         <v>4</v>
       </c>
@@ -4014,24 +5112,37 @@
         <v>4</v>
       </c>
       <c r="J89" s="33">
-        <f>J33</f>
-        <v>283.74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="45">
-        <v>4</v>
-      </c>
-      <c r="B90" s="41">
-        <v>1</v>
-      </c>
-      <c r="C90" s="41">
-        <v>4</v>
-      </c>
-      <c r="D90" s="33">
         <f t="shared" si="0"/>
         <v>283.74</v>
       </c>
+      <c r="M89" s="45">
+        <v>7</v>
+      </c>
+      <c r="N89" s="41">
+        <v>1</v>
+      </c>
+      <c r="O89" s="41">
+        <v>4</v>
+      </c>
+      <c r="P89" s="47">
+        <f ca="1">$P$86+(20*O89*fuel_flow!$C$2)</f>
+        <v>684.21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="45">
+        <v>4</v>
+      </c>
+      <c r="B90" s="41">
+        <v>1</v>
+      </c>
+      <c r="C90" s="41">
+        <v>4</v>
+      </c>
+      <c r="D90" s="33">
+        <f t="shared" si="1"/>
+        <v>283.74</v>
+      </c>
       <c r="G90" s="45">
         <v>4</v>
       </c>
@@ -4042,24 +5153,37 @@
         <v>5</v>
       </c>
       <c r="J90" s="33">
-        <f>J34</f>
-        <v>288.14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="45">
-        <v>4</v>
-      </c>
-      <c r="B91" s="41">
-        <v>1</v>
-      </c>
-      <c r="C91" s="41">
-        <v>5</v>
-      </c>
-      <c r="D91" s="33">
         <f t="shared" si="0"/>
         <v>288.14</v>
       </c>
+      <c r="M90" s="45">
+        <v>7</v>
+      </c>
+      <c r="N90" s="41">
+        <v>1</v>
+      </c>
+      <c r="O90" s="41">
+        <v>5</v>
+      </c>
+      <c r="P90" s="47">
+        <f ca="1">$P$86+(20*O90*fuel_flow!$C$2)</f>
+        <v>694.81000000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="45">
+        <v>4</v>
+      </c>
+      <c r="B91" s="41">
+        <v>1</v>
+      </c>
+      <c r="C91" s="41">
+        <v>5</v>
+      </c>
+      <c r="D91" s="33">
+        <f t="shared" si="1"/>
+        <v>288.14</v>
+      </c>
       <c r="G91" s="45">
         <v>4</v>
       </c>
@@ -4070,24 +5194,37 @@
         <v>6</v>
       </c>
       <c r="J91" s="33">
-        <f>J35</f>
-        <v>292.53999999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="45">
-        <v>4</v>
-      </c>
-      <c r="B92" s="41">
-        <v>1</v>
-      </c>
-      <c r="C92" s="41">
-        <v>6</v>
-      </c>
-      <c r="D92" s="33">
         <f t="shared" si="0"/>
         <v>292.53999999999996</v>
       </c>
+      <c r="M91" s="45">
+        <v>7</v>
+      </c>
+      <c r="N91" s="41">
+        <v>1</v>
+      </c>
+      <c r="O91" s="41">
+        <v>6</v>
+      </c>
+      <c r="P91" s="47">
+        <f ca="1">$P$86+(20*O91*fuel_flow!$C$2)</f>
+        <v>705.41000000000008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="45">
+        <v>4</v>
+      </c>
+      <c r="B92" s="41">
+        <v>1</v>
+      </c>
+      <c r="C92" s="41">
+        <v>6</v>
+      </c>
+      <c r="D92" s="33">
+        <f t="shared" si="1"/>
+        <v>292.53999999999996</v>
+      </c>
       <c r="G92" s="45">
         <v>4</v>
       </c>
@@ -4098,24 +5235,36 @@
         <v>7</v>
       </c>
       <c r="J92" s="33">
-        <f>J36</f>
-        <v>296.94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="45">
-        <v>4</v>
-      </c>
-      <c r="B93" s="41">
-        <v>1</v>
-      </c>
-      <c r="C93" s="41">
-        <v>7</v>
-      </c>
-      <c r="D93" s="33">
         <f t="shared" si="0"/>
         <v>296.94</v>
       </c>
+      <c r="M92" s="43">
+        <v>7</v>
+      </c>
+      <c r="N92" s="42">
+        <v>1</v>
+      </c>
+      <c r="O92" s="42">
+        <v>7</v>
+      </c>
+      <c r="P92" s="44">
+        <v>641.81000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="45">
+        <v>4</v>
+      </c>
+      <c r="B93" s="41">
+        <v>1</v>
+      </c>
+      <c r="C93" s="41">
+        <v>7</v>
+      </c>
+      <c r="D93" s="33">
+        <f t="shared" si="1"/>
+        <v>296.94</v>
+      </c>
       <c r="G93" s="45">
         <v>4</v>
       </c>
@@ -4126,11 +5275,24 @@
         <v>8</v>
       </c>
       <c r="J93" s="33">
-        <f>J37</f>
+        <f t="shared" si="0"/>
         <v>301.33999999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M93" s="45">
+        <v>7</v>
+      </c>
+      <c r="N93" s="41">
+        <v>2</v>
+      </c>
+      <c r="O93" s="41">
+        <v>1</v>
+      </c>
+      <c r="P93" s="47">
+        <f ca="1">$P$93+(20*O93*fuel_flow!$C$2)</f>
+        <v>288.89000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="45">
         <v>4</v>
       </c>
@@ -4141,7 +5303,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301.33999999999997</v>
       </c>
       <c r="G94" s="45">
@@ -4154,11 +5316,24 @@
         <v>9</v>
       </c>
       <c r="J94" s="33">
-        <f>J38</f>
+        <f t="shared" si="0"/>
         <v>305.74</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M94" s="45">
+        <v>7</v>
+      </c>
+      <c r="N94" s="41">
+        <v>2</v>
+      </c>
+      <c r="O94" s="41">
+        <v>2</v>
+      </c>
+      <c r="P94" s="47">
+        <f ca="1">$P$93+(20*O94*fuel_flow!$C$2)</f>
+        <v>299.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="45">
         <v>4</v>
       </c>
@@ -4169,7 +5344,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305.74</v>
       </c>
       <c r="G95" s="45">
@@ -4182,11 +5357,24 @@
         <v>10</v>
       </c>
       <c r="J95" s="33">
-        <f>J39</f>
+        <f t="shared" si="0"/>
         <v>310.14</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M95" s="45">
+        <v>7</v>
+      </c>
+      <c r="N95" s="41">
+        <v>2</v>
+      </c>
+      <c r="O95" s="41">
+        <v>3</v>
+      </c>
+      <c r="P95" s="47">
+        <f ca="1">$P$93+(20*O95*fuel_flow!$C$2)</f>
+        <v>310.09000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="45">
         <v>4</v>
       </c>
@@ -4197,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>310.14</v>
       </c>
       <c r="G96" s="45">
@@ -4210,11 +5398,24 @@
         <v>11</v>
       </c>
       <c r="J96" s="33">
-        <f>J40</f>
+        <f t="shared" si="0"/>
         <v>314.53999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M96" s="45">
+        <v>7</v>
+      </c>
+      <c r="N96" s="41">
+        <v>2</v>
+      </c>
+      <c r="O96" s="41">
+        <v>4</v>
+      </c>
+      <c r="P96" s="47">
+        <f ca="1">$P$93+(20*O96*fuel_flow!$C$2)</f>
+        <v>320.69000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="45">
         <v>4</v>
       </c>
@@ -4225,7 +5426,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>314.53999999999996</v>
       </c>
       <c r="G97" s="45">
@@ -4238,11 +5439,24 @@
         <v>12</v>
       </c>
       <c r="J97" s="33">
-        <f>J41</f>
+        <f t="shared" si="0"/>
         <v>318.94</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M97" s="45">
+        <v>7</v>
+      </c>
+      <c r="N97" s="41">
+        <v>2</v>
+      </c>
+      <c r="O97" s="41">
+        <v>5</v>
+      </c>
+      <c r="P97" s="47">
+        <f ca="1">$P$93+(20*O97*fuel_flow!$C$2)</f>
+        <v>331.29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="45">
         <v>4</v>
       </c>
@@ -4253,7 +5467,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>318.94</v>
       </c>
       <c r="G98" s="45">
@@ -4266,11 +5480,24 @@
         <v>13</v>
       </c>
       <c r="J98" s="33">
-        <f>J42</f>
+        <f t="shared" si="0"/>
         <v>323.33999999999997</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M98" s="45">
+        <v>7</v>
+      </c>
+      <c r="N98" s="41">
+        <v>2</v>
+      </c>
+      <c r="O98" s="41">
+        <v>6</v>
+      </c>
+      <c r="P98" s="47">
+        <f ca="1">$P$93+(20*O98*fuel_flow!$C$2)</f>
+        <v>341.89000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="45">
         <v>4</v>
       </c>
@@ -4281,7 +5508,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323.33999999999997</v>
       </c>
       <c r="G99" s="43">
@@ -4294,11 +5521,23 @@
         <v>14</v>
       </c>
       <c r="J99" s="44">
-        <f>J43</f>
+        <f t="shared" si="0"/>
         <v>266.14</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M99" s="34">
+        <v>7</v>
+      </c>
+      <c r="N99" s="35">
+        <v>2</v>
+      </c>
+      <c r="O99" s="42">
+        <v>7</v>
+      </c>
+      <c r="P99" s="36">
+        <v>278.29000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="45">
         <v>4</v>
       </c>
@@ -4309,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115.34</v>
       </c>
       <c r="G100" s="45">
@@ -4322,24 +5561,37 @@
         <v>1</v>
       </c>
       <c r="J100" s="33">
-        <f>J44</f>
-        <v>119.74000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="45">
-        <v>4</v>
-      </c>
-      <c r="B101" s="41">
-        <v>2</v>
-      </c>
-      <c r="C101" s="41">
-        <v>1</v>
-      </c>
-      <c r="D101" s="33">
         <f t="shared" si="0"/>
         <v>119.74000000000001</v>
       </c>
+      <c r="M100" s="45">
+        <v>8</v>
+      </c>
+      <c r="N100" s="41">
+        <v>1</v>
+      </c>
+      <c r="O100" s="41">
+        <v>1</v>
+      </c>
+      <c r="P100" s="47">
+        <f ca="1">$P$100+(20*O100*fuel_flow!$C$2)</f>
+        <v>365.68000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="45">
+        <v>4</v>
+      </c>
+      <c r="B101" s="41">
+        <v>2</v>
+      </c>
+      <c r="C101" s="41">
+        <v>1</v>
+      </c>
+      <c r="D101" s="33">
+        <f t="shared" si="1"/>
+        <v>119.74000000000001</v>
+      </c>
       <c r="G101" s="45">
         <v>4</v>
       </c>
@@ -4350,24 +5602,37 @@
         <v>2</v>
       </c>
       <c r="J101" s="33">
-        <f>J45</f>
-        <v>124.14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="45">
-        <v>4</v>
-      </c>
-      <c r="B102" s="41">
-        <v>2</v>
-      </c>
-      <c r="C102" s="41">
-        <v>2</v>
-      </c>
-      <c r="D102" s="33">
         <f t="shared" si="0"/>
         <v>124.14</v>
       </c>
+      <c r="M101" s="45">
+        <v>8</v>
+      </c>
+      <c r="N101" s="41">
+        <v>1</v>
+      </c>
+      <c r="O101" s="41">
+        <v>2</v>
+      </c>
+      <c r="P101" s="47">
+        <f ca="1">$P$100+(20*O101*fuel_flow!$C$2)</f>
+        <v>376.28000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="45">
+        <v>4</v>
+      </c>
+      <c r="B102" s="41">
+        <v>2</v>
+      </c>
+      <c r="C102" s="41">
+        <v>2</v>
+      </c>
+      <c r="D102" s="33">
+        <f t="shared" si="1"/>
+        <v>124.14</v>
+      </c>
       <c r="G102" s="45">
         <v>4</v>
       </c>
@@ -4378,24 +5643,37 @@
         <v>3</v>
       </c>
       <c r="J102" s="33">
-        <f>J46</f>
-        <v>128.54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="45">
-        <v>4</v>
-      </c>
-      <c r="B103" s="41">
-        <v>2</v>
-      </c>
-      <c r="C103" s="41">
-        <v>3</v>
-      </c>
-      <c r="D103" s="33">
         <f t="shared" si="0"/>
         <v>128.54</v>
       </c>
+      <c r="M102" s="45">
+        <v>8</v>
+      </c>
+      <c r="N102" s="41">
+        <v>1</v>
+      </c>
+      <c r="O102" s="41">
+        <v>3</v>
+      </c>
+      <c r="P102" s="47">
+        <f ca="1">$P$100+(20*O102*fuel_flow!$C$2)</f>
+        <v>386.88000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="45">
+        <v>4</v>
+      </c>
+      <c r="B103" s="41">
+        <v>2</v>
+      </c>
+      <c r="C103" s="41">
+        <v>3</v>
+      </c>
+      <c r="D103" s="33">
+        <f t="shared" si="1"/>
+        <v>128.54</v>
+      </c>
       <c r="G103" s="45">
         <v>4</v>
       </c>
@@ -4406,24 +5684,37 @@
         <v>4</v>
       </c>
       <c r="J103" s="33">
-        <f>J47</f>
-        <v>132.94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="45">
-        <v>4</v>
-      </c>
-      <c r="B104" s="41">
-        <v>2</v>
-      </c>
-      <c r="C104" s="41">
-        <v>4</v>
-      </c>
-      <c r="D104" s="33">
         <f t="shared" si="0"/>
         <v>132.94</v>
       </c>
+      <c r="M103" s="45">
+        <v>8</v>
+      </c>
+      <c r="N103" s="41">
+        <v>1</v>
+      </c>
+      <c r="O103" s="41">
+        <v>4</v>
+      </c>
+      <c r="P103" s="47">
+        <f ca="1">$P$100+(20*O103*fuel_flow!$C$2)</f>
+        <v>397.48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="45">
+        <v>4</v>
+      </c>
+      <c r="B104" s="41">
+        <v>2</v>
+      </c>
+      <c r="C104" s="41">
+        <v>4</v>
+      </c>
+      <c r="D104" s="33">
+        <f t="shared" si="1"/>
+        <v>132.94</v>
+      </c>
       <c r="G104" s="45">
         <v>4</v>
       </c>
@@ -4434,24 +5725,37 @@
         <v>5</v>
       </c>
       <c r="J104" s="33">
-        <f>J48</f>
-        <v>137.34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="45">
-        <v>4</v>
-      </c>
-      <c r="B105" s="41">
-        <v>2</v>
-      </c>
-      <c r="C105" s="41">
-        <v>5</v>
-      </c>
-      <c r="D105" s="33">
         <f t="shared" si="0"/>
         <v>137.34</v>
       </c>
+      <c r="M104" s="45">
+        <v>8</v>
+      </c>
+      <c r="N104" s="41">
+        <v>1</v>
+      </c>
+      <c r="O104" s="41">
+        <v>5</v>
+      </c>
+      <c r="P104" s="47">
+        <f ca="1">$P$100+(20*O104*fuel_flow!$C$2)</f>
+        <v>408.08000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="45">
+        <v>4</v>
+      </c>
+      <c r="B105" s="41">
+        <v>2</v>
+      </c>
+      <c r="C105" s="41">
+        <v>5</v>
+      </c>
+      <c r="D105" s="33">
+        <f t="shared" si="1"/>
+        <v>137.34</v>
+      </c>
       <c r="G105" s="45">
         <v>4</v>
       </c>
@@ -4462,24 +5766,37 @@
         <v>6</v>
       </c>
       <c r="J105" s="33">
-        <f>J49</f>
-        <v>141.74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="45">
-        <v>4</v>
-      </c>
-      <c r="B106" s="41">
-        <v>2</v>
-      </c>
-      <c r="C106" s="41">
-        <v>6</v>
-      </c>
-      <c r="D106" s="33">
         <f t="shared" si="0"/>
         <v>141.74</v>
       </c>
+      <c r="M105" s="45">
+        <v>8</v>
+      </c>
+      <c r="N105" s="41">
+        <v>1</v>
+      </c>
+      <c r="O105" s="41">
+        <v>6</v>
+      </c>
+      <c r="P105" s="47">
+        <f ca="1">$P$100+(20*O105*fuel_flow!$C$2)</f>
+        <v>418.68000000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="45">
+        <v>4</v>
+      </c>
+      <c r="B106" s="41">
+        <v>2</v>
+      </c>
+      <c r="C106" s="41">
+        <v>6</v>
+      </c>
+      <c r="D106" s="33">
+        <f t="shared" si="1"/>
+        <v>141.74</v>
+      </c>
       <c r="G106" s="45">
         <v>4</v>
       </c>
@@ -4490,24 +5807,36 @@
         <v>7</v>
       </c>
       <c r="J106" s="33">
-        <f>J50</f>
-        <v>146.14000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="45">
-        <v>4</v>
-      </c>
-      <c r="B107" s="41">
-        <v>2</v>
-      </c>
-      <c r="C107" s="41">
-        <v>7</v>
-      </c>
-      <c r="D107" s="33">
         <f t="shared" si="0"/>
         <v>146.14000000000001</v>
       </c>
+      <c r="M106" s="43">
+        <v>8</v>
+      </c>
+      <c r="N106" s="42">
+        <v>1</v>
+      </c>
+      <c r="O106" s="42">
+        <v>7</v>
+      </c>
+      <c r="P106" s="48">
+        <v>355.08000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="45">
+        <v>4</v>
+      </c>
+      <c r="B107" s="41">
+        <v>2</v>
+      </c>
+      <c r="C107" s="41">
+        <v>7</v>
+      </c>
+      <c r="D107" s="33">
+        <f t="shared" si="1"/>
+        <v>146.14000000000001</v>
+      </c>
       <c r="G107" s="45">
         <v>4</v>
       </c>
@@ -4518,11 +5847,24 @@
         <v>8</v>
       </c>
       <c r="J107" s="33">
-        <f>J51</f>
+        <f t="shared" si="0"/>
         <v>150.54000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M107" s="45">
+        <v>8</v>
+      </c>
+      <c r="N107" s="41">
+        <v>2</v>
+      </c>
+      <c r="O107" s="41">
+        <v>1</v>
+      </c>
+      <c r="P107" s="33">
+        <f ca="1">$P$107+(20*O107*fuel_flow!$C$2)</f>
+        <v>646.11000000000013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="45">
         <v>4</v>
       </c>
@@ -4533,7 +5875,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150.54000000000002</v>
       </c>
       <c r="G108" s="45">
@@ -4546,11 +5888,24 @@
         <v>9</v>
       </c>
       <c r="J108" s="33">
-        <f>J52</f>
+        <f t="shared" si="0"/>
         <v>154.94</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M108" s="45">
+        <v>8</v>
+      </c>
+      <c r="N108" s="41">
+        <v>2</v>
+      </c>
+      <c r="O108" s="41">
+        <v>2</v>
+      </c>
+      <c r="P108" s="33">
+        <f ca="1">$P$107+(20*O108*fuel_flow!$C$2)</f>
+        <v>656.71000000000015</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="45">
         <v>4</v>
       </c>
@@ -4561,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.94</v>
       </c>
       <c r="G109" s="45">
@@ -4574,11 +5929,24 @@
         <v>10</v>
       </c>
       <c r="J109" s="33">
-        <f>J53</f>
+        <f t="shared" si="0"/>
         <v>159.34</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M109" s="45">
+        <v>8</v>
+      </c>
+      <c r="N109" s="41">
+        <v>2</v>
+      </c>
+      <c r="O109" s="41">
+        <v>3</v>
+      </c>
+      <c r="P109" s="33">
+        <f ca="1">$P$107+(20*O109*fuel_flow!$C$2)</f>
+        <v>667.31000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="45">
         <v>4</v>
       </c>
@@ -4589,7 +5957,7 @@
         <v>10</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>159.34</v>
       </c>
       <c r="G110" s="45">
@@ -4602,11 +5970,24 @@
         <v>11</v>
       </c>
       <c r="J110" s="33">
-        <f>J54</f>
+        <f t="shared" si="0"/>
         <v>163.74</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M110" s="45">
+        <v>8</v>
+      </c>
+      <c r="N110" s="41">
+        <v>2</v>
+      </c>
+      <c r="O110" s="41">
+        <v>4</v>
+      </c>
+      <c r="P110" s="33">
+        <f ca="1">$P$107+(20*O110*fuel_flow!$C$2)</f>
+        <v>677.91000000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="45">
         <v>4</v>
       </c>
@@ -4617,7 +5998,7 @@
         <v>11</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163.74</v>
       </c>
       <c r="G111" s="45">
@@ -4630,11 +6011,24 @@
         <v>12</v>
       </c>
       <c r="J111" s="33">
-        <f>J55</f>
+        <f t="shared" si="0"/>
         <v>168.14</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M111" s="45">
+        <v>8</v>
+      </c>
+      <c r="N111" s="41">
+        <v>2</v>
+      </c>
+      <c r="O111" s="41">
+        <v>5</v>
+      </c>
+      <c r="P111" s="33">
+        <f ca="1">$P$107+(20*O111*fuel_flow!$C$2)</f>
+        <v>688.5100000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="45">
         <v>4</v>
       </c>
@@ -4645,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="D112" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168.14</v>
       </c>
       <c r="G112" s="45">
@@ -4658,11 +6052,24 @@
         <v>13</v>
       </c>
       <c r="J112" s="33">
-        <f>J56</f>
+        <f t="shared" si="0"/>
         <v>172.54000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M112" s="45">
+        <v>8</v>
+      </c>
+      <c r="N112" s="41">
+        <v>2</v>
+      </c>
+      <c r="O112" s="41">
+        <v>6</v>
+      </c>
+      <c r="P112" s="33">
+        <f ca="1">$P$107+(20*O112*fuel_flow!$C$2)</f>
+        <v>699.11000000000013</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="46">
         <v>4</v>
       </c>
@@ -4673,7 +6080,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172.54000000000002</v>
       </c>
       <c r="G113" s="34">
@@ -4686,11 +6093,23 @@
         <v>14</v>
       </c>
       <c r="J113" s="36">
-        <f t="shared" ref="J113" si="1">J57</f>
+        <f t="shared" ref="J113" si="2">J57</f>
         <v>115.34</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M113" s="34">
+        <v>8</v>
+      </c>
+      <c r="N113" s="35">
+        <v>2</v>
+      </c>
+      <c r="O113" s="42">
+        <v>7</v>
+      </c>
+      <c r="P113" s="36">
+        <v>635.5100000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="45">
         <v>5</v>
       </c>
@@ -4714,11 +6133,24 @@
         <v>1</v>
       </c>
       <c r="J114" s="47">
-        <f>J58</f>
+        <f t="shared" ref="J114:J140" si="3">J58</f>
         <v>398.07000000000005</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M114" s="45">
+        <v>9</v>
+      </c>
+      <c r="N114" s="41">
+        <v>1</v>
+      </c>
+      <c r="O114" s="41">
+        <v>1</v>
+      </c>
+      <c r="P114" s="33">
+        <f ca="1">$P$114+(20*O114*fuel_flow!$B$2)</f>
+        <v>167.57999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="45">
         <v>5</v>
       </c>
@@ -4729,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="47">
-        <f t="shared" ref="D115:D141" si="2">D59</f>
+        <f t="shared" ref="D115:D141" si="4">D59</f>
         <v>398.07000000000005</v>
       </c>
       <c r="G115" s="45">
@@ -4742,11 +6174,24 @@
         <v>2</v>
       </c>
       <c r="J115" s="47">
-        <f>J59</f>
+        <f t="shared" si="3"/>
         <v>408.67</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M115" s="45">
+        <v>9</v>
+      </c>
+      <c r="N115" s="41">
+        <v>1</v>
+      </c>
+      <c r="O115" s="41">
+        <v>2</v>
+      </c>
+      <c r="P115" s="33">
+        <f ca="1">$P$114+(20*O115*fuel_flow!$B$2)</f>
+        <v>171.98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="45">
         <v>5</v>
       </c>
@@ -4757,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>408.67</v>
       </c>
       <c r="G116" s="45">
@@ -4770,11 +6215,24 @@
         <v>3</v>
       </c>
       <c r="J116" s="47">
-        <f>J60</f>
+        <f t="shared" si="3"/>
         <v>419.27000000000004</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M116" s="45">
+        <v>9</v>
+      </c>
+      <c r="N116" s="41">
+        <v>1</v>
+      </c>
+      <c r="O116" s="41">
+        <v>3</v>
+      </c>
+      <c r="P116" s="33">
+        <f ca="1">$P$114+(20*O116*fuel_flow!$B$2)</f>
+        <v>176.37999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="45">
         <v>5</v>
       </c>
@@ -4785,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>419.27000000000004</v>
       </c>
       <c r="G117" s="45">
@@ -4798,11 +6256,24 @@
         <v>4</v>
       </c>
       <c r="J117" s="47">
-        <f>J61</f>
+        <f t="shared" si="3"/>
         <v>429.87</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M117" s="45">
+        <v>9</v>
+      </c>
+      <c r="N117" s="41">
+        <v>1</v>
+      </c>
+      <c r="O117" s="41">
+        <v>4</v>
+      </c>
+      <c r="P117" s="33">
+        <f ca="1">$P$114+(20*O117*fuel_flow!$B$2)</f>
+        <v>180.77999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="45">
         <v>5</v>
       </c>
@@ -4813,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>429.87</v>
       </c>
       <c r="G118" s="45">
@@ -4826,11 +6297,24 @@
         <v>5</v>
       </c>
       <c r="J118" s="47">
-        <f>J62</f>
+        <f t="shared" si="3"/>
         <v>440.47</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M118" s="45">
+        <v>9</v>
+      </c>
+      <c r="N118" s="41">
+        <v>1</v>
+      </c>
+      <c r="O118" s="41">
+        <v>5</v>
+      </c>
+      <c r="P118" s="33">
+        <f ca="1">$P$114+(20*O118*fuel_flow!$B$2)</f>
+        <v>185.17999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="45">
         <v>5</v>
       </c>
@@ -4841,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>440.47</v>
       </c>
       <c r="G119" s="45">
@@ -4854,11 +6338,24 @@
         <v>6</v>
       </c>
       <c r="J119" s="47">
-        <f>J63</f>
+        <f t="shared" si="3"/>
         <v>451.07000000000005</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M119" s="45">
+        <v>9</v>
+      </c>
+      <c r="N119" s="41">
+        <v>1</v>
+      </c>
+      <c r="O119" s="41">
+        <v>6</v>
+      </c>
+      <c r="P119" s="33">
+        <f ca="1">$P$114+(20*O119*fuel_flow!$B$2)</f>
+        <v>189.57999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="45">
         <v>5</v>
       </c>
@@ -4869,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>451.07000000000005</v>
       </c>
       <c r="G120" s="45">
@@ -4882,11 +6379,23 @@
         <v>7</v>
       </c>
       <c r="J120" s="47">
-        <f>J64</f>
+        <f t="shared" si="3"/>
         <v>461.67</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M120" s="43">
+        <v>9</v>
+      </c>
+      <c r="N120" s="42">
+        <v>1</v>
+      </c>
+      <c r="O120" s="42">
+        <v>7</v>
+      </c>
+      <c r="P120" s="44">
+        <v>163.17999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="45">
         <v>5</v>
       </c>
@@ -4897,7 +6406,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>461.67</v>
       </c>
       <c r="G121" s="45">
@@ -4910,11 +6419,24 @@
         <v>8</v>
       </c>
       <c r="J121" s="47">
-        <f>J65</f>
+        <f t="shared" si="3"/>
         <v>472.27000000000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M121" s="45">
+        <v>9</v>
+      </c>
+      <c r="N121" s="41">
+        <v>2</v>
+      </c>
+      <c r="O121" s="41">
+        <v>1</v>
+      </c>
+      <c r="P121" s="33">
+        <f ca="1">$P$121+(20*O121*fuel_flow!$B$2)</f>
+        <v>237.88000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="45">
         <v>5</v>
       </c>
@@ -4925,7 +6447,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>472.27000000000004</v>
       </c>
       <c r="G122" s="45">
@@ -4938,11 +6460,24 @@
         <v>9</v>
       </c>
       <c r="J122" s="47">
-        <f>J66</f>
+        <f t="shared" si="3"/>
         <v>482.87</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M122" s="45">
+        <v>9</v>
+      </c>
+      <c r="N122" s="41">
+        <v>2</v>
+      </c>
+      <c r="O122" s="41">
+        <v>2</v>
+      </c>
+      <c r="P122" s="33">
+        <f ca="1">$P$121+(20*O122*fuel_flow!$B$2)</f>
+        <v>242.28000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="45">
         <v>5</v>
       </c>
@@ -4953,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>482.87</v>
       </c>
       <c r="G123" s="45">
@@ -4966,11 +6501,24 @@
         <v>10</v>
       </c>
       <c r="J123" s="47">
-        <f>J67</f>
+        <f t="shared" si="3"/>
         <v>493.47</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M123" s="45">
+        <v>9</v>
+      </c>
+      <c r="N123" s="41">
+        <v>2</v>
+      </c>
+      <c r="O123" s="41">
+        <v>3</v>
+      </c>
+      <c r="P123" s="33">
+        <f ca="1">$P$121+(20*O123*fuel_flow!$B$2)</f>
+        <v>246.68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="45">
         <v>5</v>
       </c>
@@ -4981,7 +6529,7 @@
         <v>10</v>
       </c>
       <c r="D124" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>493.47</v>
       </c>
       <c r="G124" s="45">
@@ -4994,11 +6542,24 @@
         <v>11</v>
       </c>
       <c r="J124" s="47">
-        <f>J68</f>
+        <f t="shared" si="3"/>
         <v>504.07000000000005</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M124" s="45">
+        <v>9</v>
+      </c>
+      <c r="N124" s="41">
+        <v>2</v>
+      </c>
+      <c r="O124" s="41">
+        <v>4</v>
+      </c>
+      <c r="P124" s="33">
+        <f ca="1">$P$121+(20*O124*fuel_flow!$B$2)</f>
+        <v>251.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="45">
         <v>5</v>
       </c>
@@ -5009,7 +6570,7 @@
         <v>11</v>
       </c>
       <c r="D125" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>504.07000000000005</v>
       </c>
       <c r="G125" s="45">
@@ -5022,11 +6583,24 @@
         <v>12</v>
       </c>
       <c r="J125" s="47">
-        <f>J69</f>
+        <f t="shared" si="3"/>
         <v>514.67000000000007</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M125" s="45">
+        <v>9</v>
+      </c>
+      <c r="N125" s="41">
+        <v>2</v>
+      </c>
+      <c r="O125" s="41">
+        <v>5</v>
+      </c>
+      <c r="P125" s="33">
+        <f ca="1">$P$121+(20*O125*fuel_flow!$B$2)</f>
+        <v>255.48000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="45">
         <v>5</v>
       </c>
@@ -5037,7 +6611,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>514.67000000000007</v>
       </c>
       <c r="G126" s="45">
@@ -5050,11 +6624,24 @@
         <v>13</v>
       </c>
       <c r="J126" s="47">
-        <f>J70</f>
+        <f t="shared" si="3"/>
         <v>525.27</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M126" s="45">
+        <v>9</v>
+      </c>
+      <c r="N126" s="41">
+        <v>2</v>
+      </c>
+      <c r="O126" s="41">
+        <v>6</v>
+      </c>
+      <c r="P126" s="33">
+        <f ca="1">$P$121+(20*O126*fuel_flow!$B$2)</f>
+        <v>259.88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="45">
         <v>5</v>
       </c>
@@ -5065,7 +6652,7 @@
         <v>13</v>
       </c>
       <c r="D127" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>525.27</v>
       </c>
       <c r="G127" s="43">
@@ -5078,11 +6665,23 @@
         <v>14</v>
       </c>
       <c r="J127" s="48">
-        <f>J71</f>
+        <f t="shared" si="3"/>
         <v>387.47</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M127" s="34">
+        <v>9</v>
+      </c>
+      <c r="N127" s="35">
+        <v>2</v>
+      </c>
+      <c r="O127" s="42">
+        <v>7</v>
+      </c>
+      <c r="P127" s="36">
+        <v>233.48000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="45">
         <v>5</v>
       </c>
@@ -5093,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>562.90000000000009</v>
       </c>
       <c r="G128" s="45">
@@ -5106,11 +6705,24 @@
         <v>1</v>
       </c>
       <c r="J128" s="47">
-        <f>J72</f>
+        <f t="shared" si="3"/>
         <v>573.50000000000011</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M128" s="45">
+        <v>10</v>
+      </c>
+      <c r="N128" s="41">
+        <v>1</v>
+      </c>
+      <c r="O128" s="41">
+        <v>1</v>
+      </c>
+      <c r="P128" s="33">
+        <f ca="1">P44</f>
+        <v>270.53999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="45">
         <v>5</v>
       </c>
@@ -5121,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>573.50000000000011</v>
       </c>
       <c r="G129" s="45">
@@ -5134,11 +6746,24 @@
         <v>2</v>
       </c>
       <c r="J129" s="47">
-        <f>J73</f>
+        <f t="shared" si="3"/>
         <v>584.10000000000014</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M129" s="45">
+        <v>10</v>
+      </c>
+      <c r="N129" s="41">
+        <v>1</v>
+      </c>
+      <c r="O129" s="41">
+        <v>2</v>
+      </c>
+      <c r="P129" s="33">
+        <f ca="1">P45</f>
+        <v>274.94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="45">
         <v>5</v>
       </c>
@@ -5149,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>584.10000000000014</v>
       </c>
       <c r="G130" s="45">
@@ -5162,11 +6787,24 @@
         <v>3</v>
       </c>
       <c r="J130" s="47">
-        <f>J74</f>
+        <f t="shared" si="3"/>
         <v>594.70000000000005</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M130" s="45">
+        <v>10</v>
+      </c>
+      <c r="N130" s="41">
+        <v>1</v>
+      </c>
+      <c r="O130" s="41">
+        <v>3</v>
+      </c>
+      <c r="P130" s="33">
+        <f ca="1">P46</f>
+        <v>279.33999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="45">
         <v>5</v>
       </c>
@@ -5177,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>594.70000000000005</v>
       </c>
       <c r="G131" s="45">
@@ -5190,11 +6828,24 @@
         <v>4</v>
       </c>
       <c r="J131" s="47">
-        <f>J75</f>
+        <f t="shared" si="3"/>
         <v>605.30000000000007</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M131" s="45">
+        <v>10</v>
+      </c>
+      <c r="N131" s="41">
+        <v>1</v>
+      </c>
+      <c r="O131" s="41">
+        <v>4</v>
+      </c>
+      <c r="P131" s="33">
+        <f ca="1">P47</f>
+        <v>283.74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="45">
         <v>5</v>
       </c>
@@ -5205,7 +6856,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>605.30000000000007</v>
       </c>
       <c r="G132" s="45">
@@ -5218,11 +6869,24 @@
         <v>5</v>
       </c>
       <c r="J132" s="47">
-        <f>J76</f>
+        <f t="shared" si="3"/>
         <v>615.90000000000009</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M132" s="45">
+        <v>10</v>
+      </c>
+      <c r="N132" s="41">
+        <v>1</v>
+      </c>
+      <c r="O132" s="41">
+        <v>5</v>
+      </c>
+      <c r="P132" s="33">
+        <f ca="1">P48</f>
+        <v>288.14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="45">
         <v>5</v>
       </c>
@@ -5233,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>615.90000000000009</v>
       </c>
       <c r="G133" s="45">
@@ -5246,11 +6910,24 @@
         <v>6</v>
       </c>
       <c r="J133" s="47">
-        <f>J77</f>
+        <f t="shared" si="3"/>
         <v>626.50000000000011</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M133" s="45">
+        <v>10</v>
+      </c>
+      <c r="N133" s="41">
+        <v>1</v>
+      </c>
+      <c r="O133" s="41">
+        <v>6</v>
+      </c>
+      <c r="P133" s="33">
+        <f ca="1">P49</f>
+        <v>292.53999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="45">
         <v>5</v>
       </c>
@@ -5261,7 +6938,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>626.50000000000011</v>
       </c>
       <c r="G134" s="45">
@@ -5274,11 +6951,24 @@
         <v>7</v>
       </c>
       <c r="J134" s="47">
-        <f>J78</f>
+        <f t="shared" si="3"/>
         <v>637.10000000000014</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M134" s="43">
+        <v>10</v>
+      </c>
+      <c r="N134" s="42">
+        <v>1</v>
+      </c>
+      <c r="O134" s="42">
+        <v>7</v>
+      </c>
+      <c r="P134" s="44">
+        <f>P50</f>
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="45">
         <v>5</v>
       </c>
@@ -5289,7 +6979,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>637.10000000000014</v>
       </c>
       <c r="G135" s="45">
@@ -5302,11 +6992,24 @@
         <v>8</v>
       </c>
       <c r="J135" s="47">
-        <f>J79</f>
+        <f t="shared" si="3"/>
         <v>647.70000000000005</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M135" s="45">
+        <v>10</v>
+      </c>
+      <c r="N135" s="41">
+        <v>2</v>
+      </c>
+      <c r="O135" s="41">
+        <v>1</v>
+      </c>
+      <c r="P135" s="33">
+        <f ca="1">P51</f>
+        <v>119.74000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="45">
         <v>5</v>
       </c>
@@ -5317,7 +7020,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>647.70000000000005</v>
       </c>
       <c r="G136" s="45">
@@ -5330,11 +7033,24 @@
         <v>9</v>
       </c>
       <c r="J136" s="47">
-        <f>J80</f>
+        <f t="shared" si="3"/>
         <v>658.30000000000007</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M136" s="45">
+        <v>10</v>
+      </c>
+      <c r="N136" s="41">
+        <v>2</v>
+      </c>
+      <c r="O136" s="41">
+        <v>2</v>
+      </c>
+      <c r="P136" s="33">
+        <f ca="1">P52</f>
+        <v>124.14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="45">
         <v>5</v>
       </c>
@@ -5345,7 +7061,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>658.30000000000007</v>
       </c>
       <c r="G137" s="45">
@@ -5358,11 +7074,24 @@
         <v>10</v>
       </c>
       <c r="J137" s="47">
-        <f>J81</f>
+        <f t="shared" si="3"/>
         <v>668.90000000000009</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M137" s="45">
+        <v>10</v>
+      </c>
+      <c r="N137" s="41">
+        <v>2</v>
+      </c>
+      <c r="O137" s="41">
+        <v>3</v>
+      </c>
+      <c r="P137" s="33">
+        <f ca="1">P53</f>
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="45">
         <v>5</v>
       </c>
@@ -5373,7 +7102,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>668.90000000000009</v>
       </c>
       <c r="G138" s="45">
@@ -5386,11 +7115,24 @@
         <v>11</v>
       </c>
       <c r="J138" s="47">
-        <f>J82</f>
+        <f t="shared" si="3"/>
         <v>679.50000000000011</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M138" s="45">
+        <v>10</v>
+      </c>
+      <c r="N138" s="41">
+        <v>2</v>
+      </c>
+      <c r="O138" s="41">
+        <v>4</v>
+      </c>
+      <c r="P138" s="33">
+        <f ca="1">P54</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="45">
         <v>5</v>
       </c>
@@ -5401,7 +7143,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>679.50000000000011</v>
       </c>
       <c r="G139" s="45">
@@ -5414,11 +7156,24 @@
         <v>12</v>
       </c>
       <c r="J139" s="47">
-        <f>J83</f>
+        <f t="shared" si="3"/>
         <v>690.10000000000014</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M139" s="45">
+        <v>10</v>
+      </c>
+      <c r="N139" s="41">
+        <v>2</v>
+      </c>
+      <c r="O139" s="41">
+        <v>5</v>
+      </c>
+      <c r="P139" s="33">
+        <f ca="1">P55</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="45">
         <v>5</v>
       </c>
@@ -5429,7 +7184,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>690.10000000000014</v>
       </c>
       <c r="G140" s="45">
@@ -5442,13 +7197,26 @@
         <v>13</v>
       </c>
       <c r="J140" s="47">
-        <f>J84</f>
+        <f t="shared" si="3"/>
         <v>700.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="46">
-        <v>5</v>
+      <c r="M140" s="45">
+        <v>10</v>
+      </c>
+      <c r="N140" s="41">
+        <v>2</v>
+      </c>
+      <c r="O140" s="41">
+        <v>6</v>
+      </c>
+      <c r="P140" s="33">
+        <f ca="1">P56</f>
+        <v>141.74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="B141" s="42">
         <v>2</v>
@@ -5457,7 +7225,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>700.7</v>
       </c>
       <c r="G141" s="34">
@@ -5470,11 +7238,23 @@
         <v>14</v>
       </c>
       <c r="J141" s="53">
-        <f t="shared" ref="J141" si="3">J85</f>
+        <f t="shared" ref="J141" si="5">J85</f>
         <v>562.90000000000009</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M141" s="34">
+        <v>10</v>
+      </c>
+      <c r="N141" s="35">
+        <v>2</v>
+      </c>
+      <c r="O141" s="50">
+        <v>7</v>
+      </c>
+      <c r="P141" s="36">
+        <v>115.34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="45">
         <v>6</v>
       </c>
@@ -5498,11 +7278,11 @@
         <v>1</v>
       </c>
       <c r="J142" s="47">
-        <f>J2</f>
+        <f t="shared" ref="J142:J154" si="6">J2</f>
         <v>151.51999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="45">
         <v>6</v>
       </c>
@@ -5513,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="47">
-        <f t="shared" ref="D143:D169" si="4">D3</f>
+        <f t="shared" ref="D143:D169" si="7">D3</f>
         <v>151.51999999999998</v>
       </c>
       <c r="G143" s="45">
@@ -5526,11 +7306,11 @@
         <v>2</v>
       </c>
       <c r="J143" s="47">
-        <f>J3</f>
+        <f t="shared" si="6"/>
         <v>155.91999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="45">
         <v>6</v>
       </c>
@@ -5541,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>155.91999999999999</v>
       </c>
       <c r="G144" s="45">
@@ -5554,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="J144" s="47">
-        <f>J4</f>
+        <f t="shared" si="6"/>
         <v>160.31999999999996</v>
       </c>
     </row>
@@ -5569,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>160.31999999999996</v>
       </c>
       <c r="G145" s="45">
@@ -5582,7 +7362,7 @@
         <v>4</v>
       </c>
       <c r="J145" s="47">
-        <f>J5</f>
+        <f t="shared" si="6"/>
         <v>164.71999999999997</v>
       </c>
     </row>
@@ -5597,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>164.71999999999997</v>
       </c>
       <c r="G146" s="45">
@@ -5610,7 +7390,7 @@
         <v>5</v>
       </c>
       <c r="J146" s="47">
-        <f>J6</f>
+        <f t="shared" si="6"/>
         <v>169.11999999999998</v>
       </c>
     </row>
@@ -5625,7 +7405,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>169.11999999999998</v>
       </c>
       <c r="G147" s="45">
@@ -5638,7 +7418,7 @@
         <v>6</v>
       </c>
       <c r="J147" s="47">
-        <f>J7</f>
+        <f t="shared" si="6"/>
         <v>173.51999999999998</v>
       </c>
     </row>
@@ -5653,7 +7433,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>173.51999999999998</v>
       </c>
       <c r="G148" s="45">
@@ -5666,7 +7446,7 @@
         <v>7</v>
       </c>
       <c r="J148" s="47">
-        <f>J8</f>
+        <f t="shared" si="6"/>
         <v>177.92</v>
       </c>
     </row>
@@ -5681,7 +7461,7 @@
         <v>7</v>
       </c>
       <c r="D149" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>177.92</v>
       </c>
       <c r="G149" s="45">
@@ -5694,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="J149" s="47">
-        <f>J9</f>
+        <f t="shared" si="6"/>
         <v>182.32</v>
       </c>
     </row>
@@ -5709,7 +7489,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>182.32</v>
       </c>
       <c r="G150" s="45">
@@ -5722,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="J150" s="47">
-        <f>J10</f>
+        <f t="shared" si="6"/>
         <v>186.71999999999997</v>
       </c>
     </row>
@@ -5737,7 +7517,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>186.71999999999997</v>
       </c>
       <c r="G151" s="45">
@@ -5750,7 +7530,7 @@
         <v>10</v>
       </c>
       <c r="J151" s="47">
-        <f>J11</f>
+        <f t="shared" si="6"/>
         <v>191.11999999999998</v>
       </c>
     </row>
@@ -5765,7 +7545,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>191.11999999999998</v>
       </c>
       <c r="G152" s="45">
@@ -5778,7 +7558,7 @@
         <v>11</v>
       </c>
       <c r="J152" s="47">
-        <f>J12</f>
+        <f t="shared" si="6"/>
         <v>195.51999999999998</v>
       </c>
     </row>
@@ -5793,7 +7573,7 @@
         <v>11</v>
       </c>
       <c r="D153" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>195.51999999999998</v>
       </c>
       <c r="G153" s="45">
@@ -5806,7 +7586,7 @@
         <v>12</v>
       </c>
       <c r="J153" s="47">
-        <f>J13</f>
+        <f t="shared" si="6"/>
         <v>199.91999999999996</v>
       </c>
     </row>
@@ -5821,7 +7601,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>199.91999999999996</v>
       </c>
       <c r="G154" s="45">
@@ -5834,7 +7614,7 @@
         <v>13</v>
       </c>
       <c r="J154" s="47">
-        <f>J14</f>
+        <f t="shared" si="6"/>
         <v>204.32</v>
       </c>
     </row>
@@ -5849,7 +7629,7 @@
         <v>13</v>
       </c>
       <c r="D155" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>204.32</v>
       </c>
       <c r="G155" s="43">
@@ -5876,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="D156" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>263.62</v>
       </c>
       <c r="G156" s="45">
@@ -5889,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="47">
-        <f>J16</f>
+        <f t="shared" ref="J156:J168" si="8">J16</f>
         <v>268.02</v>
       </c>
     </row>
@@ -5904,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>268.02</v>
       </c>
       <c r="G157" s="45">
@@ -5917,7 +7697,7 @@
         <v>2</v>
       </c>
       <c r="J157" s="47">
-        <f>J17</f>
+        <f t="shared" si="8"/>
         <v>272.42</v>
       </c>
     </row>
@@ -5932,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>272.42</v>
       </c>
       <c r="G158" s="45">
@@ -5945,7 +7725,7 @@
         <v>3</v>
       </c>
       <c r="J158" s="47">
-        <f>J18</f>
+        <f t="shared" si="8"/>
         <v>276.82</v>
       </c>
     </row>
@@ -5960,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>276.82</v>
       </c>
       <c r="G159" s="45">
@@ -5973,7 +7753,7 @@
         <v>4</v>
       </c>
       <c r="J159" s="47">
-        <f>J19</f>
+        <f t="shared" si="8"/>
         <v>281.22000000000003</v>
       </c>
     </row>
@@ -5988,7 +7768,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>281.22000000000003</v>
       </c>
       <c r="G160" s="45">
@@ -6001,7 +7781,7 @@
         <v>5</v>
       </c>
       <c r="J160" s="47">
-        <f>J20</f>
+        <f t="shared" si="8"/>
         <v>285.62</v>
       </c>
     </row>
@@ -6016,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>285.62</v>
       </c>
       <c r="G161" s="45">
@@ -6029,7 +7809,7 @@
         <v>6</v>
       </c>
       <c r="J161" s="47">
-        <f>J21</f>
+        <f t="shared" si="8"/>
         <v>290.02</v>
       </c>
     </row>
@@ -6044,7 +7824,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>290.02</v>
       </c>
       <c r="G162" s="45">
@@ -6057,7 +7837,7 @@
         <v>7</v>
       </c>
       <c r="J162" s="47">
-        <f>J22</f>
+        <f t="shared" si="8"/>
         <v>294.42</v>
       </c>
     </row>
@@ -6072,7 +7852,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>294.42</v>
       </c>
       <c r="G163" s="45">
@@ -6085,7 +7865,7 @@
         <v>8</v>
       </c>
       <c r="J163" s="47">
-        <f>J23</f>
+        <f t="shared" si="8"/>
         <v>298.82</v>
       </c>
     </row>
@@ -6100,7 +7880,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>298.82</v>
       </c>
       <c r="G164" s="45">
@@ -6113,7 +7893,7 @@
         <v>9</v>
       </c>
       <c r="J164" s="47">
-        <f>J24</f>
+        <f t="shared" si="8"/>
         <v>303.22000000000003</v>
       </c>
     </row>
@@ -6128,7 +7908,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>303.22000000000003</v>
       </c>
       <c r="G165" s="45">
@@ -6141,7 +7921,7 @@
         <v>10</v>
       </c>
       <c r="J165" s="47">
-        <f>J25</f>
+        <f t="shared" si="8"/>
         <v>307.62</v>
       </c>
     </row>
@@ -6156,7 +7936,7 @@
         <v>10</v>
       </c>
       <c r="D166" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>307.62</v>
       </c>
       <c r="G166" s="45">
@@ -6169,7 +7949,7 @@
         <v>11</v>
       </c>
       <c r="J166" s="47">
-        <f>J26</f>
+        <f t="shared" si="8"/>
         <v>312.02</v>
       </c>
     </row>
@@ -6184,7 +7964,7 @@
         <v>11</v>
       </c>
       <c r="D167" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>312.02</v>
       </c>
       <c r="G167" s="45">
@@ -6197,7 +7977,7 @@
         <v>12</v>
       </c>
       <c r="J167" s="47">
-        <f>J27</f>
+        <f t="shared" si="8"/>
         <v>316.42</v>
       </c>
     </row>
@@ -6212,7 +7992,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>316.42</v>
       </c>
       <c r="G168" s="45">
@@ -6225,7 +8005,7 @@
         <v>13</v>
       </c>
       <c r="J168" s="47">
-        <f>J28</f>
+        <f t="shared" si="8"/>
         <v>320.82</v>
       </c>
     </row>
@@ -6240,7 +8020,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>320.82</v>
       </c>
       <c r="G169" s="34">
@@ -8626,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="J254" s="33">
-        <f>J86</f>
+        <f t="shared" ref="J254:J280" si="9">J86</f>
         <v>270.53999999999996</v>
       </c>
     </row>
@@ -8641,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="D255" s="33">
-        <f t="shared" ref="D255:D281" si="5">D87</f>
+        <f t="shared" ref="D255:D281" si="10">D87</f>
         <v>270.53999999999996</v>
       </c>
       <c r="G255" s="45">
@@ -8654,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="J255" s="33">
-        <f>J87</f>
+        <f t="shared" si="9"/>
         <v>274.94</v>
       </c>
     </row>
@@ -8669,7 +10449,7 @@
         <v>2</v>
       </c>
       <c r="D256" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>274.94</v>
       </c>
       <c r="G256" s="45">
@@ -8682,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="J256" s="33">
-        <f>J88</f>
+        <f t="shared" si="9"/>
         <v>279.33999999999997</v>
       </c>
     </row>
@@ -8697,7 +10477,7 @@
         <v>3</v>
       </c>
       <c r="D257" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>279.33999999999997</v>
       </c>
       <c r="G257" s="45">
@@ -8710,7 +10490,7 @@
         <v>4</v>
       </c>
       <c r="J257" s="33">
-        <f>J89</f>
+        <f t="shared" si="9"/>
         <v>283.74</v>
       </c>
     </row>
@@ -8725,7 +10505,7 @@
         <v>4</v>
       </c>
       <c r="D258" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>283.74</v>
       </c>
       <c r="G258" s="45">
@@ -8738,7 +10518,7 @@
         <v>5</v>
       </c>
       <c r="J258" s="33">
-        <f>J90</f>
+        <f t="shared" si="9"/>
         <v>288.14</v>
       </c>
     </row>
@@ -8753,7 +10533,7 @@
         <v>5</v>
       </c>
       <c r="D259" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>288.14</v>
       </c>
       <c r="G259" s="45">
@@ -8766,7 +10546,7 @@
         <v>6</v>
       </c>
       <c r="J259" s="33">
-        <f>J91</f>
+        <f t="shared" si="9"/>
         <v>292.53999999999996</v>
       </c>
     </row>
@@ -8781,7 +10561,7 @@
         <v>6</v>
       </c>
       <c r="D260" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>292.53999999999996</v>
       </c>
       <c r="G260" s="45">
@@ -8794,7 +10574,7 @@
         <v>7</v>
       </c>
       <c r="J260" s="33">
-        <f>J92</f>
+        <f t="shared" si="9"/>
         <v>296.94</v>
       </c>
     </row>
@@ -8809,7 +10589,7 @@
         <v>7</v>
       </c>
       <c r="D261" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>296.94</v>
       </c>
       <c r="G261" s="45">
@@ -8822,7 +10602,7 @@
         <v>8</v>
       </c>
       <c r="J261" s="33">
-        <f>J93</f>
+        <f t="shared" si="9"/>
         <v>301.33999999999997</v>
       </c>
     </row>
@@ -8837,7 +10617,7 @@
         <v>8</v>
       </c>
       <c r="D262" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>301.33999999999997</v>
       </c>
       <c r="G262" s="45">
@@ -8850,7 +10630,7 @@
         <v>9</v>
       </c>
       <c r="J262" s="33">
-        <f>J94</f>
+        <f t="shared" si="9"/>
         <v>305.74</v>
       </c>
     </row>
@@ -8865,7 +10645,7 @@
         <v>9</v>
       </c>
       <c r="D263" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>305.74</v>
       </c>
       <c r="G263" s="45">
@@ -8878,7 +10658,7 @@
         <v>10</v>
       </c>
       <c r="J263" s="33">
-        <f>J95</f>
+        <f t="shared" si="9"/>
         <v>310.14</v>
       </c>
     </row>
@@ -8893,7 +10673,7 @@
         <v>10</v>
       </c>
       <c r="D264" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>310.14</v>
       </c>
       <c r="G264" s="45">
@@ -8906,7 +10686,7 @@
         <v>11</v>
       </c>
       <c r="J264" s="33">
-        <f>J96</f>
+        <f t="shared" si="9"/>
         <v>314.53999999999996</v>
       </c>
     </row>
@@ -8921,7 +10701,7 @@
         <v>11</v>
       </c>
       <c r="D265" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>314.53999999999996</v>
       </c>
       <c r="G265" s="45">
@@ -8934,7 +10714,7 @@
         <v>12</v>
       </c>
       <c r="J265" s="33">
-        <f>J97</f>
+        <f t="shared" si="9"/>
         <v>318.94</v>
       </c>
     </row>
@@ -8949,7 +10729,7 @@
         <v>12</v>
       </c>
       <c r="D266" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>318.94</v>
       </c>
       <c r="G266" s="45">
@@ -8962,7 +10742,7 @@
         <v>13</v>
       </c>
       <c r="J266" s="33">
-        <f>J98</f>
+        <f t="shared" si="9"/>
         <v>323.33999999999997</v>
       </c>
     </row>
@@ -8977,7 +10757,7 @@
         <v>13</v>
       </c>
       <c r="D267" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>323.33999999999997</v>
       </c>
       <c r="G267" s="43">
@@ -8990,7 +10770,7 @@
         <v>14</v>
       </c>
       <c r="J267" s="44">
-        <f>J99</f>
+        <f t="shared" si="9"/>
         <v>266.14</v>
       </c>
     </row>
@@ -9005,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="D268" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>115.34</v>
       </c>
       <c r="G268" s="45">
@@ -9018,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="J268" s="33">
-        <f>J100</f>
+        <f t="shared" si="9"/>
         <v>119.74000000000001</v>
       </c>
     </row>
@@ -9033,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="D269" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>119.74000000000001</v>
       </c>
       <c r="G269" s="45">
@@ -9046,7 +10826,7 @@
         <v>2</v>
       </c>
       <c r="J269" s="33">
-        <f>J101</f>
+        <f t="shared" si="9"/>
         <v>124.14</v>
       </c>
     </row>
@@ -9061,7 +10841,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>124.14</v>
       </c>
       <c r="G270" s="45">
@@ -9074,7 +10854,7 @@
         <v>3</v>
       </c>
       <c r="J270" s="33">
-        <f>J102</f>
+        <f t="shared" si="9"/>
         <v>128.54</v>
       </c>
     </row>
@@ -9089,7 +10869,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>128.54</v>
       </c>
       <c r="G271" s="45">
@@ -9102,7 +10882,7 @@
         <v>4</v>
       </c>
       <c r="J271" s="33">
-        <f>J103</f>
+        <f t="shared" si="9"/>
         <v>132.94</v>
       </c>
     </row>
@@ -9117,7 +10897,7 @@
         <v>4</v>
       </c>
       <c r="D272" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>132.94</v>
       </c>
       <c r="G272" s="45">
@@ -9130,7 +10910,7 @@
         <v>5</v>
       </c>
       <c r="J272" s="33">
-        <f>J104</f>
+        <f t="shared" si="9"/>
         <v>137.34</v>
       </c>
     </row>
@@ -9145,7 +10925,7 @@
         <v>5</v>
       </c>
       <c r="D273" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>137.34</v>
       </c>
       <c r="G273" s="45">
@@ -9158,7 +10938,7 @@
         <v>6</v>
       </c>
       <c r="J273" s="33">
-        <f>J105</f>
+        <f t="shared" si="9"/>
         <v>141.74</v>
       </c>
     </row>
@@ -9173,7 +10953,7 @@
         <v>6</v>
       </c>
       <c r="D274" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>141.74</v>
       </c>
       <c r="G274" s="45">
@@ -9186,7 +10966,7 @@
         <v>7</v>
       </c>
       <c r="J274" s="33">
-        <f>J106</f>
+        <f t="shared" si="9"/>
         <v>146.14000000000001</v>
       </c>
     </row>
@@ -9201,7 +10981,7 @@
         <v>7</v>
       </c>
       <c r="D275" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>146.14000000000001</v>
       </c>
       <c r="G275" s="45">
@@ -9214,7 +10994,7 @@
         <v>8</v>
       </c>
       <c r="J275" s="33">
-        <f>J107</f>
+        <f t="shared" si="9"/>
         <v>150.54000000000002</v>
       </c>
     </row>
@@ -9229,7 +11009,7 @@
         <v>8</v>
       </c>
       <c r="D276" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>150.54000000000002</v>
       </c>
       <c r="G276" s="45">
@@ -9242,7 +11022,7 @@
         <v>9</v>
       </c>
       <c r="J276" s="33">
-        <f>J108</f>
+        <f t="shared" si="9"/>
         <v>154.94</v>
       </c>
     </row>
@@ -9257,7 +11037,7 @@
         <v>9</v>
       </c>
       <c r="D277" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>154.94</v>
       </c>
       <c r="G277" s="45">
@@ -9270,7 +11050,7 @@
         <v>10</v>
       </c>
       <c r="J277" s="33">
-        <f>J109</f>
+        <f t="shared" si="9"/>
         <v>159.34</v>
       </c>
     </row>
@@ -9285,7 +11065,7 @@
         <v>10</v>
       </c>
       <c r="D278" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>159.34</v>
       </c>
       <c r="G278" s="45">
@@ -9298,7 +11078,7 @@
         <v>11</v>
       </c>
       <c r="J278" s="33">
-        <f>J110</f>
+        <f t="shared" si="9"/>
         <v>163.74</v>
       </c>
     </row>
@@ -9313,7 +11093,7 @@
         <v>11</v>
       </c>
       <c r="D279" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>163.74</v>
       </c>
       <c r="G279" s="45">
@@ -9326,7 +11106,7 @@
         <v>12</v>
       </c>
       <c r="J279" s="33">
-        <f>J111</f>
+        <f t="shared" si="9"/>
         <v>168.14</v>
       </c>
     </row>
@@ -9341,7 +11121,7 @@
         <v>12</v>
       </c>
       <c r="D280" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>168.14</v>
       </c>
       <c r="G280" s="45">
@@ -9354,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="J280" s="33">
-        <f>J112</f>
+        <f t="shared" si="9"/>
         <v>172.54000000000002</v>
       </c>
     </row>
@@ -9369,7 +11149,7 @@
         <v>13</v>
       </c>
       <c r="D281" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>172.54000000000002</v>
       </c>
       <c r="G281" s="34">
@@ -9384,6 +11164,813 @@
       <c r="J281" s="36">
         <v>115.34</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A2B5EA-9344-4738-B2C7-75215DBEDF9E}">
+  <dimension ref="A147:F245"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="41"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="41"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="41"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="41"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="41"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="41"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="32"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="32"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="41"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="41"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="41"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="41"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="41"/>
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="41"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="32"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="32"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="32"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="32"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="32"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="32"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="32"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="32"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="32"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="32"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="32"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="32"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="32"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="32"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="32"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="32"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="32"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="32"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="32"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="32"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="32"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="32"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="32"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="32"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="32"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="32"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="32"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="32"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="32"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="32"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="32"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="32"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="32"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="32"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="32"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="32"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="32"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="32"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="32"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="32"/>
+      <c r="B225" s="32"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="32"/>
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="32"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="32"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="32"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="32"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="32"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="32"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="32"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="32"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="32"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="32"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="32"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="32"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="32"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="32"/>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="32"/>
+      <c r="F234" s="32"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="32"/>
+      <c r="B235" s="32"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="32"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="32"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="32"/>
+      <c r="F236" s="32"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="32"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="32"/>
+      <c r="F237" s="32"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="32"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="32"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="41"/>
+      <c r="B239" s="41"/>
+      <c r="C239" s="41"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="41"/>
+      <c r="B240" s="41"/>
+      <c r="C240" s="41"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="32"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="41"/>
+      <c r="B241" s="41"/>
+      <c r="C241" s="41"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="32"/>
+      <c r="F241" s="32"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="41"/>
+      <c r="B242" s="41"/>
+      <c r="C242" s="41"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="32"/>
+      <c r="F242" s="32"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="41"/>
+      <c r="B243" s="41"/>
+      <c r="C243" s="41"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="41"/>
+      <c r="B244" s="41"/>
+      <c r="C244" s="41"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="41"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10337,15 +12924,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
@@ -10355,8 +12942,11 @@
       <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>220</v>
       </c>
@@ -10366,8 +12956,11 @@
       <c r="C2" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>180</v>
       </c>
@@ -10377,8 +12970,12 @@
       <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>E2+A3</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>140</v>
       </c>
@@ -10388,8 +12985,12 @@
       <c r="C4" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>E3+A4</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>120</v>
       </c>
@@ -10399,8 +13000,12 @@
       <c r="C5" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>E4+A5</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>180</v>
       </c>
@@ -10410,8 +13015,12 @@
       <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>E5+A6</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>200</v>
       </c>
@@ -10421,8 +13030,12 @@
       <c r="C7" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>A7+E6</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>80</v>
       </c>
@@ -10432,8 +13045,12 @@
       <c r="C8" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>A8+E7</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>100</v>
       </c>
@@ -10443,8 +13060,12 @@
       <c r="C9" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f>E8+A9</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>240</v>
       </c>
@@ -10454,8 +13075,12 @@
       <c r="C10" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>E9+A10</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <v>80</v>
       </c>
@@ -10464,6 +13089,10 @@
       </c>
       <c r="C11" s="36" t="s">
         <v>9</v>
+      </c>
+      <c r="E11">
+        <f>E10+A11</f>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1BFC7-3CB0-4B28-AB2E-16CC92F5275D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C92837-7EAD-4251-BE74-3D6B9659984B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="sound" sheetId="9" r:id="rId8"/>
     <sheet name="flights" sheetId="11" r:id="rId9"/>
     <sheet name="testset" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -1447,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6572479F-AFDE-4940-94F1-052247087792}">
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N145" sqref="N145"/>
     </sheetView>
   </sheetViews>
@@ -3285,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="30">
-        <f ca="1">P16</f>
+        <f t="shared" ref="P44:P71" ca="1" si="0">P16</f>
         <v>270.53999999999996</v>
       </c>
     </row>
@@ -3326,7 +3325,7 @@
         <v>2</v>
       </c>
       <c r="P45" s="33">
-        <f ca="1">P17</f>
+        <f t="shared" ca="1" si="0"/>
         <v>274.94</v>
       </c>
     </row>
@@ -3367,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="P46" s="33">
-        <f ca="1">P18</f>
+        <f t="shared" ca="1" si="0"/>
         <v>279.33999999999997</v>
       </c>
     </row>
@@ -3408,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="33">
-        <f ca="1">P19</f>
+        <f t="shared" ca="1" si="0"/>
         <v>283.74</v>
       </c>
     </row>
@@ -3449,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="P48" s="33">
-        <f ca="1">P20</f>
+        <f t="shared" ca="1" si="0"/>
         <v>288.14</v>
       </c>
     </row>
@@ -3490,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="P49" s="33">
-        <f ca="1">P21</f>
+        <f t="shared" ca="1" si="0"/>
         <v>292.53999999999996</v>
       </c>
     </row>
@@ -3531,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="P50" s="44">
-        <f>P22</f>
+        <f t="shared" si="0"/>
         <v>266.14</v>
       </c>
     </row>
@@ -3572,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="33">
-        <f ca="1">P23</f>
+        <f t="shared" ca="1" si="0"/>
         <v>119.74000000000001</v>
       </c>
     </row>
@@ -3613,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="33">
-        <f ca="1">P24</f>
+        <f t="shared" ca="1" si="0"/>
         <v>124.14</v>
       </c>
     </row>
@@ -3654,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="P53" s="33">
-        <f ca="1">P25</f>
+        <f t="shared" ca="1" si="0"/>
         <v>128.54</v>
       </c>
     </row>
@@ -3695,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="33">
-        <f ca="1">P26</f>
+        <f t="shared" ca="1" si="0"/>
         <v>132.94</v>
       </c>
     </row>
@@ -3736,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="P55" s="33">
-        <f ca="1">P27</f>
+        <f t="shared" ca="1" si="0"/>
         <v>137.34</v>
       </c>
     </row>
@@ -3777,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="33">
-        <f ca="1">P28</f>
+        <f t="shared" ca="1" si="0"/>
         <v>141.74</v>
       </c>
     </row>
@@ -3817,7 +3816,7 @@
         <v>7</v>
       </c>
       <c r="P57" s="36">
-        <f>P29</f>
+        <f t="shared" si="0"/>
         <v>115.34</v>
       </c>
     </row>
@@ -3858,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="P58" s="47">
-        <f ca="1">P30</f>
+        <f t="shared" ca="1" si="0"/>
         <v>398.07000000000005</v>
       </c>
     </row>
@@ -3899,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="P59" s="47">
-        <f ca="1">P31</f>
+        <f t="shared" ca="1" si="0"/>
         <v>408.67</v>
       </c>
     </row>
@@ -3940,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="P60" s="47">
-        <f ca="1">P32</f>
+        <f t="shared" ca="1" si="0"/>
         <v>419.27000000000004</v>
       </c>
     </row>
@@ -3981,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="P61" s="47">
-        <f ca="1">P33</f>
+        <f t="shared" ca="1" si="0"/>
         <v>429.87</v>
       </c>
     </row>
@@ -4022,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="P62" s="47">
-        <f ca="1">P34</f>
+        <f t="shared" ca="1" si="0"/>
         <v>440.47</v>
       </c>
     </row>
@@ -4063,7 +4062,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="47">
-        <f ca="1">P35</f>
+        <f t="shared" ca="1" si="0"/>
         <v>451.07000000000005</v>
       </c>
     </row>
@@ -4104,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="P64" s="48">
-        <f>P36</f>
+        <f t="shared" si="0"/>
         <v>387.47</v>
       </c>
     </row>
@@ -4145,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="P65" s="47">
-        <f ca="1">P37</f>
+        <f t="shared" ca="1" si="0"/>
         <v>573.50000000000011</v>
       </c>
     </row>
@@ -4186,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="47">
-        <f ca="1">P38</f>
+        <f t="shared" ca="1" si="0"/>
         <v>584.10000000000014</v>
       </c>
     </row>
@@ -4227,7 +4226,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="47">
-        <f ca="1">P39</f>
+        <f t="shared" ca="1" si="0"/>
         <v>594.70000000000005</v>
       </c>
     </row>
@@ -4268,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="P68" s="47">
-        <f ca="1">P40</f>
+        <f t="shared" ca="1" si="0"/>
         <v>605.30000000000007</v>
       </c>
     </row>
@@ -4309,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="P69" s="47">
-        <f ca="1">P41</f>
+        <f t="shared" ca="1" si="0"/>
         <v>615.90000000000009</v>
       </c>
     </row>
@@ -4350,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="P70" s="47">
-        <f ca="1">P42</f>
+        <f t="shared" ca="1" si="0"/>
         <v>626.50000000000011</v>
       </c>
     </row>
@@ -4390,7 +4389,7 @@
         <v>7</v>
       </c>
       <c r="P71" s="53">
-        <f>P43</f>
+        <f t="shared" si="0"/>
         <v>562.90000000000009</v>
       </c>
     </row>
@@ -4431,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="47">
-        <f>P2</f>
+        <f t="shared" ref="P72:P77" si="1">P2</f>
         <v>151.51999999999998</v>
       </c>
     </row>
@@ -4472,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="47">
-        <f>P3</f>
+        <f t="shared" si="1"/>
         <v>155.91999999999999</v>
       </c>
     </row>
@@ -4513,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="P74" s="47">
-        <f>P4</f>
+        <f t="shared" si="1"/>
         <v>160.31999999999996</v>
       </c>
     </row>
@@ -4554,7 +4553,7 @@
         <v>4</v>
       </c>
       <c r="P75" s="47">
-        <f>P5</f>
+        <f t="shared" si="1"/>
         <v>164.71999999999997</v>
       </c>
     </row>
@@ -4595,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="P76" s="47">
-        <f>P6</f>
+        <f t="shared" si="1"/>
         <v>169.11999999999998</v>
       </c>
     </row>
@@ -4636,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="P77" s="47">
-        <f>P7</f>
+        <f t="shared" si="1"/>
         <v>173.51999999999998</v>
       </c>
     </row>
@@ -4717,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="P79" s="47">
-        <f ca="1">P9</f>
+        <f t="shared" ref="P79:P84" ca="1" si="2">P9</f>
         <v>268.02</v>
       </c>
     </row>
@@ -4758,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="P80" s="47">
-        <f ca="1">P10</f>
+        <f t="shared" ca="1" si="2"/>
         <v>272.42</v>
       </c>
     </row>
@@ -4799,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="P81" s="47">
-        <f ca="1">P11</f>
+        <f t="shared" ca="1" si="2"/>
         <v>276.82</v>
       </c>
     </row>
@@ -4840,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="P82" s="47">
-        <f ca="1">P12</f>
+        <f t="shared" ca="1" si="2"/>
         <v>281.22000000000003</v>
       </c>
     </row>
@@ -4881,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="P83" s="47">
-        <f ca="1">P13</f>
+        <f t="shared" ca="1" si="2"/>
         <v>285.62</v>
       </c>
     </row>
@@ -4922,7 +4921,7 @@
         <v>6</v>
       </c>
       <c r="P84" s="47">
-        <f ca="1">P14</f>
+        <f t="shared" ca="1" si="2"/>
         <v>290.02</v>
       </c>
     </row>
@@ -4989,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="30">
-        <f t="shared" ref="J86:J112" si="0">J30</f>
+        <f t="shared" ref="J86:J112" si="3">J30</f>
         <v>270.53999999999996</v>
       </c>
       <c r="M86" s="45">
@@ -5017,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="33">
-        <f t="shared" ref="D87:D113" si="1">D31</f>
+        <f t="shared" ref="D87:D113" si="4">D31</f>
         <v>270.53999999999996</v>
       </c>
       <c r="G87" s="45">
@@ -5030,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="J87" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>274.94</v>
       </c>
       <c r="M87" s="45">
@@ -5058,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>274.94</v>
       </c>
       <c r="G88" s="45">
@@ -5071,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>279.33999999999997</v>
       </c>
       <c r="M88" s="45">
@@ -5099,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>279.33999999999997</v>
       </c>
       <c r="G89" s="45">
@@ -5112,7 +5111,7 @@
         <v>4</v>
       </c>
       <c r="J89" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>283.74</v>
       </c>
       <c r="M89" s="45">
@@ -5140,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>283.74</v>
       </c>
       <c r="G90" s="45">
@@ -5153,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>288.14</v>
       </c>
       <c r="M90" s="45">
@@ -5181,7 +5180,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>288.14</v>
       </c>
       <c r="G91" s="45">
@@ -5194,7 +5193,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>292.53999999999996</v>
       </c>
       <c r="M91" s="45">
@@ -5222,7 +5221,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>292.53999999999996</v>
       </c>
       <c r="G92" s="45">
@@ -5235,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="J92" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>296.94</v>
       </c>
       <c r="M92" s="43">
@@ -5262,7 +5261,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>296.94</v>
       </c>
       <c r="G93" s="45">
@@ -5275,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="J93" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>301.33999999999997</v>
       </c>
       <c r="M93" s="45">
@@ -5303,7 +5302,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>301.33999999999997</v>
       </c>
       <c r="G94" s="45">
@@ -5316,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="J94" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>305.74</v>
       </c>
       <c r="M94" s="45">
@@ -5344,7 +5343,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>305.74</v>
       </c>
       <c r="G95" s="45">
@@ -5357,7 +5356,7 @@
         <v>10</v>
       </c>
       <c r="J95" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>310.14</v>
       </c>
       <c r="M95" s="45">
@@ -5385,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>310.14</v>
       </c>
       <c r="G96" s="45">
@@ -5398,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="J96" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>314.53999999999996</v>
       </c>
       <c r="M96" s="45">
@@ -5426,7 +5425,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>314.53999999999996</v>
       </c>
       <c r="G97" s="45">
@@ -5439,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="J97" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>318.94</v>
       </c>
       <c r="M97" s="45">
@@ -5467,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>318.94</v>
       </c>
       <c r="G98" s="45">
@@ -5480,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="J98" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>323.33999999999997</v>
       </c>
       <c r="M98" s="45">
@@ -5508,7 +5507,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>323.33999999999997</v>
       </c>
       <c r="G99" s="43">
@@ -5521,7 +5520,7 @@
         <v>14</v>
       </c>
       <c r="J99" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>266.14</v>
       </c>
       <c r="M99" s="34">
@@ -5548,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>115.34</v>
       </c>
       <c r="G100" s="45">
@@ -5561,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>119.74000000000001</v>
       </c>
       <c r="M100" s="45">
@@ -5589,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>119.74000000000001</v>
       </c>
       <c r="G101" s="45">
@@ -5602,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124.14</v>
       </c>
       <c r="M101" s="45">
@@ -5630,7 +5629,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>124.14</v>
       </c>
       <c r="G102" s="45">
@@ -5643,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>128.54</v>
       </c>
       <c r="M102" s="45">
@@ -5671,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>128.54</v>
       </c>
       <c r="G103" s="45">
@@ -5684,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="J103" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>132.94</v>
       </c>
       <c r="M103" s="45">
@@ -5712,7 +5711,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132.94</v>
       </c>
       <c r="G104" s="45">
@@ -5725,7 +5724,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>137.34</v>
       </c>
       <c r="M104" s="45">
@@ -5753,7 +5752,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>137.34</v>
       </c>
       <c r="G105" s="45">
@@ -5766,7 +5765,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>141.74</v>
       </c>
       <c r="M105" s="45">
@@ -5794,7 +5793,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>141.74</v>
       </c>
       <c r="G106" s="45">
@@ -5807,7 +5806,7 @@
         <v>7</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>146.14000000000001</v>
       </c>
       <c r="M106" s="43">
@@ -5834,7 +5833,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>146.14000000000001</v>
       </c>
       <c r="G107" s="45">
@@ -5847,7 +5846,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150.54000000000002</v>
       </c>
       <c r="M107" s="45">
@@ -5875,7 +5874,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150.54000000000002</v>
       </c>
       <c r="G108" s="45">
@@ -5888,7 +5887,7 @@
         <v>9</v>
       </c>
       <c r="J108" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>154.94</v>
       </c>
       <c r="M108" s="45">
@@ -5916,7 +5915,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>154.94</v>
       </c>
       <c r="G109" s="45">
@@ -5929,7 +5928,7 @@
         <v>10</v>
       </c>
       <c r="J109" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>159.34</v>
       </c>
       <c r="M109" s="45">
@@ -5957,7 +5956,7 @@
         <v>10</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>159.34</v>
       </c>
       <c r="G110" s="45">
@@ -5970,7 +5969,7 @@
         <v>11</v>
       </c>
       <c r="J110" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>163.74</v>
       </c>
       <c r="M110" s="45">
@@ -5998,7 +5997,7 @@
         <v>11</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>163.74</v>
       </c>
       <c r="G111" s="45">
@@ -6011,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="J111" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>168.14</v>
       </c>
       <c r="M111" s="45">
@@ -6039,7 +6038,7 @@
         <v>12</v>
       </c>
       <c r="D112" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>168.14</v>
       </c>
       <c r="G112" s="45">
@@ -6052,7 +6051,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>172.54000000000002</v>
       </c>
       <c r="M112" s="45">
@@ -6080,7 +6079,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>172.54000000000002</v>
       </c>
       <c r="G113" s="34">
@@ -6093,7 +6092,7 @@
         <v>14</v>
       </c>
       <c r="J113" s="36">
-        <f t="shared" ref="J113" si="2">J57</f>
+        <f t="shared" ref="J113" si="5">J57</f>
         <v>115.34</v>
       </c>
       <c r="M113" s="34">
@@ -6133,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="47">
-        <f t="shared" ref="J114:J140" si="3">J58</f>
+        <f t="shared" ref="J114:J140" si="6">J58</f>
         <v>398.07000000000005</v>
       </c>
       <c r="M114" s="45">
@@ -6161,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="47">
-        <f t="shared" ref="D115:D141" si="4">D59</f>
+        <f t="shared" ref="D115:D141" si="7">D59</f>
         <v>398.07000000000005</v>
       </c>
       <c r="G115" s="45">
@@ -6174,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="J115" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>408.67</v>
       </c>
       <c r="M115" s="45">
@@ -6202,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>408.67</v>
       </c>
       <c r="G116" s="45">
@@ -6215,7 +6214,7 @@
         <v>3</v>
       </c>
       <c r="J116" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>419.27000000000004</v>
       </c>
       <c r="M116" s="45">
@@ -6243,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>419.27000000000004</v>
       </c>
       <c r="G117" s="45">
@@ -6256,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="J117" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>429.87</v>
       </c>
       <c r="M117" s="45">
@@ -6284,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>429.87</v>
       </c>
       <c r="G118" s="45">
@@ -6297,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="J118" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>440.47</v>
       </c>
       <c r="M118" s="45">
@@ -6325,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>440.47</v>
       </c>
       <c r="G119" s="45">
@@ -6338,7 +6337,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>451.07000000000005</v>
       </c>
       <c r="M119" s="45">
@@ -6366,7 +6365,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>451.07000000000005</v>
       </c>
       <c r="G120" s="45">
@@ -6379,7 +6378,7 @@
         <v>7</v>
       </c>
       <c r="J120" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>461.67</v>
       </c>
       <c r="M120" s="43">
@@ -6406,7 +6405,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>461.67</v>
       </c>
       <c r="G121" s="45">
@@ -6419,7 +6418,7 @@
         <v>8</v>
       </c>
       <c r="J121" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>472.27000000000004</v>
       </c>
       <c r="M121" s="45">
@@ -6447,7 +6446,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>472.27000000000004</v>
       </c>
       <c r="G122" s="45">
@@ -6460,7 +6459,7 @@
         <v>9</v>
       </c>
       <c r="J122" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>482.87</v>
       </c>
       <c r="M122" s="45">
@@ -6488,7 +6487,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>482.87</v>
       </c>
       <c r="G123" s="45">
@@ -6501,7 +6500,7 @@
         <v>10</v>
       </c>
       <c r="J123" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>493.47</v>
       </c>
       <c r="M123" s="45">
@@ -6529,7 +6528,7 @@
         <v>10</v>
       </c>
       <c r="D124" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>493.47</v>
       </c>
       <c r="G124" s="45">
@@ -6542,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="J124" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>504.07000000000005</v>
       </c>
       <c r="M124" s="45">
@@ -6570,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="D125" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>504.07000000000005</v>
       </c>
       <c r="G125" s="45">
@@ -6583,7 +6582,7 @@
         <v>12</v>
       </c>
       <c r="J125" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>514.67000000000007</v>
       </c>
       <c r="M125" s="45">
@@ -6611,7 +6610,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>514.67000000000007</v>
       </c>
       <c r="G126" s="45">
@@ -6624,7 +6623,7 @@
         <v>13</v>
       </c>
       <c r="J126" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>525.27</v>
       </c>
       <c r="M126" s="45">
@@ -6652,7 +6651,7 @@
         <v>13</v>
       </c>
       <c r="D127" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>525.27</v>
       </c>
       <c r="G127" s="43">
@@ -6665,7 +6664,7 @@
         <v>14</v>
       </c>
       <c r="J127" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>387.47</v>
       </c>
       <c r="M127" s="34">
@@ -6692,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>562.90000000000009</v>
       </c>
       <c r="G128" s="45">
@@ -6705,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>573.50000000000011</v>
       </c>
       <c r="M128" s="45">
@@ -6718,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="33">
-        <f ca="1">P44</f>
+        <f t="shared" ref="P128:P140" ca="1" si="8">P44</f>
         <v>270.53999999999996</v>
       </c>
     </row>
@@ -6733,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>573.50000000000011</v>
       </c>
       <c r="G129" s="45">
@@ -6746,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="J129" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>584.10000000000014</v>
       </c>
       <c r="M129" s="45">
@@ -6759,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="P129" s="33">
-        <f ca="1">P45</f>
+        <f t="shared" ca="1" si="8"/>
         <v>274.94</v>
       </c>
     </row>
@@ -6774,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>584.10000000000014</v>
       </c>
       <c r="G130" s="45">
@@ -6787,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="J130" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>594.70000000000005</v>
       </c>
       <c r="M130" s="45">
@@ -6800,7 +6799,7 @@
         <v>3</v>
       </c>
       <c r="P130" s="33">
-        <f ca="1">P46</f>
+        <f t="shared" ca="1" si="8"/>
         <v>279.33999999999997</v>
       </c>
     </row>
@@ -6815,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>594.70000000000005</v>
       </c>
       <c r="G131" s="45">
@@ -6828,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="J131" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>605.30000000000007</v>
       </c>
       <c r="M131" s="45">
@@ -6841,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="P131" s="33">
-        <f ca="1">P47</f>
+        <f t="shared" ca="1" si="8"/>
         <v>283.74</v>
       </c>
     </row>
@@ -6856,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>605.30000000000007</v>
       </c>
       <c r="G132" s="45">
@@ -6869,7 +6868,7 @@
         <v>5</v>
       </c>
       <c r="J132" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>615.90000000000009</v>
       </c>
       <c r="M132" s="45">
@@ -6882,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="P132" s="33">
-        <f ca="1">P48</f>
+        <f t="shared" ca="1" si="8"/>
         <v>288.14</v>
       </c>
     </row>
@@ -6897,7 +6896,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>615.90000000000009</v>
       </c>
       <c r="G133" s="45">
@@ -6910,7 +6909,7 @@
         <v>6</v>
       </c>
       <c r="J133" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>626.50000000000011</v>
       </c>
       <c r="M133" s="45">
@@ -6923,7 +6922,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="33">
-        <f ca="1">P49</f>
+        <f t="shared" ca="1" si="8"/>
         <v>292.53999999999996</v>
       </c>
     </row>
@@ -6938,7 +6937,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>626.50000000000011</v>
       </c>
       <c r="G134" s="45">
@@ -6951,7 +6950,7 @@
         <v>7</v>
       </c>
       <c r="J134" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>637.10000000000014</v>
       </c>
       <c r="M134" s="43">
@@ -6964,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="P134" s="44">
-        <f>P50</f>
+        <f t="shared" si="8"/>
         <v>266.14</v>
       </c>
     </row>
@@ -6979,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>637.10000000000014</v>
       </c>
       <c r="G135" s="45">
@@ -6992,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="J135" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>647.70000000000005</v>
       </c>
       <c r="M135" s="45">
@@ -7005,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="33">
-        <f ca="1">P51</f>
+        <f t="shared" ca="1" si="8"/>
         <v>119.74000000000001</v>
       </c>
     </row>
@@ -7020,7 +7019,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>647.70000000000005</v>
       </c>
       <c r="G136" s="45">
@@ -7033,7 +7032,7 @@
         <v>9</v>
       </c>
       <c r="J136" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>658.30000000000007</v>
       </c>
       <c r="M136" s="45">
@@ -7046,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="P136" s="33">
-        <f ca="1">P52</f>
+        <f t="shared" ca="1" si="8"/>
         <v>124.14</v>
       </c>
     </row>
@@ -7061,7 +7060,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>658.30000000000007</v>
       </c>
       <c r="G137" s="45">
@@ -7074,7 +7073,7 @@
         <v>10</v>
       </c>
       <c r="J137" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>668.90000000000009</v>
       </c>
       <c r="M137" s="45">
@@ -7087,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="P137" s="33">
-        <f ca="1">P53</f>
+        <f t="shared" ca="1" si="8"/>
         <v>128.54</v>
       </c>
     </row>
@@ -7102,7 +7101,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>668.90000000000009</v>
       </c>
       <c r="G138" s="45">
@@ -7115,7 +7114,7 @@
         <v>11</v>
       </c>
       <c r="J138" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>679.50000000000011</v>
       </c>
       <c r="M138" s="45">
@@ -7128,7 +7127,7 @@
         <v>4</v>
       </c>
       <c r="P138" s="33">
-        <f ca="1">P54</f>
+        <f t="shared" ca="1" si="8"/>
         <v>132.94</v>
       </c>
     </row>
@@ -7143,7 +7142,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>679.50000000000011</v>
       </c>
       <c r="G139" s="45">
@@ -7156,7 +7155,7 @@
         <v>12</v>
       </c>
       <c r="J139" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>690.10000000000014</v>
       </c>
       <c r="M139" s="45">
@@ -7169,7 +7168,7 @@
         <v>5</v>
       </c>
       <c r="P139" s="33">
-        <f ca="1">P55</f>
+        <f t="shared" ca="1" si="8"/>
         <v>137.34</v>
       </c>
     </row>
@@ -7184,7 +7183,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>690.10000000000014</v>
       </c>
       <c r="G140" s="45">
@@ -7197,7 +7196,7 @@
         <v>13</v>
       </c>
       <c r="J140" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>700.7</v>
       </c>
       <c r="M140" s="45">
@@ -7210,7 +7209,7 @@
         <v>6</v>
       </c>
       <c r="P140" s="33">
-        <f ca="1">P56</f>
+        <f t="shared" ca="1" si="8"/>
         <v>141.74</v>
       </c>
     </row>
@@ -7225,7 +7224,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>700.7</v>
       </c>
       <c r="G141" s="34">
@@ -7238,7 +7237,7 @@
         <v>14</v>
       </c>
       <c r="J141" s="53">
-        <f t="shared" ref="J141" si="5">J85</f>
+        <f t="shared" ref="J141" si="9">J85</f>
         <v>562.90000000000009</v>
       </c>
       <c r="M141" s="34">
@@ -7278,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="J142" s="47">
-        <f t="shared" ref="J142:J154" si="6">J2</f>
+        <f t="shared" ref="J142:J154" si="10">J2</f>
         <v>151.51999999999998</v>
       </c>
     </row>
@@ -7293,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="47">
-        <f t="shared" ref="D143:D169" si="7">D3</f>
+        <f t="shared" ref="D143:D169" si="11">D3</f>
         <v>151.51999999999998</v>
       </c>
       <c r="G143" s="45">
@@ -7306,7 +7305,7 @@
         <v>2</v>
       </c>
       <c r="J143" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>155.91999999999999</v>
       </c>
     </row>
@@ -7321,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>155.91999999999999</v>
       </c>
       <c r="G144" s="45">
@@ -7334,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="J144" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>160.31999999999996</v>
       </c>
     </row>
@@ -7349,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>160.31999999999996</v>
       </c>
       <c r="G145" s="45">
@@ -7362,7 +7361,7 @@
         <v>4</v>
       </c>
       <c r="J145" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>164.71999999999997</v>
       </c>
     </row>
@@ -7377,7 +7376,7 @@
         <v>4</v>
       </c>
       <c r="D146" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>164.71999999999997</v>
       </c>
       <c r="G146" s="45">
@@ -7390,7 +7389,7 @@
         <v>5</v>
       </c>
       <c r="J146" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>169.11999999999998</v>
       </c>
     </row>
@@ -7405,7 +7404,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>169.11999999999998</v>
       </c>
       <c r="G147" s="45">
@@ -7418,7 +7417,7 @@
         <v>6</v>
       </c>
       <c r="J147" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>173.51999999999998</v>
       </c>
     </row>
@@ -7433,7 +7432,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>173.51999999999998</v>
       </c>
       <c r="G148" s="45">
@@ -7446,7 +7445,7 @@
         <v>7</v>
       </c>
       <c r="J148" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>177.92</v>
       </c>
     </row>
@@ -7461,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="D149" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>177.92</v>
       </c>
       <c r="G149" s="45">
@@ -7474,7 +7473,7 @@
         <v>8</v>
       </c>
       <c r="J149" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>182.32</v>
       </c>
     </row>
@@ -7489,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>182.32</v>
       </c>
       <c r="G150" s="45">
@@ -7502,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="J150" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>186.71999999999997</v>
       </c>
     </row>
@@ -7517,7 +7516,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>186.71999999999997</v>
       </c>
       <c r="G151" s="45">
@@ -7530,7 +7529,7 @@
         <v>10</v>
       </c>
       <c r="J151" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>191.11999999999998</v>
       </c>
     </row>
@@ -7545,7 +7544,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>191.11999999999998</v>
       </c>
       <c r="G152" s="45">
@@ -7558,7 +7557,7 @@
         <v>11</v>
       </c>
       <c r="J152" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>195.51999999999998</v>
       </c>
     </row>
@@ -7573,7 +7572,7 @@
         <v>11</v>
       </c>
       <c r="D153" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>195.51999999999998</v>
       </c>
       <c r="G153" s="45">
@@ -7586,7 +7585,7 @@
         <v>12</v>
       </c>
       <c r="J153" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>199.91999999999996</v>
       </c>
     </row>
@@ -7601,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>199.91999999999996</v>
       </c>
       <c r="G154" s="45">
@@ -7614,7 +7613,7 @@
         <v>13</v>
       </c>
       <c r="J154" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>204.32</v>
       </c>
     </row>
@@ -7629,7 +7628,7 @@
         <v>13</v>
       </c>
       <c r="D155" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>204.32</v>
       </c>
       <c r="G155" s="43">
@@ -7656,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="D156" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>263.62</v>
       </c>
       <c r="G156" s="45">
@@ -7669,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="47">
-        <f t="shared" ref="J156:J168" si="8">J16</f>
+        <f t="shared" ref="J156:J168" si="12">J16</f>
         <v>268.02</v>
       </c>
     </row>
@@ -7684,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>268.02</v>
       </c>
       <c r="G157" s="45">
@@ -7697,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="J157" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>272.42</v>
       </c>
     </row>
@@ -7712,7 +7711,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>272.42</v>
       </c>
       <c r="G158" s="45">
@@ -7725,7 +7724,7 @@
         <v>3</v>
       </c>
       <c r="J158" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>276.82</v>
       </c>
     </row>
@@ -7740,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>276.82</v>
       </c>
       <c r="G159" s="45">
@@ -7753,7 +7752,7 @@
         <v>4</v>
       </c>
       <c r="J159" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>281.22000000000003</v>
       </c>
     </row>
@@ -7768,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>281.22000000000003</v>
       </c>
       <c r="G160" s="45">
@@ -7781,7 +7780,7 @@
         <v>5</v>
       </c>
       <c r="J160" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>285.62</v>
       </c>
     </row>
@@ -7796,7 +7795,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>285.62</v>
       </c>
       <c r="G161" s="45">
@@ -7809,7 +7808,7 @@
         <v>6</v>
       </c>
       <c r="J161" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>290.02</v>
       </c>
     </row>
@@ -7824,7 +7823,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>290.02</v>
       </c>
       <c r="G162" s="45">
@@ -7837,7 +7836,7 @@
         <v>7</v>
       </c>
       <c r="J162" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>294.42</v>
       </c>
     </row>
@@ -7852,7 +7851,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>294.42</v>
       </c>
       <c r="G163" s="45">
@@ -7865,7 +7864,7 @@
         <v>8</v>
       </c>
       <c r="J163" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>298.82</v>
       </c>
     </row>
@@ -7880,7 +7879,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>298.82</v>
       </c>
       <c r="G164" s="45">
@@ -7893,7 +7892,7 @@
         <v>9</v>
       </c>
       <c r="J164" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>303.22000000000003</v>
       </c>
     </row>
@@ -7908,7 +7907,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>303.22000000000003</v>
       </c>
       <c r="G165" s="45">
@@ -7921,7 +7920,7 @@
         <v>10</v>
       </c>
       <c r="J165" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>307.62</v>
       </c>
     </row>
@@ -7936,7 +7935,7 @@
         <v>10</v>
       </c>
       <c r="D166" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>307.62</v>
       </c>
       <c r="G166" s="45">
@@ -7949,7 +7948,7 @@
         <v>11</v>
       </c>
       <c r="J166" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>312.02</v>
       </c>
     </row>
@@ -7964,7 +7963,7 @@
         <v>11</v>
       </c>
       <c r="D167" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>312.02</v>
       </c>
       <c r="G167" s="45">
@@ -7977,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="J167" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>316.42</v>
       </c>
     </row>
@@ -7992,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>316.42</v>
       </c>
       <c r="G168" s="45">
@@ -8005,7 +8004,7 @@
         <v>13</v>
       </c>
       <c r="J168" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>320.82</v>
       </c>
     </row>
@@ -8020,7 +8019,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>320.82</v>
       </c>
       <c r="G169" s="34">
@@ -10406,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="J254" s="33">
-        <f t="shared" ref="J254:J280" si="9">J86</f>
+        <f t="shared" ref="J254:J280" si="13">J86</f>
         <v>270.53999999999996</v>
       </c>
     </row>
@@ -10421,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="D255" s="33">
-        <f t="shared" ref="D255:D281" si="10">D87</f>
+        <f t="shared" ref="D255:D281" si="14">D87</f>
         <v>270.53999999999996</v>
       </c>
       <c r="G255" s="45">
@@ -10434,7 +10433,7 @@
         <v>2</v>
       </c>
       <c r="J255" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>274.94</v>
       </c>
     </row>
@@ -10449,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="D256" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>274.94</v>
       </c>
       <c r="G256" s="45">
@@ -10462,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="J256" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>279.33999999999997</v>
       </c>
     </row>
@@ -10477,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="D257" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>279.33999999999997</v>
       </c>
       <c r="G257" s="45">
@@ -10490,7 +10489,7 @@
         <v>4</v>
       </c>
       <c r="J257" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>283.74</v>
       </c>
     </row>
@@ -10505,7 +10504,7 @@
         <v>4</v>
       </c>
       <c r="D258" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>283.74</v>
       </c>
       <c r="G258" s="45">
@@ -10518,7 +10517,7 @@
         <v>5</v>
       </c>
       <c r="J258" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>288.14</v>
       </c>
     </row>
@@ -10533,7 +10532,7 @@
         <v>5</v>
       </c>
       <c r="D259" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>288.14</v>
       </c>
       <c r="G259" s="45">
@@ -10546,7 +10545,7 @@
         <v>6</v>
       </c>
       <c r="J259" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>292.53999999999996</v>
       </c>
     </row>
@@ -10561,7 +10560,7 @@
         <v>6</v>
       </c>
       <c r="D260" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>292.53999999999996</v>
       </c>
       <c r="G260" s="45">
@@ -10574,7 +10573,7 @@
         <v>7</v>
       </c>
       <c r="J260" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>296.94</v>
       </c>
     </row>
@@ -10589,7 +10588,7 @@
         <v>7</v>
       </c>
       <c r="D261" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>296.94</v>
       </c>
       <c r="G261" s="45">
@@ -10602,7 +10601,7 @@
         <v>8</v>
       </c>
       <c r="J261" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>301.33999999999997</v>
       </c>
     </row>
@@ -10617,7 +10616,7 @@
         <v>8</v>
       </c>
       <c r="D262" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>301.33999999999997</v>
       </c>
       <c r="G262" s="45">
@@ -10630,7 +10629,7 @@
         <v>9</v>
       </c>
       <c r="J262" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>305.74</v>
       </c>
     </row>
@@ -10645,7 +10644,7 @@
         <v>9</v>
       </c>
       <c r="D263" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>305.74</v>
       </c>
       <c r="G263" s="45">
@@ -10658,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="J263" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>310.14</v>
       </c>
     </row>
@@ -10673,7 +10672,7 @@
         <v>10</v>
       </c>
       <c r="D264" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>310.14</v>
       </c>
       <c r="G264" s="45">
@@ -10686,7 +10685,7 @@
         <v>11</v>
       </c>
       <c r="J264" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>314.53999999999996</v>
       </c>
     </row>
@@ -10701,7 +10700,7 @@
         <v>11</v>
       </c>
       <c r="D265" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>314.53999999999996</v>
       </c>
       <c r="G265" s="45">
@@ -10714,7 +10713,7 @@
         <v>12</v>
       </c>
       <c r="J265" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>318.94</v>
       </c>
     </row>
@@ -10729,7 +10728,7 @@
         <v>12</v>
       </c>
       <c r="D266" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>318.94</v>
       </c>
       <c r="G266" s="45">
@@ -10742,7 +10741,7 @@
         <v>13</v>
       </c>
       <c r="J266" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>323.33999999999997</v>
       </c>
     </row>
@@ -10757,7 +10756,7 @@
         <v>13</v>
       </c>
       <c r="D267" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>323.33999999999997</v>
       </c>
       <c r="G267" s="43">
@@ -10770,7 +10769,7 @@
         <v>14</v>
       </c>
       <c r="J267" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>266.14</v>
       </c>
     </row>
@@ -10785,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="D268" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>115.34</v>
       </c>
       <c r="G268" s="45">
@@ -10798,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="J268" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>119.74000000000001</v>
       </c>
     </row>
@@ -10813,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="D269" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>119.74000000000001</v>
       </c>
       <c r="G269" s="45">
@@ -10826,7 +10825,7 @@
         <v>2</v>
       </c>
       <c r="J269" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>124.14</v>
       </c>
     </row>
@@ -10841,7 +10840,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>124.14</v>
       </c>
       <c r="G270" s="45">
@@ -10854,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="J270" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>128.54</v>
       </c>
     </row>
@@ -10869,7 +10868,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>128.54</v>
       </c>
       <c r="G271" s="45">
@@ -10882,7 +10881,7 @@
         <v>4</v>
       </c>
       <c r="J271" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>132.94</v>
       </c>
     </row>
@@ -10897,7 +10896,7 @@
         <v>4</v>
       </c>
       <c r="D272" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>132.94</v>
       </c>
       <c r="G272" s="45">
@@ -10910,7 +10909,7 @@
         <v>5</v>
       </c>
       <c r="J272" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>137.34</v>
       </c>
     </row>
@@ -10925,7 +10924,7 @@
         <v>5</v>
       </c>
       <c r="D273" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>137.34</v>
       </c>
       <c r="G273" s="45">
@@ -10938,7 +10937,7 @@
         <v>6</v>
       </c>
       <c r="J273" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>141.74</v>
       </c>
     </row>
@@ -10953,7 +10952,7 @@
         <v>6</v>
       </c>
       <c r="D274" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>141.74</v>
       </c>
       <c r="G274" s="45">
@@ -10966,7 +10965,7 @@
         <v>7</v>
       </c>
       <c r="J274" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>146.14000000000001</v>
       </c>
     </row>
@@ -10981,7 +10980,7 @@
         <v>7</v>
       </c>
       <c r="D275" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>146.14000000000001</v>
       </c>
       <c r="G275" s="45">
@@ -10994,7 +10993,7 @@
         <v>8</v>
       </c>
       <c r="J275" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>150.54000000000002</v>
       </c>
     </row>
@@ -11009,7 +11008,7 @@
         <v>8</v>
       </c>
       <c r="D276" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>150.54000000000002</v>
       </c>
       <c r="G276" s="45">
@@ -11022,7 +11021,7 @@
         <v>9</v>
       </c>
       <c r="J276" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>154.94</v>
       </c>
     </row>
@@ -11037,7 +11036,7 @@
         <v>9</v>
       </c>
       <c r="D277" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>154.94</v>
       </c>
       <c r="G277" s="45">
@@ -11050,7 +11049,7 @@
         <v>10</v>
       </c>
       <c r="J277" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>159.34</v>
       </c>
     </row>
@@ -11065,7 +11064,7 @@
         <v>10</v>
       </c>
       <c r="D278" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>159.34</v>
       </c>
       <c r="G278" s="45">
@@ -11078,7 +11077,7 @@
         <v>11</v>
       </c>
       <c r="J278" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>163.74</v>
       </c>
     </row>
@@ -11093,7 +11092,7 @@
         <v>11</v>
       </c>
       <c r="D279" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>163.74</v>
       </c>
       <c r="G279" s="45">
@@ -11106,7 +11105,7 @@
         <v>12</v>
       </c>
       <c r="J279" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>168.14</v>
       </c>
     </row>
@@ -11121,7 +11120,7 @@
         <v>12</v>
       </c>
       <c r="D280" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>168.14</v>
       </c>
       <c r="G280" s="45">
@@ -11134,7 +11133,7 @@
         <v>13</v>
       </c>
       <c r="J280" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>172.54000000000002</v>
       </c>
     </row>
@@ -11149,7 +11148,7 @@
         <v>13</v>
       </c>
       <c r="D281" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>172.54000000000002</v>
       </c>
       <c r="G281" s="34">
@@ -11164,813 +11163,6 @@
       <c r="J281" s="36">
         <v>115.34</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A2B5EA-9344-4738-B2C7-75215DBEDF9E}">
-  <dimension ref="A147:F245"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D141"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="32"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="32"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="32"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="41"/>
-      <c r="B156" s="41"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="41"/>
-      <c r="B157" s="41"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="41"/>
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="41"/>
-      <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="41"/>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="41"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="32"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="41"/>
-      <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="41"/>
-      <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="41"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="41"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="41"/>
-      <c r="B174" s="41"/>
-      <c r="C174" s="41"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="41"/>
-      <c r="B175" s="41"/>
-      <c r="C175" s="41"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="32"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="32"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="32"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="32"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="32"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="32"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="32"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="32"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="32"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="32"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="32"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="32"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="32"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="32"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="32"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="32"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="32"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="32"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="32"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="32"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="32"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="32"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="32"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="32"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="32"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="32"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="32"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="32"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="32"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="32"/>
-      <c r="F207" s="32"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="32"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="32"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="32"/>
-      <c r="D209" s="32"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="32"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="32"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="32"/>
-      <c r="D210" s="32"/>
-      <c r="E210" s="32"/>
-      <c r="F210" s="32"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="32"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="32"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="32"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="32"/>
-      <c r="F212" s="32"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="32"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="32"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="32"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="32"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="32"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="32"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="32"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="32"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="32"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="32"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="32"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="32"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="32"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="32"/>
-      <c r="F221" s="32"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="32"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="32"/>
-      <c r="D222" s="32"/>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="32"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="32"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="32"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="32"/>
-      <c r="F225" s="32"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="32"/>
-      <c r="B226" s="32"/>
-      <c r="C226" s="32"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="32"/>
-      <c r="F226" s="32"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="32"/>
-      <c r="B227" s="32"/>
-      <c r="C227" s="32"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="32"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="32"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="32"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="32"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="32"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="32"/>
-      <c r="B230" s="32"/>
-      <c r="C230" s="32"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="32"/>
-      <c r="B231" s="32"/>
-      <c r="C231" s="32"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="32"/>
-      <c r="B232" s="32"/>
-      <c r="C232" s="32"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="32"/>
-      <c r="B233" s="32"/>
-      <c r="C233" s="32"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="32"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="32"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="32"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="32"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="32"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="32"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="32"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="32"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="32"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="41"/>
-      <c r="B239" s="41"/>
-      <c r="C239" s="41"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="41"/>
-      <c r="B240" s="41"/>
-      <c r="C240" s="41"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="41"/>
-      <c r="B241" s="41"/>
-      <c r="C241" s="41"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="41"/>
-      <c r="B242" s="41"/>
-      <c r="C242" s="41"/>
-      <c r="D242" s="32"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="41"/>
-      <c r="B243" s="41"/>
-      <c r="C243" s="41"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="41"/>
-      <c r="B244" s="41"/>
-      <c r="C244" s="41"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="41"/>
-      <c r="B245" s="41"/>
-      <c r="C245" s="41"/>
-      <c r="D245" s="32"/>
-      <c r="E245" s="32"/>
-      <c r="F245" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12926,7 +12118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C92837-7EAD-4251-BE74-3D6B9659984B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6315CD7-CF65-4E33-83DD-CB580D186341}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Nr</t>
   </si>
@@ -91,10 +91,13 @@
     <t>d</t>
   </si>
   <si>
-    <t>time</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>time R06</t>
+  </si>
+  <si>
+    <t>time R24</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1450,7 @@
   <dimension ref="A1:T281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N145" sqref="N145"/>
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7215,7 +7218,7 @@
     </row>
     <row r="141" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B141" s="42">
         <v>2</v>
@@ -11909,7 +11912,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12116,15 +12119,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
@@ -12135,10 +12138,13 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>220</v>
       </c>
@@ -12149,10 +12155,11 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f>t_to_RWY!B4</f>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>180</v>
       </c>
@@ -12163,11 +12170,11 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <f>E2+A3</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>t_to_RWY!B3+A3</f>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>140</v>
       </c>
@@ -12178,11 +12185,11 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>E3+A4</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f>A3+A4+t_to_RWY!B2</f>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>120</v>
       </c>
@@ -12193,11 +12200,11 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <f>E4+A5</f>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f>A4+A3+A5+t_to_RWY!B3</f>
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>180</v>
       </c>
@@ -12208,26 +12215,26 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>E5+A6</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f>A5+A4+A3+A6+t_to_RWY!B2</f>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>200</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <f>A7+E6</f>
-        <v>820</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f>A7+A6+A5+A4+A3+t_to_RWY!B3</f>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>80</v>
       </c>
@@ -12238,11 +12245,11 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f>A8+E7</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f>A8+A7+A6+A5+A4+A3+t_to_RWY!B2</f>
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>100</v>
       </c>
@@ -12253,11 +12260,11 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>E8+A9</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f>A9+A8+A7+A6+A5+A4+A3+t_to_RWY!B4</f>
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>240</v>
       </c>
@@ -12268,11 +12275,11 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <f>E9+A10</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>A9+A8+A7+A10+A6+A5+A4+A3+t_to_RWY!B2</f>
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <v>80</v>
       </c>
@@ -12283,7 +12290,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f>E10+A11</f>
+        <f>A10+A9+A8+A7+A6+A5+A4+A3+A11</f>
         <v>1320</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\runway-allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6315CD7-CF65-4E33-83DD-CB580D186341}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF9F263-676C-4589-9D13-B0E5CFF06D22}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>Nr</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>time R06</t>
@@ -787,7 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -846,6 +843,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6572479F-AFDE-4940-94F1-052247087792}">
   <dimension ref="A1:T281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,8 +1503,9 @@
       <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>147.12</v>
+      <c r="D2" s="2">
+        <f>(t_to_RWY!B4*fuel_flow!B2)+(t_to_taxi!B4*fuel_flow!B3)</f>
+        <v>148</v>
       </c>
       <c r="G2" s="28">
         <v>1</v>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="J2" s="30">
         <f>$J$15+(I2*20*fuel_flow!$B$2)</f>
-        <v>151.51999999999998</v>
+        <v>152.4</v>
       </c>
       <c r="M2" s="28">
         <v>1</v>
@@ -1529,8 +1530,8 @@
         <v>1</v>
       </c>
       <c r="P2" s="30">
-        <f>$J$15+(C3*20*fuel_flow!$B$2)</f>
-        <v>151.51999999999998</v>
+        <f>J2</f>
+        <v>152.4</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1544,8 +1545,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="33">
-        <f>$J$15+(C3*20*fuel_flow!$B$2)</f>
-        <v>151.51999999999998</v>
+        <f>$D$2+(C3*20*fuel_flow!$B$2)</f>
+        <v>152.4</v>
       </c>
       <c r="G3" s="31">
         <v>1</v>
@@ -1558,7 +1559,7 @@
       </c>
       <c r="J3" s="33">
         <f>$J$15+(I3*20*fuel_flow!$B$2)</f>
-        <v>155.91999999999999</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="M3" s="31">
         <v>1</v>
@@ -1570,8 +1571,8 @@
         <v>2</v>
       </c>
       <c r="P3" s="33">
-        <f>$J$15+(C4*20*fuel_flow!$B$2)</f>
-        <v>155.91999999999999</v>
+        <f t="shared" ref="P3:P8" si="0">J3</f>
+        <v>156.80000000000001</v>
       </c>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
@@ -1589,8 +1590,8 @@
         <v>2</v>
       </c>
       <c r="D4" s="33">
-        <f>$J$15+(C4*20*fuel_flow!$B$2)</f>
-        <v>155.91999999999999</v>
+        <f>$D$2+(C4*20*fuel_flow!$B$2)</f>
+        <v>156.80000000000001</v>
       </c>
       <c r="G4" s="31">
         <v>1</v>
@@ -1603,7 +1604,7 @@
       </c>
       <c r="J4" s="33">
         <f>$J$15+(I4*20*fuel_flow!$B$2)</f>
-        <v>160.31999999999996</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="M4" s="31">
         <v>1</v>
@@ -1615,8 +1616,8 @@
         <v>3</v>
       </c>
       <c r="P4" s="33">
-        <f>$J$15+(C5*20*fuel_flow!$B$2)</f>
-        <v>160.31999999999996</v>
+        <f t="shared" si="0"/>
+        <v>161.19999999999999</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
@@ -1634,8 +1635,8 @@
         <v>3</v>
       </c>
       <c r="D5" s="33">
-        <f>$J$15+(C5*20*fuel_flow!$B$2)</f>
-        <v>160.31999999999996</v>
+        <f>$D$2+(C5*20*fuel_flow!$B$2)</f>
+        <v>161.19999999999999</v>
       </c>
       <c r="G5" s="31">
         <v>1</v>
@@ -1648,7 +1649,7 @@
       </c>
       <c r="J5" s="33">
         <f>$J$15+(I5*20*fuel_flow!$B$2)</f>
-        <v>164.71999999999997</v>
+        <v>165.6</v>
       </c>
       <c r="M5" s="31">
         <v>1</v>
@@ -1660,8 +1661,8 @@
         <v>4</v>
       </c>
       <c r="P5" s="33">
-        <f>$J$15+(C6*20*fuel_flow!$B$2)</f>
-        <v>164.71999999999997</v>
+        <f t="shared" si="0"/>
+        <v>165.6</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
@@ -1679,8 +1680,8 @@
         <v>4</v>
       </c>
       <c r="D6" s="33">
-        <f>$J$15+(C6*20*fuel_flow!$B$2)</f>
-        <v>164.71999999999997</v>
+        <f>$D$2+(C6*20*fuel_flow!$B$2)</f>
+        <v>165.6</v>
       </c>
       <c r="G6" s="31">
         <v>1</v>
@@ -1693,7 +1694,7 @@
       </c>
       <c r="J6" s="33">
         <f>$J$15+(I6*20*fuel_flow!$B$2)</f>
-        <v>169.11999999999998</v>
+        <v>170</v>
       </c>
       <c r="M6" s="31">
         <v>1</v>
@@ -1705,8 +1706,8 @@
         <v>5</v>
       </c>
       <c r="P6" s="33">
-        <f>$J$15+(C7*20*fuel_flow!$B$2)</f>
-        <v>169.11999999999998</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
@@ -1724,8 +1725,8 @@
         <v>5</v>
       </c>
       <c r="D7" s="33">
-        <f>$J$15+(C7*20*fuel_flow!$B$2)</f>
-        <v>169.11999999999998</v>
+        <f>$D$2+(C7*20*fuel_flow!$B$2)</f>
+        <v>170</v>
       </c>
       <c r="G7" s="31">
         <v>1</v>
@@ -1738,7 +1739,7 @@
       </c>
       <c r="J7" s="33">
         <f>$J$15+(I7*20*fuel_flow!$B$2)</f>
-        <v>173.51999999999998</v>
+        <v>174.4</v>
       </c>
       <c r="M7" s="31">
         <v>1</v>
@@ -1750,8 +1751,8 @@
         <v>6</v>
       </c>
       <c r="P7" s="33">
-        <f>$J$15+(C8*20*fuel_flow!$B$2)</f>
-        <v>173.51999999999998</v>
+        <f t="shared" si="0"/>
+        <v>174.4</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
@@ -1769,8 +1770,8 @@
         <v>6</v>
       </c>
       <c r="D8" s="33">
-        <f>$J$15+(C8*20*fuel_flow!$B$2)</f>
-        <v>173.51999999999998</v>
+        <f>$D$2+(C8*20*fuel_flow!$B$2)</f>
+        <v>174.4</v>
       </c>
       <c r="G8" s="31">
         <v>1</v>
@@ -1783,7 +1784,7 @@
       </c>
       <c r="J8" s="33">
         <f>$J$15+(I8*20*fuel_flow!$B$2)</f>
-        <v>177.92</v>
+        <v>178.8</v>
       </c>
       <c r="M8" s="46">
         <v>1</v>
@@ -1795,7 +1796,8 @@
         <v>7</v>
       </c>
       <c r="P8" s="44">
-        <v>147.12</v>
+        <f t="shared" si="0"/>
+        <v>178.8</v>
       </c>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
@@ -1813,8 +1815,8 @@
         <v>7</v>
       </c>
       <c r="D9" s="33">
-        <f>$J$15+(C9*20*fuel_flow!$B$2)</f>
-        <v>177.92</v>
+        <f>$D$2+(C9*20*fuel_flow!$B$2)</f>
+        <v>178.8</v>
       </c>
       <c r="G9" s="31">
         <v>1</v>
@@ -1827,7 +1829,7 @@
       </c>
       <c r="J9" s="33">
         <f>$J$15+(I9*20*fuel_flow!$B$2)</f>
-        <v>182.32</v>
+        <v>183.2</v>
       </c>
       <c r="M9" s="31">
         <v>1</v>
@@ -1839,8 +1841,8 @@
         <v>1</v>
       </c>
       <c r="P9" s="33">
-        <f ca="1">$P$9+(20*O9*fuel_flow!$B$2)</f>
-        <v>268.02</v>
+        <f>J16</f>
+        <v>268.68</v>
       </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
@@ -1858,8 +1860,8 @@
         <v>8</v>
       </c>
       <c r="D10" s="33">
-        <f>$J$15+(C10*20*fuel_flow!$B$2)</f>
-        <v>182.32</v>
+        <f>$D$2+(C10*20*fuel_flow!$B$2)</f>
+        <v>183.2</v>
       </c>
       <c r="G10" s="31">
         <v>1</v>
@@ -1872,7 +1874,7 @@
       </c>
       <c r="J10" s="33">
         <f>$J$15+(I10*20*fuel_flow!$B$2)</f>
-        <v>186.71999999999997</v>
+        <v>187.6</v>
       </c>
       <c r="M10" s="31">
         <v>1</v>
@@ -1884,11 +1886,11 @@
         <v>2</v>
       </c>
       <c r="P10" s="33">
-        <f ca="1">$P$9+(20*O10*fuel_flow!$B$2)</f>
-        <v>272.42</v>
+        <f t="shared" ref="P10:P15" si="1">J17</f>
+        <v>273.08000000000004</v>
       </c>
       <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
+      <c r="R10" s="41"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
     </row>
@@ -1903,8 +1905,8 @@
         <v>9</v>
       </c>
       <c r="D11" s="33">
-        <f>$J$15+(C11*20*fuel_flow!$B$2)</f>
-        <v>186.71999999999997</v>
+        <f>$D$2+(C11*20*fuel_flow!$B$2)</f>
+        <v>187.6</v>
       </c>
       <c r="G11" s="31">
         <v>1</v>
@@ -1917,7 +1919,7 @@
       </c>
       <c r="J11" s="33">
         <f>$J$15+(I11*20*fuel_flow!$B$2)</f>
-        <v>191.11999999999998</v>
+        <v>192</v>
       </c>
       <c r="M11" s="31">
         <v>1</v>
@@ -1929,11 +1931,11 @@
         <v>3</v>
       </c>
       <c r="P11" s="33">
-        <f ca="1">$P$9+(20*O11*fuel_flow!$B$2)</f>
-        <v>276.82</v>
+        <f t="shared" si="1"/>
+        <v>277.48</v>
       </c>
       <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
     </row>
@@ -1948,8 +1950,8 @@
         <v>10</v>
       </c>
       <c r="D12" s="33">
-        <f>$J$15+(C12*20*fuel_flow!$B$2)</f>
-        <v>191.11999999999998</v>
+        <f>$D$2+(C12*20*fuel_flow!$B$2)</f>
+        <v>192</v>
       </c>
       <c r="G12" s="31">
         <v>1</v>
@@ -1962,7 +1964,7 @@
       </c>
       <c r="J12" s="33">
         <f>$J$15+(I12*20*fuel_flow!$B$2)</f>
-        <v>195.51999999999998</v>
+        <v>196.4</v>
       </c>
       <c r="M12" s="31">
         <v>1</v>
@@ -1974,11 +1976,11 @@
         <v>4</v>
       </c>
       <c r="P12" s="33">
-        <f ca="1">$P$9+(20*O12*fuel_flow!$B$2)</f>
-        <v>281.22000000000003</v>
+        <f t="shared" si="1"/>
+        <v>281.88000000000005</v>
       </c>
       <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
+      <c r="R12" s="41"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
     </row>
@@ -1993,8 +1995,8 @@
         <v>11</v>
       </c>
       <c r="D13" s="33">
-        <f>$J$15+(C13*20*fuel_flow!$B$2)</f>
-        <v>195.51999999999998</v>
+        <f>$D$2+(C13*20*fuel_flow!$B$2)</f>
+        <v>196.4</v>
       </c>
       <c r="G13" s="31">
         <v>1</v>
@@ -2007,7 +2009,7 @@
       </c>
       <c r="J13" s="33">
         <f>$J$15+(I13*20*fuel_flow!$B$2)</f>
-        <v>199.91999999999996</v>
+        <v>200.8</v>
       </c>
       <c r="M13" s="31">
         <v>1</v>
@@ -2019,11 +2021,11 @@
         <v>5</v>
       </c>
       <c r="P13" s="33">
-        <f ca="1">$P$9+(20*O13*fuel_flow!$B$2)</f>
-        <v>285.62</v>
+        <f t="shared" si="1"/>
+        <v>286.28000000000003</v>
       </c>
       <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
+      <c r="R13" s="41"/>
       <c r="S13" s="32"/>
       <c r="T13" s="32"/>
     </row>
@@ -2038,8 +2040,8 @@
         <v>12</v>
       </c>
       <c r="D14" s="33">
-        <f>$J$15+(C14*20*fuel_flow!$B$2)</f>
-        <v>199.91999999999996</v>
+        <f>$D$2+(C14*20*fuel_flow!$B$2)</f>
+        <v>200.8</v>
       </c>
       <c r="G14" s="31">
         <v>1</v>
@@ -2052,7 +2054,7 @@
       </c>
       <c r="J14" s="33">
         <f>$J$15+(I14*20*fuel_flow!$B$2)</f>
-        <v>204.32</v>
+        <v>205.2</v>
       </c>
       <c r="M14" s="31">
         <v>1</v>
@@ -2064,9 +2066,10 @@
         <v>6</v>
       </c>
       <c r="P14" s="33">
-        <f ca="1">$P$9+(20*O14*fuel_flow!$B$2)</f>
-        <v>290.02</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>290.68</v>
+      </c>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
@@ -2079,8 +2082,8 @@
         <v>13</v>
       </c>
       <c r="D15" s="33">
-        <f>$J$15+(C15*20*fuel_flow!$B$2)</f>
-        <v>204.32</v>
+        <f>$D$2+(C15*20*fuel_flow!$B$2)</f>
+        <v>205.2</v>
       </c>
       <c r="G15" s="46">
         <v>1</v>
@@ -2093,7 +2096,7 @@
       </c>
       <c r="J15" s="44">
         <f>(t_to_RWY!B4*fuel_flow!B2)+(t_to_taxi!B4*fuel_flow!B3)</f>
-        <v>147.11999999999998</v>
+        <v>148</v>
       </c>
       <c r="M15" s="49">
         <v>1</v>
@@ -2105,8 +2108,10 @@
         <v>7</v>
       </c>
       <c r="P15" s="36">
-        <v>263.62</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>295.08000000000004</v>
+      </c>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
@@ -2120,7 +2125,7 @@
       </c>
       <c r="D16" s="33">
         <f>(t_to_RWY!C4*fuel_flow!B2)+(t_to_taxi!C4*fuel_flow!B3)</f>
-        <v>263.62</v>
+        <v>264.28000000000003</v>
       </c>
       <c r="G16" s="31">
         <v>1</v>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="J16" s="33">
         <f>$D$16+(20*I16*fuel_flow!$B$2)</f>
-        <v>268.02</v>
+        <v>268.68</v>
       </c>
       <c r="M16" s="31">
         <v>2</v>
@@ -2145,11 +2150,12 @@
         <v>1</v>
       </c>
       <c r="P16" s="33">
-        <f ca="1">$P$16+(20*O16*fuel_flow!$B$2)</f>
-        <v>270.53999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <f>J30</f>
+        <v>271.2</v>
+      </c>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>1</v>
       </c>
@@ -2161,7 +2167,7 @@
       </c>
       <c r="D17" s="33">
         <f>$D$16+(20*C17*fuel_flow!$B$2)</f>
-        <v>268.02</v>
+        <v>268.68</v>
       </c>
       <c r="G17" s="31">
         <v>1</v>
@@ -2174,7 +2180,7 @@
       </c>
       <c r="J17" s="33">
         <f>$D$16+(20*I17*fuel_flow!$B$2)</f>
-        <v>272.42</v>
+        <v>273.08000000000004</v>
       </c>
       <c r="M17" s="31">
         <v>2</v>
@@ -2186,11 +2192,12 @@
         <v>2</v>
       </c>
       <c r="P17" s="33">
-        <f ca="1">$P$16+(20*O17*fuel_flow!$B$2)</f>
-        <v>274.94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P17:P22" si="2">J31</f>
+        <v>275.60000000000002</v>
+      </c>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>1</v>
       </c>
@@ -2202,7 +2209,7 @@
       </c>
       <c r="D18" s="33">
         <f>$D$16+(20*C18*fuel_flow!$B$2)</f>
-        <v>272.42</v>
+        <v>273.08000000000004</v>
       </c>
       <c r="G18" s="31">
         <v>1</v>
@@ -2215,7 +2222,7 @@
       </c>
       <c r="J18" s="33">
         <f>$D$16+(20*I18*fuel_flow!$B$2)</f>
-        <v>276.82</v>
+        <v>277.48</v>
       </c>
       <c r="M18" s="31">
         <v>2</v>
@@ -2227,11 +2234,12 @@
         <v>3</v>
       </c>
       <c r="P18" s="33">
-        <f ca="1">$P$16+(20*O18*fuel_flow!$B$2)</f>
-        <v>279.33999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>1</v>
       </c>
@@ -2243,7 +2251,7 @@
       </c>
       <c r="D19" s="33">
         <f>$D$16+(20*C19*fuel_flow!$B$2)</f>
-        <v>276.82</v>
+        <v>277.48</v>
       </c>
       <c r="G19" s="31">
         <v>1</v>
@@ -2256,7 +2264,7 @@
       </c>
       <c r="J19" s="33">
         <f>$D$16+(20*I19*fuel_flow!$B$2)</f>
-        <v>281.22000000000003</v>
+        <v>281.88000000000005</v>
       </c>
       <c r="M19" s="31">
         <v>2</v>
@@ -2268,11 +2276,12 @@
         <v>4</v>
       </c>
       <c r="P19" s="33">
-        <f ca="1">$P$16+(20*O19*fuel_flow!$B$2)</f>
-        <v>283.74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>284.40000000000003</v>
+      </c>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>1</v>
       </c>
@@ -2284,7 +2293,7 @@
       </c>
       <c r="D20" s="33">
         <f>$D$16+(20*C20*fuel_flow!$B$2)</f>
-        <v>281.22000000000003</v>
+        <v>281.88000000000005</v>
       </c>
       <c r="G20" s="31">
         <v>1</v>
@@ -2297,7 +2306,7 @@
       </c>
       <c r="J20" s="33">
         <f>$D$16+(20*I20*fuel_flow!$B$2)</f>
-        <v>285.62</v>
+        <v>286.28000000000003</v>
       </c>
       <c r="M20" s="31">
         <v>2</v>
@@ -2309,11 +2318,12 @@
         <v>5</v>
       </c>
       <c r="P20" s="33">
-        <f ca="1">$P$16+(20*O20*fuel_flow!$B$2)</f>
-        <v>288.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>288.8</v>
+      </c>
+      <c r="R20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>1</v>
       </c>
@@ -2325,7 +2335,7 @@
       </c>
       <c r="D21" s="33">
         <f>$D$16+(20*C21*fuel_flow!$B$2)</f>
-        <v>285.62</v>
+        <v>286.28000000000003</v>
       </c>
       <c r="G21" s="31">
         <v>1</v>
@@ -2338,7 +2348,7 @@
       </c>
       <c r="J21" s="33">
         <f>$D$16+(20*I21*fuel_flow!$B$2)</f>
-        <v>290.02</v>
+        <v>290.68</v>
       </c>
       <c r="M21" s="31">
         <v>2</v>
@@ -2350,11 +2360,12 @@
         <v>6</v>
       </c>
       <c r="P21" s="33">
-        <f ca="1">$P$16+(20*O21*fuel_flow!$B$2)</f>
-        <v>292.53999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>293.2</v>
+      </c>
+      <c r="R21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>1</v>
       </c>
@@ -2366,7 +2377,7 @@
       </c>
       <c r="D22" s="33">
         <f>$D$16+(20*C22*fuel_flow!$B$2)</f>
-        <v>290.02</v>
+        <v>290.68</v>
       </c>
       <c r="G22" s="31">
         <v>1</v>
@@ -2379,7 +2390,7 @@
       </c>
       <c r="J22" s="33">
         <f>$D$16+(20*I22*fuel_flow!$B$2)</f>
-        <v>294.42</v>
+        <v>295.08000000000004</v>
       </c>
       <c r="M22" s="46">
         <v>2</v>
@@ -2391,10 +2402,12 @@
         <v>7</v>
       </c>
       <c r="P22" s="44">
-        <v>266.14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>297.60000000000002</v>
+      </c>
+      <c r="R22" s="41"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>1</v>
       </c>
@@ -2406,7 +2419,7 @@
       </c>
       <c r="D23" s="33">
         <f>$D$16+(20*C23*fuel_flow!$B$2)</f>
-        <v>294.42</v>
+        <v>295.08000000000004</v>
       </c>
       <c r="G23" s="31">
         <v>1</v>
@@ -2419,7 +2432,7 @@
       </c>
       <c r="J23" s="33">
         <f>$D$16+(20*I23*fuel_flow!$B$2)</f>
-        <v>298.82</v>
+        <v>299.48</v>
       </c>
       <c r="M23" s="31">
         <v>2</v>
@@ -2431,11 +2444,12 @@
         <v>1</v>
       </c>
       <c r="P23" s="33">
-        <f ca="1">$P$23+(O23*20*fuel_flow!$B$2)</f>
-        <v>119.74000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <f>J44</f>
+        <v>119.08000000000001</v>
+      </c>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1</v>
       </c>
@@ -2447,7 +2461,7 @@
       </c>
       <c r="D24" s="33">
         <f>$D$16+(20*C24*fuel_flow!$B$2)</f>
-        <v>298.82</v>
+        <v>299.48</v>
       </c>
       <c r="G24" s="31">
         <v>1</v>
@@ -2460,7 +2474,7 @@
       </c>
       <c r="J24" s="33">
         <f>$D$16+(20*I24*fuel_flow!$B$2)</f>
-        <v>303.22000000000003</v>
+        <v>303.88000000000005</v>
       </c>
       <c r="M24" s="31">
         <v>2</v>
@@ -2472,11 +2486,12 @@
         <v>2</v>
       </c>
       <c r="P24" s="33">
-        <f ca="1">$P$23+(O24*20*fuel_flow!$B$2)</f>
-        <v>124.14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P24:P29" si="3">J45</f>
+        <v>123.48</v>
+      </c>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>1</v>
       </c>
@@ -2488,7 +2503,7 @@
       </c>
       <c r="D25" s="33">
         <f>$D$16+(20*C25*fuel_flow!$B$2)</f>
-        <v>303.22000000000003</v>
+        <v>303.88000000000005</v>
       </c>
       <c r="G25" s="31">
         <v>1</v>
@@ -2501,7 +2516,7 @@
       </c>
       <c r="J25" s="33">
         <f>$D$16+(20*I25*fuel_flow!$B$2)</f>
-        <v>307.62</v>
+        <v>308.28000000000003</v>
       </c>
       <c r="M25" s="31">
         <v>2</v>
@@ -2513,11 +2528,12 @@
         <v>3</v>
       </c>
       <c r="P25" s="33">
-        <f ca="1">$P$23+(O25*20*fuel_flow!$B$2)</f>
-        <v>128.54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>127.88000000000001</v>
+      </c>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>1</v>
       </c>
@@ -2529,7 +2545,7 @@
       </c>
       <c r="D26" s="33">
         <f>$D$16+(20*C26*fuel_flow!$B$2)</f>
-        <v>307.62</v>
+        <v>308.28000000000003</v>
       </c>
       <c r="G26" s="31">
         <v>1</v>
@@ -2542,7 +2558,7 @@
       </c>
       <c r="J26" s="33">
         <f>$D$16+(20*I26*fuel_flow!$B$2)</f>
-        <v>312.02</v>
+        <v>312.68</v>
       </c>
       <c r="M26" s="31">
         <v>2</v>
@@ -2554,11 +2570,12 @@
         <v>4</v>
       </c>
       <c r="P26" s="33">
-        <f ca="1">$P$23+(O26*20*fuel_flow!$B$2)</f>
-        <v>132.94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>132.28</v>
+      </c>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>1</v>
       </c>
@@ -2570,7 +2587,7 @@
       </c>
       <c r="D27" s="33">
         <f>$D$16+(20*C27*fuel_flow!$B$2)</f>
-        <v>312.02</v>
+        <v>312.68</v>
       </c>
       <c r="G27" s="31">
         <v>1</v>
@@ -2583,7 +2600,7 @@
       </c>
       <c r="J27" s="33">
         <f>$D$16+(20*I27*fuel_flow!$B$2)</f>
-        <v>316.42</v>
+        <v>317.08000000000004</v>
       </c>
       <c r="M27" s="31">
         <v>2</v>
@@ -2595,11 +2612,12 @@
         <v>5</v>
       </c>
       <c r="P27" s="33">
-        <f ca="1">$P$23+(O27*20*fuel_flow!$B$2)</f>
-        <v>137.34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>136.68</v>
+      </c>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>1</v>
       </c>
@@ -2611,7 +2629,7 @@
       </c>
       <c r="D28" s="33">
         <f>$D$16+(20*C28*fuel_flow!$B$2)</f>
-        <v>316.42</v>
+        <v>317.08000000000004</v>
       </c>
       <c r="G28" s="31">
         <v>1</v>
@@ -2624,7 +2642,7 @@
       </c>
       <c r="J28" s="33">
         <f>$D$16+(20*I28*fuel_flow!$B$2)</f>
-        <v>320.82</v>
+        <v>321.48</v>
       </c>
       <c r="M28" s="31">
         <v>2</v>
@@ -2636,11 +2654,12 @@
         <v>6</v>
       </c>
       <c r="P28" s="33">
-        <f ca="1">$P$23+(O28*20*fuel_flow!$B$2)</f>
-        <v>141.74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>141.08000000000001</v>
+      </c>
+      <c r="R28" s="41"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43">
         <v>1</v>
       </c>
@@ -2652,7 +2671,7 @@
       </c>
       <c r="D29" s="44">
         <f>$D$16+(20*C29*fuel_flow!$B$2)</f>
-        <v>320.82</v>
+        <v>321.48</v>
       </c>
       <c r="G29" s="45">
         <v>1</v>
@@ -2664,7 +2683,8 @@
         <v>14</v>
       </c>
       <c r="J29" s="33">
-        <v>263.62</v>
+        <f>D16</f>
+        <v>264.28000000000003</v>
       </c>
       <c r="M29" s="45">
         <v>2</v>
@@ -2672,14 +2692,16 @@
       <c r="N29" s="41">
         <v>2</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="41">
         <v>7</v>
       </c>
       <c r="P29" s="33">
-        <v>115.34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>145.48000000000002</v>
+      </c>
+      <c r="R29" s="41"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>2</v>
       </c>
@@ -2691,7 +2713,7 @@
       </c>
       <c r="D30" s="33">
         <f>(t_to_RWY!B3*fuel_flow!B2)+(t_to_taxi!B3*fuel_flow!B3)</f>
-        <v>266.14</v>
+        <v>266.8</v>
       </c>
       <c r="G30" s="28">
         <v>2</v>
@@ -2704,7 +2726,7 @@
       </c>
       <c r="J30" s="30">
         <f>$D$30+(20*I30*fuel_flow!$B$2)</f>
-        <v>270.53999999999996</v>
+        <v>271.2</v>
       </c>
       <c r="M30" s="28">
         <v>3</v>
@@ -2716,11 +2738,11 @@
         <v>1</v>
       </c>
       <c r="P30" s="30">
-        <f ca="1">$P$30+(20*O30*fuel_flow!$C$2)</f>
-        <v>398.07000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <f>J58</f>
+        <v>399.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>2</v>
       </c>
@@ -2732,7 +2754,7 @@
       </c>
       <c r="D31" s="33">
         <f>$D$30+(20*C31*fuel_flow!$B$2)</f>
-        <v>270.53999999999996</v>
+        <v>271.2</v>
       </c>
       <c r="G31" s="31">
         <v>2</v>
@@ -2745,7 +2767,7 @@
       </c>
       <c r="J31" s="33">
         <f>$D$30+(20*I31*fuel_flow!$B$2)</f>
-        <v>274.94</v>
+        <v>275.60000000000002</v>
       </c>
       <c r="M31" s="31">
         <v>3</v>
@@ -2757,11 +2779,11 @@
         <v>2</v>
       </c>
       <c r="P31" s="33">
-        <f ca="1">$P$30+(20*O31*fuel_flow!$C$2)</f>
-        <v>408.67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P31:P36" si="4">J59</f>
+        <v>410.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>2</v>
       </c>
@@ -2773,7 +2795,7 @@
       </c>
       <c r="D32" s="33">
         <f>$D$30+(20*C32*fuel_flow!$B$2)</f>
-        <v>274.94</v>
+        <v>275.60000000000002</v>
       </c>
       <c r="G32" s="31">
         <v>2</v>
@@ -2786,7 +2808,7 @@
       </c>
       <c r="J32" s="33">
         <f>$D$30+(20*I32*fuel_flow!$B$2)</f>
-        <v>279.33999999999997</v>
+        <v>280</v>
       </c>
       <c r="M32" s="31">
         <v>3</v>
@@ -2798,8 +2820,8 @@
         <v>3</v>
       </c>
       <c r="P32" s="33">
-        <f ca="1">$P$30+(20*O32*fuel_flow!$C$2)</f>
-        <v>419.27000000000004</v>
+        <f t="shared" si="4"/>
+        <v>420.8</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2814,7 +2836,7 @@
       </c>
       <c r="D33" s="33">
         <f>$D$30+(20*C33*fuel_flow!$B$2)</f>
-        <v>279.33999999999997</v>
+        <v>280</v>
       </c>
       <c r="G33" s="31">
         <v>2</v>
@@ -2827,7 +2849,7 @@
       </c>
       <c r="J33" s="33">
         <f>$D$30+(20*I33*fuel_flow!$B$2)</f>
-        <v>283.74</v>
+        <v>284.40000000000003</v>
       </c>
       <c r="M33" s="31">
         <v>3</v>
@@ -2839,8 +2861,8 @@
         <v>4</v>
       </c>
       <c r="P33" s="33">
-        <f ca="1">$P$30+(20*O33*fuel_flow!$C$2)</f>
-        <v>429.87</v>
+        <f t="shared" si="4"/>
+        <v>431.4</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2855,7 +2877,7 @@
       </c>
       <c r="D34" s="33">
         <f>$D$30+(20*C34*fuel_flow!$B$2)</f>
-        <v>283.74</v>
+        <v>284.40000000000003</v>
       </c>
       <c r="G34" s="31">
         <v>2</v>
@@ -2868,7 +2890,7 @@
       </c>
       <c r="J34" s="33">
         <f>$D$30+(20*I34*fuel_flow!$B$2)</f>
-        <v>288.14</v>
+        <v>288.8</v>
       </c>
       <c r="M34" s="31">
         <v>3</v>
@@ -2880,8 +2902,8 @@
         <v>5</v>
       </c>
       <c r="P34" s="33">
-        <f ca="1">$P$30+(20*O34*fuel_flow!$C$2)</f>
-        <v>440.47</v>
+        <f t="shared" si="4"/>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2896,7 +2918,7 @@
       </c>
       <c r="D35" s="33">
         <f>$D$30+(20*C35*fuel_flow!$B$2)</f>
-        <v>288.14</v>
+        <v>288.8</v>
       </c>
       <c r="G35" s="31">
         <v>2</v>
@@ -2909,7 +2931,7 @@
       </c>
       <c r="J35" s="33">
         <f>$D$30+(20*I35*fuel_flow!$B$2)</f>
-        <v>292.53999999999996</v>
+        <v>293.2</v>
       </c>
       <c r="M35" s="31">
         <v>3</v>
@@ -2921,8 +2943,8 @@
         <v>6</v>
       </c>
       <c r="P35" s="33">
-        <f ca="1">$P$30+(20*O35*fuel_flow!$C$2)</f>
-        <v>451.07000000000005</v>
+        <f t="shared" si="4"/>
+        <v>452.6</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2937,7 +2959,7 @@
       </c>
       <c r="D36" s="33">
         <f>$D$30+(20*C36*fuel_flow!$B$2)</f>
-        <v>292.53999999999996</v>
+        <v>293.2</v>
       </c>
       <c r="G36" s="31">
         <v>2</v>
@@ -2950,7 +2972,7 @@
       </c>
       <c r="J36" s="33">
         <f>$D$30+(20*I36*fuel_flow!$B$2)</f>
-        <v>296.94</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="M36" s="46">
         <v>3</v>
@@ -2962,7 +2984,8 @@
         <v>7</v>
       </c>
       <c r="P36" s="44">
-        <v>387.47</v>
+        <f t="shared" si="4"/>
+        <v>463.2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2977,7 +3000,7 @@
       </c>
       <c r="D37" s="33">
         <f>$D$30+(20*C37*fuel_flow!$B$2)</f>
-        <v>296.94</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="G37" s="31">
         <v>2</v>
@@ -2990,7 +3013,7 @@
       </c>
       <c r="J37" s="33">
         <f>$D$30+(20*I37*fuel_flow!$B$2)</f>
-        <v>301.33999999999997</v>
+        <v>302</v>
       </c>
       <c r="M37" s="31">
         <v>3</v>
@@ -3002,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="33">
-        <f ca="1">$P$37+(20*O37*fuel_flow!$C$2)</f>
+        <f>J72</f>
         <v>573.50000000000011</v>
       </c>
     </row>
@@ -3018,7 +3041,7 @@
       </c>
       <c r="D38" s="33">
         <f>$D$30+(20*C38*fuel_flow!$B$2)</f>
-        <v>301.33999999999997</v>
+        <v>302</v>
       </c>
       <c r="G38" s="31">
         <v>2</v>
@@ -3031,7 +3054,7 @@
       </c>
       <c r="J38" s="33">
         <f>$D$30+(20*I38*fuel_flow!$B$2)</f>
-        <v>305.74</v>
+        <v>306.40000000000003</v>
       </c>
       <c r="M38" s="31">
         <v>3</v>
@@ -3043,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="P38" s="33">
-        <f ca="1">$P$37+(20*O38*fuel_flow!$C$2)</f>
+        <f t="shared" ref="P38:P43" si="5">J73</f>
         <v>584.10000000000014</v>
       </c>
     </row>
@@ -3059,7 +3082,7 @@
       </c>
       <c r="D39" s="33">
         <f>$D$30+(20*C39*fuel_flow!$B$2)</f>
-        <v>305.74</v>
+        <v>306.40000000000003</v>
       </c>
       <c r="G39" s="31">
         <v>2</v>
@@ -3072,7 +3095,7 @@
       </c>
       <c r="J39" s="33">
         <f>$D$30+(20*I39*fuel_flow!$B$2)</f>
-        <v>310.14</v>
+        <v>310.8</v>
       </c>
       <c r="M39" s="31">
         <v>3</v>
@@ -3084,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="33">
-        <f ca="1">$P$37+(20*O39*fuel_flow!$C$2)</f>
+        <f t="shared" si="5"/>
         <v>594.70000000000005</v>
       </c>
     </row>
@@ -3100,7 +3123,7 @@
       </c>
       <c r="D40" s="33">
         <f>$D$30+(20*C40*fuel_flow!$B$2)</f>
-        <v>310.14</v>
+        <v>310.8</v>
       </c>
       <c r="G40" s="31">
         <v>2</v>
@@ -3113,7 +3136,7 @@
       </c>
       <c r="J40" s="33">
         <f>$D$30+(20*I40*fuel_flow!$B$2)</f>
-        <v>314.53999999999996</v>
+        <v>315.2</v>
       </c>
       <c r="M40" s="31">
         <v>3</v>
@@ -3125,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="33">
-        <f ca="1">$P$37+(20*O40*fuel_flow!$C$2)</f>
+        <f t="shared" si="5"/>
         <v>605.30000000000007</v>
       </c>
     </row>
@@ -3141,7 +3164,7 @@
       </c>
       <c r="D41" s="33">
         <f>$D$30+(20*C41*fuel_flow!$B$2)</f>
-        <v>314.53999999999996</v>
+        <v>315.2</v>
       </c>
       <c r="G41" s="31">
         <v>2</v>
@@ -3154,7 +3177,7 @@
       </c>
       <c r="J41" s="33">
         <f>$D$30+(20*I41*fuel_flow!$B$2)</f>
-        <v>318.94</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="M41" s="31">
         <v>3</v>
@@ -3166,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="P41" s="33">
-        <f ca="1">$P$37+(20*O41*fuel_flow!$C$2)</f>
+        <f t="shared" si="5"/>
         <v>615.90000000000009</v>
       </c>
     </row>
@@ -3182,7 +3205,7 @@
       </c>
       <c r="D42" s="33">
         <f>$D$30+(20*C42*fuel_flow!$B$2)</f>
-        <v>318.94</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="G42" s="31">
         <v>2</v>
@@ -3195,7 +3218,7 @@
       </c>
       <c r="J42" s="33">
         <f>$D$30+(20*I42*fuel_flow!$B$2)</f>
-        <v>323.33999999999997</v>
+        <v>324</v>
       </c>
       <c r="M42" s="31">
         <v>3</v>
@@ -3207,7 +3230,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="33">
-        <f ca="1">$P$37+(20*O42*fuel_flow!$C$2)</f>
+        <f t="shared" si="5"/>
         <v>626.50000000000011</v>
       </c>
     </row>
@@ -3223,7 +3246,7 @@
       </c>
       <c r="D43" s="33">
         <f>$D$30+(20*C43*fuel_flow!$B$2)</f>
-        <v>323.33999999999997</v>
+        <v>324</v>
       </c>
       <c r="G43" s="46">
         <v>2</v>
@@ -3235,19 +3258,21 @@
         <v>14</v>
       </c>
       <c r="J43" s="44">
-        <v>266.14</v>
-      </c>
-      <c r="M43" s="45">
-        <v>3</v>
-      </c>
-      <c r="N43" s="41">
-        <v>2</v>
-      </c>
-      <c r="O43" s="42">
-        <v>7</v>
-      </c>
-      <c r="P43" s="33">
-        <v>562.90000000000009</v>
+        <f>D30</f>
+        <v>266.8</v>
+      </c>
+      <c r="M43" s="49">
+        <v>3</v>
+      </c>
+      <c r="N43" s="50">
+        <v>2</v>
+      </c>
+      <c r="O43" s="50">
+        <v>7</v>
+      </c>
+      <c r="P43" s="36">
+        <f t="shared" si="5"/>
+        <v>637.10000000000014</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3262,7 +3287,7 @@
       </c>
       <c r="D44" s="33">
         <f>(t_to_RWY!C3*fuel_flow!B2)+(t_to_taxi!C3*fuel_flow!B3)</f>
-        <v>115.34</v>
+        <v>114.68</v>
       </c>
       <c r="G44" s="31">
         <v>2</v>
@@ -3275,7 +3300,7 @@
       </c>
       <c r="J44" s="33">
         <f>$D$44+(I44*20*fuel_flow!$B$2)</f>
-        <v>119.74000000000001</v>
+        <v>119.08000000000001</v>
       </c>
       <c r="M44" s="51">
         <v>4</v>
@@ -3287,8 +3312,8 @@
         <v>1</v>
       </c>
       <c r="P44" s="30">
-        <f t="shared" ref="P44:P71" ca="1" si="0">P16</f>
-        <v>270.53999999999996</v>
+        <f>J86</f>
+        <v>271.2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3303,7 +3328,7 @@
       </c>
       <c r="D45" s="33">
         <f>$D$44+(C45*20*fuel_flow!$B$2)</f>
-        <v>119.74000000000001</v>
+        <v>119.08000000000001</v>
       </c>
       <c r="G45" s="31">
         <v>2</v>
@@ -3316,7 +3341,7 @@
       </c>
       <c r="J45" s="33">
         <f>$D$44+(I45*20*fuel_flow!$B$2)</f>
-        <v>124.14</v>
+        <v>123.48</v>
       </c>
       <c r="M45" s="45">
         <v>4</v>
@@ -3328,8 +3353,8 @@
         <v>2</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>274.94</v>
+        <f t="shared" ref="P45:P50" si="6">J87</f>
+        <v>275.60000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3344,7 +3369,7 @@
       </c>
       <c r="D46" s="33">
         <f>$D$44+(C46*20*fuel_flow!$B$2)</f>
-        <v>124.14</v>
+        <v>123.48</v>
       </c>
       <c r="G46" s="31">
         <v>2</v>
@@ -3357,7 +3382,7 @@
       </c>
       <c r="J46" s="33">
         <f>$D$44+(I46*20*fuel_flow!$B$2)</f>
-        <v>128.54</v>
+        <v>127.88000000000001</v>
       </c>
       <c r="M46" s="45">
         <v>4</v>
@@ -3369,8 +3394,8 @@
         <v>3</v>
       </c>
       <c r="P46" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>279.33999999999997</v>
+        <f t="shared" si="6"/>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3385,7 +3410,7 @@
       </c>
       <c r="D47" s="33">
         <f>$D$44+(C47*20*fuel_flow!$B$2)</f>
-        <v>128.54</v>
+        <v>127.88000000000001</v>
       </c>
       <c r="G47" s="31">
         <v>2</v>
@@ -3398,7 +3423,7 @@
       </c>
       <c r="J47" s="33">
         <f>$D$44+(I47*20*fuel_flow!$B$2)</f>
-        <v>132.94</v>
+        <v>132.28</v>
       </c>
       <c r="M47" s="45">
         <v>4</v>
@@ -3410,8 +3435,8 @@
         <v>4</v>
       </c>
       <c r="P47" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>283.74</v>
+        <f t="shared" si="6"/>
+        <v>284.40000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3426,7 +3451,7 @@
       </c>
       <c r="D48" s="33">
         <f>$D$44+(C48*20*fuel_flow!$B$2)</f>
-        <v>132.94</v>
+        <v>132.28</v>
       </c>
       <c r="G48" s="31">
         <v>2</v>
@@ -3439,7 +3464,7 @@
       </c>
       <c r="J48" s="33">
         <f>$D$44+(I48*20*fuel_flow!$B$2)</f>
-        <v>137.34</v>
+        <v>136.68</v>
       </c>
       <c r="M48" s="45">
         <v>4</v>
@@ -3451,8 +3476,8 @@
         <v>5</v>
       </c>
       <c r="P48" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>288.14</v>
+        <f t="shared" si="6"/>
+        <v>288.8</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3467,7 +3492,7 @@
       </c>
       <c r="D49" s="33">
         <f>$D$44+(C49*20*fuel_flow!$B$2)</f>
-        <v>137.34</v>
+        <v>136.68</v>
       </c>
       <c r="G49" s="31">
         <v>2</v>
@@ -3480,7 +3505,7 @@
       </c>
       <c r="J49" s="33">
         <f>$D$44+(I49*20*fuel_flow!$B$2)</f>
-        <v>141.74</v>
+        <v>141.08000000000001</v>
       </c>
       <c r="M49" s="45">
         <v>4</v>
@@ -3492,8 +3517,8 @@
         <v>6</v>
       </c>
       <c r="P49" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>292.53999999999996</v>
+        <f t="shared" si="6"/>
+        <v>293.2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3508,7 +3533,7 @@
       </c>
       <c r="D50" s="33">
         <f>$D$44+(C50*20*fuel_flow!$B$2)</f>
-        <v>141.74</v>
+        <v>141.08000000000001</v>
       </c>
       <c r="G50" s="31">
         <v>2</v>
@@ -3521,7 +3546,7 @@
       </c>
       <c r="J50" s="33">
         <f>$D$44+(I50*20*fuel_flow!$B$2)</f>
-        <v>146.14000000000001</v>
+        <v>145.48000000000002</v>
       </c>
       <c r="M50" s="43">
         <v>4</v>
@@ -3533,8 +3558,8 @@
         <v>7</v>
       </c>
       <c r="P50" s="44">
-        <f t="shared" si="0"/>
-        <v>266.14</v>
+        <f t="shared" si="6"/>
+        <v>297.60000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3549,7 +3574,7 @@
       </c>
       <c r="D51" s="33">
         <f>$D$44+(C51*20*fuel_flow!$B$2)</f>
-        <v>146.14000000000001</v>
+        <v>145.48000000000002</v>
       </c>
       <c r="G51" s="31">
         <v>2</v>
@@ -3562,7 +3587,7 @@
       </c>
       <c r="J51" s="33">
         <f>$D$44+(I51*20*fuel_flow!$B$2)</f>
-        <v>150.54000000000002</v>
+        <v>149.88</v>
       </c>
       <c r="M51" s="45">
         <v>4</v>
@@ -3574,8 +3599,8 @@
         <v>1</v>
       </c>
       <c r="P51" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>119.74000000000001</v>
+        <f>J100</f>
+        <v>119.08000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3590,7 +3615,7 @@
       </c>
       <c r="D52" s="33">
         <f>$D$44+(C52*20*fuel_flow!$B$2)</f>
-        <v>150.54000000000002</v>
+        <v>149.88</v>
       </c>
       <c r="G52" s="31">
         <v>2</v>
@@ -3603,7 +3628,7 @@
       </c>
       <c r="J52" s="33">
         <f>$D$44+(I52*20*fuel_flow!$B$2)</f>
-        <v>154.94</v>
+        <v>154.28</v>
       </c>
       <c r="M52" s="45">
         <v>4</v>
@@ -3615,8 +3640,8 @@
         <v>2</v>
       </c>
       <c r="P52" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>124.14</v>
+        <f t="shared" ref="P52:P57" si="7">J101</f>
+        <v>123.48</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3631,7 +3656,7 @@
       </c>
       <c r="D53" s="33">
         <f>$D$44+(C53*20*fuel_flow!$B$2)</f>
-        <v>154.94</v>
+        <v>154.28</v>
       </c>
       <c r="G53" s="31">
         <v>2</v>
@@ -3644,7 +3669,7 @@
       </c>
       <c r="J53" s="33">
         <f>$D$44+(I53*20*fuel_flow!$B$2)</f>
-        <v>159.34</v>
+        <v>158.68</v>
       </c>
       <c r="M53" s="45">
         <v>4</v>
@@ -3656,8 +3681,8 @@
         <v>3</v>
       </c>
       <c r="P53" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>128.54</v>
+        <f t="shared" si="7"/>
+        <v>127.88000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3672,7 +3697,7 @@
       </c>
       <c r="D54" s="33">
         <f>$D$44+(C54*20*fuel_flow!$B$2)</f>
-        <v>159.34</v>
+        <v>158.68</v>
       </c>
       <c r="G54" s="31">
         <v>2</v>
@@ -3685,7 +3710,7 @@
       </c>
       <c r="J54" s="33">
         <f>$D$44+(I54*20*fuel_flow!$B$2)</f>
-        <v>163.74</v>
+        <v>163.08000000000001</v>
       </c>
       <c r="M54" s="45">
         <v>4</v>
@@ -3697,8 +3722,8 @@
         <v>4</v>
       </c>
       <c r="P54" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>132.94</v>
+        <f t="shared" si="7"/>
+        <v>132.28</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3713,7 +3738,7 @@
       </c>
       <c r="D55" s="33">
         <f>$D$44+(C55*20*fuel_flow!$B$2)</f>
-        <v>163.74</v>
+        <v>163.08000000000001</v>
       </c>
       <c r="G55" s="31">
         <v>2</v>
@@ -3726,7 +3751,7 @@
       </c>
       <c r="J55" s="33">
         <f>$D$44+(I55*20*fuel_flow!$B$2)</f>
-        <v>168.14</v>
+        <v>167.48000000000002</v>
       </c>
       <c r="M55" s="45">
         <v>4</v>
@@ -3738,8 +3763,8 @@
         <v>5</v>
       </c>
       <c r="P55" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>137.34</v>
+        <f t="shared" si="7"/>
+        <v>136.68</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3754,7 +3779,7 @@
       </c>
       <c r="D56" s="33">
         <f>$D$44+(C56*20*fuel_flow!$B$2)</f>
-        <v>168.14</v>
+        <v>167.48000000000002</v>
       </c>
       <c r="G56" s="31">
         <v>2</v>
@@ -3767,7 +3792,7 @@
       </c>
       <c r="J56" s="33">
         <f>$D$44+(I56*20*fuel_flow!$B$2)</f>
-        <v>172.54000000000002</v>
+        <v>171.88</v>
       </c>
       <c r="M56" s="45">
         <v>4</v>
@@ -3779,8 +3804,8 @@
         <v>6</v>
       </c>
       <c r="P56" s="33">
-        <f t="shared" ca="1" si="0"/>
-        <v>141.74</v>
+        <f t="shared" si="7"/>
+        <v>141.08000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3795,7 +3820,7 @@
       </c>
       <c r="D57" s="44">
         <f>$D$44+(C57*20*fuel_flow!$B$2)</f>
-        <v>172.54000000000002</v>
+        <v>171.88</v>
       </c>
       <c r="G57" s="45">
         <v>2</v>
@@ -3807,20 +3832,21 @@
         <v>14</v>
       </c>
       <c r="J57" s="33">
-        <v>115.34</v>
-      </c>
-      <c r="M57" s="34">
-        <v>4</v>
-      </c>
-      <c r="N57" s="35">
-        <v>2</v>
-      </c>
-      <c r="O57" s="50">
-        <v>7</v>
-      </c>
-      <c r="P57" s="36">
-        <f t="shared" si="0"/>
-        <v>115.34</v>
+        <f>D44</f>
+        <v>114.68</v>
+      </c>
+      <c r="M57" s="31">
+        <v>4</v>
+      </c>
+      <c r="N57" s="32">
+        <v>2</v>
+      </c>
+      <c r="O57" s="41">
+        <v>7</v>
+      </c>
+      <c r="P57" s="33">
+        <f t="shared" si="7"/>
+        <v>145.48000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3834,8 +3860,8 @@
         <v>0</v>
       </c>
       <c r="D58" s="33">
-        <f>(t_to_RWY!B2*fuel_flow!C2)+(t_to_taxi!C2*fuel_flow!C3)</f>
-        <v>387.47</v>
+        <f>(t_to_RWY!B2*fuel_flow!C2)+(t_to_taxi!B2*fuel_flow!C3)</f>
+        <v>389</v>
       </c>
       <c r="G58" s="28">
         <v>3</v>
@@ -3848,20 +3874,20 @@
       </c>
       <c r="J58" s="30">
         <f>$D$58+(20*I58*fuel_flow!$C$2)</f>
-        <v>398.07000000000005</v>
-      </c>
-      <c r="M58" s="45">
-        <v>5</v>
-      </c>
-      <c r="N58" s="41">
-        <v>1</v>
-      </c>
-      <c r="O58" s="41">
-        <v>1</v>
-      </c>
-      <c r="P58" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>398.07000000000005</v>
+        <v>399.6</v>
+      </c>
+      <c r="M58" s="51">
+        <v>5</v>
+      </c>
+      <c r="N58" s="52">
+        <v>1</v>
+      </c>
+      <c r="O58" s="52">
+        <v>1</v>
+      </c>
+      <c r="P58" s="56">
+        <f>J114</f>
+        <v>399.6</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3876,7 +3902,7 @@
       </c>
       <c r="D59" s="33">
         <f>$D$58+(20*C59*fuel_flow!$C$2)</f>
-        <v>398.07000000000005</v>
+        <v>399.6</v>
       </c>
       <c r="G59" s="31">
         <v>3</v>
@@ -3889,7 +3915,7 @@
       </c>
       <c r="J59" s="33">
         <f>$D$58+(20*I59*fuel_flow!$C$2)</f>
-        <v>408.67</v>
+        <v>410.2</v>
       </c>
       <c r="M59" s="45">
         <v>5</v>
@@ -3901,8 +3927,8 @@
         <v>2</v>
       </c>
       <c r="P59" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>408.67</v>
+        <f t="shared" ref="P59:P64" si="8">J115</f>
+        <v>410.2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3917,7 +3943,7 @@
       </c>
       <c r="D60" s="33">
         <f>$D$58+(20*C60*fuel_flow!$C$2)</f>
-        <v>408.67</v>
+        <v>410.2</v>
       </c>
       <c r="G60" s="31">
         <v>3</v>
@@ -3930,7 +3956,7 @@
       </c>
       <c r="J60" s="33">
         <f>$D$58+(20*I60*fuel_flow!$C$2)</f>
-        <v>419.27000000000004</v>
+        <v>420.8</v>
       </c>
       <c r="M60" s="45">
         <v>5</v>
@@ -3942,8 +3968,8 @@
         <v>3</v>
       </c>
       <c r="P60" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>419.27000000000004</v>
+        <f t="shared" si="8"/>
+        <v>420.8</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3958,7 +3984,7 @@
       </c>
       <c r="D61" s="33">
         <f>$D$58+(20*C61*fuel_flow!$C$2)</f>
-        <v>419.27000000000004</v>
+        <v>420.8</v>
       </c>
       <c r="G61" s="31">
         <v>3</v>
@@ -3971,7 +3997,7 @@
       </c>
       <c r="J61" s="33">
         <f>$D$58+(20*I61*fuel_flow!$C$2)</f>
-        <v>429.87</v>
+        <v>431.4</v>
       </c>
       <c r="M61" s="45">
         <v>5</v>
@@ -3983,8 +4009,8 @@
         <v>4</v>
       </c>
       <c r="P61" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>429.87</v>
+        <f t="shared" si="8"/>
+        <v>431.4</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3999,7 +4025,7 @@
       </c>
       <c r="D62" s="33">
         <f>$D$58+(20*C62*fuel_flow!$C$2)</f>
-        <v>429.87</v>
+        <v>431.4</v>
       </c>
       <c r="G62" s="31">
         <v>3</v>
@@ -4012,7 +4038,7 @@
       </c>
       <c r="J62" s="33">
         <f>$D$58+(20*I62*fuel_flow!$C$2)</f>
-        <v>440.47</v>
+        <v>442</v>
       </c>
       <c r="M62" s="45">
         <v>5</v>
@@ -4024,8 +4050,8 @@
         <v>5</v>
       </c>
       <c r="P62" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>440.47</v>
+        <f t="shared" si="8"/>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4040,7 +4066,7 @@
       </c>
       <c r="D63" s="33">
         <f>$D$58+(20*C63*fuel_flow!$C$2)</f>
-        <v>440.47</v>
+        <v>442</v>
       </c>
       <c r="G63" s="31">
         <v>3</v>
@@ -4053,7 +4079,7 @@
       </c>
       <c r="J63" s="33">
         <f>$D$58+(20*I63*fuel_flow!$C$2)</f>
-        <v>451.07000000000005</v>
+        <v>452.6</v>
       </c>
       <c r="M63" s="45">
         <v>5</v>
@@ -4065,8 +4091,8 @@
         <v>6</v>
       </c>
       <c r="P63" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>451.07000000000005</v>
+        <f t="shared" si="8"/>
+        <v>452.6</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4081,7 +4107,7 @@
       </c>
       <c r="D64" s="33">
         <f>$D$58+(20*C64*fuel_flow!$C$2)</f>
-        <v>451.07000000000005</v>
+        <v>452.6</v>
       </c>
       <c r="G64" s="31">
         <v>3</v>
@@ -4094,7 +4120,7 @@
       </c>
       <c r="J64" s="33">
         <f>$D$58+(20*I64*fuel_flow!$C$2)</f>
-        <v>461.67</v>
+        <v>463.2</v>
       </c>
       <c r="M64" s="43">
         <v>5</v>
@@ -4106,8 +4132,8 @@
         <v>7</v>
       </c>
       <c r="P64" s="48">
-        <f t="shared" si="0"/>
-        <v>387.47</v>
+        <f t="shared" si="8"/>
+        <v>463.2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4122,7 +4148,7 @@
       </c>
       <c r="D65" s="33">
         <f>$D$58+(20*C65*fuel_flow!$C$2)</f>
-        <v>461.67</v>
+        <v>463.2</v>
       </c>
       <c r="G65" s="31">
         <v>3</v>
@@ -4135,7 +4161,7 @@
       </c>
       <c r="J65" s="33">
         <f>$D$58+(20*I65*fuel_flow!$C$2)</f>
-        <v>472.27000000000004</v>
+        <v>473.8</v>
       </c>
       <c r="M65" s="45">
         <v>5</v>
@@ -4147,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="P65" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f>J128</f>
         <v>573.50000000000011</v>
       </c>
     </row>
@@ -4163,7 +4189,7 @@
       </c>
       <c r="D66" s="33">
         <f>$D$58+(20*C66*fuel_flow!$C$2)</f>
-        <v>472.27000000000004</v>
+        <v>473.8</v>
       </c>
       <c r="G66" s="31">
         <v>3</v>
@@ -4176,7 +4202,7 @@
       </c>
       <c r="J66" s="33">
         <f>$D$58+(20*I66*fuel_flow!$C$2)</f>
-        <v>482.87</v>
+        <v>484.4</v>
       </c>
       <c r="M66" s="45">
         <v>5</v>
@@ -4188,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="P66:P71" si="9">J129</f>
         <v>584.10000000000014</v>
       </c>
     </row>
@@ -4204,7 +4230,7 @@
       </c>
       <c r="D67" s="33">
         <f>$D$58+(20*C67*fuel_flow!$C$2)</f>
-        <v>482.87</v>
+        <v>484.4</v>
       </c>
       <c r="G67" s="31">
         <v>3</v>
@@ -4217,7 +4243,7 @@
       </c>
       <c r="J67" s="33">
         <f>$D$58+(20*I67*fuel_flow!$C$2)</f>
-        <v>493.47</v>
+        <v>495</v>
       </c>
       <c r="M67" s="45">
         <v>5</v>
@@ -4229,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="9"/>
         <v>594.70000000000005</v>
       </c>
     </row>
@@ -4245,7 +4271,7 @@
       </c>
       <c r="D68" s="33">
         <f>$D$58+(20*C68*fuel_flow!$C$2)</f>
-        <v>493.47</v>
+        <v>495</v>
       </c>
       <c r="G68" s="31">
         <v>3</v>
@@ -4258,7 +4284,7 @@
       </c>
       <c r="J68" s="33">
         <f>$D$58+(20*I68*fuel_flow!$C$2)</f>
-        <v>504.07000000000005</v>
+        <v>505.6</v>
       </c>
       <c r="M68" s="45">
         <v>5</v>
@@ -4270,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="P68" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="9"/>
         <v>605.30000000000007</v>
       </c>
     </row>
@@ -4286,7 +4312,7 @@
       </c>
       <c r="D69" s="33">
         <f>$D$58+(20*C69*fuel_flow!$C$2)</f>
-        <v>504.07000000000005</v>
+        <v>505.6</v>
       </c>
       <c r="G69" s="31">
         <v>3</v>
@@ -4299,7 +4325,7 @@
       </c>
       <c r="J69" s="33">
         <f>$D$58+(20*I69*fuel_flow!$C$2)</f>
-        <v>514.67000000000007</v>
+        <v>516.20000000000005</v>
       </c>
       <c r="M69" s="45">
         <v>5</v>
@@ -4311,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="P69" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="9"/>
         <v>615.90000000000009</v>
       </c>
     </row>
@@ -4327,7 +4353,7 @@
       </c>
       <c r="D70" s="33">
         <f>$D$58+(20*C70*fuel_flow!$C$2)</f>
-        <v>514.67000000000007</v>
+        <v>516.20000000000005</v>
       </c>
       <c r="G70" s="31">
         <v>3</v>
@@ -4340,7 +4366,7 @@
       </c>
       <c r="J70" s="33">
         <f>$D$58+(20*I70*fuel_flow!$C$2)</f>
-        <v>525.27</v>
+        <v>526.79999999999995</v>
       </c>
       <c r="M70" s="45">
         <v>5</v>
@@ -4352,7 +4378,7 @@
         <v>6</v>
       </c>
       <c r="P70" s="47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="9"/>
         <v>626.50000000000011</v>
       </c>
     </row>
@@ -4368,7 +4394,7 @@
       </c>
       <c r="D71" s="33">
         <f>$D$58+(20*C71*fuel_flow!$C$2)</f>
-        <v>525.27</v>
+        <v>526.79999999999995</v>
       </c>
       <c r="G71" s="46">
         <v>3</v>
@@ -4380,7 +4406,8 @@
         <v>14</v>
       </c>
       <c r="J71" s="44">
-        <v>387.47</v>
+        <f>D58</f>
+        <v>389</v>
       </c>
       <c r="M71" s="34">
         <v>5</v>
@@ -4392,8 +4419,8 @@
         <v>7</v>
       </c>
       <c r="P71" s="53">
-        <f t="shared" si="0"/>
-        <v>562.90000000000009</v>
+        <f t="shared" si="9"/>
+        <v>637.10000000000014</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4423,18 +4450,18 @@
         <f>$D$72+(20*I72*fuel_flow!$C$2)</f>
         <v>573.50000000000011</v>
       </c>
-      <c r="M72" s="45">
-        <v>6</v>
-      </c>
-      <c r="N72" s="41">
-        <v>1</v>
-      </c>
-      <c r="O72" s="41">
-        <v>1</v>
-      </c>
-      <c r="P72" s="47">
-        <f t="shared" ref="P72:P77" si="1">P2</f>
-        <v>151.51999999999998</v>
+      <c r="M72" s="51">
+        <v>6</v>
+      </c>
+      <c r="N72" s="52">
+        <v>1</v>
+      </c>
+      <c r="O72" s="52">
+        <v>1</v>
+      </c>
+      <c r="P72" s="56">
+        <f>J142</f>
+        <v>152.4</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4474,8 +4501,8 @@
         <v>2</v>
       </c>
       <c r="P73" s="47">
-        <f t="shared" si="1"/>
-        <v>155.91999999999999</v>
+        <f t="shared" ref="P73:P78" si="10">J143</f>
+        <v>156.80000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4515,8 +4542,8 @@
         <v>3</v>
       </c>
       <c r="P74" s="47">
-        <f t="shared" si="1"/>
-        <v>160.31999999999996</v>
+        <f t="shared" si="10"/>
+        <v>161.19999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4556,8 +4583,8 @@
         <v>4</v>
       </c>
       <c r="P75" s="47">
-        <f t="shared" si="1"/>
-        <v>164.71999999999997</v>
+        <f t="shared" si="10"/>
+        <v>165.6</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4597,8 +4624,8 @@
         <v>5</v>
       </c>
       <c r="P76" s="47">
-        <f t="shared" si="1"/>
-        <v>169.11999999999998</v>
+        <f t="shared" si="10"/>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4638,8 +4665,8 @@
         <v>6</v>
       </c>
       <c r="P77" s="47">
-        <f t="shared" si="1"/>
-        <v>173.51999999999998</v>
+        <f t="shared" si="10"/>
+        <v>174.4</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4678,8 +4705,9 @@
       <c r="O78" s="42">
         <v>7</v>
       </c>
-      <c r="P78" s="48">
-        <v>147.11999999999998</v>
+      <c r="P78" s="47">
+        <f t="shared" si="10"/>
+        <v>178.8</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4719,8 +4747,8 @@
         <v>1</v>
       </c>
       <c r="P79" s="47">
-        <f t="shared" ref="P79:P84" ca="1" si="2">P9</f>
-        <v>268.02</v>
+        <f>J156</f>
+        <v>268.68</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4760,8 +4788,8 @@
         <v>2</v>
       </c>
       <c r="P80" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>272.42</v>
+        <f t="shared" ref="P80:P85" si="11">J157</f>
+        <v>273.08000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4801,8 +4829,8 @@
         <v>3</v>
       </c>
       <c r="P81" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>276.82</v>
+        <f t="shared" si="11"/>
+        <v>277.48</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4842,8 +4870,8 @@
         <v>4</v>
       </c>
       <c r="P82" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>281.22000000000003</v>
+        <f t="shared" si="11"/>
+        <v>281.88000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4883,8 +4911,8 @@
         <v>5</v>
       </c>
       <c r="P83" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>285.62</v>
+        <f t="shared" si="11"/>
+        <v>286.28000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4924,8 +4952,8 @@
         <v>6</v>
       </c>
       <c r="P84" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>290.02</v>
+        <f t="shared" si="11"/>
+        <v>290.68</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4952,6 +4980,7 @@
         <v>14</v>
       </c>
       <c r="J85" s="33">
+        <f>D72</f>
         <v>562.90000000000009</v>
       </c>
       <c r="M85" s="34">
@@ -4963,8 +4992,9 @@
       <c r="O85" s="50">
         <v>7</v>
       </c>
-      <c r="P85" s="36">
-        <v>263.62</v>
+      <c r="P85" s="53">
+        <f t="shared" si="11"/>
+        <v>295.08000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4979,7 +5009,7 @@
       </c>
       <c r="D86" s="33">
         <f>D30</f>
-        <v>266.14</v>
+        <v>266.8</v>
       </c>
       <c r="G86" s="51">
         <v>4</v>
@@ -4991,21 +5021,21 @@
         <v>1</v>
       </c>
       <c r="J86" s="30">
-        <f t="shared" ref="J86:J112" si="3">J30</f>
-        <v>270.53999999999996</v>
-      </c>
-      <c r="M86" s="45">
-        <v>7</v>
-      </c>
-      <c r="N86" s="41">
-        <v>1</v>
-      </c>
-      <c r="O86" s="41">
-        <v>1</v>
-      </c>
-      <c r="P86" s="47">
-        <f ca="1">$P$86+(20*O86*fuel_flow!$C$2)</f>
-        <v>652.41000000000008</v>
+        <f t="shared" ref="J86:J112" si="12">J30</f>
+        <v>271.2</v>
+      </c>
+      <c r="M86" s="51">
+        <v>7</v>
+      </c>
+      <c r="N86" s="52">
+        <v>1</v>
+      </c>
+      <c r="O86" s="52">
+        <v>1</v>
+      </c>
+      <c r="P86" s="56">
+        <f>J170</f>
+        <v>654</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5019,8 +5049,8 @@
         <v>1</v>
       </c>
       <c r="D87" s="33">
-        <f t="shared" ref="D87:D113" si="4">D31</f>
-        <v>270.53999999999996</v>
+        <f t="shared" ref="D87:D99" si="13">D31</f>
+        <v>271.2</v>
       </c>
       <c r="G87" s="45">
         <v>4</v>
@@ -5032,8 +5062,8 @@
         <v>2</v>
       </c>
       <c r="J87" s="33">
-        <f t="shared" si="3"/>
-        <v>274.94</v>
+        <f t="shared" si="12"/>
+        <v>275.60000000000002</v>
       </c>
       <c r="M87" s="45">
         <v>7</v>
@@ -5045,8 +5075,8 @@
         <v>2</v>
       </c>
       <c r="P87" s="47">
-        <f ca="1">$P$86+(20*O87*fuel_flow!$C$2)</f>
-        <v>663.0100000000001</v>
+        <f t="shared" ref="P87:P92" si="14">J171</f>
+        <v>664.6</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5060,8 +5090,8 @@
         <v>2</v>
       </c>
       <c r="D88" s="33">
-        <f t="shared" si="4"/>
-        <v>274.94</v>
+        <f t="shared" si="13"/>
+        <v>275.60000000000002</v>
       </c>
       <c r="G88" s="45">
         <v>4</v>
@@ -5073,8 +5103,8 @@
         <v>3</v>
       </c>
       <c r="J88" s="33">
-        <f t="shared" si="3"/>
-        <v>279.33999999999997</v>
+        <f t="shared" si="12"/>
+        <v>280</v>
       </c>
       <c r="M88" s="45">
         <v>7</v>
@@ -5086,8 +5116,8 @@
         <v>3</v>
       </c>
       <c r="P88" s="47">
-        <f ca="1">$P$86+(20*O88*fuel_flow!$C$2)</f>
-        <v>673.61</v>
+        <f t="shared" si="14"/>
+        <v>675.19999999999993</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5101,8 +5131,8 @@
         <v>3</v>
       </c>
       <c r="D89" s="33">
-        <f t="shared" si="4"/>
-        <v>279.33999999999997</v>
+        <f t="shared" si="13"/>
+        <v>280</v>
       </c>
       <c r="G89" s="45">
         <v>4</v>
@@ -5114,8 +5144,8 @@
         <v>4</v>
       </c>
       <c r="J89" s="33">
-        <f t="shared" si="3"/>
-        <v>283.74</v>
+        <f t="shared" si="12"/>
+        <v>284.40000000000003</v>
       </c>
       <c r="M89" s="45">
         <v>7</v>
@@ -5127,8 +5157,8 @@
         <v>4</v>
       </c>
       <c r="P89" s="47">
-        <f ca="1">$P$86+(20*O89*fuel_flow!$C$2)</f>
-        <v>684.21</v>
+        <f t="shared" si="14"/>
+        <v>685.8</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5142,8 +5172,8 @@
         <v>4</v>
       </c>
       <c r="D90" s="33">
-        <f t="shared" si="4"/>
-        <v>283.74</v>
+        <f t="shared" si="13"/>
+        <v>284.40000000000003</v>
       </c>
       <c r="G90" s="45">
         <v>4</v>
@@ -5155,8 +5185,8 @@
         <v>5</v>
       </c>
       <c r="J90" s="33">
-        <f t="shared" si="3"/>
-        <v>288.14</v>
+        <f t="shared" si="12"/>
+        <v>288.8</v>
       </c>
       <c r="M90" s="45">
         <v>7</v>
@@ -5168,8 +5198,8 @@
         <v>5</v>
       </c>
       <c r="P90" s="47">
-        <f ca="1">$P$86+(20*O90*fuel_flow!$C$2)</f>
-        <v>694.81000000000006</v>
+        <f t="shared" si="14"/>
+        <v>696.4</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5183,8 +5213,8 @@
         <v>5</v>
       </c>
       <c r="D91" s="33">
-        <f t="shared" si="4"/>
-        <v>288.14</v>
+        <f t="shared" si="13"/>
+        <v>288.8</v>
       </c>
       <c r="G91" s="45">
         <v>4</v>
@@ -5196,8 +5226,8 @@
         <v>6</v>
       </c>
       <c r="J91" s="33">
-        <f t="shared" si="3"/>
-        <v>292.53999999999996</v>
+        <f t="shared" si="12"/>
+        <v>293.2</v>
       </c>
       <c r="M91" s="45">
         <v>7</v>
@@ -5209,8 +5239,8 @@
         <v>6</v>
       </c>
       <c r="P91" s="47">
-        <f ca="1">$P$86+(20*O91*fuel_flow!$C$2)</f>
-        <v>705.41000000000008</v>
+        <f t="shared" si="14"/>
+        <v>707</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5224,8 +5254,8 @@
         <v>6</v>
       </c>
       <c r="D92" s="33">
-        <f t="shared" si="4"/>
-        <v>292.53999999999996</v>
+        <f t="shared" si="13"/>
+        <v>293.2</v>
       </c>
       <c r="G92" s="45">
         <v>4</v>
@@ -5237,8 +5267,8 @@
         <v>7</v>
       </c>
       <c r="J92" s="33">
-        <f t="shared" si="3"/>
-        <v>296.94</v>
+        <f t="shared" si="12"/>
+        <v>297.60000000000002</v>
       </c>
       <c r="M92" s="43">
         <v>7</v>
@@ -5249,8 +5279,9 @@
       <c r="O92" s="42">
         <v>7</v>
       </c>
-      <c r="P92" s="44">
-        <v>641.81000000000006</v>
+      <c r="P92" s="48">
+        <f t="shared" si="14"/>
+        <v>717.6</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5264,8 +5295,8 @@
         <v>7</v>
       </c>
       <c r="D93" s="33">
-        <f t="shared" si="4"/>
-        <v>296.94</v>
+        <f t="shared" si="13"/>
+        <v>297.60000000000002</v>
       </c>
       <c r="G93" s="45">
         <v>4</v>
@@ -5277,8 +5308,8 @@
         <v>8</v>
       </c>
       <c r="J93" s="33">
-        <f t="shared" si="3"/>
-        <v>301.33999999999997</v>
+        <f t="shared" si="12"/>
+        <v>302</v>
       </c>
       <c r="M93" s="45">
         <v>7</v>
@@ -5290,8 +5321,8 @@
         <v>1</v>
       </c>
       <c r="P93" s="47">
-        <f ca="1">$P$93+(20*O93*fuel_flow!$C$2)</f>
-        <v>288.89000000000004</v>
+        <f>J184</f>
+        <v>287.3</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5305,8 +5336,8 @@
         <v>8</v>
       </c>
       <c r="D94" s="33">
-        <f t="shared" si="4"/>
-        <v>301.33999999999997</v>
+        <f t="shared" si="13"/>
+        <v>302</v>
       </c>
       <c r="G94" s="45">
         <v>4</v>
@@ -5318,8 +5349,8 @@
         <v>9</v>
       </c>
       <c r="J94" s="33">
-        <f t="shared" si="3"/>
-        <v>305.74</v>
+        <f t="shared" si="12"/>
+        <v>306.40000000000003</v>
       </c>
       <c r="M94" s="45">
         <v>7</v>
@@ -5331,8 +5362,8 @@
         <v>2</v>
       </c>
       <c r="P94" s="47">
-        <f ca="1">$P$93+(20*O94*fuel_flow!$C$2)</f>
-        <v>299.49</v>
+        <f t="shared" ref="P94:P99" si="15">J185</f>
+        <v>297.89999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5346,8 +5377,8 @@
         <v>9</v>
       </c>
       <c r="D95" s="33">
-        <f t="shared" si="4"/>
-        <v>305.74</v>
+        <f t="shared" si="13"/>
+        <v>306.40000000000003</v>
       </c>
       <c r="G95" s="45">
         <v>4</v>
@@ -5359,8 +5390,8 @@
         <v>10</v>
       </c>
       <c r="J95" s="33">
-        <f t="shared" si="3"/>
-        <v>310.14</v>
+        <f t="shared" si="12"/>
+        <v>310.8</v>
       </c>
       <c r="M95" s="45">
         <v>7</v>
@@ -5372,8 +5403,8 @@
         <v>3</v>
       </c>
       <c r="P95" s="47">
-        <f ca="1">$P$93+(20*O95*fuel_flow!$C$2)</f>
-        <v>310.09000000000003</v>
+        <f t="shared" si="15"/>
+        <v>308.5</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5387,8 +5418,8 @@
         <v>10</v>
       </c>
       <c r="D96" s="33">
-        <f t="shared" si="4"/>
-        <v>310.14</v>
+        <f t="shared" si="13"/>
+        <v>310.8</v>
       </c>
       <c r="G96" s="45">
         <v>4</v>
@@ -5400,8 +5431,8 @@
         <v>11</v>
       </c>
       <c r="J96" s="33">
-        <f t="shared" si="3"/>
-        <v>314.53999999999996</v>
+        <f t="shared" si="12"/>
+        <v>315.2</v>
       </c>
       <c r="M96" s="45">
         <v>7</v>
@@ -5413,8 +5444,8 @@
         <v>4</v>
       </c>
       <c r="P96" s="47">
-        <f ca="1">$P$93+(20*O96*fuel_flow!$C$2)</f>
-        <v>320.69000000000005</v>
+        <f t="shared" si="15"/>
+        <v>319.10000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5428,8 +5459,8 @@
         <v>11</v>
       </c>
       <c r="D97" s="33">
-        <f t="shared" si="4"/>
-        <v>314.53999999999996</v>
+        <f t="shared" si="13"/>
+        <v>315.2</v>
       </c>
       <c r="G97" s="45">
         <v>4</v>
@@ -5441,8 +5472,8 @@
         <v>12</v>
       </c>
       <c r="J97" s="33">
-        <f t="shared" si="3"/>
-        <v>318.94</v>
+        <f t="shared" si="12"/>
+        <v>319.60000000000002</v>
       </c>
       <c r="M97" s="45">
         <v>7</v>
@@ -5454,8 +5485,8 @@
         <v>5</v>
       </c>
       <c r="P97" s="47">
-        <f ca="1">$P$93+(20*O97*fuel_flow!$C$2)</f>
-        <v>331.29</v>
+        <f t="shared" si="15"/>
+        <v>329.7</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5469,8 +5500,8 @@
         <v>12</v>
       </c>
       <c r="D98" s="33">
-        <f t="shared" si="4"/>
-        <v>318.94</v>
+        <f t="shared" si="13"/>
+        <v>319.60000000000002</v>
       </c>
       <c r="G98" s="45">
         <v>4</v>
@@ -5482,8 +5513,8 @@
         <v>13</v>
       </c>
       <c r="J98" s="33">
-        <f t="shared" si="3"/>
-        <v>323.33999999999997</v>
+        <f t="shared" si="12"/>
+        <v>324</v>
       </c>
       <c r="M98" s="45">
         <v>7</v>
@@ -5495,8 +5526,8 @@
         <v>6</v>
       </c>
       <c r="P98" s="47">
-        <f ca="1">$P$93+(20*O98*fuel_flow!$C$2)</f>
-        <v>341.89000000000004</v>
+        <f t="shared" si="15"/>
+        <v>340.3</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5510,8 +5541,8 @@
         <v>13</v>
       </c>
       <c r="D99" s="33">
-        <f t="shared" si="4"/>
-        <v>323.33999999999997</v>
+        <f t="shared" si="13"/>
+        <v>324</v>
       </c>
       <c r="G99" s="43">
         <v>4</v>
@@ -5523,8 +5554,8 @@
         <v>14</v>
       </c>
       <c r="J99" s="44">
-        <f t="shared" si="3"/>
-        <v>266.14</v>
+        <f>D86</f>
+        <v>266.8</v>
       </c>
       <c r="M99" s="34">
         <v>7</v>
@@ -5532,11 +5563,12 @@
       <c r="N99" s="35">
         <v>2</v>
       </c>
-      <c r="O99" s="42">
-        <v>7</v>
-      </c>
-      <c r="P99" s="36">
-        <v>278.29000000000002</v>
+      <c r="O99" s="50">
+        <v>7</v>
+      </c>
+      <c r="P99" s="53">
+        <f t="shared" si="15"/>
+        <v>350.9</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5550,8 +5582,8 @@
         <v>0</v>
       </c>
       <c r="D100" s="33">
-        <f t="shared" si="4"/>
-        <v>115.34</v>
+        <f t="shared" ref="D87:D113" si="16">D44</f>
+        <v>114.68</v>
       </c>
       <c r="G100" s="45">
         <v>4</v>
@@ -5563,21 +5595,21 @@
         <v>1</v>
       </c>
       <c r="J100" s="33">
-        <f t="shared" si="3"/>
-        <v>119.74000000000001</v>
-      </c>
-      <c r="M100" s="45">
+        <f t="shared" si="12"/>
+        <v>119.08000000000001</v>
+      </c>
+      <c r="M100" s="51">
         <v>8</v>
       </c>
-      <c r="N100" s="41">
-        <v>1</v>
-      </c>
-      <c r="O100" s="41">
-        <v>1</v>
-      </c>
-      <c r="P100" s="47">
-        <f ca="1">$P$100+(20*O100*fuel_flow!$C$2)</f>
-        <v>365.68000000000006</v>
+      <c r="N100" s="52">
+        <v>1</v>
+      </c>
+      <c r="O100" s="52">
+        <v>1</v>
+      </c>
+      <c r="P100" s="56">
+        <f>J198</f>
+        <v>367.80000000000007</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5591,8 +5623,8 @@
         <v>1</v>
       </c>
       <c r="D101" s="33">
-        <f t="shared" si="4"/>
-        <v>119.74000000000001</v>
+        <f t="shared" si="16"/>
+        <v>119.08000000000001</v>
       </c>
       <c r="G101" s="45">
         <v>4</v>
@@ -5604,8 +5636,8 @@
         <v>2</v>
       </c>
       <c r="J101" s="33">
-        <f t="shared" si="3"/>
-        <v>124.14</v>
+        <f t="shared" si="12"/>
+        <v>123.48</v>
       </c>
       <c r="M101" s="45">
         <v>8</v>
@@ -5617,8 +5649,8 @@
         <v>2</v>
       </c>
       <c r="P101" s="47">
-        <f ca="1">$P$100+(20*O101*fuel_flow!$C$2)</f>
-        <v>376.28000000000003</v>
+        <f t="shared" ref="P101:P106" si="17">J199</f>
+        <v>378.40000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5632,8 +5664,8 @@
         <v>2</v>
       </c>
       <c r="D102" s="33">
-        <f t="shared" si="4"/>
-        <v>124.14</v>
+        <f t="shared" si="16"/>
+        <v>123.48</v>
       </c>
       <c r="G102" s="45">
         <v>4</v>
@@ -5645,8 +5677,8 @@
         <v>3</v>
       </c>
       <c r="J102" s="33">
-        <f t="shared" si="3"/>
-        <v>128.54</v>
+        <f t="shared" si="12"/>
+        <v>127.88000000000001</v>
       </c>
       <c r="M102" s="45">
         <v>8</v>
@@ -5658,8 +5690,8 @@
         <v>3</v>
       </c>
       <c r="P102" s="47">
-        <f ca="1">$P$100+(20*O102*fuel_flow!$C$2)</f>
-        <v>386.88000000000005</v>
+        <f t="shared" si="17"/>
+        <v>389.00000000000006</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -5673,8 +5705,8 @@
         <v>3</v>
       </c>
       <c r="D103" s="33">
-        <f t="shared" si="4"/>
-        <v>128.54</v>
+        <f t="shared" si="16"/>
+        <v>127.88000000000001</v>
       </c>
       <c r="G103" s="45">
         <v>4</v>
@@ -5686,8 +5718,8 @@
         <v>4</v>
       </c>
       <c r="J103" s="33">
-        <f t="shared" si="3"/>
-        <v>132.94</v>
+        <f t="shared" si="12"/>
+        <v>132.28</v>
       </c>
       <c r="M103" s="45">
         <v>8</v>
@@ -5699,8 +5731,8 @@
         <v>4</v>
       </c>
       <c r="P103" s="47">
-        <f ca="1">$P$100+(20*O103*fuel_flow!$C$2)</f>
-        <v>397.48</v>
+        <f t="shared" si="17"/>
+        <v>399.6</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -5714,8 +5746,8 @@
         <v>4</v>
       </c>
       <c r="D104" s="33">
-        <f t="shared" si="4"/>
-        <v>132.94</v>
+        <f t="shared" si="16"/>
+        <v>132.28</v>
       </c>
       <c r="G104" s="45">
         <v>4</v>
@@ -5727,8 +5759,8 @@
         <v>5</v>
       </c>
       <c r="J104" s="33">
-        <f t="shared" si="3"/>
-        <v>137.34</v>
+        <f t="shared" si="12"/>
+        <v>136.68</v>
       </c>
       <c r="M104" s="45">
         <v>8</v>
@@ -5740,8 +5772,8 @@
         <v>5</v>
       </c>
       <c r="P104" s="47">
-        <f ca="1">$P$100+(20*O104*fuel_flow!$C$2)</f>
-        <v>408.08000000000004</v>
+        <f t="shared" si="17"/>
+        <v>410.20000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -5755,8 +5787,8 @@
         <v>5</v>
       </c>
       <c r="D105" s="33">
-        <f t="shared" si="4"/>
-        <v>137.34</v>
+        <f t="shared" si="16"/>
+        <v>136.68</v>
       </c>
       <c r="G105" s="45">
         <v>4</v>
@@ -5768,8 +5800,8 @@
         <v>6</v>
       </c>
       <c r="J105" s="33">
-        <f t="shared" si="3"/>
-        <v>141.74</v>
+        <f t="shared" si="12"/>
+        <v>141.08000000000001</v>
       </c>
       <c r="M105" s="45">
         <v>8</v>
@@ -5781,8 +5813,8 @@
         <v>6</v>
       </c>
       <c r="P105" s="47">
-        <f ca="1">$P$100+(20*O105*fuel_flow!$C$2)</f>
-        <v>418.68000000000006</v>
+        <f t="shared" si="17"/>
+        <v>420.80000000000007</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -5796,8 +5828,8 @@
         <v>6</v>
       </c>
       <c r="D106" s="33">
-        <f t="shared" si="4"/>
-        <v>141.74</v>
+        <f t="shared" si="16"/>
+        <v>141.08000000000001</v>
       </c>
       <c r="G106" s="45">
         <v>4</v>
@@ -5809,8 +5841,8 @@
         <v>7</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" si="3"/>
-        <v>146.14000000000001</v>
+        <f t="shared" si="12"/>
+        <v>145.48000000000002</v>
       </c>
       <c r="M106" s="43">
         <v>8</v>
@@ -5822,7 +5854,8 @@
         <v>7</v>
       </c>
       <c r="P106" s="48">
-        <v>355.08000000000004</v>
+        <f t="shared" si="17"/>
+        <v>431.40000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5836,8 +5869,8 @@
         <v>7</v>
       </c>
       <c r="D107" s="33">
-        <f t="shared" si="4"/>
-        <v>146.14000000000001</v>
+        <f t="shared" si="16"/>
+        <v>145.48000000000002</v>
       </c>
       <c r="G107" s="45">
         <v>4</v>
@@ -5849,8 +5882,8 @@
         <v>8</v>
       </c>
       <c r="J107" s="33">
-        <f t="shared" si="3"/>
-        <v>150.54000000000002</v>
+        <f t="shared" si="12"/>
+        <v>149.88</v>
       </c>
       <c r="M107" s="45">
         <v>8</v>
@@ -5862,8 +5895,8 @@
         <v>1</v>
       </c>
       <c r="P107" s="33">
-        <f ca="1">$P$107+(20*O107*fuel_flow!$C$2)</f>
-        <v>646.11000000000013</v>
+        <f>J212</f>
+        <v>647.70000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5877,8 +5910,8 @@
         <v>8</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" si="4"/>
-        <v>150.54000000000002</v>
+        <f t="shared" si="16"/>
+        <v>149.88</v>
       </c>
       <c r="G108" s="45">
         <v>4</v>
@@ -5890,8 +5923,8 @@
         <v>9</v>
       </c>
       <c r="J108" s="33">
-        <f t="shared" si="3"/>
-        <v>154.94</v>
+        <f t="shared" si="12"/>
+        <v>154.28</v>
       </c>
       <c r="M108" s="45">
         <v>8</v>
@@ -5903,8 +5936,8 @@
         <v>2</v>
       </c>
       <c r="P108" s="33">
-        <f ca="1">$P$107+(20*O108*fuel_flow!$C$2)</f>
-        <v>656.71000000000015</v>
+        <f t="shared" ref="P108:P113" si="18">J213</f>
+        <v>658.30000000000007</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -5918,8 +5951,8 @@
         <v>9</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" si="4"/>
-        <v>154.94</v>
+        <f t="shared" si="16"/>
+        <v>154.28</v>
       </c>
       <c r="G109" s="45">
         <v>4</v>
@@ -5931,8 +5964,8 @@
         <v>10</v>
       </c>
       <c r="J109" s="33">
-        <f t="shared" si="3"/>
-        <v>159.34</v>
+        <f t="shared" si="12"/>
+        <v>158.68</v>
       </c>
       <c r="M109" s="45">
         <v>8</v>
@@ -5944,8 +5977,8 @@
         <v>3</v>
       </c>
       <c r="P109" s="33">
-        <f ca="1">$P$107+(20*O109*fuel_flow!$C$2)</f>
-        <v>667.31000000000006</v>
+        <f t="shared" si="18"/>
+        <v>668.9</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -5959,8 +5992,8 @@
         <v>10</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" si="4"/>
-        <v>159.34</v>
+        <f t="shared" si="16"/>
+        <v>158.68</v>
       </c>
       <c r="G110" s="45">
         <v>4</v>
@@ -5972,8 +6005,8 @@
         <v>11</v>
       </c>
       <c r="J110" s="33">
-        <f t="shared" si="3"/>
-        <v>163.74</v>
+        <f t="shared" si="12"/>
+        <v>163.08000000000001</v>
       </c>
       <c r="M110" s="45">
         <v>8</v>
@@ -5985,8 +6018,8 @@
         <v>4</v>
       </c>
       <c r="P110" s="33">
-        <f ca="1">$P$107+(20*O110*fuel_flow!$C$2)</f>
-        <v>677.91000000000008</v>
+        <f t="shared" si="18"/>
+        <v>679.5</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -6000,8 +6033,8 @@
         <v>11</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" si="4"/>
-        <v>163.74</v>
+        <f t="shared" si="16"/>
+        <v>163.08000000000001</v>
       </c>
       <c r="G111" s="45">
         <v>4</v>
@@ -6013,8 +6046,8 @@
         <v>12</v>
       </c>
       <c r="J111" s="33">
-        <f t="shared" si="3"/>
-        <v>168.14</v>
+        <f t="shared" si="12"/>
+        <v>167.48000000000002</v>
       </c>
       <c r="M111" s="45">
         <v>8</v>
@@ -6026,8 +6059,8 @@
         <v>5</v>
       </c>
       <c r="P111" s="33">
-        <f ca="1">$P$107+(20*O111*fuel_flow!$C$2)</f>
-        <v>688.5100000000001</v>
+        <f t="shared" si="18"/>
+        <v>690.1</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -6041,8 +6074,8 @@
         <v>12</v>
       </c>
       <c r="D112" s="33">
-        <f t="shared" si="4"/>
-        <v>168.14</v>
+        <f t="shared" si="16"/>
+        <v>167.48000000000002</v>
       </c>
       <c r="G112" s="45">
         <v>4</v>
@@ -6054,8 +6087,8 @@
         <v>13</v>
       </c>
       <c r="J112" s="33">
-        <f t="shared" si="3"/>
-        <v>172.54000000000002</v>
+        <f t="shared" si="12"/>
+        <v>171.88</v>
       </c>
       <c r="M112" s="45">
         <v>8</v>
@@ -6067,8 +6100,8 @@
         <v>6</v>
       </c>
       <c r="P112" s="33">
-        <f ca="1">$P$107+(20*O112*fuel_flow!$C$2)</f>
-        <v>699.11000000000013</v>
+        <f t="shared" si="18"/>
+        <v>700.7</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6082,8 +6115,8 @@
         <v>13</v>
       </c>
       <c r="D113" s="44">
-        <f t="shared" si="4"/>
-        <v>172.54000000000002</v>
+        <f t="shared" si="16"/>
+        <v>171.88</v>
       </c>
       <c r="G113" s="34">
         <v>4</v>
@@ -6095,8 +6128,8 @@
         <v>14</v>
       </c>
       <c r="J113" s="36">
-        <f t="shared" ref="J113" si="5">J57</f>
-        <v>115.34</v>
+        <f t="shared" ref="J113" si="19">J57</f>
+        <v>114.68</v>
       </c>
       <c r="M113" s="34">
         <v>8</v>
@@ -6104,11 +6137,12 @@
       <c r="N113" s="35">
         <v>2</v>
       </c>
-      <c r="O113" s="42">
+      <c r="O113" s="50">
         <v>7</v>
       </c>
       <c r="P113" s="36">
-        <v>635.5100000000001</v>
+        <f t="shared" si="18"/>
+        <v>711.30000000000007</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6123,7 +6157,7 @@
       </c>
       <c r="D114" s="47">
         <f>D58</f>
-        <v>387.47</v>
+        <v>389</v>
       </c>
       <c r="G114" s="45">
         <v>5</v>
@@ -6135,21 +6169,21 @@
         <v>1</v>
       </c>
       <c r="J114" s="47">
-        <f t="shared" ref="J114:J140" si="6">J58</f>
-        <v>398.07000000000005</v>
-      </c>
-      <c r="M114" s="45">
+        <f t="shared" ref="J114:J140" si="20">J58</f>
+        <v>399.6</v>
+      </c>
+      <c r="M114" s="51">
         <v>9</v>
       </c>
-      <c r="N114" s="41">
-        <v>1</v>
-      </c>
-      <c r="O114" s="41">
-        <v>1</v>
-      </c>
-      <c r="P114" s="33">
-        <f ca="1">$P$114+(20*O114*fuel_flow!$B$2)</f>
-        <v>167.57999999999998</v>
+      <c r="N114" s="52">
+        <v>1</v>
+      </c>
+      <c r="O114" s="52">
+        <v>1</v>
+      </c>
+      <c r="P114" s="30">
+        <f>J226</f>
+        <v>165.6</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -6163,8 +6197,8 @@
         <v>1</v>
       </c>
       <c r="D115" s="47">
-        <f t="shared" ref="D115:D141" si="7">D59</f>
-        <v>398.07000000000005</v>
+        <f t="shared" ref="D115:D141" si="21">D59</f>
+        <v>399.6</v>
       </c>
       <c r="G115" s="45">
         <v>5</v>
@@ -6176,8 +6210,8 @@
         <v>2</v>
       </c>
       <c r="J115" s="47">
-        <f t="shared" si="6"/>
-        <v>408.67</v>
+        <f t="shared" si="20"/>
+        <v>410.2</v>
       </c>
       <c r="M115" s="45">
         <v>9</v>
@@ -6189,8 +6223,8 @@
         <v>2</v>
       </c>
       <c r="P115" s="33">
-        <f ca="1">$P$114+(20*O115*fuel_flow!$B$2)</f>
-        <v>171.98</v>
+        <f t="shared" ref="P115:P120" si="22">J227</f>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -6204,8 +6238,8 @@
         <v>2</v>
       </c>
       <c r="D116" s="47">
-        <f t="shared" si="7"/>
-        <v>408.67</v>
+        <f t="shared" si="21"/>
+        <v>410.2</v>
       </c>
       <c r="G116" s="45">
         <v>5</v>
@@ -6217,8 +6251,8 @@
         <v>3</v>
       </c>
       <c r="J116" s="47">
-        <f t="shared" si="6"/>
-        <v>419.27000000000004</v>
+        <f t="shared" si="20"/>
+        <v>420.8</v>
       </c>
       <c r="M116" s="45">
         <v>9</v>
@@ -6230,8 +6264,8 @@
         <v>3</v>
       </c>
       <c r="P116" s="33">
-        <f ca="1">$P$114+(20*O116*fuel_flow!$B$2)</f>
-        <v>176.37999999999997</v>
+        <f t="shared" si="22"/>
+        <v>174.39999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6245,8 +6279,8 @@
         <v>3</v>
       </c>
       <c r="D117" s="47">
-        <f t="shared" si="7"/>
-        <v>419.27000000000004</v>
+        <f t="shared" si="21"/>
+        <v>420.8</v>
       </c>
       <c r="G117" s="45">
         <v>5</v>
@@ -6258,8 +6292,8 @@
         <v>4</v>
       </c>
       <c r="J117" s="47">
-        <f t="shared" si="6"/>
-        <v>429.87</v>
+        <f t="shared" si="20"/>
+        <v>431.4</v>
       </c>
       <c r="M117" s="45">
         <v>9</v>
@@ -6271,8 +6305,8 @@
         <v>4</v>
       </c>
       <c r="P117" s="33">
-        <f ca="1">$P$114+(20*O117*fuel_flow!$B$2)</f>
-        <v>180.77999999999997</v>
+        <f t="shared" si="22"/>
+        <v>178.79999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6286,8 +6320,8 @@
         <v>4</v>
       </c>
       <c r="D118" s="47">
-        <f t="shared" si="7"/>
-        <v>429.87</v>
+        <f t="shared" si="21"/>
+        <v>431.4</v>
       </c>
       <c r="G118" s="45">
         <v>5</v>
@@ -6299,8 +6333,8 @@
         <v>5</v>
       </c>
       <c r="J118" s="47">
-        <f t="shared" si="6"/>
-        <v>440.47</v>
+        <f t="shared" si="20"/>
+        <v>442</v>
       </c>
       <c r="M118" s="45">
         <v>9</v>
@@ -6312,8 +6346,8 @@
         <v>5</v>
       </c>
       <c r="P118" s="33">
-        <f ca="1">$P$114+(20*O118*fuel_flow!$B$2)</f>
-        <v>185.17999999999998</v>
+        <f t="shared" si="22"/>
+        <v>183.2</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -6327,8 +6361,8 @@
         <v>5</v>
       </c>
       <c r="D119" s="47">
-        <f t="shared" si="7"/>
-        <v>440.47</v>
+        <f t="shared" si="21"/>
+        <v>442</v>
       </c>
       <c r="G119" s="45">
         <v>5</v>
@@ -6340,8 +6374,8 @@
         <v>6</v>
       </c>
       <c r="J119" s="47">
-        <f t="shared" si="6"/>
-        <v>451.07000000000005</v>
+        <f t="shared" si="20"/>
+        <v>452.6</v>
       </c>
       <c r="M119" s="45">
         <v>9</v>
@@ -6353,8 +6387,8 @@
         <v>6</v>
       </c>
       <c r="P119" s="33">
-        <f ca="1">$P$114+(20*O119*fuel_flow!$B$2)</f>
-        <v>189.57999999999998</v>
+        <f t="shared" si="22"/>
+        <v>187.6</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -6368,8 +6402,8 @@
         <v>6</v>
       </c>
       <c r="D120" s="47">
-        <f t="shared" si="7"/>
-        <v>451.07000000000005</v>
+        <f t="shared" si="21"/>
+        <v>452.6</v>
       </c>
       <c r="G120" s="45">
         <v>5</v>
@@ -6381,8 +6415,8 @@
         <v>7</v>
       </c>
       <c r="J120" s="47">
-        <f t="shared" si="6"/>
-        <v>461.67</v>
+        <f t="shared" si="20"/>
+        <v>463.2</v>
       </c>
       <c r="M120" s="43">
         <v>9</v>
@@ -6394,7 +6428,8 @@
         <v>7</v>
       </c>
       <c r="P120" s="44">
-        <v>163.17999999999998</v>
+        <f t="shared" si="22"/>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -6408,8 +6443,8 @@
         <v>7</v>
       </c>
       <c r="D121" s="47">
-        <f t="shared" si="7"/>
-        <v>461.67</v>
+        <f t="shared" si="21"/>
+        <v>463.2</v>
       </c>
       <c r="G121" s="45">
         <v>5</v>
@@ -6421,8 +6456,8 @@
         <v>8</v>
       </c>
       <c r="J121" s="47">
-        <f t="shared" si="6"/>
-        <v>472.27000000000004</v>
+        <f t="shared" si="20"/>
+        <v>473.8</v>
       </c>
       <c r="M121" s="45">
         <v>9</v>
@@ -6434,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="P121" s="33">
-        <f ca="1">$P$121+(20*O121*fuel_flow!$B$2)</f>
+        <f>J240</f>
         <v>237.88000000000002</v>
       </c>
     </row>
@@ -6449,8 +6484,8 @@
         <v>8</v>
       </c>
       <c r="D122" s="47">
-        <f t="shared" si="7"/>
-        <v>472.27000000000004</v>
+        <f t="shared" si="21"/>
+        <v>473.8</v>
       </c>
       <c r="G122" s="45">
         <v>5</v>
@@ -6462,8 +6497,8 @@
         <v>9</v>
       </c>
       <c r="J122" s="47">
-        <f t="shared" si="6"/>
-        <v>482.87</v>
+        <f t="shared" si="20"/>
+        <v>484.4</v>
       </c>
       <c r="M122" s="45">
         <v>9</v>
@@ -6475,7 +6510,7 @@
         <v>2</v>
       </c>
       <c r="P122" s="33">
-        <f ca="1">$P$121+(20*O122*fuel_flow!$B$2)</f>
+        <f t="shared" ref="P122:P127" si="23">J241</f>
         <v>242.28000000000003</v>
       </c>
     </row>
@@ -6490,8 +6525,8 @@
         <v>9</v>
       </c>
       <c r="D123" s="47">
-        <f t="shared" si="7"/>
-        <v>482.87</v>
+        <f t="shared" si="21"/>
+        <v>484.4</v>
       </c>
       <c r="G123" s="45">
         <v>5</v>
@@ -6503,8 +6538,8 @@
         <v>10</v>
       </c>
       <c r="J123" s="47">
-        <f t="shared" si="6"/>
-        <v>493.47</v>
+        <f t="shared" si="20"/>
+        <v>495</v>
       </c>
       <c r="M123" s="45">
         <v>9</v>
@@ -6516,7 +6551,7 @@
         <v>3</v>
       </c>
       <c r="P123" s="33">
-        <f ca="1">$P$121+(20*O123*fuel_flow!$B$2)</f>
+        <f t="shared" si="23"/>
         <v>246.68</v>
       </c>
     </row>
@@ -6531,8 +6566,8 @@
         <v>10</v>
       </c>
       <c r="D124" s="47">
-        <f t="shared" si="7"/>
-        <v>493.47</v>
+        <f t="shared" si="21"/>
+        <v>495</v>
       </c>
       <c r="G124" s="45">
         <v>5</v>
@@ -6544,8 +6579,8 @@
         <v>11</v>
       </c>
       <c r="J124" s="47">
-        <f t="shared" si="6"/>
-        <v>504.07000000000005</v>
+        <f t="shared" si="20"/>
+        <v>505.6</v>
       </c>
       <c r="M124" s="45">
         <v>9</v>
@@ -6557,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="P124" s="33">
-        <f ca="1">$P$121+(20*O124*fuel_flow!$B$2)</f>
+        <f t="shared" si="23"/>
         <v>251.08</v>
       </c>
     </row>
@@ -6572,8 +6607,8 @@
         <v>11</v>
       </c>
       <c r="D125" s="47">
-        <f t="shared" si="7"/>
-        <v>504.07000000000005</v>
+        <f t="shared" si="21"/>
+        <v>505.6</v>
       </c>
       <c r="G125" s="45">
         <v>5</v>
@@ -6585,8 +6620,8 @@
         <v>12</v>
       </c>
       <c r="J125" s="47">
-        <f t="shared" si="6"/>
-        <v>514.67000000000007</v>
+        <f t="shared" si="20"/>
+        <v>516.20000000000005</v>
       </c>
       <c r="M125" s="45">
         <v>9</v>
@@ -6598,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="P125" s="33">
-        <f ca="1">$P$121+(20*O125*fuel_flow!$B$2)</f>
+        <f t="shared" si="23"/>
         <v>255.48000000000002</v>
       </c>
     </row>
@@ -6613,8 +6648,8 @@
         <v>12</v>
       </c>
       <c r="D126" s="47">
-        <f t="shared" si="7"/>
-        <v>514.67000000000007</v>
+        <f t="shared" si="21"/>
+        <v>516.20000000000005</v>
       </c>
       <c r="G126" s="45">
         <v>5</v>
@@ -6626,8 +6661,8 @@
         <v>13</v>
       </c>
       <c r="J126" s="47">
-        <f t="shared" si="6"/>
-        <v>525.27</v>
+        <f t="shared" si="20"/>
+        <v>526.79999999999995</v>
       </c>
       <c r="M126" s="45">
         <v>9</v>
@@ -6639,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="P126" s="33">
-        <f ca="1">$P$121+(20*O126*fuel_flow!$B$2)</f>
+        <f t="shared" si="23"/>
         <v>259.88</v>
       </c>
     </row>
@@ -6654,8 +6689,8 @@
         <v>13</v>
       </c>
       <c r="D127" s="47">
-        <f t="shared" si="7"/>
-        <v>525.27</v>
+        <f t="shared" si="21"/>
+        <v>526.79999999999995</v>
       </c>
       <c r="G127" s="43">
         <v>5</v>
@@ -6667,8 +6702,8 @@
         <v>14</v>
       </c>
       <c r="J127" s="48">
-        <f t="shared" si="6"/>
-        <v>387.47</v>
+        <f t="shared" si="20"/>
+        <v>389</v>
       </c>
       <c r="M127" s="34">
         <v>9</v>
@@ -6676,11 +6711,12 @@
       <c r="N127" s="35">
         <v>2</v>
       </c>
-      <c r="O127" s="42">
+      <c r="O127" s="50">
         <v>7</v>
       </c>
       <c r="P127" s="36">
-        <v>233.48000000000002</v>
+        <f t="shared" si="23"/>
+        <v>264.28000000000003</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
@@ -6694,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>562.90000000000009</v>
       </c>
       <c r="G128" s="45">
@@ -6707,21 +6743,21 @@
         <v>1</v>
       </c>
       <c r="J128" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>573.50000000000011</v>
       </c>
-      <c r="M128" s="45">
+      <c r="M128" s="51">
         <v>10</v>
       </c>
-      <c r="N128" s="41">
-        <v>1</v>
-      </c>
-      <c r="O128" s="41">
-        <v>1</v>
-      </c>
-      <c r="P128" s="33">
-        <f t="shared" ref="P128:P140" ca="1" si="8">P44</f>
-        <v>270.53999999999996</v>
+      <c r="N128" s="52">
+        <v>1</v>
+      </c>
+      <c r="O128" s="52">
+        <v>1</v>
+      </c>
+      <c r="P128" s="30">
+        <f>J254</f>
+        <v>271.2</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
@@ -6735,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>573.50000000000011</v>
       </c>
       <c r="G129" s="45">
@@ -6748,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="J129" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>584.10000000000014</v>
       </c>
       <c r="M129" s="45">
@@ -6761,8 +6797,8 @@
         <v>2</v>
       </c>
       <c r="P129" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>274.94</v>
+        <f t="shared" ref="P129:P134" si="24">J255</f>
+        <v>275.60000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
@@ -6776,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>584.10000000000014</v>
       </c>
       <c r="G130" s="45">
@@ -6789,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="J130" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>594.70000000000005</v>
       </c>
       <c r="M130" s="45">
@@ -6802,8 +6838,8 @@
         <v>3</v>
       </c>
       <c r="P130" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>279.33999999999997</v>
+        <f t="shared" si="24"/>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -6817,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>594.70000000000005</v>
       </c>
       <c r="G131" s="45">
@@ -6830,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="J131" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>605.30000000000007</v>
       </c>
       <c r="M131" s="45">
@@ -6843,8 +6879,8 @@
         <v>4</v>
       </c>
       <c r="P131" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>283.74</v>
+        <f t="shared" si="24"/>
+        <v>284.40000000000003</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -6858,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>605.30000000000007</v>
       </c>
       <c r="G132" s="45">
@@ -6871,7 +6907,7 @@
         <v>5</v>
       </c>
       <c r="J132" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>615.90000000000009</v>
       </c>
       <c r="M132" s="45">
@@ -6884,8 +6920,8 @@
         <v>5</v>
       </c>
       <c r="P132" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>288.14</v>
+        <f t="shared" si="24"/>
+        <v>288.8</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
@@ -6899,7 +6935,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>615.90000000000009</v>
       </c>
       <c r="G133" s="45">
@@ -6912,7 +6948,7 @@
         <v>6</v>
       </c>
       <c r="J133" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>626.50000000000011</v>
       </c>
       <c r="M133" s="45">
@@ -6925,8 +6961,8 @@
         <v>6</v>
       </c>
       <c r="P133" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>292.53999999999996</v>
+        <f t="shared" si="24"/>
+        <v>293.2</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -6940,7 +6976,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>626.50000000000011</v>
       </c>
       <c r="G134" s="45">
@@ -6953,7 +6989,7 @@
         <v>7</v>
       </c>
       <c r="J134" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>637.10000000000014</v>
       </c>
       <c r="M134" s="43">
@@ -6966,8 +7002,8 @@
         <v>7</v>
       </c>
       <c r="P134" s="44">
-        <f t="shared" si="8"/>
-        <v>266.14</v>
+        <f t="shared" si="24"/>
+        <v>297.60000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
@@ -6981,7 +7017,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>637.10000000000014</v>
       </c>
       <c r="G135" s="45">
@@ -6994,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="J135" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>647.70000000000005</v>
       </c>
       <c r="M135" s="45">
@@ -7007,8 +7043,8 @@
         <v>1</v>
       </c>
       <c r="P135" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>119.74000000000001</v>
+        <f>J268</f>
+        <v>119.08000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
@@ -7022,7 +7058,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>647.70000000000005</v>
       </c>
       <c r="G136" s="45">
@@ -7035,7 +7071,7 @@
         <v>9</v>
       </c>
       <c r="J136" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>658.30000000000007</v>
       </c>
       <c r="M136" s="45">
@@ -7048,8 +7084,8 @@
         <v>2</v>
       </c>
       <c r="P136" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>124.14</v>
+        <f t="shared" ref="P136:P141" si="25">J269</f>
+        <v>123.48</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
@@ -7063,7 +7099,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>658.30000000000007</v>
       </c>
       <c r="G137" s="45">
@@ -7076,7 +7112,7 @@
         <v>10</v>
       </c>
       <c r="J137" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>668.90000000000009</v>
       </c>
       <c r="M137" s="45">
@@ -7089,8 +7125,8 @@
         <v>3</v>
       </c>
       <c r="P137" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>128.54</v>
+        <f t="shared" si="25"/>
+        <v>127.88000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
@@ -7104,7 +7140,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>668.90000000000009</v>
       </c>
       <c r="G138" s="45">
@@ -7117,7 +7153,7 @@
         <v>11</v>
       </c>
       <c r="J138" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>679.50000000000011</v>
       </c>
       <c r="M138" s="45">
@@ -7130,8 +7166,8 @@
         <v>4</v>
       </c>
       <c r="P138" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>132.94</v>
+        <f t="shared" si="25"/>
+        <v>132.28</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
@@ -7145,7 +7181,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>679.50000000000011</v>
       </c>
       <c r="G139" s="45">
@@ -7158,7 +7194,7 @@
         <v>12</v>
       </c>
       <c r="J139" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>690.10000000000014</v>
       </c>
       <c r="M139" s="45">
@@ -7171,8 +7207,8 @@
         <v>5</v>
       </c>
       <c r="P139" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>137.34</v>
+        <f t="shared" si="25"/>
+        <v>136.68</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
@@ -7186,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>690.10000000000014</v>
       </c>
       <c r="G140" s="45">
@@ -7199,7 +7235,7 @@
         <v>13</v>
       </c>
       <c r="J140" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>700.7</v>
       </c>
       <c r="M140" s="45">
@@ -7212,13 +7248,13 @@
         <v>6</v>
       </c>
       <c r="P140" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>141.74</v>
+        <f t="shared" si="25"/>
+        <v>141.08000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="46" t="s">
-        <v>20</v>
+      <c r="A141" s="46">
+        <v>5</v>
       </c>
       <c r="B141" s="42">
         <v>2</v>
@@ -7227,7 +7263,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>700.7</v>
       </c>
       <c r="G141" s="34">
@@ -7240,7 +7276,7 @@
         <v>14</v>
       </c>
       <c r="J141" s="53">
-        <f t="shared" ref="J141" si="9">J85</f>
+        <f t="shared" ref="J141" si="26">J85</f>
         <v>562.90000000000009</v>
       </c>
       <c r="M141" s="34">
@@ -7253,7 +7289,8 @@
         <v>7</v>
       </c>
       <c r="P141" s="36">
-        <v>115.34</v>
+        <f t="shared" si="25"/>
+        <v>145.48000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -7266,9 +7303,9 @@
       <c r="C142" s="41">
         <v>0</v>
       </c>
-      <c r="D142" s="47">
-        <f>J15</f>
-        <v>147.11999999999998</v>
+      <c r="D142" s="54">
+        <f>D2</f>
+        <v>148</v>
       </c>
       <c r="G142" s="45">
         <v>6</v>
@@ -7280,8 +7317,8 @@
         <v>1</v>
       </c>
       <c r="J142" s="47">
-        <f t="shared" ref="J142:J154" si="10">J2</f>
-        <v>151.51999999999998</v>
+        <f t="shared" ref="J142:J154" si="27">J2</f>
+        <v>152.4</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
@@ -7294,9 +7331,9 @@
       <c r="C143" s="41">
         <v>1</v>
       </c>
-      <c r="D143" s="47">
-        <f t="shared" ref="D143:D169" si="11">D3</f>
-        <v>151.51999999999998</v>
+      <c r="D143" s="54">
+        <f t="shared" ref="D143:D169" si="28">D3</f>
+        <v>152.4</v>
       </c>
       <c r="G143" s="45">
         <v>6</v>
@@ -7308,8 +7345,8 @@
         <v>2</v>
       </c>
       <c r="J143" s="47">
-        <f t="shared" si="10"/>
-        <v>155.91999999999999</v>
+        <f t="shared" si="27"/>
+        <v>156.80000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
@@ -7322,9 +7359,9 @@
       <c r="C144" s="41">
         <v>2</v>
       </c>
-      <c r="D144" s="47">
-        <f t="shared" si="11"/>
-        <v>155.91999999999999</v>
+      <c r="D144" s="54">
+        <f t="shared" si="28"/>
+        <v>156.80000000000001</v>
       </c>
       <c r="G144" s="45">
         <v>6</v>
@@ -7336,8 +7373,8 @@
         <v>3</v>
       </c>
       <c r="J144" s="47">
-        <f t="shared" si="10"/>
-        <v>160.31999999999996</v>
+        <f t="shared" si="27"/>
+        <v>161.19999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -7350,9 +7387,9 @@
       <c r="C145" s="41">
         <v>3</v>
       </c>
-      <c r="D145" s="47">
-        <f t="shared" si="11"/>
-        <v>160.31999999999996</v>
+      <c r="D145" s="54">
+        <f t="shared" si="28"/>
+        <v>161.19999999999999</v>
       </c>
       <c r="G145" s="45">
         <v>6</v>
@@ -7364,8 +7401,8 @@
         <v>4</v>
       </c>
       <c r="J145" s="47">
-        <f t="shared" si="10"/>
-        <v>164.71999999999997</v>
+        <f t="shared" si="27"/>
+        <v>165.6</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -7378,9 +7415,9 @@
       <c r="C146" s="41">
         <v>4</v>
       </c>
-      <c r="D146" s="47">
-        <f t="shared" si="11"/>
-        <v>164.71999999999997</v>
+      <c r="D146" s="54">
+        <f t="shared" si="28"/>
+        <v>165.6</v>
       </c>
       <c r="G146" s="45">
         <v>6</v>
@@ -7392,8 +7429,8 @@
         <v>5</v>
       </c>
       <c r="J146" s="47">
-        <f t="shared" si="10"/>
-        <v>169.11999999999998</v>
+        <f t="shared" si="27"/>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -7406,9 +7443,9 @@
       <c r="C147" s="41">
         <v>5</v>
       </c>
-      <c r="D147" s="47">
-        <f t="shared" si="11"/>
-        <v>169.11999999999998</v>
+      <c r="D147" s="54">
+        <f t="shared" si="28"/>
+        <v>170</v>
       </c>
       <c r="G147" s="45">
         <v>6</v>
@@ -7420,8 +7457,8 @@
         <v>6</v>
       </c>
       <c r="J147" s="47">
-        <f t="shared" si="10"/>
-        <v>173.51999999999998</v>
+        <f t="shared" si="27"/>
+        <v>174.4</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -7434,9 +7471,9 @@
       <c r="C148" s="41">
         <v>6</v>
       </c>
-      <c r="D148" s="47">
-        <f t="shared" si="11"/>
-        <v>173.51999999999998</v>
+      <c r="D148" s="54">
+        <f t="shared" si="28"/>
+        <v>174.4</v>
       </c>
       <c r="G148" s="45">
         <v>6</v>
@@ -7448,8 +7485,8 @@
         <v>7</v>
       </c>
       <c r="J148" s="47">
-        <f t="shared" si="10"/>
-        <v>177.92</v>
+        <f t="shared" si="27"/>
+        <v>178.8</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -7462,9 +7499,9 @@
       <c r="C149" s="41">
         <v>7</v>
       </c>
-      <c r="D149" s="47">
-        <f t="shared" si="11"/>
-        <v>177.92</v>
+      <c r="D149" s="54">
+        <f t="shared" si="28"/>
+        <v>178.8</v>
       </c>
       <c r="G149" s="45">
         <v>6</v>
@@ -7476,8 +7513,8 @@
         <v>8</v>
       </c>
       <c r="J149" s="47">
-        <f t="shared" si="10"/>
-        <v>182.32</v>
+        <f t="shared" si="27"/>
+        <v>183.2</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -7490,9 +7527,9 @@
       <c r="C150" s="41">
         <v>8</v>
       </c>
-      <c r="D150" s="47">
-        <f t="shared" si="11"/>
-        <v>182.32</v>
+      <c r="D150" s="54">
+        <f t="shared" si="28"/>
+        <v>183.2</v>
       </c>
       <c r="G150" s="45">
         <v>6</v>
@@ -7504,8 +7541,8 @@
         <v>9</v>
       </c>
       <c r="J150" s="47">
-        <f t="shared" si="10"/>
-        <v>186.71999999999997</v>
+        <f t="shared" si="27"/>
+        <v>187.6</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -7518,9 +7555,9 @@
       <c r="C151" s="41">
         <v>9</v>
       </c>
-      <c r="D151" s="47">
-        <f t="shared" si="11"/>
-        <v>186.71999999999997</v>
+      <c r="D151" s="54">
+        <f t="shared" si="28"/>
+        <v>187.6</v>
       </c>
       <c r="G151" s="45">
         <v>6</v>
@@ -7532,8 +7569,8 @@
         <v>10</v>
       </c>
       <c r="J151" s="47">
-        <f t="shared" si="10"/>
-        <v>191.11999999999998</v>
+        <f t="shared" si="27"/>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -7546,9 +7583,9 @@
       <c r="C152" s="41">
         <v>10</v>
       </c>
-      <c r="D152" s="47">
-        <f t="shared" si="11"/>
-        <v>191.11999999999998</v>
+      <c r="D152" s="54">
+        <f t="shared" si="28"/>
+        <v>192</v>
       </c>
       <c r="G152" s="45">
         <v>6</v>
@@ -7560,8 +7597,8 @@
         <v>11</v>
       </c>
       <c r="J152" s="47">
-        <f t="shared" si="10"/>
-        <v>195.51999999999998</v>
+        <f t="shared" si="27"/>
+        <v>196.4</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -7574,9 +7611,9 @@
       <c r="C153" s="41">
         <v>11</v>
       </c>
-      <c r="D153" s="47">
-        <f t="shared" si="11"/>
-        <v>195.51999999999998</v>
+      <c r="D153" s="54">
+        <f t="shared" si="28"/>
+        <v>196.4</v>
       </c>
       <c r="G153" s="45">
         <v>6</v>
@@ -7588,8 +7625,8 @@
         <v>12</v>
       </c>
       <c r="J153" s="47">
-        <f t="shared" si="10"/>
-        <v>199.91999999999996</v>
+        <f t="shared" si="27"/>
+        <v>200.8</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -7602,9 +7639,9 @@
       <c r="C154" s="41">
         <v>12</v>
       </c>
-      <c r="D154" s="47">
-        <f t="shared" si="11"/>
-        <v>199.91999999999996</v>
+      <c r="D154" s="54">
+        <f t="shared" si="28"/>
+        <v>200.8</v>
       </c>
       <c r="G154" s="45">
         <v>6</v>
@@ -7616,8 +7653,8 @@
         <v>13</v>
       </c>
       <c r="J154" s="47">
-        <f t="shared" si="10"/>
-        <v>204.32</v>
+        <f t="shared" si="27"/>
+        <v>205.2</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -7630,9 +7667,9 @@
       <c r="C155" s="41">
         <v>13</v>
       </c>
-      <c r="D155" s="47">
-        <f t="shared" si="11"/>
-        <v>204.32</v>
+      <c r="D155" s="54">
+        <f t="shared" si="28"/>
+        <v>205.2</v>
       </c>
       <c r="G155" s="43">
         <v>6</v>
@@ -7644,7 +7681,8 @@
         <v>14</v>
       </c>
       <c r="J155" s="48">
-        <v>147.11999999999998</v>
+        <f>D142</f>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -7657,9 +7695,9 @@
       <c r="C156" s="41">
         <v>0</v>
       </c>
-      <c r="D156" s="47">
-        <f t="shared" si="11"/>
-        <v>263.62</v>
+      <c r="D156" s="54">
+        <f t="shared" si="28"/>
+        <v>264.28000000000003</v>
       </c>
       <c r="G156" s="45">
         <v>6</v>
@@ -7671,8 +7709,8 @@
         <v>1</v>
       </c>
       <c r="J156" s="47">
-        <f t="shared" ref="J156:J168" si="12">J16</f>
-        <v>268.02</v>
+        <f t="shared" ref="J156:J168" si="29">J16</f>
+        <v>268.68</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -7685,9 +7723,9 @@
       <c r="C157" s="41">
         <v>1</v>
       </c>
-      <c r="D157" s="47">
-        <f t="shared" si="11"/>
-        <v>268.02</v>
+      <c r="D157" s="54">
+        <f t="shared" si="28"/>
+        <v>268.68</v>
       </c>
       <c r="G157" s="45">
         <v>6</v>
@@ -7699,8 +7737,8 @@
         <v>2</v>
       </c>
       <c r="J157" s="47">
-        <f t="shared" si="12"/>
-        <v>272.42</v>
+        <f t="shared" si="29"/>
+        <v>273.08000000000004</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -7713,9 +7751,9 @@
       <c r="C158" s="41">
         <v>2</v>
       </c>
-      <c r="D158" s="47">
-        <f t="shared" si="11"/>
-        <v>272.42</v>
+      <c r="D158" s="54">
+        <f t="shared" si="28"/>
+        <v>273.08000000000004</v>
       </c>
       <c r="G158" s="45">
         <v>6</v>
@@ -7727,8 +7765,8 @@
         <v>3</v>
       </c>
       <c r="J158" s="47">
-        <f t="shared" si="12"/>
-        <v>276.82</v>
+        <f t="shared" si="29"/>
+        <v>277.48</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -7741,9 +7779,9 @@
       <c r="C159" s="41">
         <v>3</v>
       </c>
-      <c r="D159" s="47">
-        <f t="shared" si="11"/>
-        <v>276.82</v>
+      <c r="D159" s="54">
+        <f t="shared" si="28"/>
+        <v>277.48</v>
       </c>
       <c r="G159" s="45">
         <v>6</v>
@@ -7755,8 +7793,8 @@
         <v>4</v>
       </c>
       <c r="J159" s="47">
-        <f t="shared" si="12"/>
-        <v>281.22000000000003</v>
+        <f t="shared" si="29"/>
+        <v>281.88000000000005</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -7769,9 +7807,9 @@
       <c r="C160" s="41">
         <v>4</v>
       </c>
-      <c r="D160" s="47">
-        <f t="shared" si="11"/>
-        <v>281.22000000000003</v>
+      <c r="D160" s="54">
+        <f t="shared" si="28"/>
+        <v>281.88000000000005</v>
       </c>
       <c r="G160" s="45">
         <v>6</v>
@@ -7783,8 +7821,8 @@
         <v>5</v>
       </c>
       <c r="J160" s="47">
-        <f t="shared" si="12"/>
-        <v>285.62</v>
+        <f t="shared" si="29"/>
+        <v>286.28000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -7797,9 +7835,9 @@
       <c r="C161" s="41">
         <v>5</v>
       </c>
-      <c r="D161" s="47">
-        <f t="shared" si="11"/>
-        <v>285.62</v>
+      <c r="D161" s="54">
+        <f t="shared" si="28"/>
+        <v>286.28000000000003</v>
       </c>
       <c r="G161" s="45">
         <v>6</v>
@@ -7811,8 +7849,8 @@
         <v>6</v>
       </c>
       <c r="J161" s="47">
-        <f t="shared" si="12"/>
-        <v>290.02</v>
+        <f t="shared" si="29"/>
+        <v>290.68</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -7825,9 +7863,9 @@
       <c r="C162" s="41">
         <v>6</v>
       </c>
-      <c r="D162" s="47">
-        <f t="shared" si="11"/>
-        <v>290.02</v>
+      <c r="D162" s="54">
+        <f t="shared" si="28"/>
+        <v>290.68</v>
       </c>
       <c r="G162" s="45">
         <v>6</v>
@@ -7839,8 +7877,8 @@
         <v>7</v>
       </c>
       <c r="J162" s="47">
-        <f t="shared" si="12"/>
-        <v>294.42</v>
+        <f t="shared" si="29"/>
+        <v>295.08000000000004</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -7853,9 +7891,9 @@
       <c r="C163" s="41">
         <v>7</v>
       </c>
-      <c r="D163" s="47">
-        <f t="shared" si="11"/>
-        <v>294.42</v>
+      <c r="D163" s="54">
+        <f t="shared" si="28"/>
+        <v>295.08000000000004</v>
       </c>
       <c r="G163" s="45">
         <v>6</v>
@@ -7867,8 +7905,8 @@
         <v>8</v>
       </c>
       <c r="J163" s="47">
-        <f t="shared" si="12"/>
-        <v>298.82</v>
+        <f t="shared" si="29"/>
+        <v>299.48</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -7881,9 +7919,9 @@
       <c r="C164" s="41">
         <v>8</v>
       </c>
-      <c r="D164" s="47">
-        <f t="shared" si="11"/>
-        <v>298.82</v>
+      <c r="D164" s="54">
+        <f t="shared" si="28"/>
+        <v>299.48</v>
       </c>
       <c r="G164" s="45">
         <v>6</v>
@@ -7895,8 +7933,8 @@
         <v>9</v>
       </c>
       <c r="J164" s="47">
-        <f t="shared" si="12"/>
-        <v>303.22000000000003</v>
+        <f t="shared" si="29"/>
+        <v>303.88000000000005</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -7909,9 +7947,9 @@
       <c r="C165" s="41">
         <v>9</v>
       </c>
-      <c r="D165" s="47">
-        <f t="shared" si="11"/>
-        <v>303.22000000000003</v>
+      <c r="D165" s="54">
+        <f t="shared" si="28"/>
+        <v>303.88000000000005</v>
       </c>
       <c r="G165" s="45">
         <v>6</v>
@@ -7923,8 +7961,8 @@
         <v>10</v>
       </c>
       <c r="J165" s="47">
-        <f t="shared" si="12"/>
-        <v>307.62</v>
+        <f t="shared" si="29"/>
+        <v>308.28000000000003</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -7937,9 +7975,9 @@
       <c r="C166" s="41">
         <v>10</v>
       </c>
-      <c r="D166" s="47">
-        <f t="shared" si="11"/>
-        <v>307.62</v>
+      <c r="D166" s="54">
+        <f t="shared" si="28"/>
+        <v>308.28000000000003</v>
       </c>
       <c r="G166" s="45">
         <v>6</v>
@@ -7951,8 +7989,8 @@
         <v>11</v>
       </c>
       <c r="J166" s="47">
-        <f t="shared" si="12"/>
-        <v>312.02</v>
+        <f t="shared" si="29"/>
+        <v>312.68</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -7965,9 +8003,9 @@
       <c r="C167" s="41">
         <v>11</v>
       </c>
-      <c r="D167" s="47">
-        <f t="shared" si="11"/>
-        <v>312.02</v>
+      <c r="D167" s="54">
+        <f t="shared" si="28"/>
+        <v>312.68</v>
       </c>
       <c r="G167" s="45">
         <v>6</v>
@@ -7979,8 +8017,8 @@
         <v>12</v>
       </c>
       <c r="J167" s="47">
-        <f t="shared" si="12"/>
-        <v>316.42</v>
+        <f t="shared" si="29"/>
+        <v>317.08000000000004</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -7993,9 +8031,9 @@
       <c r="C168" s="41">
         <v>12</v>
       </c>
-      <c r="D168" s="47">
-        <f t="shared" si="11"/>
-        <v>316.42</v>
+      <c r="D168" s="54">
+        <f t="shared" si="28"/>
+        <v>317.08000000000004</v>
       </c>
       <c r="G168" s="45">
         <v>6</v>
@@ -8007,8 +8045,8 @@
         <v>13</v>
       </c>
       <c r="J168" s="47">
-        <f t="shared" si="12"/>
-        <v>320.82</v>
+        <f t="shared" si="29"/>
+        <v>321.48</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8021,9 +8059,9 @@
       <c r="C169" s="42">
         <v>13</v>
       </c>
-      <c r="D169" s="48">
-        <f t="shared" si="11"/>
-        <v>320.82</v>
+      <c r="D169" s="55">
+        <f t="shared" si="28"/>
+        <v>321.48</v>
       </c>
       <c r="G169" s="34">
         <v>6</v>
@@ -8035,7 +8073,8 @@
         <v>14</v>
       </c>
       <c r="J169" s="36">
-        <v>263.62</v>
+        <f>D156</f>
+        <v>264.28000000000003</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -8050,7 +8089,7 @@
       </c>
       <c r="D170" s="47">
         <f>(t_to_RWY!B3*fuel_flow!C2)+(t_to_taxi!B3*fuel_flow!C3)</f>
-        <v>641.81000000000006</v>
+        <v>643.4</v>
       </c>
       <c r="G170" s="45">
         <v>7</v>
@@ -8063,7 +8102,7 @@
       </c>
       <c r="J170" s="47">
         <f>$D$170+(20*I170*fuel_flow!$C$2)</f>
-        <v>652.41000000000008</v>
+        <v>654</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -8078,7 +8117,7 @@
       </c>
       <c r="D171" s="47">
         <f>$D$170+(20*C171*fuel_flow!$C$2)</f>
-        <v>652.41000000000008</v>
+        <v>654</v>
       </c>
       <c r="G171" s="45">
         <v>7</v>
@@ -8091,7 +8130,7 @@
       </c>
       <c r="J171" s="47">
         <f>$D$170+(20*I171*fuel_flow!$C$2)</f>
-        <v>663.0100000000001</v>
+        <v>664.6</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -8106,7 +8145,7 @@
       </c>
       <c r="D172" s="47">
         <f>$D$170+(20*C172*fuel_flow!$C$2)</f>
-        <v>663.0100000000001</v>
+        <v>664.6</v>
       </c>
       <c r="G172" s="45">
         <v>7</v>
@@ -8119,7 +8158,7 @@
       </c>
       <c r="J172" s="47">
         <f>$D$170+(20*I172*fuel_flow!$C$2)</f>
-        <v>673.61</v>
+        <v>675.19999999999993</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -8134,7 +8173,7 @@
       </c>
       <c r="D173" s="47">
         <f>$D$170+(20*C173*fuel_flow!$C$2)</f>
-        <v>673.61</v>
+        <v>675.19999999999993</v>
       </c>
       <c r="G173" s="45">
         <v>7</v>
@@ -8147,7 +8186,7 @@
       </c>
       <c r="J173" s="47">
         <f>$D$170+(20*I173*fuel_flow!$C$2)</f>
-        <v>684.21</v>
+        <v>685.8</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -8162,7 +8201,7 @@
       </c>
       <c r="D174" s="47">
         <f>$D$170+(20*C174*fuel_flow!$C$2)</f>
-        <v>684.21</v>
+        <v>685.8</v>
       </c>
       <c r="G174" s="45">
         <v>7</v>
@@ -8175,7 +8214,7 @@
       </c>
       <c r="J174" s="47">
         <f>$D$170+(20*I174*fuel_flow!$C$2)</f>
-        <v>694.81000000000006</v>
+        <v>696.4</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -8190,7 +8229,7 @@
       </c>
       <c r="D175" s="47">
         <f>$D$170+(20*C175*fuel_flow!$C$2)</f>
-        <v>694.81000000000006</v>
+        <v>696.4</v>
       </c>
       <c r="G175" s="45">
         <v>7</v>
@@ -8203,7 +8242,7 @@
       </c>
       <c r="J175" s="47">
         <f>$D$170+(20*I175*fuel_flow!$C$2)</f>
-        <v>705.41000000000008</v>
+        <v>707</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -8218,7 +8257,7 @@
       </c>
       <c r="D176" s="47">
         <f>$D$170+(20*C176*fuel_flow!$C$2)</f>
-        <v>705.41000000000008</v>
+        <v>707</v>
       </c>
       <c r="G176" s="45">
         <v>7</v>
@@ -8231,7 +8270,7 @@
       </c>
       <c r="J176" s="47">
         <f>$D$170+(20*I176*fuel_flow!$C$2)</f>
-        <v>716.0100000000001</v>
+        <v>717.6</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8246,7 +8285,7 @@
       </c>
       <c r="D177" s="47">
         <f>$D$170+(20*C177*fuel_flow!$C$2)</f>
-        <v>716.0100000000001</v>
+        <v>717.6</v>
       </c>
       <c r="G177" s="45">
         <v>7</v>
@@ -8259,7 +8298,7 @@
       </c>
       <c r="J177" s="47">
         <f>$D$170+(20*I177*fuel_flow!$C$2)</f>
-        <v>726.61000000000013</v>
+        <v>728.2</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8274,7 +8313,7 @@
       </c>
       <c r="D178" s="47">
         <f>$D$170+(20*C178*fuel_flow!$C$2)</f>
-        <v>726.61000000000013</v>
+        <v>728.2</v>
       </c>
       <c r="G178" s="45">
         <v>7</v>
@@ -8287,7 +8326,7 @@
       </c>
       <c r="J178" s="47">
         <f>$D$170+(20*I178*fuel_flow!$C$2)</f>
-        <v>737.21</v>
+        <v>738.8</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8302,7 +8341,7 @@
       </c>
       <c r="D179" s="47">
         <f>$D$170+(20*C179*fuel_flow!$C$2)</f>
-        <v>737.21</v>
+        <v>738.8</v>
       </c>
       <c r="G179" s="45">
         <v>7</v>
@@ -8315,7 +8354,7 @@
       </c>
       <c r="J179" s="47">
         <f>$D$170+(20*I179*fuel_flow!$C$2)</f>
-        <v>747.81000000000006</v>
+        <v>749.4</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8330,7 +8369,7 @@
       </c>
       <c r="D180" s="47">
         <f>$D$170+(20*C180*fuel_flow!$C$2)</f>
-        <v>747.81000000000006</v>
+        <v>749.4</v>
       </c>
       <c r="G180" s="45">
         <v>7</v>
@@ -8343,7 +8382,7 @@
       </c>
       <c r="J180" s="47">
         <f>$D$170+(20*I180*fuel_flow!$C$2)</f>
-        <v>758.41000000000008</v>
+        <v>760</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8358,7 +8397,7 @@
       </c>
       <c r="D181" s="47">
         <f>$D$170+(20*C181*fuel_flow!$C$2)</f>
-        <v>758.41000000000008</v>
+        <v>760</v>
       </c>
       <c r="G181" s="45">
         <v>7</v>
@@ -8371,7 +8410,7 @@
       </c>
       <c r="J181" s="47">
         <f>$D$170+(20*I181*fuel_flow!$C$2)</f>
-        <v>769.0100000000001</v>
+        <v>770.6</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8386,7 +8425,7 @@
       </c>
       <c r="D182" s="47">
         <f>$D$170+(20*C182*fuel_flow!$C$2)</f>
-        <v>769.0100000000001</v>
+        <v>770.6</v>
       </c>
       <c r="G182" s="45">
         <v>7</v>
@@ -8399,7 +8438,7 @@
       </c>
       <c r="J182" s="47">
         <f>$D$170+(20*I182*fuel_flow!$C$2)</f>
-        <v>779.61000000000013</v>
+        <v>781.2</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8414,7 +8453,7 @@
       </c>
       <c r="D183" s="47">
         <f>$D$170+(20*C183*fuel_flow!$C$2)</f>
-        <v>779.61000000000013</v>
+        <v>781.2</v>
       </c>
       <c r="G183" s="43">
         <v>7</v>
@@ -8426,7 +8465,8 @@
         <v>14</v>
       </c>
       <c r="J183" s="44">
-        <v>641.81000000000006</v>
+        <f>D170</f>
+        <v>643.4</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8441,7 +8481,7 @@
       </c>
       <c r="D184" s="47">
         <f>(t_to_RWY!C3*fuel_flow!C2)+(t_to_taxi!C3*fuel_flow!C3)</f>
-        <v>278.29000000000002</v>
+        <v>276.7</v>
       </c>
       <c r="G184" s="45">
         <v>7</v>
@@ -8454,7 +8494,7 @@
       </c>
       <c r="J184" s="47">
         <f>$D$184+(20*I184*fuel_flow!$C$2)</f>
-        <v>288.89000000000004</v>
+        <v>287.3</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8469,7 +8509,7 @@
       </c>
       <c r="D185" s="47">
         <f>$D$184+(20*C185*fuel_flow!$C$2)</f>
-        <v>288.89000000000004</v>
+        <v>287.3</v>
       </c>
       <c r="G185" s="45">
         <v>7</v>
@@ -8482,7 +8522,7 @@
       </c>
       <c r="J185" s="47">
         <f>$D$184+(20*I185*fuel_flow!$C$2)</f>
-        <v>299.49</v>
+        <v>297.89999999999998</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8497,7 +8537,7 @@
       </c>
       <c r="D186" s="47">
         <f>$D$184+(20*C186*fuel_flow!$C$2)</f>
-        <v>299.49</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="G186" s="45">
         <v>7</v>
@@ -8510,7 +8550,7 @@
       </c>
       <c r="J186" s="47">
         <f>$D$184+(20*I186*fuel_flow!$C$2)</f>
-        <v>310.09000000000003</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8525,7 +8565,7 @@
       </c>
       <c r="D187" s="47">
         <f>$D$184+(20*C187*fuel_flow!$C$2)</f>
-        <v>310.09000000000003</v>
+        <v>308.5</v>
       </c>
       <c r="G187" s="45">
         <v>7</v>
@@ -8538,7 +8578,7 @@
       </c>
       <c r="J187" s="47">
         <f>$D$184+(20*I187*fuel_flow!$C$2)</f>
-        <v>320.69000000000005</v>
+        <v>319.10000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8553,7 +8593,7 @@
       </c>
       <c r="D188" s="47">
         <f>$D$184+(20*C188*fuel_flow!$C$2)</f>
-        <v>320.69000000000005</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="G188" s="45">
         <v>7</v>
@@ -8566,7 +8606,7 @@
       </c>
       <c r="J188" s="47">
         <f>$D$184+(20*I188*fuel_flow!$C$2)</f>
-        <v>331.29</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8581,7 +8621,7 @@
       </c>
       <c r="D189" s="47">
         <f>$D$184+(20*C189*fuel_flow!$C$2)</f>
-        <v>331.29</v>
+        <v>329.7</v>
       </c>
       <c r="G189" s="45">
         <v>7</v>
@@ -8594,7 +8634,7 @@
       </c>
       <c r="J189" s="47">
         <f>$D$184+(20*I189*fuel_flow!$C$2)</f>
-        <v>341.89000000000004</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8609,7 +8649,7 @@
       </c>
       <c r="D190" s="47">
         <f>$D$184+(20*C190*fuel_flow!$C$2)</f>
-        <v>341.89000000000004</v>
+        <v>340.3</v>
       </c>
       <c r="G190" s="45">
         <v>7</v>
@@ -8622,7 +8662,7 @@
       </c>
       <c r="J190" s="47">
         <f>$D$184+(20*I190*fuel_flow!$C$2)</f>
-        <v>352.49</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8637,7 +8677,7 @@
       </c>
       <c r="D191" s="47">
         <f>$D$184+(20*C191*fuel_flow!$C$2)</f>
-        <v>352.49</v>
+        <v>350.9</v>
       </c>
       <c r="G191" s="45">
         <v>7</v>
@@ -8650,7 +8690,7 @@
       </c>
       <c r="J191" s="47">
         <f>$D$184+(20*I191*fuel_flow!$C$2)</f>
-        <v>363.09000000000003</v>
+        <v>361.5</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8665,7 +8705,7 @@
       </c>
       <c r="D192" s="47">
         <f>$D$184+(20*C192*fuel_flow!$C$2)</f>
-        <v>363.09000000000003</v>
+        <v>361.5</v>
       </c>
       <c r="G192" s="45">
         <v>7</v>
@@ -8678,7 +8718,7 @@
       </c>
       <c r="J192" s="47">
         <f>$D$184+(20*I192*fuel_flow!$C$2)</f>
-        <v>373.69000000000005</v>
+        <v>372.1</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -8693,7 +8733,7 @@
       </c>
       <c r="D193" s="47">
         <f>$D$184+(20*C193*fuel_flow!$C$2)</f>
-        <v>373.69000000000005</v>
+        <v>372.1</v>
       </c>
       <c r="G193" s="45">
         <v>7</v>
@@ -8706,7 +8746,7 @@
       </c>
       <c r="J193" s="47">
         <f>$D$184+(20*I193*fuel_flow!$C$2)</f>
-        <v>384.29</v>
+        <v>382.7</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -8721,7 +8761,7 @@
       </c>
       <c r="D194" s="47">
         <f>$D$184+(20*C194*fuel_flow!$C$2)</f>
-        <v>384.29</v>
+        <v>382.7</v>
       </c>
       <c r="G194" s="45">
         <v>7</v>
@@ -8734,7 +8774,7 @@
       </c>
       <c r="J194" s="47">
         <f>$D$184+(20*I194*fuel_flow!$C$2)</f>
-        <v>394.89000000000004</v>
+        <v>393.3</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -8749,7 +8789,7 @@
       </c>
       <c r="D195" s="47">
         <f>$D$184+(20*C195*fuel_flow!$C$2)</f>
-        <v>394.89000000000004</v>
+        <v>393.3</v>
       </c>
       <c r="G195" s="45">
         <v>7</v>
@@ -8762,7 +8802,7 @@
       </c>
       <c r="J195" s="47">
         <f>$D$184+(20*I195*fuel_flow!$C$2)</f>
-        <v>405.49</v>
+        <v>403.9</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -8777,7 +8817,7 @@
       </c>
       <c r="D196" s="47">
         <f>$D$184+(20*C196*fuel_flow!$C$2)</f>
-        <v>405.49</v>
+        <v>403.9</v>
       </c>
       <c r="G196" s="45">
         <v>7</v>
@@ -8790,7 +8830,7 @@
       </c>
       <c r="J196" s="47">
         <f>$D$184+(20*I196*fuel_flow!$C$2)</f>
-        <v>416.09000000000003</v>
+        <v>414.5</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8805,7 +8845,7 @@
       </c>
       <c r="D197" s="48">
         <f>$D$184+(20*C197*fuel_flow!$C$2)</f>
-        <v>416.09000000000003</v>
+        <v>414.5</v>
       </c>
       <c r="G197" s="34">
         <v>7</v>
@@ -8817,7 +8857,8 @@
         <v>14</v>
       </c>
       <c r="J197" s="36">
-        <v>278.29000000000002</v>
+        <f>D184</f>
+        <v>276.7</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -8832,7 +8873,7 @@
       </c>
       <c r="D198" s="47">
         <f>(t_to_RWY!B4*fuel_flow!C2)+(t_to_taxi!B4*fuel_flow!C3)</f>
-        <v>355.08000000000004</v>
+        <v>357.20000000000005</v>
       </c>
       <c r="G198" s="45">
         <v>8</v>
@@ -8845,7 +8886,7 @@
       </c>
       <c r="J198" s="47">
         <f>$D$198+(20*I198*fuel_flow!$C$2)</f>
-        <v>365.68000000000006</v>
+        <v>367.80000000000007</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -8860,7 +8901,7 @@
       </c>
       <c r="D199" s="47">
         <f>$D$198+(20*C199*fuel_flow!$C$2)</f>
-        <v>365.68000000000006</v>
+        <v>367.80000000000007</v>
       </c>
       <c r="G199" s="45">
         <v>8</v>
@@ -8873,7 +8914,7 @@
       </c>
       <c r="J199" s="47">
         <f>$D$198+(20*I199*fuel_flow!$C$2)</f>
-        <v>376.28000000000003</v>
+        <v>378.40000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -8888,7 +8929,7 @@
       </c>
       <c r="D200" s="47">
         <f>$D$198+(20*C200*fuel_flow!$C$2)</f>
-        <v>376.28000000000003</v>
+        <v>378.40000000000003</v>
       </c>
       <c r="G200" s="45">
         <v>8</v>
@@ -8901,7 +8942,7 @@
       </c>
       <c r="J200" s="47">
         <f>$D$198+(20*I200*fuel_flow!$C$2)</f>
-        <v>386.88000000000005</v>
+        <v>389.00000000000006</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -8916,7 +8957,7 @@
       </c>
       <c r="D201" s="47">
         <f>$D$198+(20*C201*fuel_flow!$C$2)</f>
-        <v>386.88000000000005</v>
+        <v>389.00000000000006</v>
       </c>
       <c r="G201" s="45">
         <v>8</v>
@@ -8929,7 +8970,7 @@
       </c>
       <c r="J201" s="47">
         <f>$D$198+(20*I201*fuel_flow!$C$2)</f>
-        <v>397.48</v>
+        <v>399.6</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -8944,7 +8985,7 @@
       </c>
       <c r="D202" s="47">
         <f>$D$198+(20*C202*fuel_flow!$C$2)</f>
-        <v>397.48</v>
+        <v>399.6</v>
       </c>
       <c r="G202" s="45">
         <v>8</v>
@@ -8957,7 +8998,7 @@
       </c>
       <c r="J202" s="47">
         <f>$D$198+(20*I202*fuel_flow!$C$2)</f>
-        <v>408.08000000000004</v>
+        <v>410.20000000000005</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -8972,7 +9013,7 @@
       </c>
       <c r="D203" s="47">
         <f>$D$198+(20*C203*fuel_flow!$C$2)</f>
-        <v>408.08000000000004</v>
+        <v>410.20000000000005</v>
       </c>
       <c r="G203" s="45">
         <v>8</v>
@@ -8985,7 +9026,7 @@
       </c>
       <c r="J203" s="47">
         <f>$D$198+(20*I203*fuel_flow!$C$2)</f>
-        <v>418.68000000000006</v>
+        <v>420.80000000000007</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9000,7 +9041,7 @@
       </c>
       <c r="D204" s="47">
         <f>$D$198+(20*C204*fuel_flow!$C$2)</f>
-        <v>418.68000000000006</v>
+        <v>420.80000000000007</v>
       </c>
       <c r="G204" s="45">
         <v>8</v>
@@ -9013,7 +9054,7 @@
       </c>
       <c r="J204" s="47">
         <f>$D$198+(20*I204*fuel_flow!$C$2)</f>
-        <v>429.28000000000003</v>
+        <v>431.40000000000003</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9028,7 +9069,7 @@
       </c>
       <c r="D205" s="47">
         <f>$D$198+(20*C205*fuel_flow!$C$2)</f>
-        <v>429.28000000000003</v>
+        <v>431.40000000000003</v>
       </c>
       <c r="G205" s="45">
         <v>8</v>
@@ -9041,7 +9082,7 @@
       </c>
       <c r="J205" s="47">
         <f>$D$198+(20*I205*fuel_flow!$C$2)</f>
-        <v>439.88000000000005</v>
+        <v>442.00000000000006</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9056,7 +9097,7 @@
       </c>
       <c r="D206" s="47">
         <f>$D$198+(20*C206*fuel_flow!$C$2)</f>
-        <v>439.88000000000005</v>
+        <v>442.00000000000006</v>
       </c>
       <c r="G206" s="45">
         <v>8</v>
@@ -9069,7 +9110,7 @@
       </c>
       <c r="J206" s="47">
         <f>$D$198+(20*I206*fuel_flow!$C$2)</f>
-        <v>450.48</v>
+        <v>452.6</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9084,7 +9125,7 @@
       </c>
       <c r="D207" s="47">
         <f>$D$198+(20*C207*fuel_flow!$C$2)</f>
-        <v>450.48</v>
+        <v>452.6</v>
       </c>
       <c r="G207" s="45">
         <v>8</v>
@@ -9097,7 +9138,7 @@
       </c>
       <c r="J207" s="47">
         <f>$D$198+(20*I207*fuel_flow!$C$2)</f>
-        <v>461.08000000000004</v>
+        <v>463.20000000000005</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9112,7 +9153,7 @@
       </c>
       <c r="D208" s="47">
         <f>$D$198+(20*C208*fuel_flow!$C$2)</f>
-        <v>461.08000000000004</v>
+        <v>463.20000000000005</v>
       </c>
       <c r="G208" s="45">
         <v>8</v>
@@ -9125,7 +9166,7 @@
       </c>
       <c r="J208" s="47">
         <f>$D$198+(20*I208*fuel_flow!$C$2)</f>
-        <v>471.68000000000006</v>
+        <v>473.80000000000007</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9140,7 +9181,7 @@
       </c>
       <c r="D209" s="47">
         <f>$D$198+(20*C209*fuel_flow!$C$2)</f>
-        <v>471.68000000000006</v>
+        <v>473.80000000000007</v>
       </c>
       <c r="G209" s="45">
         <v>8</v>
@@ -9153,7 +9194,7 @@
       </c>
       <c r="J209" s="47">
         <f>$D$198+(20*I209*fuel_flow!$C$2)</f>
-        <v>482.28000000000003</v>
+        <v>484.40000000000003</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9168,7 +9209,7 @@
       </c>
       <c r="D210" s="47">
         <f>$D$198+(20*C210*fuel_flow!$C$2)</f>
-        <v>482.28000000000003</v>
+        <v>484.40000000000003</v>
       </c>
       <c r="G210" s="45">
         <v>8</v>
@@ -9181,7 +9222,7 @@
       </c>
       <c r="J210" s="47">
         <f>$D$198+(20*I210*fuel_flow!$C$2)</f>
-        <v>492.88000000000005</v>
+        <v>495.00000000000006</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -9196,7 +9237,7 @@
       </c>
       <c r="D211" s="47">
         <f>$D$198+(20*C211*fuel_flow!$C$2)</f>
-        <v>492.88000000000005</v>
+        <v>495.00000000000006</v>
       </c>
       <c r="G211" s="43">
         <v>8</v>
@@ -9208,7 +9249,8 @@
         <v>14</v>
       </c>
       <c r="J211" s="48">
-        <v>355.08000000000004</v>
+        <f>D198</f>
+        <v>357.20000000000005</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -9223,7 +9265,7 @@
       </c>
       <c r="D212" s="33">
         <f>(t_to_RWY!C4*fuel_flow!C2)+(t_to_taxi!C4*fuel_flow!C3)</f>
-        <v>635.5100000000001</v>
+        <v>637.1</v>
       </c>
       <c r="G212" s="45">
         <v>8</v>
@@ -9236,7 +9278,7 @@
       </c>
       <c r="J212" s="33">
         <f>$D$212+(20*I212*fuel_flow!$C$2)</f>
-        <v>646.11000000000013</v>
+        <v>647.70000000000005</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -9251,7 +9293,7 @@
       </c>
       <c r="D213" s="33">
         <f>$D$212+(20*C213*fuel_flow!$C$2)</f>
-        <v>646.11000000000013</v>
+        <v>647.70000000000005</v>
       </c>
       <c r="G213" s="45">
         <v>8</v>
@@ -9264,7 +9306,7 @@
       </c>
       <c r="J213" s="33">
         <f>$D$212+(20*I213*fuel_flow!$C$2)</f>
-        <v>656.71000000000015</v>
+        <v>658.30000000000007</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -9279,7 +9321,7 @@
       </c>
       <c r="D214" s="33">
         <f>$D$212+(20*C214*fuel_flow!$C$2)</f>
-        <v>656.71000000000015</v>
+        <v>658.30000000000007</v>
       </c>
       <c r="G214" s="45">
         <v>8</v>
@@ -9292,7 +9334,7 @@
       </c>
       <c r="J214" s="33">
         <f>$D$212+(20*I214*fuel_flow!$C$2)</f>
-        <v>667.31000000000006</v>
+        <v>668.9</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -9307,7 +9349,7 @@
       </c>
       <c r="D215" s="33">
         <f>$D$212+(20*C215*fuel_flow!$C$2)</f>
-        <v>667.31000000000006</v>
+        <v>668.9</v>
       </c>
       <c r="G215" s="45">
         <v>8</v>
@@ -9320,7 +9362,7 @@
       </c>
       <c r="J215" s="33">
         <f>$D$212+(20*I215*fuel_flow!$C$2)</f>
-        <v>677.91000000000008</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -9335,7 +9377,7 @@
       </c>
       <c r="D216" s="33">
         <f>$D$212+(20*C216*fuel_flow!$C$2)</f>
-        <v>677.91000000000008</v>
+        <v>679.5</v>
       </c>
       <c r="G216" s="45">
         <v>8</v>
@@ -9348,7 +9390,7 @@
       </c>
       <c r="J216" s="33">
         <f>$D$212+(20*I216*fuel_flow!$C$2)</f>
-        <v>688.5100000000001</v>
+        <v>690.1</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -9363,7 +9405,7 @@
       </c>
       <c r="D217" s="33">
         <f>$D$212+(20*C217*fuel_flow!$C$2)</f>
-        <v>688.5100000000001</v>
+        <v>690.1</v>
       </c>
       <c r="G217" s="45">
         <v>8</v>
@@ -9376,7 +9418,7 @@
       </c>
       <c r="J217" s="33">
         <f>$D$212+(20*I217*fuel_flow!$C$2)</f>
-        <v>699.11000000000013</v>
+        <v>700.7</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -9391,7 +9433,7 @@
       </c>
       <c r="D218" s="33">
         <f>$D$212+(20*C218*fuel_flow!$C$2)</f>
-        <v>699.11000000000013</v>
+        <v>700.7</v>
       </c>
       <c r="G218" s="45">
         <v>8</v>
@@ -9404,7 +9446,7 @@
       </c>
       <c r="J218" s="33">
         <f>$D$212+(20*I218*fuel_flow!$C$2)</f>
-        <v>709.71000000000015</v>
+        <v>711.30000000000007</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -9419,7 +9461,7 @@
       </c>
       <c r="D219" s="33">
         <f>$D$212+(20*C219*fuel_flow!$C$2)</f>
-        <v>709.71000000000015</v>
+        <v>711.30000000000007</v>
       </c>
       <c r="G219" s="45">
         <v>8</v>
@@ -9432,7 +9474,7 @@
       </c>
       <c r="J219" s="33">
         <f>$D$212+(20*I219*fuel_flow!$C$2)</f>
-        <v>720.31000000000017</v>
+        <v>721.90000000000009</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9447,7 +9489,7 @@
       </c>
       <c r="D220" s="33">
         <f>$D$212+(20*C220*fuel_flow!$C$2)</f>
-        <v>720.31000000000017</v>
+        <v>721.90000000000009</v>
       </c>
       <c r="G220" s="45">
         <v>8</v>
@@ -9460,7 +9502,7 @@
       </c>
       <c r="J220" s="33">
         <f>$D$212+(20*I220*fuel_flow!$C$2)</f>
-        <v>730.91000000000008</v>
+        <v>732.5</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -9475,7 +9517,7 @@
       </c>
       <c r="D221" s="33">
         <f>$D$212+(20*C221*fuel_flow!$C$2)</f>
-        <v>730.91000000000008</v>
+        <v>732.5</v>
       </c>
       <c r="G221" s="45">
         <v>8</v>
@@ -9488,7 +9530,7 @@
       </c>
       <c r="J221" s="33">
         <f>$D$212+(20*I221*fuel_flow!$C$2)</f>
-        <v>741.5100000000001</v>
+        <v>743.1</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9503,7 +9545,7 @@
       </c>
       <c r="D222" s="33">
         <f>$D$212+(20*C222*fuel_flow!$C$2)</f>
-        <v>741.5100000000001</v>
+        <v>743.1</v>
       </c>
       <c r="G222" s="45">
         <v>8</v>
@@ -9516,7 +9558,7 @@
       </c>
       <c r="J222" s="33">
         <f>$D$212+(20*I222*fuel_flow!$C$2)</f>
-        <v>752.11000000000013</v>
+        <v>753.7</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -9531,7 +9573,7 @@
       </c>
       <c r="D223" s="33">
         <f>$D$212+(20*C223*fuel_flow!$C$2)</f>
-        <v>752.11000000000013</v>
+        <v>753.7</v>
       </c>
       <c r="G223" s="45">
         <v>8</v>
@@ -9544,7 +9586,7 @@
       </c>
       <c r="J223" s="33">
         <f>$D$212+(20*I223*fuel_flow!$C$2)</f>
-        <v>762.71000000000015</v>
+        <v>764.30000000000007</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -9559,7 +9601,7 @@
       </c>
       <c r="D224" s="33">
         <f>$D$212+(20*C224*fuel_flow!$C$2)</f>
-        <v>762.71000000000015</v>
+        <v>764.30000000000007</v>
       </c>
       <c r="G224" s="45">
         <v>8</v>
@@ -9572,7 +9614,7 @@
       </c>
       <c r="J224" s="33">
         <f>$D$212+(20*I224*fuel_flow!$C$2)</f>
-        <v>773.31000000000017</v>
+        <v>774.90000000000009</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9587,7 +9629,7 @@
       </c>
       <c r="D225" s="44">
         <f>$D$212+(20*C225*fuel_flow!$C$2)</f>
-        <v>773.31000000000017</v>
+        <v>774.90000000000009</v>
       </c>
       <c r="G225" s="34">
         <v>8</v>
@@ -9599,7 +9641,8 @@
         <v>14</v>
       </c>
       <c r="J225" s="36">
-        <v>635.5100000000001</v>
+        <f>D212</f>
+        <v>637.1</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9614,7 +9657,7 @@
       </c>
       <c r="D226" s="33">
         <f>(t_to_RWY!B2*fuel_flow!B2)+(t_to_taxi!B2*fuel_flow!B3)</f>
-        <v>163.17999999999998</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="G226" s="45">
         <v>9</v>
@@ -9627,7 +9670,7 @@
       </c>
       <c r="J226" s="33">
         <f>$D$226+(20*I226*fuel_flow!$B$2)</f>
-        <v>167.57999999999998</v>
+        <v>165.6</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9642,7 +9685,7 @@
       </c>
       <c r="D227" s="33">
         <f>$D$226+(20*C227*fuel_flow!$B$2)</f>
-        <v>167.57999999999998</v>
+        <v>165.6</v>
       </c>
       <c r="G227" s="45">
         <v>9</v>
@@ -9655,7 +9698,7 @@
       </c>
       <c r="J227" s="33">
         <f>$D$226+(20*I227*fuel_flow!$B$2)</f>
-        <v>171.98</v>
+        <v>170</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9670,7 +9713,7 @@
       </c>
       <c r="D228" s="33">
         <f>$D$226+(20*C228*fuel_flow!$B$2)</f>
-        <v>171.98</v>
+        <v>170</v>
       </c>
       <c r="G228" s="45">
         <v>9</v>
@@ -9683,7 +9726,7 @@
       </c>
       <c r="J228" s="33">
         <f>$D$226+(20*I228*fuel_flow!$B$2)</f>
-        <v>176.37999999999997</v>
+        <v>174.39999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9698,7 +9741,7 @@
       </c>
       <c r="D229" s="33">
         <f>$D$226+(20*C229*fuel_flow!$B$2)</f>
-        <v>176.37999999999997</v>
+        <v>174.39999999999998</v>
       </c>
       <c r="G229" s="45">
         <v>9</v>
@@ -9711,7 +9754,7 @@
       </c>
       <c r="J229" s="33">
         <f>$D$226+(20*I229*fuel_flow!$B$2)</f>
-        <v>180.77999999999997</v>
+        <v>178.79999999999998</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9726,7 +9769,7 @@
       </c>
       <c r="D230" s="33">
         <f>$D$226+(20*C230*fuel_flow!$B$2)</f>
-        <v>180.77999999999997</v>
+        <v>178.79999999999998</v>
       </c>
       <c r="G230" s="45">
         <v>9</v>
@@ -9739,7 +9782,7 @@
       </c>
       <c r="J230" s="33">
         <f>$D$226+(20*I230*fuel_flow!$B$2)</f>
-        <v>185.17999999999998</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9754,7 +9797,7 @@
       </c>
       <c r="D231" s="33">
         <f>$D$226+(20*C231*fuel_flow!$B$2)</f>
-        <v>185.17999999999998</v>
+        <v>183.2</v>
       </c>
       <c r="G231" s="45">
         <v>9</v>
@@ -9767,7 +9810,7 @@
       </c>
       <c r="J231" s="33">
         <f>$D$226+(20*I231*fuel_flow!$B$2)</f>
-        <v>189.57999999999998</v>
+        <v>187.6</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9782,7 +9825,7 @@
       </c>
       <c r="D232" s="33">
         <f>$D$226+(20*C232*fuel_flow!$B$2)</f>
-        <v>189.57999999999998</v>
+        <v>187.6</v>
       </c>
       <c r="G232" s="45">
         <v>9</v>
@@ -9795,7 +9838,7 @@
       </c>
       <c r="J232" s="33">
         <f>$D$226+(20*I232*fuel_flow!$B$2)</f>
-        <v>193.98</v>
+        <v>192</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9810,7 +9853,7 @@
       </c>
       <c r="D233" s="33">
         <f>$D$226+(20*C233*fuel_flow!$B$2)</f>
-        <v>193.98</v>
+        <v>192</v>
       </c>
       <c r="G233" s="45">
         <v>9</v>
@@ -9823,7 +9866,7 @@
       </c>
       <c r="J233" s="33">
         <f>$D$226+(20*I233*fuel_flow!$B$2)</f>
-        <v>198.38</v>
+        <v>196.39999999999998</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9838,7 +9881,7 @@
       </c>
       <c r="D234" s="33">
         <f>$D$226+(20*C234*fuel_flow!$B$2)</f>
-        <v>198.38</v>
+        <v>196.39999999999998</v>
       </c>
       <c r="G234" s="45">
         <v>9</v>
@@ -9851,7 +9894,7 @@
       </c>
       <c r="J234" s="33">
         <f>$D$226+(20*I234*fuel_flow!$B$2)</f>
-        <v>202.77999999999997</v>
+        <v>200.79999999999998</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9866,7 +9909,7 @@
       </c>
       <c r="D235" s="33">
         <f>$D$226+(20*C235*fuel_flow!$B$2)</f>
-        <v>202.77999999999997</v>
+        <v>200.79999999999998</v>
       </c>
       <c r="G235" s="45">
         <v>9</v>
@@ -9879,7 +9922,7 @@
       </c>
       <c r="J235" s="33">
         <f>$D$226+(20*I235*fuel_flow!$B$2)</f>
-        <v>207.17999999999998</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9894,7 +9937,7 @@
       </c>
       <c r="D236" s="33">
         <f>$D$226+(20*C236*fuel_flow!$B$2)</f>
-        <v>207.17999999999998</v>
+        <v>205.2</v>
       </c>
       <c r="G236" s="45">
         <v>9</v>
@@ -9907,7 +9950,7 @@
       </c>
       <c r="J236" s="33">
         <f>$D$226+(20*I236*fuel_flow!$B$2)</f>
-        <v>211.57999999999998</v>
+        <v>209.6</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -9922,7 +9965,7 @@
       </c>
       <c r="D237" s="33">
         <f>$D$226+(20*C237*fuel_flow!$B$2)</f>
-        <v>211.57999999999998</v>
+        <v>209.6</v>
       </c>
       <c r="G237" s="45">
         <v>9</v>
@@ -9935,7 +9978,7 @@
       </c>
       <c r="J237" s="33">
         <f>$D$226+(20*I237*fuel_flow!$B$2)</f>
-        <v>215.97999999999996</v>
+        <v>214</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -9950,7 +9993,7 @@
       </c>
       <c r="D238" s="33">
         <f>$D$226+(20*C238*fuel_flow!$B$2)</f>
-        <v>215.97999999999996</v>
+        <v>214</v>
       </c>
       <c r="G238" s="45">
         <v>9</v>
@@ -9963,7 +10006,7 @@
       </c>
       <c r="J238" s="33">
         <f>$D$226+(20*I238*fuel_flow!$B$2)</f>
-        <v>220.38</v>
+        <v>218.39999999999998</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -9978,7 +10021,7 @@
       </c>
       <c r="D239" s="33">
         <f>$D$226+(20*C239*fuel_flow!$B$2)</f>
-        <v>220.38</v>
+        <v>218.39999999999998</v>
       </c>
       <c r="G239" s="43">
         <v>9</v>
@@ -9990,7 +10033,8 @@
         <v>14</v>
       </c>
       <c r="J239" s="44">
-        <v>163.17999999999998</v>
+        <f>D226</f>
+        <v>161.19999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10381,6 +10425,7 @@
         <v>14</v>
       </c>
       <c r="J253" s="36">
+        <f>D240</f>
         <v>233.48000000000002</v>
       </c>
     </row>
@@ -10395,8 +10440,8 @@
         <v>0</v>
       </c>
       <c r="D254" s="33">
-        <f>D86</f>
-        <v>266.14</v>
+        <f>D30</f>
+        <v>266.8</v>
       </c>
       <c r="G254" s="45">
         <v>10</v>
@@ -10408,8 +10453,8 @@
         <v>1</v>
       </c>
       <c r="J254" s="33">
-        <f t="shared" ref="J254:J280" si="13">J86</f>
-        <v>270.53999999999996</v>
+        <f t="shared" ref="J254:J280" si="30">J86</f>
+        <v>271.2</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10423,8 +10468,8 @@
         <v>1</v>
       </c>
       <c r="D255" s="33">
-        <f t="shared" ref="D255:D281" si="14">D87</f>
-        <v>270.53999999999996</v>
+        <f t="shared" ref="D255:D281" si="31">D31</f>
+        <v>271.2</v>
       </c>
       <c r="G255" s="45">
         <v>10</v>
@@ -10436,8 +10481,8 @@
         <v>2</v>
       </c>
       <c r="J255" s="33">
-        <f t="shared" si="13"/>
-        <v>274.94</v>
+        <f t="shared" si="30"/>
+        <v>275.60000000000002</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10451,8 +10496,8 @@
         <v>2</v>
       </c>
       <c r="D256" s="33">
-        <f t="shared" si="14"/>
-        <v>274.94</v>
+        <f t="shared" si="31"/>
+        <v>275.60000000000002</v>
       </c>
       <c r="G256" s="45">
         <v>10</v>
@@ -10464,8 +10509,8 @@
         <v>3</v>
       </c>
       <c r="J256" s="33">
-        <f t="shared" si="13"/>
-        <v>279.33999999999997</v>
+        <f t="shared" si="30"/>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -10479,8 +10524,8 @@
         <v>3</v>
       </c>
       <c r="D257" s="33">
-        <f t="shared" si="14"/>
-        <v>279.33999999999997</v>
+        <f t="shared" si="31"/>
+        <v>280</v>
       </c>
       <c r="G257" s="45">
         <v>10</v>
@@ -10492,8 +10537,8 @@
         <v>4</v>
       </c>
       <c r="J257" s="33">
-        <f t="shared" si="13"/>
-        <v>283.74</v>
+        <f t="shared" si="30"/>
+        <v>284.40000000000003</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -10507,8 +10552,8 @@
         <v>4</v>
       </c>
       <c r="D258" s="33">
-        <f t="shared" si="14"/>
-        <v>283.74</v>
+        <f t="shared" si="31"/>
+        <v>284.40000000000003</v>
       </c>
       <c r="G258" s="45">
         <v>10</v>
@@ -10520,8 +10565,8 @@
         <v>5</v>
       </c>
       <c r="J258" s="33">
-        <f t="shared" si="13"/>
-        <v>288.14</v>
+        <f t="shared" si="30"/>
+        <v>288.8</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -10535,8 +10580,8 @@
         <v>5</v>
       </c>
       <c r="D259" s="33">
-        <f t="shared" si="14"/>
-        <v>288.14</v>
+        <f t="shared" si="31"/>
+        <v>288.8</v>
       </c>
       <c r="G259" s="45">
         <v>10</v>
@@ -10548,8 +10593,8 @@
         <v>6</v>
       </c>
       <c r="J259" s="33">
-        <f t="shared" si="13"/>
-        <v>292.53999999999996</v>
+        <f t="shared" si="30"/>
+        <v>293.2</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -10563,8 +10608,8 @@
         <v>6</v>
       </c>
       <c r="D260" s="33">
-        <f t="shared" si="14"/>
-        <v>292.53999999999996</v>
+        <f t="shared" si="31"/>
+        <v>293.2</v>
       </c>
       <c r="G260" s="45">
         <v>10</v>
@@ -10576,8 +10621,8 @@
         <v>7</v>
       </c>
       <c r="J260" s="33">
-        <f t="shared" si="13"/>
-        <v>296.94</v>
+        <f t="shared" si="30"/>
+        <v>297.60000000000002</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -10591,8 +10636,8 @@
         <v>7</v>
       </c>
       <c r="D261" s="33">
-        <f t="shared" si="14"/>
-        <v>296.94</v>
+        <f t="shared" si="31"/>
+        <v>297.60000000000002</v>
       </c>
       <c r="G261" s="45">
         <v>10</v>
@@ -10604,8 +10649,8 @@
         <v>8</v>
       </c>
       <c r="J261" s="33">
-        <f t="shared" si="13"/>
-        <v>301.33999999999997</v>
+        <f t="shared" si="30"/>
+        <v>302</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -10619,8 +10664,8 @@
         <v>8</v>
       </c>
       <c r="D262" s="33">
-        <f t="shared" si="14"/>
-        <v>301.33999999999997</v>
+        <f t="shared" si="31"/>
+        <v>302</v>
       </c>
       <c r="G262" s="45">
         <v>10</v>
@@ -10632,8 +10677,8 @@
         <v>9</v>
       </c>
       <c r="J262" s="33">
-        <f t="shared" si="13"/>
-        <v>305.74</v>
+        <f t="shared" si="30"/>
+        <v>306.40000000000003</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -10647,8 +10692,8 @@
         <v>9</v>
       </c>
       <c r="D263" s="33">
-        <f t="shared" si="14"/>
-        <v>305.74</v>
+        <f t="shared" si="31"/>
+        <v>306.40000000000003</v>
       </c>
       <c r="G263" s="45">
         <v>10</v>
@@ -10660,8 +10705,8 @@
         <v>10</v>
       </c>
       <c r="J263" s="33">
-        <f t="shared" si="13"/>
-        <v>310.14</v>
+        <f t="shared" si="30"/>
+        <v>310.8</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -10675,8 +10720,8 @@
         <v>10</v>
       </c>
       <c r="D264" s="33">
-        <f t="shared" si="14"/>
-        <v>310.14</v>
+        <f t="shared" si="31"/>
+        <v>310.8</v>
       </c>
       <c r="G264" s="45">
         <v>10</v>
@@ -10688,8 +10733,8 @@
         <v>11</v>
       </c>
       <c r="J264" s="33">
-        <f t="shared" si="13"/>
-        <v>314.53999999999996</v>
+        <f t="shared" si="30"/>
+        <v>315.2</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -10703,8 +10748,8 @@
         <v>11</v>
       </c>
       <c r="D265" s="33">
-        <f t="shared" si="14"/>
-        <v>314.53999999999996</v>
+        <f t="shared" si="31"/>
+        <v>315.2</v>
       </c>
       <c r="G265" s="45">
         <v>10</v>
@@ -10716,8 +10761,8 @@
         <v>12</v>
       </c>
       <c r="J265" s="33">
-        <f t="shared" si="13"/>
-        <v>318.94</v>
+        <f t="shared" si="30"/>
+        <v>319.60000000000002</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -10731,8 +10776,8 @@
         <v>12</v>
       </c>
       <c r="D266" s="33">
-        <f t="shared" si="14"/>
-        <v>318.94</v>
+        <f t="shared" si="31"/>
+        <v>319.60000000000002</v>
       </c>
       <c r="G266" s="45">
         <v>10</v>
@@ -10744,8 +10789,8 @@
         <v>13</v>
       </c>
       <c r="J266" s="33">
-        <f t="shared" si="13"/>
-        <v>323.33999999999997</v>
+        <f t="shared" si="30"/>
+        <v>324</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -10759,8 +10804,8 @@
         <v>13</v>
       </c>
       <c r="D267" s="33">
-        <f t="shared" si="14"/>
-        <v>323.33999999999997</v>
+        <f t="shared" si="31"/>
+        <v>324</v>
       </c>
       <c r="G267" s="43">
         <v>10</v>
@@ -10772,8 +10817,8 @@
         <v>14</v>
       </c>
       <c r="J267" s="44">
-        <f t="shared" si="13"/>
-        <v>266.14</v>
+        <f t="shared" si="30"/>
+        <v>266.8</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -10787,8 +10832,8 @@
         <v>0</v>
       </c>
       <c r="D268" s="33">
-        <f t="shared" si="14"/>
-        <v>115.34</v>
+        <f t="shared" si="31"/>
+        <v>114.68</v>
       </c>
       <c r="G268" s="45">
         <v>10</v>
@@ -10800,8 +10845,8 @@
         <v>1</v>
       </c>
       <c r="J268" s="33">
-        <f t="shared" si="13"/>
-        <v>119.74000000000001</v>
+        <f t="shared" si="30"/>
+        <v>119.08000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -10815,8 +10860,8 @@
         <v>1</v>
       </c>
       <c r="D269" s="33">
-        <f t="shared" si="14"/>
-        <v>119.74000000000001</v>
+        <f t="shared" si="31"/>
+        <v>119.08000000000001</v>
       </c>
       <c r="G269" s="45">
         <v>10</v>
@@ -10828,8 +10873,8 @@
         <v>2</v>
       </c>
       <c r="J269" s="33">
-        <f t="shared" si="13"/>
-        <v>124.14</v>
+        <f t="shared" si="30"/>
+        <v>123.48</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -10843,8 +10888,8 @@
         <v>2</v>
       </c>
       <c r="D270" s="33">
-        <f t="shared" si="14"/>
-        <v>124.14</v>
+        <f t="shared" si="31"/>
+        <v>123.48</v>
       </c>
       <c r="G270" s="45">
         <v>10</v>
@@ -10856,8 +10901,8 @@
         <v>3</v>
       </c>
       <c r="J270" s="33">
-        <f t="shared" si="13"/>
-        <v>128.54</v>
+        <f t="shared" si="30"/>
+        <v>127.88000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -10871,8 +10916,8 @@
         <v>3</v>
       </c>
       <c r="D271" s="33">
-        <f t="shared" si="14"/>
-        <v>128.54</v>
+        <f t="shared" si="31"/>
+        <v>127.88000000000001</v>
       </c>
       <c r="G271" s="45">
         <v>10</v>
@@ -10884,8 +10929,8 @@
         <v>4</v>
       </c>
       <c r="J271" s="33">
-        <f t="shared" si="13"/>
-        <v>132.94</v>
+        <f t="shared" si="30"/>
+        <v>132.28</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -10899,8 +10944,8 @@
         <v>4</v>
       </c>
       <c r="D272" s="33">
-        <f t="shared" si="14"/>
-        <v>132.94</v>
+        <f t="shared" si="31"/>
+        <v>132.28</v>
       </c>
       <c r="G272" s="45">
         <v>10</v>
@@ -10912,8 +10957,8 @@
         <v>5</v>
       </c>
       <c r="J272" s="33">
-        <f t="shared" si="13"/>
-        <v>137.34</v>
+        <f t="shared" si="30"/>
+        <v>136.68</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -10927,8 +10972,8 @@
         <v>5</v>
       </c>
       <c r="D273" s="33">
-        <f t="shared" si="14"/>
-        <v>137.34</v>
+        <f t="shared" si="31"/>
+        <v>136.68</v>
       </c>
       <c r="G273" s="45">
         <v>10</v>
@@ -10940,8 +10985,8 @@
         <v>6</v>
       </c>
       <c r="J273" s="33">
-        <f t="shared" si="13"/>
-        <v>141.74</v>
+        <f t="shared" si="30"/>
+        <v>141.08000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -10955,8 +11000,8 @@
         <v>6</v>
       </c>
       <c r="D274" s="33">
-        <f t="shared" si="14"/>
-        <v>141.74</v>
+        <f t="shared" si="31"/>
+        <v>141.08000000000001</v>
       </c>
       <c r="G274" s="45">
         <v>10</v>
@@ -10968,8 +11013,8 @@
         <v>7</v>
       </c>
       <c r="J274" s="33">
-        <f t="shared" si="13"/>
-        <v>146.14000000000001</v>
+        <f t="shared" si="30"/>
+        <v>145.48000000000002</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -10983,8 +11028,8 @@
         <v>7</v>
       </c>
       <c r="D275" s="33">
-        <f t="shared" si="14"/>
-        <v>146.14000000000001</v>
+        <f t="shared" si="31"/>
+        <v>145.48000000000002</v>
       </c>
       <c r="G275" s="45">
         <v>10</v>
@@ -10996,8 +11041,8 @@
         <v>8</v>
       </c>
       <c r="J275" s="33">
-        <f t="shared" si="13"/>
-        <v>150.54000000000002</v>
+        <f t="shared" si="30"/>
+        <v>149.88</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11011,8 +11056,8 @@
         <v>8</v>
       </c>
       <c r="D276" s="33">
-        <f t="shared" si="14"/>
-        <v>150.54000000000002</v>
+        <f t="shared" si="31"/>
+        <v>149.88</v>
       </c>
       <c r="G276" s="45">
         <v>10</v>
@@ -11024,8 +11069,8 @@
         <v>9</v>
       </c>
       <c r="J276" s="33">
-        <f t="shared" si="13"/>
-        <v>154.94</v>
+        <f t="shared" si="30"/>
+        <v>154.28</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11039,8 +11084,8 @@
         <v>9</v>
       </c>
       <c r="D277" s="33">
-        <f t="shared" si="14"/>
-        <v>154.94</v>
+        <f t="shared" si="31"/>
+        <v>154.28</v>
       </c>
       <c r="G277" s="45">
         <v>10</v>
@@ -11052,8 +11097,8 @@
         <v>10</v>
       </c>
       <c r="J277" s="33">
-        <f t="shared" si="13"/>
-        <v>159.34</v>
+        <f t="shared" si="30"/>
+        <v>158.68</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11067,8 +11112,8 @@
         <v>10</v>
       </c>
       <c r="D278" s="33">
-        <f t="shared" si="14"/>
-        <v>159.34</v>
+        <f t="shared" si="31"/>
+        <v>158.68</v>
       </c>
       <c r="G278" s="45">
         <v>10</v>
@@ -11080,8 +11125,8 @@
         <v>11</v>
       </c>
       <c r="J278" s="33">
-        <f t="shared" si="13"/>
-        <v>163.74</v>
+        <f t="shared" si="30"/>
+        <v>163.08000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11095,8 +11140,8 @@
         <v>11</v>
       </c>
       <c r="D279" s="33">
-        <f t="shared" si="14"/>
-        <v>163.74</v>
+        <f t="shared" si="31"/>
+        <v>163.08000000000001</v>
       </c>
       <c r="G279" s="45">
         <v>10</v>
@@ -11108,8 +11153,8 @@
         <v>12</v>
       </c>
       <c r="J279" s="33">
-        <f t="shared" si="13"/>
-        <v>168.14</v>
+        <f t="shared" si="30"/>
+        <v>167.48000000000002</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11123,8 +11168,8 @@
         <v>12</v>
       </c>
       <c r="D280" s="33">
-        <f t="shared" si="14"/>
-        <v>168.14</v>
+        <f t="shared" si="31"/>
+        <v>167.48000000000002</v>
       </c>
       <c r="G280" s="45">
         <v>10</v>
@@ -11136,8 +11181,8 @@
         <v>13</v>
       </c>
       <c r="J280" s="33">
-        <f t="shared" si="13"/>
-        <v>172.54000000000002</v>
+        <f t="shared" si="30"/>
+        <v>171.88</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11151,8 +11196,8 @@
         <v>13</v>
       </c>
       <c r="D281" s="36">
-        <f t="shared" si="14"/>
-        <v>172.54000000000002</v>
+        <f t="shared" si="31"/>
+        <v>171.88</v>
       </c>
       <c r="G281" s="34">
         <v>10</v>
@@ -11164,7 +11209,8 @@
         <v>14</v>
       </c>
       <c r="J281" s="36">
-        <v>115.34</v>
+        <f>D268</f>
+        <v>114.68</v>
       </c>
     </row>
   </sheetData>
@@ -11912,7 +11958,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11933,7 +11979,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C2" s="8">
         <v>1040</v>
@@ -11944,10 +11990,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="10">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C3" s="12">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11955,10 +12001,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="14">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C4" s="16">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
@@ -12121,8 +12167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12138,10 +12184,10 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -12156,7 +12202,7 @@
       </c>
       <c r="E2">
         <f>t_to_RWY!B4</f>
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12171,7 +12217,7 @@
       </c>
       <c r="E3">
         <f>t_to_RWY!B3+A3</f>
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12186,7 +12232,7 @@
       </c>
       <c r="E4">
         <f>A3+A4+t_to_RWY!B2</f>
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -12201,7 +12247,7 @@
       </c>
       <c r="E5">
         <f>A4+A3+A5+t_to_RWY!B3</f>
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -12216,7 +12262,7 @@
       </c>
       <c r="E6">
         <f>A5+A4+A3+A6+t_to_RWY!B2</f>
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12231,7 +12277,7 @@
       </c>
       <c r="E7">
         <f>A7+A6+A5+A4+A3+t_to_RWY!B3</f>
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12239,14 +12285,14 @@
         <v>80</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E8">
         <f>A8+A7+A6+A5+A4+A3+t_to_RWY!B2</f>
-        <v>1609</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12261,7 +12307,7 @@
       </c>
       <c r="E9">
         <f>A9+A8+A7+A6+A5+A4+A3+t_to_RWY!B4</f>
-        <v>1636</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -12276,7 +12322,7 @@
       </c>
       <c r="E10">
         <f>A9+A8+A7+A10+A6+A5+A4+A3+t_to_RWY!B2</f>
-        <v>1949</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Documents\runway-allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka\Documents\runway-allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D43927-4C1C-43BD-A5B9-164D281F82EB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722123BD-44B8-42C5-8A4B-F0B2C0A64AFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R06_Arr_M" sheetId="2" r:id="rId1"/>
@@ -1596,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="33">
-        <f t="shared" ref="P3:P8" si="0">J3</f>
+        <f t="shared" ref="P3:P7" si="0">J3</f>
         <v>156.80000000000001</v>
       </c>
       <c r="Q3" s="32"/>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="33">
-        <f t="shared" ref="P10:P15" si="1">J17</f>
+        <f t="shared" ref="P10:P14" si="1">J17</f>
         <v>273.08000000000004</v>
       </c>
       <c r="Q10" s="32"/>
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="33">
-        <f t="shared" ref="P17:P22" si="2">J31</f>
+        <f t="shared" ref="P17:P21" si="2">J31</f>
         <v>275.60000000000002</v>
       </c>
       <c r="R17" s="41"/>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="33">
-        <f t="shared" ref="P24:P29" si="3">J45</f>
+        <f t="shared" ref="P24:P28" si="3">J45</f>
         <v>123.48</v>
       </c>
       <c r="R24" s="41"/>
@@ -2804,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" ref="P31:P36" si="4">J59</f>
+        <f t="shared" ref="P31:P35" si="4">J59</f>
         <v>410.2</v>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="P38" s="33">
-        <f t="shared" ref="P38:P43" si="5">J73</f>
+        <f t="shared" ref="P38:P42" si="5">J73</f>
         <v>584.10000000000014</v>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" ref="P45:P50" si="6">J87</f>
+        <f t="shared" ref="P45:P49" si="6">J87</f>
         <v>275.60000000000002</v>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="33">
-        <f t="shared" ref="P52:P57" si="7">J101</f>
+        <f t="shared" ref="P52:P56" si="7">J101</f>
         <v>123.48</v>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="P59" s="47">
-        <f t="shared" ref="P59:P64" si="8">J115</f>
+        <f t="shared" ref="P59:P63" si="8">J115</f>
         <v>410.2</v>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="47">
-        <f t="shared" ref="P66:P71" si="9">J129</f>
+        <f t="shared" ref="P66:P70" si="9">J129</f>
         <v>584.10000000000014</v>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="47">
-        <f t="shared" ref="P73:P78" si="10">J143</f>
+        <f t="shared" ref="P73:P77" si="10">J143</f>
         <v>156.80000000000001</v>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="P80" s="47">
-        <f t="shared" ref="P80:P85" si="11">J157</f>
+        <f t="shared" ref="P80:P84" si="11">J157</f>
         <v>273.08000000000004</v>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="P87" s="47">
-        <f t="shared" ref="P87:P92" si="14">J171</f>
+        <f t="shared" ref="P87:P91" si="14">J171</f>
         <v>664.6</v>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="P94" s="47">
-        <f t="shared" ref="P94:P99" si="15">J185</f>
+        <f t="shared" ref="P94:P98" si="15">J185</f>
         <v>297.89999999999998</v>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="P101" s="47">
-        <f t="shared" ref="P101:P106" si="17">J199</f>
+        <f t="shared" ref="P101:P105" si="17">J199</f>
         <v>378.40000000000003</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="P108" s="33">
-        <f t="shared" ref="P108:P113" si="18">J213</f>
+        <f t="shared" ref="P108:P112" si="18">J213</f>
         <v>658.30000000000007</v>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="P115" s="33">
-        <f t="shared" ref="P115:P120" si="22">J227</f>
+        <f t="shared" ref="P115:P119" si="22">J227</f>
         <v>170</v>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="P122" s="33">
-        <f t="shared" ref="P122:P127" si="23">J241</f>
+        <f t="shared" ref="P122:P126" si="23">J241</f>
         <v>242.28000000000003</v>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="P129" s="33">
-        <f t="shared" ref="P129:P134" si="24">J255</f>
+        <f t="shared" ref="P129:P133" si="24">J255</f>
         <v>275.60000000000002</v>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="P136" s="33">
-        <f t="shared" ref="P136:P141" si="25">J269</f>
+        <f t="shared" ref="P136:P140" si="25">J269</f>
         <v>123.48</v>
       </c>
     </row>
@@ -11247,7 +11247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F2A5A1-E880-4844-A90B-E2D712D9D7B7}">
   <dimension ref="A1:Z281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -23958,8 +23958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD6EA91-B2D9-460A-B72F-58023DD02AD7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
